--- a/harvest/tencent/新京报-阅读量数据统计.xlsx
+++ b/harvest/tencent/新京报-阅读量数据统计.xlsx
@@ -375,7 +375,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C287"/>
+  <dimension ref="A1:C561"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -393,3153 +393,6167 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>“港片御用书法家”冯兆华：香港年轻人应与内地多沟通交流</v>
+        <v>紧急呼叫丨警方回应14岁中学生校内死亡：自称行凶者被抓 系外地骗子</v>
       </c>
       <c r="B2">
-        <v>206335</v>
+        <v>702041</v>
       </c>
       <c r="C2" t="str">
-        <v>2019-09-15 21:53</v>
+        <v>2019-12-22 21:18</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>实拍：杭州东湖高架一小轿车"竖"起来了</v>
+        <v>浙江一渔船沉没7人失联 空巡飞机搜索200平方海里暂无发现</v>
       </c>
       <c r="B3">
-        <v>36230</v>
+        <v>130829</v>
       </c>
       <c r="C3" t="str">
-        <v>2019-09-15 21:06</v>
+        <v>2019-12-22 20:52</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>19岁儿子牵妈妈的手让她嫁给爱情 儿子一席话全场落泪</v>
+        <v>河北元氏男子用假章骗取一公司4500万 银保监局：成立调查组调查</v>
       </c>
       <c r="B4">
-        <v>147869</v>
+        <v>37633</v>
       </c>
       <c r="C4" t="str">
-        <v>2019-09-15 19:51</v>
+        <v>2019-12-22 19:57</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>福建一着火货车冲进消防队求助：厢顶蹿起火苗 车内载有蓄电池</v>
+        <v>台湾男子疑在香港犯抢劫案后落网 台方向港府提司法互助请求</v>
       </c>
       <c r="B5">
-        <v>25461</v>
+        <v>11760</v>
       </c>
       <c r="C5" t="str">
-        <v>2019-09-15 17:25</v>
+        <v>2019-12-22 18:23</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>紧急呼叫丨曹德旺谈赴美办厂：美国工会致效率低下 我有权反对</v>
+        <v>紧急呼叫丨虞城14岁中学生课间死亡全程监控曝光：跑步后瘫倒</v>
       </c>
       <c r="B6">
-        <v>646243</v>
+        <v>1379927</v>
       </c>
       <c r="C6" t="str">
-        <v>2019-09-15 15:41</v>
+        <v>2019-12-22 18:22</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v>紧急呼叫丨曹德旺谈《美国工厂》：说影片丑化中国人是过度解读</v>
+        <v>武汉一商场发生命案：外卖员刺死商场员工 12人合围将他控制</v>
       </c>
       <c r="B7">
-        <v>432780</v>
+        <v>1048253</v>
       </c>
       <c r="C7" t="str">
-        <v>2019-09-15 15:29</v>
+        <v>2019-12-22 18:10</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v>紧急呼叫丨曹德旺讲《美国工厂》拍摄：每天有人跟拍 像带着保镖</v>
+        <v>冬至时节吃了饺子 还多了个“心上人”</v>
       </c>
       <c r="B8">
-        <v>413182</v>
+        <v>15795</v>
       </c>
       <c r="C8" t="str">
-        <v>2019-09-15 15:17</v>
+        <v>2019-12-22 18:08</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="str">
-        <v>84名电信诈骗嫌犯被押回山东：作案千余起 涉案3534万余元</v>
+        <v>实拍“千人泼水成冰”：将热水泼向空中 白雾升腾场面壮观</v>
       </c>
       <c r="B9">
-        <v>22810</v>
+        <v>35538</v>
       </c>
       <c r="C9" t="str">
-        <v>2019-09-15 11:08</v>
+        <v>2019-12-22 18:00</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="str">
-        <v>白宫确认本拉登之子已死亡 “基地”组织接班大计将受重创</v>
+        <v>重庆30岁工程师疑因抑郁症坠楼身亡 公司：将落实员工心理关怀</v>
       </c>
       <c r="B10">
-        <v>316366</v>
+        <v>69309</v>
       </c>
       <c r="C10" t="str">
-        <v>2019-09-15 09:50</v>
+        <v>2019-12-22 17:54</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="str">
-        <v>155秒看中秋电话亭内悲欢离合：他们9次落泪 说出4次我爱你</v>
+        <v>河南男子撞伤老人假装送医杀人焚尸案 二审维持死刑</v>
       </c>
       <c r="B11">
-        <v>3295849</v>
+        <v>96858</v>
       </c>
       <c r="C11" t="str">
-        <v>2019-09-14 23:57</v>
+        <v>2019-12-22 17:23</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="str">
-        <v>中秋电话亭“未来篇”：孕妇打给腹中宝宝 父亲打给3岁女儿泪崩</v>
+        <v>山西洪洞封炉事件续 爆料人再发声自称连续接受多部门询问</v>
       </c>
       <c r="B12">
-        <v>2395448</v>
+        <v>86347</v>
       </c>
       <c r="C12" t="str">
-        <v>2019-09-14 22:36</v>
+        <v>2019-12-22 17:13</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="str">
-        <v>中秋电话亭“成长篇”：她最终还是没拨通电话 只隔空说“爱你”</v>
+        <v>山东利津一罐车维修时爆炸 罐体碎片散落一地</v>
       </c>
       <c r="B13">
-        <v>1348166</v>
+        <v>15247</v>
       </c>
       <c r="C13" t="str">
-        <v>2019-09-14 22:14</v>
+        <v>2019-12-22 17:03</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="str">
-        <v>中秋消防员围满桌佳肴刚开始吃 警铃突响8秒后人都不见</v>
+        <v>浙江一渔船沉没11人获救 7人失联 海上搜救视频曝光</v>
       </c>
       <c r="B14">
-        <v>190573</v>
+        <v>49358</v>
       </c>
       <c r="C14" t="str">
-        <v>2019-09-14 20:57</v>
+        <v>2019-12-22 17:02</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="str">
-        <v>香港湾仔区举办国庆70周年嘉年华 舞龙舞狮歌舞欢腾</v>
+        <v>揭秘渔船上的巡回法庭：船栏杆上挂国徽 泡沫箱当“桌子”</v>
       </c>
       <c r="B15">
-        <v>237347</v>
+        <v>8867</v>
       </c>
       <c r="C15" t="str">
-        <v>2019-09-14 18:41</v>
+        <v>2019-12-22 16:13</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="str">
-        <v>香山革命纪念地向公众开放 记者探访周恩来等领导旧居</v>
+        <v>“他拉我跑了！”货车超载司机贿赂未果 挟持辅警疯狂逃窜</v>
       </c>
       <c r="B16">
-        <v>7623</v>
+        <v>21047</v>
       </c>
       <c r="C16" t="str">
-        <v>2019-09-14 16:37</v>
+        <v>2019-12-22 15:30</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="str">
-        <v>香山革命纪念地开放 探访毛泽东香山旧居双清别墅</v>
+        <v>去冬季草原看风景不慎陷入河道深雪坑 救援队冒-30℃低温跪地铲雪</v>
       </c>
       <c r="B17">
-        <v>2694</v>
+        <v>6526</v>
       </c>
       <c r="C17" t="str">
-        <v>2019-09-14 16:16</v>
+        <v>2019-12-22 14:48</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="str">
-        <v>记者探访中央警卫处香山革命旧址 系首次开放</v>
+        <v>全港受损交通灯全面恢复运作 林郑月娥发文感谢各方努力</v>
       </c>
       <c r="B18">
-        <v>6249</v>
+        <v>14379</v>
       </c>
       <c r="C18" t="str">
-        <v>2019-09-14 16:06</v>
+        <v>2019-12-22 14:29</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="str">
-        <v>《城南旧事》等作品导演吴贻弓去世：电影从不拒绝任何人亲近它</v>
+        <v>古巴时隔43年后再任命总理 系卡斯特罗后首位总理</v>
       </c>
       <c r="B19">
-        <v>2745</v>
+        <v>319639</v>
       </c>
       <c r="C19" t="str">
-        <v>2019-09-14 16:06</v>
+        <v>2019-12-22 11:40</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="str">
-        <v>香山革命纪念地向公众开放 记者探访中共中央办公厅机要处旧址</v>
+        <v>长沙一处路面坍塌大量水不断涌出 抢险泵车紧急灌入混凝土</v>
       </c>
       <c r="B20">
-        <v>2633</v>
+        <v>11273</v>
       </c>
       <c r="C20" t="str">
-        <v>2019-09-14 16:02</v>
+        <v>2019-12-22 11:27</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="str">
-        <v>探访香山革命旧居思亲舍、多云亭 曾为中共中央宣传部用地</v>
+        <v>“丽江反杀案”背后：一方“家破人亡”不敢生病 一方暴瘦20斤坚持扫屋</v>
       </c>
       <c r="B21">
-        <v>1602</v>
+        <v>2123569</v>
       </c>
       <c r="C21" t="str">
-        <v>2019-09-14 15:57</v>
+        <v>2019-12-22 11:09</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="str">
-        <v>陕北汉子做传统手工月饼28年 供出3个大学生还在城里买了房</v>
+        <v>广东中山一高层住房发生大火 官方：已致6人死亡</v>
       </c>
       <c r="B22">
-        <v>3893</v>
+        <v>31291</v>
       </c>
       <c r="C22" t="str">
-        <v>2019-09-14 15:54</v>
+        <v>2019-12-22 11:08</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="str">
-        <v>北京上空现环天顶弧 似颠倒的彩虹网友直呼“好美”</v>
+        <v>紧急呼叫丨女子指控邻居20多年前性侵反被告：哪怕离婚也要让对方付出代价</v>
       </c>
       <c r="B23">
-        <v>222135</v>
+        <v>780490</v>
       </c>
       <c r="C23" t="str">
-        <v>2019-09-14 15:31</v>
+        <v>2019-12-22 00:38</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="str">
-        <v>揭秘香山革命纪念地 八处革命旧址首次全部开放</v>
+        <v>广西柳州一公路施工现场塌方：2辆挖掘机被埋 2名驾驶人员遇难</v>
       </c>
       <c r="B24">
-        <v>9541</v>
+        <v>31549</v>
       </c>
       <c r="C24" t="str">
-        <v>2019-09-14 15:22</v>
+        <v>2019-12-21 23:01</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="str">
-        <v>为生命开路！昭通车祸多名伤者送医途中遇拥堵 男子一路小跑开道</v>
+        <v>紧急呼叫丨母亲详述14岁儿子校园身亡：新衣领子被撕掉 送医后口鼻出血</v>
       </c>
       <c r="B25">
-        <v>41820</v>
+        <v>782482</v>
       </c>
       <c r="C25" t="str">
-        <v>2019-09-14 13:14</v>
+        <v>2019-12-21 21:10</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="str">
-        <v>探访香山革命纪念地丽瞩楼文物旧址 曾为中共中央专用电话局</v>
+        <v>紧急呼叫丨女子指控邻居20多年前性侵反被告：哪怕离婚也要让对方付出代价</v>
       </c>
       <c r="B26">
-        <v>15263</v>
+        <v>392438</v>
       </c>
       <c r="C26" t="str">
-        <v>2019-09-14 12:34</v>
+        <v>2019-12-21 18:57</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="str">
-        <v>探访香山革命纪念地中共中央图书馆小白楼旧址 图书历经周折转运</v>
+        <v>湖南一女生被辍学女孩殴打多处受伤 警方：打人者已送去矫治教育</v>
       </c>
       <c r="B27">
-        <v>7199</v>
+        <v>37386</v>
       </c>
       <c r="C27" t="str">
-        <v>2019-09-14 12:25</v>
+        <v>2019-12-21 18:56</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="str">
-        <v>香山革命纪念馆开馆 开国大典红灯笼和礼炮对外展出</v>
+        <v>紧急呼叫丨临汾贫困户被默许烧煤 村干部：讲政策不允许但对老人有同情心</v>
       </c>
       <c r="B28">
-        <v>9646</v>
+        <v>578358</v>
       </c>
       <c r="C28" t="str">
-        <v>2019-09-14 11:15</v>
+        <v>2019-12-21 18:45</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="str">
-        <v>中秋电话亭“甜蜜篇”：56岁阿姨想到心上人“心里怦怦跳”</v>
+        <v>实拍河北正定开元寺遗址发掘现场：7个朝代文化层出土文物6700件</v>
       </c>
       <c r="B29">
-        <v>822745</v>
+        <v>179272</v>
       </c>
       <c r="C29" t="str">
-        <v>2019-09-14 07:57</v>
+        <v>2019-12-21 18:10</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="str">
-        <v>中秋节电话亭“遗憾篇”：没能见母亲的最后一面 让她记了好几年</v>
+        <v>监拍：轮胎从大货车上脱落 弹跳一圈后嵌入小车挡风玻璃</v>
       </c>
       <c r="B30">
-        <v>1491783</v>
+        <v>118108</v>
       </c>
       <c r="C30" t="str">
-        <v>2019-09-14 07:56</v>
+        <v>2019-12-21 18:03</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="str">
-        <v>中秋电话亭“家人篇”：女孩打给妈妈泪崩 没想过失去你什么感受</v>
+        <v>吉林通化大客车坠落已致6死 事发画面曝光：失控打转后坠落路基</v>
       </c>
       <c r="B31">
-        <v>571978</v>
+        <v>2944649</v>
       </c>
       <c r="C31" t="str">
-        <v>2019-09-14 07:47</v>
+        <v>2019-12-21 17:35</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="str">
-        <v>中秋小长假首日香港迪士尼游客稀少 大多数项目不用排队</v>
+        <v>山西阳城一天然气管道破裂致气体泄漏起火 现场喷出数米高火团</v>
       </c>
       <c r="B32">
-        <v>19009</v>
+        <v>59975</v>
       </c>
       <c r="C32" t="str">
-        <v>2019-09-13 19:25</v>
+        <v>2019-12-21 17:33</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="str">
-        <v>月饼测评大公开：网红记者能扛12级台风 却扛不住这个馅的月饼</v>
+        <v>辅警在派出所楼梯上蹦蹦跳跳 背后原因让人心酸</v>
       </c>
       <c r="B33">
-        <v>118907</v>
+        <v>34401</v>
       </c>
       <c r="C33" t="str">
-        <v>2019-09-13 13:52</v>
+        <v>2019-12-21 17:04</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="str">
-        <v>女乘客冒用老年证乘车被识破 其丈夫驾驶舱内摁倒公交司机</v>
+        <v>“小蛇”半夜钻进裤内吓坏男子 7名消防员火速出动结果却哭笑不得</v>
       </c>
       <c r="B34">
-        <v>21204</v>
+        <v>20295</v>
       </c>
       <c r="C34" t="str">
-        <v>2019-09-13 13:43</v>
+        <v>2019-12-21 16:27</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="str">
-        <v>老人手工制作“十二生肖”公仔饼走红 栩栩如生被称“萌版月饼”</v>
+        <v>未按乘客意愿停靠 天津公交司机遭受乘客数十记重拳住院</v>
       </c>
       <c r="B35">
-        <v>34571</v>
+        <v>55585</v>
       </c>
       <c r="C35" t="str">
-        <v>2019-09-13 11:01</v>
+        <v>2019-12-21 16:16</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="str">
-        <v>卡车司机撞脸洪金宝：武打动作极像 粉丝专程找他“一探究竟”</v>
+        <v>工人翻护栏被拦称不知斑马线为何物 交警接下来的做法引网友狂赞</v>
       </c>
       <c r="B36">
-        <v>390806</v>
+        <v>23735</v>
       </c>
       <c r="C36" t="str">
-        <v>2019-09-13 10:14</v>
+        <v>2019-12-21 15:33</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="str">
-        <v>香港闹市迎中秋舞起67米长火龙 寓意起结龙团、一团和气</v>
+        <v>夜晚“炸街”飙车玩漂移 江苏江阴7名“飙车党”被抓</v>
       </c>
       <c r="B37">
-        <v>230894</v>
+        <v>21876</v>
       </c>
       <c r="C37" t="str">
-        <v>2019-09-13 09:30</v>
+        <v>2019-12-21 15:09</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="str">
-        <v>香港商家摆出各式灯笼迎中秋：希望香港平稳一点</v>
+        <v>紧急呼叫丨黑龙江一服刑人员被关禁闭4天后死亡 监狱称存在工作失误</v>
       </c>
       <c r="B38">
-        <v>370421</v>
+        <v>36801</v>
       </c>
       <c r="C38" t="str">
-        <v>2019-09-13 09:19</v>
+        <v>2019-12-21 15:08</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="str">
-        <v>官方通报三门峡山体被喷绿：矿企未经审批擅自喷涂 停业整顿</v>
+        <v>“挖出孩子尸身查死因”后续：家长向警方递交证据材料 质疑法医验尸太草率</v>
       </c>
       <c r="B39">
-        <v>30106</v>
+        <v>278576</v>
       </c>
       <c r="C39" t="str">
-        <v>2019-09-13 08:59</v>
+        <v>2019-12-21 15:07</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="str">
-        <v>安徽肥东兰博基尼跑车追尾货车 网友直呼看着就心疼</v>
+        <v>24年前和多个小孩被塞阁楼待卖 贵州一被拐男子寻亲成功相拥痛哭</v>
       </c>
       <c r="B40">
-        <v>33973</v>
+        <v>19916</v>
       </c>
       <c r="C40" t="str">
-        <v>2019-09-13 08:55</v>
+        <v>2019-12-21 15:00</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="str">
-        <v>中秋电话亭“前任篇”：7分钟的未通电话 她连谢已婚前任5次</v>
+        <v>吉林通化一大客车坠落江边部分车体落水 已致4人死亡多人受伤</v>
       </c>
       <c r="B41">
-        <v>14871</v>
+        <v>25377</v>
       </c>
       <c r="C41" t="str">
-        <v>2019-09-13 00:54</v>
+        <v>2019-12-21 14:29</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="str">
-        <v>中秋电话亭“理想篇”：小女孩打给15年后自己 失败也还要努力</v>
+        <v>紧急呼叫丨黑龙江一服刑人员被关禁闭4天后死亡 监狱称存在工作失误</v>
       </c>
       <c r="B42">
-        <v>1352702</v>
+        <v>673914</v>
       </c>
       <c r="C42" t="str">
-        <v>2019-09-12 23:41</v>
+        <v>2019-12-21 14:29</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="str">
-        <v>中秋电话亭“前任篇”：7分钟的未通电话 她连谢已婚前任5次</v>
+        <v>广西老人被三车连撞死亡续：仍有一肇事者在逃 老人无妻无子系五保户</v>
       </c>
       <c r="B43">
-        <v>1061305</v>
+        <v>26117</v>
       </c>
       <c r="C43" t="str">
-        <v>2019-09-12 23:28</v>
+        <v>2019-12-21 14:25</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="str">
-        <v>中秋电话亭“天堂篇”：台湾女生首次到大陆 打给已故爷爷泪崩</v>
+        <v>济南官方回应土地涨价无法兑现合约事件：通过法院判决或调解处理</v>
       </c>
       <c r="B44">
-        <v>4927917</v>
+        <v>19121</v>
       </c>
       <c r="C44" t="str">
-        <v>2019-09-12 22:55</v>
+        <v>2019-12-21 14:18</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="str">
-        <v>紧急呼叫丨圈内人评鞋市疯涨：鞋不到手就能卖 二手平台助长炒鞋</v>
+        <v>港铁大学站关闭一个多月后重开 乘客：不用那么早起床了</v>
       </c>
       <c r="B45">
-        <v>190507</v>
+        <v>244933</v>
       </c>
       <c r="C45" t="str">
-        <v>2019-09-12 22:08</v>
+        <v>2019-12-21 14:15</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="str">
-        <v>“办公室小野”联系自制爆米花离世女孩父亲：想把问题解决</v>
+        <v>美国遭暴风雪侵袭 高速路上30辆车连环相撞现场惨烈</v>
       </c>
       <c r="B46">
-        <v>515660</v>
+        <v>8046</v>
       </c>
       <c r="C46" t="str">
-        <v>2019-09-12 21:39</v>
+        <v>2019-12-21 13:49</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="str">
-        <v>山东泰安一幼儿园食材变质发霉 官方：罚款10万并拘留园长</v>
+        <v>15岁中国高中生琥珀内发现1亿年前甲虫 专家：全新物种</v>
       </c>
       <c r="B47">
-        <v>423330</v>
+        <v>66379</v>
       </c>
       <c r="C47" t="str">
-        <v>2019-09-12 21:35</v>
+        <v>2019-12-21 13:36</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="str">
-        <v>福州一老人开卡丁车载孩子上马路 交警：此举已违法 已介入调查</v>
+        <v>四川眉山修高速路现场挖出古墓：一对 “金童玉女”看守门户</v>
       </c>
       <c r="B48">
-        <v>98488</v>
+        <v>258748</v>
       </c>
       <c r="C48" t="str">
-        <v>2019-09-12 20:50</v>
+        <v>2019-12-21 12:25</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="str">
-        <v>专家谈三门峡山体被喷绿：需明确该成分是否造成二次污染</v>
+        <v>两艘美国邮轮在港口相撞 一声巨响后碎片飞溅</v>
       </c>
       <c r="B49">
-        <v>52984</v>
+        <v>33480</v>
       </c>
       <c r="C49" t="str">
-        <v>2019-09-12 20:07</v>
+        <v>2019-12-21 12:05</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="str">
-        <v>云南怒江面包车坠江3人被困 车辆变形严重消防索降江面救出2人</v>
+        <v>西安一高层住户家突发大火 明火猛烈燃烧一对母女伤重身亡</v>
       </c>
       <c r="B50">
-        <v>20328</v>
+        <v>92628</v>
       </c>
       <c r="C50" t="str">
-        <v>2019-09-12 19:47</v>
+        <v>2019-12-21 12:02</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="str">
-        <v>甘肃一货车司机边开车边看电视剧 看“武林外传”能防打瞌睡？</v>
+        <v>美载人飞船“星际客机”首飞失败 未进入预定轨道</v>
       </c>
       <c r="B51">
-        <v>28767</v>
+        <v>110392</v>
       </c>
       <c r="C51" t="str">
-        <v>2019-09-12 19:19</v>
+        <v>2019-12-21 11:16</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="str">
-        <v>紧急呼叫丨魏则西父母生下试管婴儿 医院：特意在孩子百天公布</v>
+        <v>湖北一司机吃包子被查出酒驾 交警当场检测包子证明清白</v>
       </c>
       <c r="B52">
-        <v>3514402</v>
+        <v>198239</v>
       </c>
       <c r="C52" t="str">
-        <v>2019-09-12 19:10</v>
+        <v>2019-12-21 01:10</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="str">
-        <v>贪玩“蓝月”中秋顺风出逃 柳州街头上演“流浪月球”</v>
+        <v>紧急呼叫丨女企业家质疑招标造假反被告敲诈：中标者自愿给百万补偿 我无罪</v>
       </c>
       <c r="B53">
-        <v>43688</v>
+        <v>115469</v>
       </c>
       <c r="C53" t="str">
-        <v>2019-09-12 19:10</v>
+        <v>2019-12-21 00:35</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="str">
-        <v>咪蒙消失半年后回归？疑似弃文投身短视频领域</v>
+        <v>美主持人厌倦报道特朗普弹劾案：来个校园枪击案新鲜一下吧</v>
       </c>
       <c r="B54">
-        <v>15893</v>
+        <v>12757</v>
       </c>
       <c r="C54" t="str">
-        <v>2019-09-12 19:05</v>
+        <v>2019-12-21 00:08</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="str">
-        <v>监控曝光：中国游客行李在泰国被顺走 嫌犯淡定离开演技一流</v>
+        <v>英国下议院通过“脱欧”协议 首相准时“脱欧”誓言将兑现</v>
       </c>
       <c r="B55">
-        <v>49336</v>
+        <v>1135632</v>
       </c>
       <c r="C55" t="str">
-        <v>2019-09-12 18:12</v>
+        <v>2019-12-21 00:03</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="str">
-        <v>怎么撞的？大货车撞向路边房屋 尾部飞上屋顶令人惊讶</v>
+        <v>第二名擅闯特朗普庄园的中国女子出庭：对所有指控均不认罪</v>
       </c>
       <c r="B56">
-        <v>136939</v>
+        <v>9898</v>
       </c>
       <c r="C56" t="str">
-        <v>2019-09-12 18:11</v>
+        <v>2019-12-20 23:49</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="str">
-        <v>男子乘动车醉酒后大闹车厢被拘：自称特种兵会开飞机</v>
+        <v>香港民间团体“撑警”游行：辛劳未得应有回报 呼吁给警察加薪</v>
       </c>
       <c r="B57">
-        <v>35382</v>
+        <v>14327</v>
       </c>
       <c r="C57" t="str">
-        <v>2019-09-12 18:10</v>
+        <v>2019-12-20 23:26</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="str">
-        <v>李艺彤正式从SNH48毕业 曾笑称未来干不好就去当柜姐</v>
+        <v>紧急呼叫丨14岁少年疑遭校园暴力身亡：家长挖出尸身再送检 警方重启调查</v>
       </c>
       <c r="B58">
-        <v>28246</v>
+        <v>640597</v>
       </c>
       <c r="C58" t="str">
-        <v>2019-09-12 18:06</v>
+        <v>2019-12-20 22:55</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="str">
-        <v>非遗传承人张忠强讲述兔儿爷传说：这是中秋不可或缺的仪式感</v>
+        <v>湖南一“黑老大”涉12宗罪一审被判死刑 曾多次强奸未成年少女、幼女</v>
       </c>
       <c r="B59">
-        <v>8680</v>
+        <v>528438</v>
       </c>
       <c r="C59" t="str">
-        <v>2019-09-12 17:58</v>
+        <v>2019-12-20 22:54</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="str">
-        <v>小伙撞坏隔离护栏逃逸 交警现场调查发现证据时笑了</v>
+        <v>大使馆回应中国船员在马达加斯加遭监禁：要求船东担负责任</v>
       </c>
       <c r="B60">
-        <v>26858</v>
+        <v>401556</v>
       </c>
       <c r="C60" t="str">
-        <v>2019-09-12 17:51</v>
+        <v>2019-12-20 22:03</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="str">
-        <v>车王醒了？舒马赫被曝恢复意识 用假名入院秘密治疗</v>
+        <v>王府井步行街北延开街 现场举行庆祝活动流光溢彩游人熙攘</v>
       </c>
       <c r="B61">
-        <v>11651</v>
+        <v>24407</v>
       </c>
       <c r="C61" t="str">
-        <v>2019-09-12 17:51</v>
+        <v>2019-12-20 21:30</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="str">
-        <v>高速货车侧翻致7000多斤泥鳅四处“游走” 场面十分“诱人”</v>
+        <v>武汉被刺伤医生一年后重拿手术刀：要克服许多心理问题 希望做得更好</v>
       </c>
       <c r="B62">
-        <v>85766</v>
+        <v>189723</v>
       </c>
       <c r="C62" t="str">
-        <v>2019-09-12 17:50</v>
+        <v>2019-12-20 21:02</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="str">
-        <v>探访歌手“东来东往”容留他人吸毒别墅 邻居：都是20多岁的人</v>
+        <v>管制刀具竟成1岁多宝宝的玩具？粗心“熊爸”这样带娃惊呆民警</v>
       </c>
       <c r="B63">
-        <v>165398</v>
+        <v>11046</v>
       </c>
       <c r="C63" t="str">
-        <v>2019-09-12 17:47</v>
+        <v>2019-12-20 20:47</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="str">
-        <v>美华裔女大胃王去世：能吞17斤火鸡面 体重仅45公斤</v>
+        <v>3岁男孩骑车“勇闯天涯” 结果下一秒就被警察提溜着车抱回</v>
       </c>
       <c r="B64">
-        <v>233888</v>
+        <v>25045</v>
       </c>
       <c r="C64" t="str">
-        <v>2019-09-12 17:44</v>
+        <v>2019-12-20 20:33</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="str">
-        <v>大雨冲垮医院急诊室天花板 医生病床前手忙脚乱给病人打伞</v>
+        <v>奇葩说辩手马薇薇卸任米未传媒子公司高管 已成7公司实控人</v>
       </c>
       <c r="B65">
-        <v>5768</v>
+        <v>12439</v>
       </c>
       <c r="C65" t="str">
-        <v>2019-09-12 17:44</v>
+        <v>2019-12-20 20:27</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="str">
-        <v>华为首次境内发债曝光家底：手握2500亿现金</v>
+        <v>湖南省一监狱被曝囚犯聚众赌博 回应：初步查明监区长涉嫌滥用职权</v>
       </c>
       <c r="B66">
-        <v>17249</v>
+        <v>223026</v>
       </c>
       <c r="C66" t="str">
-        <v>2019-09-12 17:39</v>
+        <v>2019-12-20 20:10</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="str">
-        <v>阿里员工获黑科技赠礼：发现马老师出现在酒瓶上很激动</v>
+        <v>香港已有80名教师被捕 多涉嫌散播仇恨言论或使用不当教材</v>
       </c>
       <c r="B67">
-        <v>98110</v>
+        <v>14765</v>
       </c>
       <c r="C67" t="str">
-        <v>2019-09-12 17:36</v>
+        <v>2019-12-20 20:10</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="str">
-        <v>81岁“老人”欲坐飞机赴美 警察火眼金睛辨别真身</v>
+        <v>海口两名小学生放学回家途中被叉车撞倒 一人卷入车底</v>
       </c>
       <c r="B68">
-        <v>22181</v>
+        <v>20209</v>
       </c>
       <c r="C68" t="str">
-        <v>2019-09-12 17:32</v>
+        <v>2019-12-20 20:07</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="str">
-        <v>延吉男子因情感纠纷驾车撞倒前妻后被阻止 警方：已刑拘</v>
+        <v>紧急呼叫丨山西临汾村民称煤改气后取暖差：屋里穿羽绒服 远不如烧煤热</v>
       </c>
       <c r="B69">
-        <v>5173</v>
+        <v>400376</v>
       </c>
       <c r="C69" t="str">
-        <v>2019-09-12 17:31</v>
+        <v>2019-12-20 20:04</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="str">
-        <v>大学生诉上海迪士尼禁带饮食一案达成调解 迪士尼补偿50元</v>
+        <v>公交司机危险驾驶 被罚当街做这件事民众拍手叫好</v>
       </c>
       <c r="B70">
-        <v>57223</v>
+        <v>6205</v>
       </c>
       <c r="C70" t="str">
-        <v>2019-09-12 17:27</v>
+        <v>2019-12-20 19:57</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="str">
-        <v>烟台海关查获3300支入境人体胎盘素：未检疫或携带病原体</v>
+        <v>鸡排店凌晨冒出白烟 消防员全副武装到场结局却让人意外</v>
       </c>
       <c r="B71">
-        <v>21939</v>
+        <v>36364</v>
       </c>
       <c r="C71" t="str">
-        <v>2019-09-12 17:25</v>
+        <v>2019-12-20 19:56</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="str">
-        <v>山东一小区1400人庆中秋 每家一道菜拼成120桌百家宴</v>
+        <v>河南一女孩疑被困KTV陪侍追踪：经营者被刑拘 派出所所长停职</v>
       </c>
       <c r="B72">
-        <v>30994</v>
+        <v>213321</v>
       </c>
       <c r="C72" t="str">
-        <v>2019-09-12 17:24</v>
+        <v>2019-12-20 19:29</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="str">
-        <v>动物园的中秋节：大象吃超大果蔬月饼  树懒吃播似照片萌翻网友</v>
+        <v>太子奶创始人李途纯获无罪7年后：仍负债11亿成失信老赖 欲重返食品行业</v>
       </c>
       <c r="B73">
-        <v>8661</v>
+        <v>51917</v>
       </c>
       <c r="C73" t="str">
-        <v>2019-09-12 17:24</v>
+        <v>2019-12-20 19:29</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="str">
-        <v>长春7个小学生历时半年刻700方寿印为国庆70周年献礼</v>
+        <v>界首民政局回应女子被结婚5次：可由公安机关出具证明 比起诉解决快</v>
       </c>
       <c r="B74">
-        <v>12131</v>
+        <v>188770</v>
       </c>
       <c r="C74" t="str">
-        <v>2019-09-12 17:22</v>
+        <v>2019-12-20 19:23</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="str">
-        <v>有人草原自驾猎羊遭举报 警方：追逐动物为黄羊 车号归蒙古国</v>
+        <v>陕西宝鸡一镇人大主席嫖宿幼女 涉嫌强奸罪被逮捕</v>
       </c>
       <c r="B75">
-        <v>5258</v>
+        <v>415529</v>
       </c>
       <c r="C75" t="str">
-        <v>2019-09-12 17:12</v>
+        <v>2019-12-20 19:15</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="str">
-        <v>中秋国庆出游预测：杭州西湖成最热门自驾景区</v>
+        <v>实拍：毒贩顺空调管道至楼下邻居家躲狭小衣柜 警方持枪一拥而上抓捕</v>
       </c>
       <c r="B76">
-        <v>119668</v>
+        <v>22314</v>
       </c>
       <c r="C76" t="str">
-        <v>2019-09-12 16:20</v>
+        <v>2019-12-20 19:03</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="str">
-        <v>17万“人脸数据”被售卖 律师：有关部门应加强相关权益的保护</v>
+        <v>联合国维和部队被曝性侵海地女性：用食物做交换 留下数百孩子</v>
       </c>
       <c r="B77">
-        <v>41910</v>
+        <v>709398</v>
       </c>
       <c r="C77" t="str">
-        <v>2019-09-12 15:42</v>
+        <v>2019-12-20 18:50</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="str">
-        <v>奔驰维权女车主律师：奔驰金融被罚80万是消费者权益的胜利</v>
+        <v>男子给兄弟“戴绿帽”还想用钱解决 被打趴钞票散一地</v>
       </c>
       <c r="B78">
-        <v>16546</v>
+        <v>158471</v>
       </c>
       <c r="C78" t="str">
-        <v>2019-09-12 15:38</v>
+        <v>2019-12-20 18:39</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="str">
-        <v>大学毕业生搞小发明研制充电器  拆卸共享单车电路板成盗窃犯</v>
+        <v>大学生校内拉网捕鱼现捞现吃 4万余斤大鱼全校免费供应</v>
       </c>
       <c r="B79">
-        <v>15272</v>
+        <v>25453</v>
       </c>
       <c r="C79" t="str">
-        <v>2019-09-12 15:27</v>
+        <v>2019-12-20 18:39</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="str">
-        <v>郭台铭宣布退出国民党 国民党高层怒斥：这不是菜巿场</v>
+        <v>紧急呼叫丨哈尔滨一文化博物馆被指违建7万平米：八卦阵、仿古亭均未批先建</v>
       </c>
       <c r="B80">
-        <v>606751</v>
+        <v>191752</v>
       </c>
       <c r="C80" t="str">
-        <v>2019-09-12 15:10</v>
+        <v>2019-12-20 18:36</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="str">
-        <v>香港市民发起“快闪”唱国歌活动 挥舞国旗高呼“中国加油”</v>
+        <v>8个月大婴儿被粗心妈妈锁车内 警民合力撬门将车钥匙“钓”出</v>
       </c>
       <c r="B81">
-        <v>47110</v>
+        <v>18240</v>
       </c>
       <c r="C81" t="str">
-        <v>2019-09-12 15:05</v>
+        <v>2019-12-20 18:36</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="str">
-        <v>男子因小区车位紧张复印他人车牌上路 ：罚5000元拘留15日</v>
+        <v>男子入室行窃吵醒主人 狼狈逃跑时摔倒还掉鞋令人捧腹</v>
       </c>
       <c r="B82">
-        <v>27658</v>
+        <v>17391</v>
       </c>
       <c r="C82" t="str">
-        <v>2019-09-12 15:02</v>
+        <v>2019-12-20 18:32</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="str">
-        <v>河北邯郸警方破获一电信网络诈骗案：假扮美女引诱投资涉案千万</v>
+        <v>实拍：13岁男孩立志做“Tony老师” 奔波千里携16岁女孩私奔</v>
       </c>
       <c r="B83">
-        <v>19757</v>
+        <v>11132</v>
       </c>
       <c r="C83" t="str">
-        <v>2019-09-12 14:54</v>
+        <v>2019-12-20 18:25</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="str">
-        <v>紧急呼叫｜三门峡山体喷绿追踪：销售商称是固沙剂 没想过防卫星</v>
+        <v>监拍：骑车男子被大货车卷入车底 奇迹般站起仅受擦伤</v>
       </c>
       <c r="B84">
-        <v>60518</v>
+        <v>16421</v>
       </c>
       <c r="C84" t="str">
-        <v>2019-09-12 14:37</v>
+        <v>2019-12-20 18:20</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="str">
-        <v>追踪马戏团逃脱老虎来源地宿州：租动物随意 花钱也可以租驯养证</v>
+        <v>河南信阳一楼房拆迁时突然坍塌 挖掘机被埋司机当场死亡</v>
       </c>
       <c r="B85">
-        <v>148657</v>
+        <v>77271</v>
       </c>
       <c r="C85" t="str">
-        <v>2019-09-12 14:14</v>
+        <v>2019-12-20 18:18</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="str">
-        <v>NASA用动画演示北极海冰消融 震撼画面令网友心痛</v>
+        <v>辽宁男子自制绳索挑战登雪山却掉悬崖 实拍消防员零下20℃寒夜救人</v>
       </c>
       <c r="B86">
-        <v>42118</v>
+        <v>8870</v>
       </c>
       <c r="C86" t="str">
-        <v>2019-09-12 14:09</v>
+        <v>2019-12-20 18:16</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="str">
-        <v>山火中警察疏散居民 不顾火星纷飞大喊“撤离”</v>
+        <v>大妈当街试穿内裤被店主拍下 最后结局竟意外“反转”</v>
       </c>
       <c r="B87">
-        <v>8336</v>
+        <v>305471</v>
       </c>
       <c r="C87" t="str">
-        <v>2019-09-12 14:06</v>
+        <v>2019-12-20 18:08</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="str">
-        <v>大叔30年收藏2000多件糕饼模具 古今中外皆有</v>
+        <v>孩子被外公抱一直哭闹 驾驶员心疼“母爱爆棚”一波神操作</v>
       </c>
       <c r="B88">
-        <v>7552</v>
+        <v>41935</v>
       </c>
       <c r="C88" t="str">
-        <v>2019-09-12 14:00</v>
+        <v>2019-12-20 17:43</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="str">
-        <v>“9·11”降生的新生儿迎来18岁成人礼：我曾很讨厌我的生日</v>
+        <v>九名女孩占半条马路拍热舞视频 正常行驶车辆被迫逆行</v>
       </c>
       <c r="B89">
-        <v>60314</v>
+        <v>17981</v>
       </c>
       <c r="C89" t="str">
-        <v>2019-09-12 13:00</v>
+        <v>2019-12-20 17:35</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="str">
-        <v>波音737遭鸟击引擎起火 空中频现团团火球</v>
+        <v>拜登竞选总统发言 隔壁候选人乱挥手被怼：你把手给我放下！</v>
       </c>
       <c r="B90">
-        <v>7904</v>
+        <v>10282</v>
       </c>
       <c r="C90" t="str">
-        <v>2019-09-12 12:11</v>
+        <v>2019-12-20 17:34</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="str">
-        <v>惊险！以色列遭火箭弹袭击 总理演讲被空袭警报"打断"</v>
+        <v>韩国一监狱旧址附近发现40多具无名遗骸 或为39年前光州事件失踪者</v>
       </c>
       <c r="B91">
-        <v>15722</v>
+        <v>99214</v>
       </c>
       <c r="C91" t="str">
-        <v>2019-09-12 09:42</v>
+        <v>2019-12-20 17:30</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="str">
-        <v>纪念“9·11”事件18周年 家属念出遇难亲友姓名泪洒现场</v>
+        <v>安徽两司机斗气在街面反复超车 警方：双方涉嫌危险驾驶罪 已刑拘</v>
       </c>
       <c r="B92">
-        <v>97425</v>
+        <v>26754</v>
       </c>
       <c r="C92" t="str">
-        <v>2019-09-12 08:26</v>
+        <v>2019-12-20 17:19</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="str">
-        <v>特朗普悼念“9·11”袭击 暗示要用前所未有的武力打击塔利班</v>
+        <v>“暴躁鸡”上线！公鸡被说丑还挨扇 雪地狂追男子报仇笑翻网友</v>
       </c>
       <c r="B93">
-        <v>23972</v>
+        <v>63401</v>
       </c>
       <c r="C93" t="str">
-        <v>2019-09-12 08:21</v>
+        <v>2019-12-20 17:14</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="str">
-        <v>河南三门峡矿企将luo露山体喷绿 回应：美观且可防扬尘</v>
+        <v>药学博士生喜提2020“美利坚小姐”桂冠 才艺展示环节现场做实验</v>
       </c>
       <c r="B94">
-        <v>448895</v>
+        <v>26085</v>
       </c>
       <c r="C94" t="str">
-        <v>2019-09-11 21:30</v>
+        <v>2019-12-20 17:13</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="str">
-        <v>山西男子买彩票中1.34亿扮“猪猪侠”领奖 捐出300万</v>
+        <v>日本议员推动赌场项目 涉嫌收受中国贿赂被搜查</v>
       </c>
       <c r="B95">
-        <v>147611</v>
+        <v>9755</v>
       </c>
       <c r="C95" t="str">
-        <v>2019-09-11 21:14</v>
+        <v>2019-12-20 17:10</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="str">
-        <v>女子在派出所悄悄放零食 小心翼翼的样子民警直呼可爱又暖心</v>
+        <v>命案逃犯潜逃11年后因爱自首 民警的做法引网友怒赞</v>
       </c>
       <c r="B96">
-        <v>33376</v>
+        <v>10517</v>
       </c>
       <c r="C96" t="str">
-        <v>2019-09-11 21:04</v>
+        <v>2019-12-20 17:04</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="str">
-        <v>北京怀柔法院分配25万破产财产 将网拍破产公司商标偿还债务</v>
+        <v>紧急呼叫丨山西临汾村民取暖锅炉被没收：交不起燃气费 烧煤要罚款只好挨冻</v>
       </c>
       <c r="B97">
-        <v>10440</v>
+        <v>1203719</v>
       </c>
       <c r="C97" t="str">
-        <v>2019-09-11 20:59</v>
+        <v>2019-12-20 16:58</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="str">
-        <v>外交部将向全球推介湖南  刘欢等群星打CALL称“腊肉好吃”</v>
+        <v>广西一拖拉机街头失控冲撞致1死10伤 目击者：轰隆一声好可怕</v>
       </c>
       <c r="B98">
-        <v>55012</v>
+        <v>319175</v>
       </c>
       <c r="C98" t="str">
-        <v>2019-09-11 20:58</v>
+        <v>2019-12-20 16:55</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="str">
-        <v>盗墓团伙以“九层妖塔”为终极目标 结果刚开始练手就被抓</v>
+        <v>山西寿阳警方破获涉案赌资6亿元网络赌博案 18人被刑事拘留</v>
       </c>
       <c r="B99">
-        <v>175397</v>
+        <v>12100</v>
       </c>
       <c r="C99" t="str">
-        <v>2019-09-11 20:58</v>
+        <v>2019-12-20 16:40</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="str">
-        <v>牡丹江一无名河流水位暴涨 实拍森林消防员背沙袋小跑堵决口</v>
+        <v>被拳王KO的成都大学生格斗新手离世  家属：申请尸检用法律维权</v>
       </c>
       <c r="B100">
-        <v>14029</v>
+        <v>2136431</v>
       </c>
       <c r="C100" t="str">
-        <v>2019-09-11 20:53</v>
+        <v>2019-12-20 16:34</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="str">
-        <v>男孩的硬核暑假：3年骑机车逛28个省份 怕孤独带爱犬一起旅行</v>
+        <v>马云谈中美贸易谈判达成：真正变革的开始 过去的贸易模式结束</v>
       </c>
       <c r="B101">
-        <v>24008</v>
+        <v>28426</v>
       </c>
       <c r="C101" t="str">
-        <v>2019-09-11 19:57</v>
+        <v>2019-12-20 16:20</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="str">
-        <v>新款iPhone遭狂吐槽：打出“致创新”口号是高级黑吧</v>
+        <v>仅用20秒！货车着火直接开到消防队 消防员20秒出警4分钟扑灭刷新记录</v>
       </c>
       <c r="B102">
-        <v>19682</v>
+        <v>14386</v>
       </c>
       <c r="C102" t="str">
-        <v>2019-09-11 19:57</v>
+        <v>2019-12-20 16:18</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="str">
-        <v>歌手“东来东往”因容留他人吸毒被判刑 别墅内五人吸毒一人死亡</v>
+        <v>市民在柜子里捡到一块手表 仔细一看忙报警</v>
       </c>
       <c r="B103">
-        <v>590706</v>
+        <v>33616</v>
       </c>
       <c r="C103" t="str">
-        <v>2019-09-11 19:36</v>
+        <v>2019-12-20 16:14</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="str">
-        <v>陈迪说：女生为什么不可以“造火箭”男生为什么不可以“织毛衣”</v>
+        <v>吸毒男子遇民警抓捕想翻窗逃 空中悬挂一小时后投案</v>
       </c>
       <c r="B104">
-        <v>975</v>
+        <v>6603</v>
       </c>
       <c r="C104" t="str">
-        <v>2019-09-11 19:23</v>
+        <v>2019-12-20 15:59</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="str">
-        <v>小车被众人当街猛砸窗 背后原因令人感动</v>
+        <v>实力坑夫！妻子花光钱怕被发现伪造银行存单 丈夫取款时蒙了</v>
       </c>
       <c r="B105">
-        <v>32124</v>
+        <v>17913</v>
       </c>
       <c r="C105" t="str">
-        <v>2019-09-11 19:23</v>
+        <v>2019-12-20 15:59</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="str">
-        <v>电视剧《有翡》官宣王一博赵丽颖 高冷蓝忘机变身热血话痨谢允</v>
+        <v>16岁高中生和朋友说唱Battle 愿赌服输从5米高桥跳河身亡</v>
       </c>
       <c r="B106">
-        <v>52450</v>
+        <v>9260</v>
       </c>
       <c r="C106" t="str">
-        <v>2019-09-11 19:19</v>
+        <v>2019-12-20 15:55</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="str">
-        <v>陈迪说：用抹布往学生脸上擦 谁给了老师勇气？</v>
+        <v>心上人结婚新娘却不是自己 女子愤怒“抢婚”试图暴打新娘</v>
       </c>
       <c r="B107">
-        <v>47209</v>
+        <v>8089</v>
       </c>
       <c r="C107" t="str">
-        <v>2019-09-11 19:19</v>
+        <v>2019-12-20 15:53</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="str">
-        <v>萌娃学校发了月饼没有吃 和奶奶一起送给消防员</v>
+        <v>男子给兄弟“戴绿帽”还想用钱解决 被打趴钞票散一地</v>
       </c>
       <c r="B108">
-        <v>60109</v>
+        <v>57446</v>
       </c>
       <c r="C108" t="str">
-        <v>2019-09-11 19:10</v>
+        <v>2019-12-20 15:42</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="str">
-        <v>超模孙菲菲纽约走秀1分钟摔3次 网友：别因一次失误就否定一生</v>
+        <v>8岁女孩被锁屋内家长狂喊无回应吓坏 消防员撬门后看到哭笑不得一幕</v>
       </c>
       <c r="B109">
-        <v>45136</v>
+        <v>43123</v>
       </c>
       <c r="C109" t="str">
-        <v>2019-09-11 19:07</v>
+        <v>2019-12-20 15:38</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="str">
-        <v>特大走私濒危动物及制品案告破 缴获象牙虎皮等300余件</v>
+        <v>四川一对师生爆发冲突从教室打到办公室 教育局：正调查 老师被停职</v>
       </c>
       <c r="B110">
-        <v>23515</v>
+        <v>16270</v>
       </c>
       <c r="C110" t="str">
-        <v>2019-09-11 18:15</v>
+        <v>2019-12-20 15:36</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="str">
-        <v>实拍：大巴高速抛锚58名乘客被困 交警集结整个中队警车护送</v>
+        <v>安徽留守老人失踪两年后遗体在水库内被发现 警方悬赏5万元征集线索</v>
       </c>
       <c r="B111">
-        <v>8198</v>
+        <v>3565</v>
       </c>
       <c r="C111" t="str">
-        <v>2019-09-11 18:10</v>
+        <v>2019-12-20 15:30</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="str">
-        <v>云南一储蓄所主任监守自盗200余万 漂白身份潜逃22年后落网</v>
+        <v>英国沙雕传统：女王前往议会演讲 得先“逮捕”议员当“人质”</v>
       </c>
       <c r="B112">
-        <v>29022</v>
+        <v>5103</v>
       </c>
       <c r="C112" t="str">
-        <v>2019-09-11 17:59</v>
+        <v>2019-12-20 15:21</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="str">
-        <v>航拍：美军空投数十吨炸弹轰炸ISIS据点 蘑菇云接连腾空而起</v>
+        <v>山东一恶势力团伙开赌场垄断生猪屠宰市场 涉4宗罪被判刑</v>
       </c>
       <c r="B113">
-        <v>305140</v>
+        <v>16815</v>
       </c>
       <c r="C113" t="str">
-        <v>2019-09-11 15:32</v>
+        <v>2019-12-20 15:19</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="str">
-        <v>小学生球迷抽烟被直播抓现行？原来竟是“逆生长”的36岁父亲</v>
+        <v>男子玩蹦床发生恐怖一幕：身体反向折叠180度吓坏网友</v>
       </c>
       <c r="B114">
-        <v>566751</v>
+        <v>65979</v>
       </c>
       <c r="C114" t="str">
-        <v>2019-09-11 15:32</v>
+        <v>2019-12-20 15:18</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="str">
-        <v>广西一二手宾利车网拍成交价1436万 拍卖行：客户说操作失误</v>
+        <v>山西襄汾商户称取暖炉被镇政府人员浇水禁用 县政府：在核实调查</v>
       </c>
       <c r="B115">
-        <v>736870</v>
+        <v>16168</v>
       </c>
       <c r="C115" t="str">
-        <v>2019-09-11 15:26</v>
+        <v>2019-12-20 15:08</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="str">
-        <v>震撼！江西1.5万学生化作星海庆祝教师节 老师的朋友圈刷了屏</v>
+        <v>女子横穿马路被撞 丈夫横穿马路接她也在同一地点被撞</v>
       </c>
       <c r="B116">
-        <v>29197</v>
+        <v>12948</v>
       </c>
       <c r="C116" t="str">
-        <v>2019-09-11 14:55</v>
+        <v>2019-12-20 15:03</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="str">
-        <v>上海迪士尼新规允许游客携带食品入园 将采用X光机但时间未定</v>
+        <v>深圳住建局回应二手房涨幅超5%可投诉：需存在串联涨价的行为</v>
       </c>
       <c r="B117">
-        <v>37641</v>
+        <v>28434</v>
       </c>
       <c r="C117" t="str">
-        <v>2019-09-11 14:49</v>
+        <v>2019-12-20 15:00</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="str">
-        <v>贵州一对母子同患重病 母亲放弃癌症治疗正筹款救子</v>
+        <v>男子将员工工资落在动车上 70多个信封装满现金</v>
       </c>
       <c r="B118">
-        <v>58816</v>
+        <v>6534</v>
       </c>
       <c r="C118" t="str">
-        <v>2019-09-11 14:48</v>
+        <v>2019-12-20 14:55</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="str">
-        <v>广西梧州市政协主席张学军接受审查调查 在梧州工作多年</v>
+        <v>最美国门名片 | 实拍移民警察宿舍盘查越南劳工 24小时巡逻只能睡车上</v>
       </c>
       <c r="B119">
-        <v>9982</v>
+        <v>12874</v>
       </c>
       <c r="C119" t="str">
-        <v>2019-09-11 14:46</v>
+        <v>2019-12-20 14:41</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="str">
-        <v>山西吕梁一道路塌陷掉进两辆车 车主：人没在车上</v>
+        <v>罕见大鱼“长脚”蹲坐深海 酷似岩石耐心等猎物上门</v>
       </c>
       <c r="B120">
-        <v>25364</v>
+        <v>7738</v>
       </c>
       <c r="C120" t="str">
-        <v>2019-09-11 14:36</v>
+        <v>2019-12-20 14:40</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="str">
-        <v>我们视频上线三周年 你认为3年能做什么？</v>
+        <v>甘肃一载33吨粗苯罐车被撞泄漏 2公里范围内人员疏散转移</v>
       </c>
       <c r="B121">
-        <v>17655</v>
+        <v>14741</v>
       </c>
       <c r="C121" t="str">
-        <v>2019-09-11 14:26</v>
+        <v>2019-12-20 14:37</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="str">
-        <v>男子登雪山失踪 好友花43年找到遗体：他不断呼唤我</v>
+        <v>老赖欠款200多万元潜逃国外：因生活太苦暴瘦近20斤 被遣返时满头白发</v>
       </c>
       <c r="B122">
-        <v>569950</v>
+        <v>16058</v>
       </c>
       <c r="C122" t="str">
-        <v>2019-09-11 14:14</v>
+        <v>2019-12-20 14:25</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="str">
-        <v>卡舒吉生前十分钟对话录音曝光 与暗杀小组周旋无果被残杀肢解</v>
+        <v>一箭九星！中巴地球资源04A星成功发射升空</v>
       </c>
       <c r="B123">
-        <v>89074</v>
+        <v>7034</v>
       </c>
       <c r="C123" t="str">
-        <v>2019-09-11 13:17</v>
+        <v>2019-12-20 13:58</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="str">
-        <v>石家庄一轿车被困地道桥下 村民砸窗营救司机</v>
+        <v>你家的摄像头可能被控制了！男子收集3870部视频对外出售</v>
       </c>
       <c r="B124">
-        <v>11310</v>
+        <v>25826</v>
       </c>
       <c r="C124" t="str">
-        <v>2019-09-11 12:49</v>
+        <v>2019-12-20 13:57</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="str">
-        <v>英国首相参观小学：积极举手发言 还建议“别喝醉”</v>
+        <v>香港医管局主席：医护人员罢工不可接受 将按守则条例严肃跟进</v>
       </c>
       <c r="B125">
-        <v>11023</v>
+        <v>26852</v>
       </c>
       <c r="C125" t="str">
-        <v>2019-09-11 12:01</v>
+        <v>2019-12-20 13:57</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="str">
-        <v>紧急呼叫 | 贵州一校长给化妆女生擦脸引热议 家长：支持校长</v>
+        <v>香港水警快艇追截可疑船只时翻沉 三名水警坠海受伤</v>
       </c>
       <c r="B126">
-        <v>937407</v>
+        <v>12126</v>
       </c>
       <c r="C126" t="str">
-        <v>2019-09-11 11:55</v>
+        <v>2019-12-20 13:28</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="str">
-        <v>人工智能成国画大师：设计初衷是懒得帮朋友画画</v>
+        <v>李阳前妻Kim鼓励宇芽：她会拥有闪亮的生活</v>
       </c>
       <c r="B127">
-        <v>9469</v>
+        <v>11418</v>
       </c>
       <c r="C127" t="str">
-        <v>2019-09-11 11:49</v>
+        <v>2019-12-20 13:16</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="str">
-        <v>机智司机怕吃罚单 驾照保单合格证一股脑全贴上头盔</v>
+        <v>吉林长春多车陷入一桥洞冰窟窿 村支书：有警示牌 司机不听劝</v>
       </c>
       <c r="B128">
-        <v>20270</v>
+        <v>13446</v>
       </c>
       <c r="C128" t="str">
-        <v>2019-09-11 11:45</v>
+        <v>2019-12-20 13:15</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="str">
-        <v>新疆多地出现降雪天气 车辆被困交警劝返游客</v>
+        <v>专访“疯狂英语”李阳前妻Kim：他至今没有认识到自己错误</v>
       </c>
       <c r="B129">
-        <v>11488</v>
+        <v>313791</v>
       </c>
       <c r="C129" t="str">
-        <v>2019-09-11 11:37</v>
+        <v>2019-12-20 13:08</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="str">
-        <v>男子骑车被撞倒卷入车底拖行十余米 接下来这一幕让人感动</v>
+        <v>百城住宅库存同比连增12个月 年内已有300多家房企发破产文书</v>
       </c>
       <c r="B130">
-        <v>10797</v>
+        <v>16780</v>
       </c>
       <c r="C130" t="str">
-        <v>2019-09-11 10:39</v>
+        <v>2019-12-20 13:00</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="str">
-        <v>浙江警方演练“超硬核”：徒手爬5层高楼 掷爆震弹压制“暴徒”</v>
+        <v>新议会开幕科尔宾硬着头皮参加 记者这个问题气得他摔门就走</v>
       </c>
       <c r="B131">
-        <v>364803</v>
+        <v>5108</v>
       </c>
       <c r="C131" t="str">
-        <v>2019-09-11 10:36</v>
+        <v>2019-12-20 13:00</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="str">
-        <v>特朗普“炒掉”第三任国家安全事务助理 本人发文：我是主动辞职</v>
+        <v>专访Kim：没和李阳复婚 称他“丈夫”是照顾孩子感受</v>
       </c>
       <c r="B132">
-        <v>22095</v>
+        <v>18604</v>
       </c>
       <c r="C132" t="str">
-        <v>2019-09-11 10:28</v>
+        <v>2019-12-20 12:58</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="str">
-        <v>江西一男子上山拜佛抄近路被困陡峭岩壁 消防爬山救人</v>
+        <v>野鹿屁卡围栏一脸生无可恋等待救援 得救后“腿麻”跑得踉踉跄跄</v>
       </c>
       <c r="B133">
-        <v>40082</v>
+        <v>52717</v>
       </c>
       <c r="C133" t="str">
-        <v>2019-09-11 10:25</v>
+        <v>2019-12-20 12:43</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="str">
-        <v>韩国法务部长官丑闻缠身中上任 女议员当众剃光头抗议</v>
+        <v>实拍600吨走私白糖被南通海关现场查扣 5人被抓获</v>
       </c>
       <c r="B134">
-        <v>31164</v>
+        <v>9891</v>
       </c>
       <c r="C134" t="str">
-        <v>2019-09-11 10:13</v>
+        <v>2019-12-20 12:23</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="str">
-        <v>苹果发布三款新iPhone 六种颜色可选主打摄像</v>
+        <v>谈判再次破裂 韩方拒绝承担美军在朝鲜半岛外费用</v>
       </c>
       <c r="B135">
-        <v>7660</v>
+        <v>27546</v>
       </c>
       <c r="C135" t="str">
-        <v>2019-09-11 09:50</v>
+        <v>2019-12-20 12:23</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="str">
-        <v>苹果发布三款新iPhone 六种颜色可选主打摄像</v>
+        <v>女子直播中为遭霸凌儿子出气 扬言要打爆霸凌者头后被捕</v>
       </c>
       <c r="B136">
-        <v>80705</v>
+        <v>9557</v>
       </c>
       <c r="C136" t="str">
-        <v>2019-09-11 08:42</v>
+        <v>2019-12-20 12:22</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="str">
-        <v>马云再现朋克造型 演唱《怒放的生命》宣告卸任</v>
+        <v>安徽留守老人失踪两年后遗体在水库内被发现 警方悬赏5万元征集线索</v>
       </c>
       <c r="B137">
-        <v>582083</v>
+        <v>19671</v>
       </c>
       <c r="C137" t="str">
-        <v>2019-09-11 00:38</v>
+        <v>2019-12-20 12:15</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="str">
-        <v>横冲直撞！游行中大象忽然发飙 至少17人在踩踏中受伤</v>
+        <v>专访李阳前妻Kim：我为什么会说原谅</v>
       </c>
       <c r="B138">
-        <v>17742</v>
+        <v>737336</v>
       </c>
       <c r="C138" t="str">
-        <v>2019-09-11 00:31</v>
+        <v>2019-12-20 12:13</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="str">
-        <v>伊拉克一圣殿发生踩踏事故 至少31人死亡超百人受伤</v>
+        <v>南阳一小区高楼起火男子爬窗坠楼 警方：已认定系自杀事故</v>
       </c>
       <c r="B139">
-        <v>91166</v>
+        <v>15338</v>
       </c>
       <c r="C139" t="str">
-        <v>2019-09-11 00:24</v>
+        <v>2019-12-20 12:10</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="str">
-        <v>阿里成立20周年！马云：世界那么好 我希望换个江湖</v>
+        <v>大选惨败心情差 科尔宾与约翰逊并肩走全程“扑克脸”</v>
       </c>
       <c r="B140">
-        <v>59481</v>
+        <v>21561</v>
       </c>
       <c r="C140" t="str">
-        <v>2019-09-11 00:22</v>
+        <v>2019-12-20 12:06</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="str">
-        <v>骑摩托超速男子拿出“地球通行证”：这是地球英雄颁发的</v>
+        <v>江苏南通一工地脚手架倒塌致1死9伤 现场画面曝光</v>
       </c>
       <c r="B141">
-        <v>46554</v>
+        <v>255020</v>
       </c>
       <c r="C141" t="str">
-        <v>2019-09-11 00:17</v>
+        <v>2019-12-20 12:03</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="str">
-        <v>香港记者会上内地记者提问遭现场记者多次打断 还被质疑为假记者</v>
+        <v>未受到此前路面塌陷事故影响 厦门地铁2号线将于25日开通运营</v>
       </c>
       <c r="B142">
-        <v>486335</v>
+        <v>8589</v>
       </c>
       <c r="C142" t="str">
-        <v>2019-09-11 00:14</v>
+        <v>2019-12-20 12:02</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="str">
-        <v>陈迪说：不是所有人的梦想都是赚大钱长命百岁</v>
+        <v>上海火车站一女子抱走女童被当场抓获 警方：因涉嫌拐骗儿童被刑拘</v>
       </c>
       <c r="B143">
-        <v>9020</v>
+        <v>273416</v>
       </c>
       <c r="C143" t="str">
-        <v>2019-09-11 00:01</v>
+        <v>2019-12-20 11:52</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="str">
-        <v>男子想融资400万做麻辣小吃 狠砸法拉利试图引出老板谈判</v>
+        <v>四川一对师生爆发冲突从教室打到办公室 教育局：正调查 老师被停职</v>
       </c>
       <c r="B144">
-        <v>76056</v>
+        <v>1200628</v>
       </c>
       <c r="C144" t="str">
-        <v>2019-09-10 21:39</v>
+        <v>2019-12-20 11:47</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="str">
-        <v>兰州黑社会性质组织利用网上恶名给成员排名 35人被判刑</v>
+        <v>皮卡冲进机场航站楼撞上服务台 两员工急忙蹲下逃过一劫</v>
       </c>
       <c r="B145">
-        <v>34335</v>
+        <v>18411</v>
       </c>
       <c r="C145" t="str">
-        <v>2019-09-10 21:29</v>
+        <v>2019-12-20 11:41</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="str">
-        <v>10岁男孩为能捐献骨髓决定增肥救父：吃不下饭吐了再坚持吃</v>
+        <v>河北唐山曹妃甸4只白鹳疑似中毒死亡 国家林业和草原局派员进驻</v>
       </c>
       <c r="B146">
-        <v>80526</v>
+        <v>17611</v>
       </c>
       <c r="C146" t="str">
-        <v>2019-09-10 21:25</v>
+        <v>2019-12-20 11:29</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="str">
-        <v>北京先农坛时隔百年再迎丰收 开放首日市民冒雨来观展</v>
+        <v>村干部谈“广西老人惨遭三车连撞死亡”：他无儿无女 当天独自前往看病</v>
       </c>
       <c r="B147">
-        <v>5241</v>
+        <v>133423</v>
       </c>
       <c r="C147" t="str">
-        <v>2019-09-10 21:25</v>
+        <v>2019-12-20 11:25</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="str">
-        <v>两岁女童误食农药危在旦夕 民警高速飙车将其从生死线救回</v>
+        <v>监控拍下瞬间：公交司机双手撒开方向盘低头看手机 3秒后追尾前车</v>
       </c>
       <c r="B148">
-        <v>33820</v>
+        <v>51150</v>
       </c>
       <c r="C148" t="str">
-        <v>2019-09-10 21:23</v>
+        <v>2019-12-20 11:21</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="str">
-        <v>45份学生早餐39个鸡蛋竟没人吃 老师发现部分学生不会剥鸡蛋</v>
+        <v>民主党议员弹劾投票现场“跳反” 获特朗普会见高调转投共和党</v>
       </c>
       <c r="B149">
-        <v>55922</v>
+        <v>35267</v>
       </c>
       <c r="C149" t="str">
-        <v>2019-09-10 21:20</v>
+        <v>2019-12-20 10:43</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="str">
-        <v>女孩用易拉罐炸爆米花烧伤离世 “办公室小野”称并非模仿她</v>
+        <v>浙江松阳矿山塌方已找到2名失联人员 无生命体征</v>
       </c>
       <c r="B150">
-        <v>1109734</v>
+        <v>16254</v>
       </c>
       <c r="C150" t="str">
-        <v>2019-09-10 21:20</v>
+        <v>2019-12-20 10:31</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="str">
-        <v>监拍生死瞬间：渣土车撞上小轿车 轿车司机险被埋</v>
+        <v>“网传应县警察打人”视频引关注 警方：系故意制造假象 2人被拘留</v>
       </c>
       <c r="B151">
-        <v>3449020</v>
+        <v>19586</v>
       </c>
       <c r="C151" t="str">
-        <v>2019-09-10 21:18</v>
+        <v>2019-12-20 10:19</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="str">
-        <v>毒贩将54公斤麻果藏身50吨菠萝中 十余民警“卸车”忙一通宵</v>
+        <v>贵州一镇长受贿百万获刑五年 曾和女局长一起公开检讨</v>
       </c>
       <c r="B152">
-        <v>43858</v>
+        <v>11244</v>
       </c>
       <c r="C152" t="str">
-        <v>2019-09-10 20:09</v>
+        <v>2019-12-20 10:08</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="str">
-        <v>邢台一女子意外切断4根手指 交警护送22个红绿灯15分钟通过</v>
+        <v>前苏联最后一位领导人戈尔巴乔夫因肺炎住院</v>
       </c>
       <c r="B153">
-        <v>21066</v>
+        <v>6893</v>
       </c>
       <c r="C153" t="str">
-        <v>2019-09-10 20:00</v>
+        <v>2019-12-20 09:50</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="str">
-        <v>河南灵宝发掘大型汉古墓葬76座 墓主人或为郭姓望族</v>
+        <v>贵州一镇长受贿百万获刑五年 曾和女局长一起公开检讨</v>
       </c>
       <c r="B154">
-        <v>36134</v>
+        <v>40067</v>
       </c>
       <c r="C154" t="str">
-        <v>2019-09-10 19:45</v>
+        <v>2019-12-20 09:33</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="str">
-        <v>男子捕获4米长巨型鳄鱼 被吊起后人类高度只到其尾部</v>
+        <v>俄联邦安全局附近发生枪击致1死5伤 死者为安全局雇员</v>
       </c>
       <c r="B155">
-        <v>44189</v>
+        <v>5713</v>
       </c>
       <c r="C155" t="str">
-        <v>2019-09-10 19:35</v>
+        <v>2019-12-20 08:53</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="str">
-        <v>两头牛在公路上“跳探戈” 过往车辆行人不敢“拆散”只能避让</v>
+        <v>湖南汉寿一男子砍死妻女砍伤父母 警方称其生意亏损有轻生念头</v>
       </c>
       <c r="B156">
-        <v>73031</v>
+        <v>13707</v>
       </c>
       <c r="C156" t="str">
-        <v>2019-09-10 19:35</v>
+        <v>2019-12-19 23:01</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="str">
-        <v>爱作词的配音达人是名语文老师：想把配音融入教学</v>
+        <v>普京谈俄罗斯女总统应具备什么素质：和男总统一样</v>
       </c>
       <c r="B157">
-        <v>60285</v>
+        <v>148855</v>
       </c>
       <c r="C157" t="str">
-        <v>2019-09-10 19:25</v>
+        <v>2019-12-19 22:52</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="str">
-        <v>巴西总统手术后住院 休养生活揭秘：躺在床上看墨西哥肥皂剧</v>
+        <v>“奶奶级杀手”谋杀亲夫后 再杀一名外貌相近女子盗其身份逃亡</v>
       </c>
       <c r="B158">
-        <v>9475</v>
+        <v>9384</v>
       </c>
       <c r="C158" t="str">
-        <v>2019-09-10 19:05</v>
+        <v>2019-12-19 22:34</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="str">
-        <v>走失萌娃被民警带到派出所睡觉 天亮后一掀被子民警笑到说不出话</v>
+        <v>记者会上被问及执政生涯中最糟糕回忆 普京提到了这起事件</v>
       </c>
       <c r="B159">
-        <v>169178</v>
+        <v>6146</v>
       </c>
       <c r="C159" t="str">
-        <v>2019-09-10 18:46</v>
+        <v>2019-12-19 22:19</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="str">
-        <v>全国临时乘机证明系统15日启用 记者亲测：一分钟内可办好</v>
+        <v>中国船员疑遭马达加斯加扣押 家属讲述探监细节：见面都在哭</v>
       </c>
       <c r="B160">
-        <v>88941</v>
+        <v>29582</v>
       </c>
       <c r="C160" t="str">
-        <v>2019-09-10 18:34</v>
+        <v>2019-12-19 21:47</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="str">
-        <v>山东省人大常委会原委员刘士合受贿5589余万元 获刑15年</v>
+        <v>女子潜水意外邂逅巨形座头鲸 整个人被猛撞场面惊险</v>
       </c>
       <c r="B161">
-        <v>35321</v>
+        <v>80883</v>
       </c>
       <c r="C161" t="str">
-        <v>2019-09-10 18:30</v>
+        <v>2019-12-19 21:43</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="str">
-        <v>公安交管6项新措施9月20日起推行 购车无需再去车管所登记</v>
+        <v>山东菏泽一商铺起火蔓延整栋 目击者：多辆汽车被火引燃</v>
       </c>
       <c r="B162">
-        <v>335775</v>
+        <v>7230</v>
       </c>
       <c r="C162" t="str">
-        <v>2019-09-10 18:26</v>
+        <v>2019-12-19 21:39</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="str">
-        <v>茅台起诉商标评审委员会案败诉 法院：“国宴”商标带有欺骗性</v>
+        <v>巴基斯坦前总统发视频回应“被判死刑”：都是私人恩怨</v>
       </c>
       <c r="B163">
-        <v>12910</v>
+        <v>11320</v>
       </c>
       <c r="C163" t="str">
-        <v>2019-09-10 18:18</v>
+        <v>2019-12-19 21:37</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="str">
-        <v>走失萌娃被民警带到派出所睡觉 第二天一掀被子民警笑到说不出话</v>
+        <v>接警员凌晨两点半接到神秘来电：你们负责捞尸嘛？</v>
       </c>
       <c r="B164">
-        <v>4472455</v>
+        <v>8177</v>
       </c>
       <c r="C164" t="str">
-        <v>2019-09-10 18:10</v>
+        <v>2019-12-19 21:29</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="str">
-        <v>国家一级词作家佘致迪因病逝世 其填词歌曲《辣妹子》被广为传唱</v>
+        <v>大货车撞上轿车竟毫无知觉 将其铲出数百米路过司机狂按喇叭提醒</v>
       </c>
       <c r="B165">
-        <v>86224</v>
+        <v>29195</v>
       </c>
       <c r="C165" t="str">
-        <v>2019-09-10 18:09</v>
+        <v>2019-12-19 21:12</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="str">
-        <v>5G时代到来 “手术刀”延伸至千里之外成功完成手术</v>
+        <v>普京谈特朗普弹劾案：这是美国国内的政治斗争</v>
       </c>
       <c r="B166">
-        <v>46218</v>
+        <v>488441</v>
       </c>
       <c r="C166" t="str">
-        <v>2019-09-10 18:08</v>
+        <v>2019-12-19 20:31</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="str">
-        <v>2019年，这些老师你可能无法忘怀……</v>
+        <v>王力宏回应被娃哈哈解约：一块长大的 会继续喝</v>
       </c>
       <c r="B167">
-        <v>52687</v>
+        <v>516778</v>
       </c>
       <c r="C167" t="str">
-        <v>2019-09-10 18:07</v>
+        <v>2019-12-19 20:20</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="str">
-        <v>“海归”大熊猫隆浜迎16岁生日 与双胞胎弟弟秋浜远程视频连线</v>
+        <v>女子强迫男子与其过夜但男子不从 女子报警求主持公道结果双双被拘</v>
       </c>
       <c r="B168">
-        <v>20178</v>
+        <v>473415</v>
       </c>
       <c r="C168" t="str">
-        <v>2019-09-10 18:05</v>
+        <v>2019-12-19 20:15</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="str">
-        <v>男子横穿马路被撞倒 对面一条小狗的操作亮了</v>
+        <v>吓人！司机太紧张操作不当 皮卡车冲出斜坡“挂”在菜市场</v>
       </c>
       <c r="B169">
-        <v>12407</v>
+        <v>36769</v>
       </c>
       <c r="C169" t="str">
-        <v>2019-09-10 17:58</v>
+        <v>2019-12-19 20:11</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="str">
-        <v>四川自贡暴雨淹没多车 交警数脚踹破车玻璃救人</v>
+        <v>清华海归博士孙夕庆案入选国家赔偿典型案例：已拿到54万赔偿金</v>
       </c>
       <c r="B170">
-        <v>6170</v>
+        <v>15011</v>
       </c>
       <c r="C170" t="str">
-        <v>2019-09-10 17:57</v>
+        <v>2019-12-19 19:58</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="str">
-        <v>女子逆行强闯出站口拽碎玻璃门 警方：涉嫌扰乱车站秩序行拘5日</v>
+        <v>16岁少女离家出走称被父亲猥亵 民警一查实际上去投奔18岁男友</v>
       </c>
       <c r="B171">
-        <v>26396</v>
+        <v>37246</v>
       </c>
       <c r="C171" t="str">
-        <v>2019-09-10 16:39</v>
+        <v>2019-12-19 19:49</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="str">
-        <v>郴州警方悬赏120万缉捕12名嫌凶  提供线索可奖10万</v>
+        <v>山西洪洞一村委用水泥封堵村民炉灶引不满：天然气费用高难承受</v>
       </c>
       <c r="B172">
-        <v>57079</v>
+        <v>2571235</v>
       </c>
       <c r="C172" t="str">
-        <v>2019-09-10 16:27</v>
+        <v>2019-12-19 19:48</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="str">
-        <v>揭秘阿里新董事长张勇：一手打造“双11”全民狂购节</v>
+        <v>全国百大打车难地点出炉 高德打车推出“打车难补贴券”</v>
       </c>
       <c r="B173">
-        <v>1787</v>
+        <v>9156</v>
       </c>
       <c r="C173" t="str">
-        <v>2019-09-10 15:37</v>
+        <v>2019-12-19 19:47</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="str">
-        <v>最壮观教师节庆祝仪式：万名学生开闪光灯 齐喊节日快乐场面震撼</v>
+        <v>普京年度记者会再谈俄罗斯被禁赛：有人想“清除”俄运动员</v>
       </c>
       <c r="B174">
-        <v>32613</v>
+        <v>23096</v>
       </c>
       <c r="C174" t="str">
-        <v>2019-09-10 15:14</v>
+        <v>2019-12-19 19:43</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="str">
-        <v>厦门六中合唱团发新MV《因为你》 纪念离世老师高至凡</v>
+        <v>默克尔：不会将华为排除出德国市场 中方没施压</v>
       </c>
       <c r="B175">
-        <v>70283</v>
+        <v>22145</v>
       </c>
       <c r="C175" t="str">
-        <v>2019-09-10 14:45</v>
+        <v>2019-12-19 19:36</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="str">
-        <v>香港旅游巴士慢驶游行：旅游业仅旺季十分之一 导游两个月没收入</v>
+        <v>52岁CEO拍心酸视频自白：我没有一个朋友 打动数百万网友</v>
       </c>
       <c r="B176">
-        <v>428848</v>
+        <v>18070</v>
       </c>
       <c r="C176" t="str">
-        <v>2019-09-10 14:40</v>
+        <v>2019-12-19 19:28</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="str">
-        <v>揭秘阿里新董事长张勇：一手打造“双11”全民狂购节</v>
+        <v>贵州遵义4车相撞致1死3伤 消防员正好路过紧急施救</v>
       </c>
       <c r="B177">
-        <v>63684</v>
+        <v>16734</v>
       </c>
       <c r="C177" t="str">
-        <v>2019-09-10 14:40</v>
+        <v>2019-12-19 19:26</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="str">
-        <v>90后支教老师被叛逆学生气哭 却用读书让学生变成“阅读之星”</v>
+        <v>澳山火肆虐但水源短缺 直升机只好从居民游泳池“打水”灭火</v>
       </c>
       <c r="B178">
-        <v>22169</v>
+        <v>5844</v>
       </c>
       <c r="C178" t="str">
-        <v>2019-09-10 14:39</v>
+        <v>2019-12-19 19:01</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="str">
-        <v>马云卸任多家阿里公司职务 仍为高德、口碑最终受益人</v>
+        <v>纽约遭罕见“雪飑”袭击：排山倒海宛如世界末日</v>
       </c>
       <c r="B179">
-        <v>78582</v>
+        <v>16729</v>
       </c>
       <c r="C179" t="str">
-        <v>2019-09-10 14:34</v>
+        <v>2019-12-19 18:56</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="str">
-        <v>最宽长江大桥主体完工 主桥钢梁全悬浮靠拉力支撑</v>
+        <v>9名中国船员疑遭马达加斯加强制监禁 狱中录视频“喊冤”</v>
       </c>
       <c r="B180">
-        <v>80452</v>
+        <v>318593</v>
       </c>
       <c r="C180" t="str">
-        <v>2019-09-10 14:29</v>
+        <v>2019-12-19 18:54</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="str">
-        <v>紧急呼叫丨黑猫警长之父戴铁郎追悼会：有人以可乐咖啡祭奠</v>
+        <v>丈夫忘买鸡腿后被妻子捅死案开庭 妻子：我不该一时冲动</v>
       </c>
       <c r="B181">
-        <v>50438</v>
+        <v>276625</v>
       </c>
       <c r="C181" t="str">
-        <v>2019-09-10 14:22</v>
+        <v>2019-12-19 18:54</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="str">
-        <v>飞机降落时爆胎机身狂抖不止 乘客：让我们活着吧</v>
+        <v>监拍：骑车男子闯红灯被夹入两车 车身粉碎男子奇迹站起生还</v>
       </c>
       <c r="B182">
-        <v>133902</v>
+        <v>36521</v>
       </c>
       <c r="C182" t="str">
-        <v>2019-09-10 14:15</v>
+        <v>2019-12-19 18:47</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="str">
-        <v>福建一男子沿路撒十余万元现金 警方：工作不顺一时冲动</v>
+        <v>郑州曹春生反击强拆致1死1伤获刑8年 律师：法院认定为防卫过当</v>
       </c>
       <c r="B183">
-        <v>478160</v>
+        <v>41570</v>
       </c>
       <c r="C183" t="str">
-        <v>2019-09-10 14:12</v>
+        <v>2019-12-19 18:47</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="str">
-        <v>小伙酒后误入海中被困4小时 天亮后遇退伍老兵获救</v>
+        <v>店主不扫门前垃圾城管放大招 送来百斤重钢筋水泥垃圾桶</v>
       </c>
       <c r="B184">
-        <v>21099</v>
+        <v>81723</v>
       </c>
       <c r="C184" t="str">
-        <v>2019-09-10 14:04</v>
+        <v>2019-12-19 18:41</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="str">
-        <v>最浪漫教师节惊喜！消防员到千里外幼儿园求婚 女友反应暖翻全场</v>
+        <v>一根烟头一支笔字迹“离奇”消失 45秒揭秘6000斤稻骗局</v>
       </c>
       <c r="B185">
-        <v>617015</v>
+        <v>38813</v>
       </c>
       <c r="C185" t="str">
-        <v>2019-09-10 13:43</v>
+        <v>2019-12-19 18:37</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="str">
-        <v>马云回湖畔花园忆阿里草创：创业不成就集体出去找工作</v>
+        <v>司机结冰路面行车发生侧翻 车辆旋转360度后出现神奇一幕</v>
       </c>
       <c r="B186">
-        <v>787570</v>
+        <v>48982</v>
       </c>
       <c r="C186" t="str">
-        <v>2019-09-10 13:34</v>
+        <v>2019-12-19 18:32</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="str">
-        <v>林郑月娥开记者会：对港铁遭到疯狂破坏感到痛心</v>
+        <v>温州一十字路口两车相撞 黑色宝马冲断护栏从桥上坠入河中</v>
       </c>
       <c r="B187">
-        <v>921230</v>
+        <v>25027</v>
       </c>
       <c r="C187" t="str">
-        <v>2019-09-10 13:27</v>
+        <v>2019-12-19 18:26</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="str">
-        <v>力大无处使？自行车栓树上偷不走 小偷竟然徒手掰断树</v>
+        <v>富豪为欢迎女儿回家竟这样装饰豪宅 家人接连摔跤差点崩溃</v>
       </c>
       <c r="B188">
-        <v>36231</v>
+        <v>27352</v>
       </c>
       <c r="C188" t="str">
-        <v>2019-09-10 13:02</v>
+        <v>2019-12-19 18:08</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="str">
-        <v>小伙酒后误入海中被困4小时 天亮后遇退伍老兵获救</v>
+        <v>安徽一藏獒发狂咬伤主人后又咬4人 民警紧急前往一枪毙命</v>
       </c>
       <c r="B189">
-        <v>17113</v>
+        <v>43061</v>
       </c>
       <c r="C189" t="str">
-        <v>2019-09-10 12:31</v>
+        <v>2019-12-19 18:05</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="str">
-        <v>受困司机血流不止 热心人用肩扛住伤者1个多小时</v>
+        <v>美国和漫威的“瓦坎达”有自由贸易协定？美国农业部这份名单“神了”</v>
       </c>
       <c r="B190">
-        <v>5691</v>
+        <v>6000</v>
       </c>
       <c r="C190" t="str">
-        <v>2019-09-10 12:26</v>
+        <v>2019-12-19 18:04</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="str">
-        <v>大型翻车现场！11辆赛车连环相撞 差点冲上观众席</v>
+        <v>宜宾煤矿事故井下救援视频曝光：56岁矿工赌命潜水10多米后获救</v>
       </c>
       <c r="B191">
-        <v>34529</v>
+        <v>252638</v>
       </c>
       <c r="C191" t="str">
-        <v>2019-09-10 12:17</v>
+        <v>2019-12-19 18:03</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="str">
-        <v>受困司机血流不止 热心人用肩扛住伤者1个半小时</v>
+        <v>价值14余万元的7块金条不翼而飞 失主民警认真排查得知真相后哭笑不得</v>
       </c>
       <c r="B192">
-        <v>118458</v>
+        <v>125550</v>
       </c>
       <c r="C192" t="str">
-        <v>2019-09-10 12:01</v>
+        <v>2019-12-19 17:47</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="str">
-        <v>怀疑有人出老千 赌友找警察评理全被处罚</v>
+        <v>紧急呼叫丨黑龙江一猪场架设干扰器致航班信号丢失 回应：怕无人机投放病毒</v>
       </c>
       <c r="B193">
-        <v>16509</v>
+        <v>484149</v>
       </c>
       <c r="C193" t="str">
-        <v>2019-09-10 11:44</v>
+        <v>2019-12-19 17:39</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="str">
-        <v>江苏一高校“渐冻症”教师坚持上课四年多：教学是我生命</v>
+        <v>四川一医院输液管现虫状异物追踪：问题输液器和抽检产品送省级机构检测</v>
       </c>
       <c r="B194">
-        <v>26183</v>
+        <v>31649</v>
       </c>
       <c r="C194" t="str">
-        <v>2019-09-10 11:33</v>
+        <v>2019-12-19 17:32</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="str">
-        <v>摩洛哥一辆客车被洪水卷走 造成至少17人死亡</v>
+        <v>南方人羡慕了！东北幼儿园老师花2小时 用雪建成雪迷宫</v>
       </c>
       <c r="B195">
-        <v>15573</v>
+        <v>13459</v>
       </c>
       <c r="C195" t="str">
-        <v>2019-09-10 11:01</v>
+        <v>2019-12-19 17:19</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="str">
-        <v>英女王批准法案阻止“硬脱欧” 政府70年来首次叫停议会</v>
+        <v>医生谈分娩镇痛率应纳入医疗机构管理指标：对麻醉学科发展是好事</v>
       </c>
       <c r="B196">
-        <v>20864</v>
+        <v>6995</v>
       </c>
       <c r="C196" t="str">
-        <v>2019-09-10 10:56</v>
+        <v>2019-12-19 17:11</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="str">
-        <v>8月CPI同比增长2.8%：猪肉价格上涨 水果跌一成</v>
+        <v>袁隆平海水稻团队亩产超400公斤 海水稻研究水平领先世界</v>
       </c>
       <c r="B197">
-        <v>177537</v>
+        <v>44309</v>
       </c>
       <c r="C197" t="str">
-        <v>2019-09-10 10:40</v>
+        <v>2019-12-19 17:09</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="str">
-        <v>直击特种兵魔鬼训练现场：过毒气抗饥饿练至手脚脱皮</v>
+        <v>商务部：关于《外商投资法》政府及其部门不得实行差别和歧视待遇</v>
       </c>
       <c r="B198">
-        <v>271454</v>
+        <v>5221</v>
       </c>
       <c r="C198" t="str">
-        <v>2019-09-10 10:21</v>
+        <v>2019-12-19 17:07</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="str">
-        <v>吉林一女子下车遭拒抢公交车方向盘 涉嫌危害公共安全罪被刑拘</v>
+        <v>7岁多动症男孩告诉父母“学校很可怕” 看到监控后家人心惊肉跳</v>
       </c>
       <c r="B199">
-        <v>30085</v>
+        <v>7229262</v>
       </c>
       <c r="C199" t="str">
-        <v>2019-09-10 10:18</v>
+        <v>2019-12-19 17:06</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="str">
-        <v>监拍：女子湍急洪水中挣扎逃命 突然消失溺毙在下水道内</v>
+        <v>女子横穿马路被撞 丈夫横穿马路接她也在同一地点被撞</v>
       </c>
       <c r="B200">
-        <v>93690</v>
+        <v>139852</v>
       </c>
       <c r="C200" t="str">
-        <v>2019-09-10 10:09</v>
+        <v>2019-12-19 17:03</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="str">
-        <v>辽阳男子抢走价值3万元钻戒 警方仅用3小时将其抓获</v>
+        <v>航拍：为庆祝辽宁舰“脱单” 哈工程师生3小时造出两艘雪地“航母”</v>
       </c>
       <c r="B201">
-        <v>5686</v>
+        <v>83892</v>
       </c>
       <c r="C201" t="str">
-        <v>2019-09-10 09:46</v>
+        <v>2019-12-19 16:45</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="str">
-        <v>贵州两孩子辍学家长放任不管 乡政府将家长告上法庭</v>
+        <v>香港6旬男子涉元朗站袭击案 现被加控串谋有意图伤人</v>
       </c>
       <c r="B202">
-        <v>20760</v>
+        <v>25054</v>
       </c>
       <c r="C202" t="str">
-        <v>2019-09-10 09:45</v>
+        <v>2019-12-19 16:31</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="str">
-        <v>香港民建联呼吁重振经济：旅游业遭受重创 市民出门都很担心</v>
+        <v>商务部：今天正在组织向市场投放4万吨中央储备猪肉</v>
       </c>
       <c r="B203">
-        <v>103090</v>
+        <v>12568</v>
       </c>
       <c r="C203" t="str">
-        <v>2019-09-10 09:16</v>
+        <v>2019-12-19 16:29</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="str">
-        <v>北京四合院PK西湖断桥，纷纷进军时尚界地标？</v>
+        <v>牙医版雪人：大夫为雪人装假牙 调试对话笑翻网友</v>
       </c>
       <c r="B204">
-        <v>12918</v>
+        <v>5236</v>
       </c>
       <c r="C204" t="str">
-        <v>2019-09-10 09:11</v>
+        <v>2019-12-19 16:24</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="str">
-        <v>吉林一女子下车遭拒抢公交车方向盘 涉嫌危害公共安全罪被刑拘</v>
+        <v>学生和保安起争执遭警棍打头 校方：涉事保安已开除</v>
       </c>
       <c r="B205">
-        <v>50933</v>
+        <v>9075</v>
       </c>
       <c r="C205" t="str">
-        <v>2019-09-09 23:24</v>
+        <v>2019-12-19 16:22</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="str">
-        <v>消防车出警被堵隧道 百辆车再现震撼“教科书式”让道</v>
+        <v>第一阶段经贸协议达成后 中国首度公布对美加征关税排除清单</v>
       </c>
       <c r="B206">
-        <v>477583</v>
+        <v>5979</v>
       </c>
       <c r="C206" t="str">
-        <v>2019-09-09 23:02</v>
+        <v>2019-12-19 16:19</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="str">
-        <v>济南格桑花海成“打卡”新坐标  不到一周就被严重践踏</v>
+        <v>女子大喊要炸飞机引发恐慌 事后她的解释令人崩溃</v>
       </c>
       <c r="B207">
-        <v>19450</v>
+        <v>16918</v>
       </c>
       <c r="C207" t="str">
-        <v>2019-09-09 23:01</v>
+        <v>2019-12-19 16:05</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="str">
-        <v>美华裔总统候选人被人群托举“漂流” 支持者高呼：他信任我们</v>
+        <v>辉山乳业被退市！实控人曾为身家260亿辽宁首富 如今成“老赖”</v>
       </c>
       <c r="B208">
-        <v>414068</v>
+        <v>32299</v>
       </c>
       <c r="C208" t="str">
-        <v>2019-09-09 22:29</v>
+        <v>2019-12-19 16:02</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="str">
-        <v>超惊险！7人组团在摩天大楼间走钢丝 又走又蹦危险动作不停</v>
+        <v>内江地震画面曝光：门框晃动丈夫大喊“过来” 一把拉过怀孕妻子拥入怀中</v>
       </c>
       <c r="B209">
-        <v>11436</v>
+        <v>3328665</v>
       </c>
       <c r="C209" t="str">
-        <v>2019-09-09 22:28</v>
+        <v>2019-12-19 16:00</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="str">
-        <v>男子骑车被撞倒卷入车底拖行十余米 接下来这一幕让人感动</v>
+        <v>不停向15岁学生发裸照 前美国小姐教师法庭痛哭</v>
       </c>
       <c r="B210">
-        <v>21770</v>
+        <v>22781</v>
       </c>
       <c r="C210" t="str">
-        <v>2019-09-09 22:19</v>
+        <v>2019-12-19 15:55</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="str">
-        <v>人类迷惑行为大赏：最新版吉尼斯纪录出炉 中国小伙双截棍灭蜡烛</v>
+        <v>男子买单没抢过朋友怒了 朝对方脸上就是一拳</v>
       </c>
       <c r="B211">
-        <v>89502</v>
+        <v>19409</v>
       </c>
       <c r="C211" t="str">
-        <v>2019-09-09 22:17</v>
+        <v>2019-12-19 15:54</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="str">
-        <v>航拍骇人一幕：巨型鳄鱼叼着整头牛缓缓游动</v>
+        <v>紧急呼叫丨河南“被结婚” 5次女子现身：一结婚对象已去世 却显示在婚</v>
       </c>
       <c r="B212">
-        <v>210942</v>
+        <v>183084</v>
       </c>
       <c r="C212" t="str">
-        <v>2019-09-09 22:12</v>
+        <v>2019-12-19 15:49</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="str">
-        <v>紧急呼叫｜江苏女足教练被举报让女生脱衣练自信 多部门介入调查</v>
+        <v>看印度如何给车上牌照：一笔一划全靠手画 比印的还工整</v>
       </c>
       <c r="B213">
-        <v>103</v>
+        <v>35441</v>
       </c>
       <c r="C213" t="str">
-        <v>2019-09-09 22:08</v>
+        <v>2019-12-19 15:28</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="str">
-        <v>乘客讲述中国男子在国际航班上直冲驾驶舱：他用拳头狂敲舱门</v>
+        <v>杭州径山寺等地下雪 网友：杭州终于挤进了下雪的行列</v>
       </c>
       <c r="B214">
-        <v>43560</v>
+        <v>93196</v>
       </c>
       <c r="C214" t="str">
-        <v>2019-09-09 22:03</v>
+        <v>2019-12-19 15:09</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="str">
-        <v>天降纸团写满“救命” 民警紧急调查发现虚惊一场</v>
+        <v>众议院通过特朗普弹劾条款 佩洛西：今天是个好日子</v>
       </c>
       <c r="B215">
-        <v>43203</v>
+        <v>29557</v>
       </c>
       <c r="C215" t="str">
-        <v>2019-09-09 22:02</v>
+        <v>2019-12-19 15:08</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="str">
-        <v>七旬老太陷“杀猪盘”：拿8万元给“老公”汇钱 却记不住他名字</v>
+        <v>玉林容县风力发电机发生爆炸？ 事发地实为葡萄牙</v>
       </c>
       <c r="B216">
-        <v>2817308</v>
+        <v>4166</v>
       </c>
       <c r="C216" t="str">
-        <v>2019-09-09 21:53</v>
+        <v>2019-12-19 14:54</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="str">
-        <v>“低调”“淡定”？北京一男子cosplay警车被警察抓现行</v>
+        <v>紧急呼叫｜三位宜宾矿工还原井下时刻：曾尝试用塑料管作呼吸器潜水出去</v>
       </c>
       <c r="B217">
-        <v>410313</v>
+        <v>101564</v>
       </c>
       <c r="C217" t="str">
-        <v>2019-09-09 21:53</v>
+        <v>2019-12-19 14:50</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="str">
-        <v>紧急呼叫｜江苏女足教练被举报让女生脱衣练自信 多部门介入调查</v>
+        <v>澳山火肆虐总理却被曝出国度假 民众抗议：莫里森你死哪儿去了</v>
       </c>
       <c r="B218">
-        <v>960917</v>
+        <v>11253</v>
       </c>
       <c r="C218" t="str">
-        <v>2019-09-09 21:51</v>
+        <v>2019-12-19 14:34</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="str">
-        <v>湖南一高校挂“高冷”甲骨文横幅迎新  网友：假装能看懂</v>
+        <v>谈及同事过劳心脏病发 香港警方指挥官洒泪：香港真的需要我们</v>
       </c>
       <c r="B219">
-        <v>16822</v>
+        <v>88261</v>
       </c>
       <c r="C219" t="str">
-        <v>2019-09-09 21:50</v>
+        <v>2019-12-19 14:32</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="str">
-        <v>公安部A级通缉犯吃火锅暴露行踪被抓 平时出门扮成外卖小哥</v>
+        <v>主播女友提分手 男子崩溃颤抖大哭：一口气喝下半斤白酒和20多颗头孢</v>
       </c>
       <c r="B220">
-        <v>162610</v>
+        <v>41268</v>
       </c>
       <c r="C220" t="str">
-        <v>2019-09-09 21:41</v>
+        <v>2019-12-19 14:29</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="str">
-        <v>北京大风暴雨“撞上”早晚高峰 夜间仍有大风降雨小冰雹</v>
+        <v>联邦快递股价暴跌 国家贸易紧张局势为原因之一</v>
       </c>
       <c r="B221">
-        <v>31136</v>
+        <v>17427</v>
       </c>
       <c r="C221" t="str">
-        <v>2019-09-09 21:34</v>
+        <v>2019-12-19 14:23</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="str">
-        <v>广东汕尾惊现小型龙卷风 气象部门：万幸未接地</v>
+        <v>日网售中国制造儿童救生衣 称可漂浮24小时结果20秒就沉底</v>
       </c>
       <c r="B222">
-        <v>25693</v>
+        <v>33537</v>
       </c>
       <c r="C222" t="str">
-        <v>2019-09-09 21:31</v>
+        <v>2019-12-19 14:21</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="str">
-        <v>新海诚新作《天气之子》引进内地 票房在日本已获今年冠军</v>
+        <v>村民遇塌方被埋只剩头露地面 警民上演3小时生死营救</v>
       </c>
       <c r="B223">
-        <v>11706</v>
+        <v>32834</v>
       </c>
       <c r="C223" t="str">
-        <v>2019-09-09 20:57</v>
+        <v>2019-12-19 14:00</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="str">
-        <v>揭秘“硬核”物理老师科普幕后 ：教你用数学恋爱 学的定会用到</v>
+        <v>2019中国年度新锐榜发布 《我们视频》陈迪获得年度知道分子称号</v>
       </c>
       <c r="B224">
-        <v>282872</v>
+        <v>291</v>
       </c>
       <c r="C224" t="str">
-        <v>2019-09-09 20:57</v>
+        <v>2019-12-19 13:21</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="str">
-        <v>别人家老师：为给学生开学惊喜 教室天花板画星空胳膊累到抬不起</v>
+        <v>临沂重型半挂车连撞十余车现场一片狼籍 交警：4人受伤</v>
       </c>
       <c r="B225">
-        <v>362698</v>
+        <v>6913</v>
       </c>
       <c r="C225" t="str">
-        <v>2019-09-09 20:51</v>
+        <v>2019-12-19 13:20</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="str">
-        <v>马云张勇关系有多铁？多段同框视频看两人情同手足</v>
+        <v>流浪老人自制“电动房车”违规上路 交警拦停处理结局暖心</v>
       </c>
       <c r="B226">
-        <v>275688</v>
+        <v>16949</v>
       </c>
       <c r="C226" t="str">
-        <v>2019-09-09 20:51</v>
+        <v>2019-12-19 13:00</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="str">
-        <v>遵义男子求复合未果喝药跳河轻生 民警水下托举其半小时</v>
+        <v>山西交口道尔驾校称不识字花钱办驾照 车管所：驾校3人被开除</v>
       </c>
       <c r="B227">
-        <v>20398</v>
+        <v>16869</v>
       </c>
       <c r="C227" t="str">
-        <v>2019-09-09 20:46</v>
+        <v>2019-12-19 12:51</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="str">
-        <v>阿里巴巴20周岁在即 创始“十八罗汉”如今何在</v>
+        <v>矿难集中爆发 贵州叫停年产30万吨以下小煤矿生产</v>
       </c>
       <c r="B228">
-        <v>308053</v>
+        <v>6365</v>
       </c>
       <c r="C228" t="str">
-        <v>2019-09-09 20:19</v>
+        <v>2019-12-19 12:36</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="str">
-        <v>男子抢劫网约车司机要走银行卡密码 头戴纸尿裤ATM机取走存款</v>
+        <v>2019中国年度新锐榜发布 《我们视频》陈迪获得年度知道分子称号</v>
       </c>
       <c r="B229">
-        <v>24570</v>
+        <v>11559</v>
       </c>
       <c r="C229" t="str">
-        <v>2019-09-09 19:51</v>
+        <v>2019-12-19 12:35</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="str">
-        <v>紧急呼叫丨Costco开业半月重访 有顾客称会员制是个"坑"</v>
+        <v>少女私闯机场偷开飞机 结果还没起飞就悲剧了</v>
       </c>
       <c r="B230">
-        <v>59814</v>
+        <v>20650</v>
       </c>
       <c r="C230" t="str">
-        <v>2019-09-09 19:35</v>
+        <v>2019-12-19 12:28</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="str">
-        <v>福建渔民海上被缆绳击伤 救援人员直升机空降连呼“我带你回家”</v>
+        <v>山东济宁男子街头脚踹路过女子泄私愤 不敢惹男的怕挨打</v>
       </c>
       <c r="B231">
-        <v>24299</v>
+        <v>36930</v>
       </c>
       <c r="C231" t="str">
-        <v>2019-09-09 19:19</v>
+        <v>2019-12-19 12:22</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="str">
-        <v>云南拍到印度野牛珍贵视频：体型是家牛两倍 国内比熊猫稀少</v>
+        <v>抗议者混进集会拉横幅“你要下台了” 特朗普怒呛：赶她出去！</v>
       </c>
       <c r="B232">
-        <v>128681</v>
+        <v>215884</v>
       </c>
       <c r="C232" t="str">
-        <v>2019-09-09 19:19</v>
+        <v>2019-12-19 12:13</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="str">
-        <v>贵州毕节金沙县遭特大暴雨袭击 村民称多辆车被“冲进大海”</v>
+        <v>高校足球赛现VAR竟是学生自制 没想到还真发挥作用了</v>
       </c>
       <c r="B233">
-        <v>33292</v>
+        <v>9137</v>
       </c>
       <c r="C233" t="str">
-        <v>2019-09-09 19:15</v>
+        <v>2019-12-19 11:59</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="str">
-        <v>你看到校园段子只能怀念 而90后老师带着“熊孩子”拍了出来</v>
+        <v>日本一波音客机起飞后冒黑烟 引擎火光清晰可见</v>
       </c>
       <c r="B234">
-        <v>138982</v>
+        <v>7156</v>
       </c>
       <c r="C234" t="str">
-        <v>2019-09-09 19:13</v>
+        <v>2019-12-19 11:53</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="str">
-        <v>紧急呼叫丨河南老虎脱逃马戏团为家庭作坊式 组织者无驯养证</v>
+        <v>顶级芭蕾舞学校曝丑闻：鼓励学生抽烟保持苗条</v>
       </c>
       <c r="B235">
-        <v>231869</v>
+        <v>26641</v>
       </c>
       <c r="C235" t="str">
-        <v>2019-09-09 19:13</v>
+        <v>2019-12-19 11:50</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="str">
-        <v>俄罗斯商场“跳楼大甩卖”人山人海涌入变“乱斗场”</v>
+        <v>白宫发声明谴责众议院通过弹劾 特朗普：很高兴共和党人都支持我</v>
       </c>
       <c r="B236">
-        <v>21765</v>
+        <v>137705</v>
       </c>
       <c r="C236" t="str">
-        <v>2019-09-09 18:54</v>
+        <v>2019-12-19 11:44</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="str">
-        <v>俄罗斯商场“跳楼大甩卖”人山人海涌入变“乱斗场”</v>
+        <v>一家人与蛇同住半个多月 知道蛇的品种后倒吸一口凉气</v>
       </c>
       <c r="B237">
-        <v>7077</v>
+        <v>5016</v>
       </c>
       <c r="C237" t="str">
-        <v>2019-09-09 18:44</v>
+        <v>2019-12-19 11:40</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="str">
-        <v>印度千头蓝牛羚遭扑杀 中弹未死就用挖土机活埋</v>
+        <v>未到站要下车遭拒 哈尔滨公交车上一男子用安全锤砸窗跳车</v>
       </c>
       <c r="B238">
-        <v>117400</v>
+        <v>22044</v>
       </c>
       <c r="C238" t="str">
-        <v>2019-09-09 18:25</v>
+        <v>2019-12-19 11:34</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="str">
-        <v>特斯拉行驶中司机和副驾均昏睡 路过司机狂按喇叭都叫不醒</v>
+        <v>清华大学一90后老师校内河中身亡：此前曾饮酒</v>
       </c>
       <c r="B239">
-        <v>168953</v>
+        <v>61178</v>
       </c>
       <c r="C239" t="str">
-        <v>2019-09-09 18:08</v>
+        <v>2019-12-19 11:14</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="str">
-        <v>尴尬！男孩问莫迪怎样能当上总统 莫迪：为啥不想当总理？</v>
+        <v>安徽临泉彻查退役军人档案被冒领事件 当事人：调查组还没找我</v>
       </c>
       <c r="B240">
-        <v>13025</v>
+        <v>33557</v>
       </c>
       <c r="C240" t="str">
-        <v>2019-09-09 17:37</v>
+        <v>2019-12-19 10:59</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="str">
-        <v>全球首架西游主题客机“连云港号”首航：机身喷绘美猴王孙悟空</v>
+        <v>合肥网红交警夜查 “铁粉”主动停车交代酒驾</v>
       </c>
       <c r="B241">
-        <v>25494</v>
+        <v>35129</v>
       </c>
       <c r="C241" t="str">
-        <v>2019-09-09 17:37</v>
+        <v>2019-12-19 10:57</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="str">
-        <v>婚礼巧遇“失散孪生兄弟” 网友：太像了吧！</v>
+        <v>宜宾获救矿工还原求生细节：吃皮带和煤填肚子 水淹到脚下时极度绝望</v>
       </c>
       <c r="B242">
-        <v>1599326</v>
+        <v>197413</v>
       </c>
       <c r="C242" t="str">
-        <v>2019-09-09 17:27</v>
+        <v>2019-12-19 10:23</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="str">
-        <v>温州警方打掉一特大“杀猪盘”诈骗团伙 10名境外逃犯自首</v>
+        <v>美法院：批准贾跃亭个人破产重组继续推进 驳回债权方请求</v>
       </c>
       <c r="B243">
-        <v>29193</v>
+        <v>36801</v>
       </c>
       <c r="C243" t="str">
-        <v>2019-09-09 17:20</v>
+        <v>2019-12-19 10:18</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="str">
-        <v>工厂老板资金紧缺竟铤而走险 伙同员工抢劫10年好友还拍裸照</v>
+        <v>美国历史上第三个被正式弹劾的总统！众议院通过对特朗普弹劾条款</v>
       </c>
       <c r="B244">
-        <v>12768</v>
+        <v>140035</v>
       </c>
       <c r="C244" t="str">
-        <v>2019-09-09 17:03</v>
+        <v>2019-12-19 09:39</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="str">
-        <v>收银员“过目不忘”记忆力超强 盗刷1300张信用卡被捕</v>
+        <v>不满对特朗普的指控 共和党议员发言时另类抗议：沉默数十秒</v>
       </c>
       <c r="B245">
-        <v>247894</v>
+        <v>148157</v>
       </c>
       <c r="C245" t="str">
-        <v>2019-09-09 16:56</v>
+        <v>2019-12-19 09:29</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="str">
-        <v>因无端怀疑两名华人男子 美机场员工按警报引发大混乱</v>
+        <v>为拖延弹劾特朗普投票 共和党议员使出了这些招</v>
       </c>
       <c r="B246">
-        <v>79389</v>
+        <v>8653</v>
       </c>
       <c r="C246" t="str">
-        <v>2019-09-09 16:54</v>
+        <v>2019-12-19 09:12</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="str">
-        <v>济南一奔驰司机涉嫌酒驾被查套近乎 民警：认识谁都没用</v>
+        <v>广州地铁安检员偷拍女乘客裙底 警方：已行拘</v>
       </c>
       <c r="B247">
-        <v>43239</v>
+        <v>465331</v>
       </c>
       <c r="C247" t="str">
-        <v>2019-09-09 16:51</v>
+        <v>2019-12-19 09:04</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="str">
-        <v>模仿短视频往耳朵塞大蒜治失眠 济南一男子求助医生掏耳朵</v>
+        <v>共和党议员花式为特朗普辩护：总统已经“惨过耶稣”</v>
       </c>
       <c r="B248">
-        <v>18388</v>
+        <v>78994</v>
       </c>
       <c r="C248" t="str">
-        <v>2019-09-09 16:49</v>
+        <v>2019-12-19 07:54</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="str">
-        <v>舟山海域打捞处理5吨肉制品 紧急公告：不要食用 及时销毁</v>
+        <v>特朗普弹劾案展开激烈辩论 民主党控诉：总统以为自己是国王</v>
       </c>
       <c r="B249">
-        <v>322716</v>
+        <v>147358</v>
       </c>
       <c r="C249" t="str">
-        <v>2019-09-09 16:47</v>
+        <v>2019-12-19 01:17</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="str">
-        <v>美国男子直播与警察飙车 刚下车就被击毙</v>
+        <v>沈阳大学一研究生称在校内被同学捅伤 警方：正在抓捕犯罪嫌疑人</v>
       </c>
       <c r="B250">
-        <v>1233472</v>
+        <v>439959</v>
       </c>
       <c r="C250" t="str">
-        <v>2019-09-09 16:47</v>
+        <v>2019-12-19 00:08</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="str">
-        <v>自如搬家师傅：扣除油费生活费 一月挣一万左右</v>
+        <v>网商银行易洪涛：未来数字会成为最宝贵的资产</v>
       </c>
       <c r="B251">
-        <v>22763</v>
+        <v>8061</v>
       </c>
       <c r="C251" t="str">
-        <v>2019-09-09 16:39</v>
+        <v>2019-12-18 23:33</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="str">
-        <v>空姐辞职当老师被学生宠上天 网友：还缺学生吗</v>
+        <v>香港警方指挥官：希望年轻人多一点家国情怀</v>
       </c>
       <c r="B252">
-        <v>247738</v>
+        <v>21500</v>
       </c>
       <c r="C252" t="str">
-        <v>2019-09-09 16:38</v>
+        <v>2019-12-18 23:29</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="str">
-        <v>特朗普取消和平会谈 塔利班：将实施“报复性袭击”</v>
+        <v>张江：科创板非常强调上市后的管理和退市</v>
       </c>
       <c r="B253">
-        <v>23618</v>
+        <v>7178</v>
       </c>
       <c r="C253" t="str">
-        <v>2019-09-09 16:13</v>
+        <v>2019-12-18 23:25</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="str">
-        <v>扎根乡村38年的幼师：整整教了两代人 见证乡村幼儿教育的变迁</v>
+        <v>男子差一秒就被车撞飞 关键时刻他“神走位”上演教科书级自救</v>
       </c>
       <c r="B254">
-        <v>73639</v>
+        <v>14389</v>
       </c>
       <c r="C254" t="str">
-        <v>2019-09-09 16:00</v>
+        <v>2019-12-18 22:48</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="str">
-        <v>惊险！空军表演飞机坠落居民楼 飞行员坠机前跳伞逃生</v>
+        <v>兰州市委原常委、秘书长张国一被双开 通报称其贪得无厌利令智昏</v>
       </c>
       <c r="B255">
-        <v>14978</v>
+        <v>32669</v>
       </c>
       <c r="C255" t="str">
-        <v>2019-09-09 16:00</v>
+        <v>2019-12-18 22:42</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="str">
-        <v>女歌手自驾发视频怀念已故亲人 数小时后遇车祸身亡</v>
+        <v>史上最累骗子？给自己寄上千个快递“碰瓷” 有时还要赶去另一个城市收件</v>
       </c>
       <c r="B256">
-        <v>100368</v>
+        <v>2495069</v>
       </c>
       <c r="C256" t="str">
-        <v>2019-09-09 15:53</v>
+        <v>2019-12-18 22:36</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="str">
-        <v>咖啡店内无毛猫被塞进书包偷走 价值超万元警方介入调查</v>
+        <v>郑爽被曝分手后首亮相：正在挑剧本 希望作品深入人心</v>
       </c>
       <c r="B257">
-        <v>85777</v>
+        <v>66046</v>
       </c>
       <c r="C257" t="str">
-        <v>2019-09-09 15:45</v>
+        <v>2019-12-18 22:12</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="str">
-        <v>西安地铁上一乘客充电宝冒烟 列车清客退出运行</v>
+        <v>张云飞：5G催化云游戏发展 目前网络稳定性还需提升</v>
       </c>
       <c r="B258">
-        <v>7806</v>
+        <v>3461</v>
       </c>
       <c r="C258" t="str">
-        <v>2019-09-09 15:42</v>
+        <v>2019-12-18 21:45</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="str">
-        <v>《小小的愿望》片方致歉彭昱畅降番位：是“双男一”设定</v>
+        <v>京东何晓冬：降低成本有利于5G尽快投入应用创新</v>
       </c>
       <c r="B259">
-        <v>19753</v>
+        <v>2746</v>
       </c>
       <c r="C259" t="str">
-        <v>2019-09-09 15:14</v>
+        <v>2019-12-18 21:38</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="str">
-        <v>女子连生10个儿子后终得1女：本来都不抱希望了</v>
+        <v>荆伟：5G是产业和消费者生态体系的一次迭代机会</v>
       </c>
       <c r="B260">
-        <v>182831</v>
+        <v>10066</v>
       </c>
       <c r="C260" t="str">
-        <v>2019-09-09 14:39</v>
+        <v>2019-12-18 21:30</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="str">
-        <v>C919大型客机试飞用轨迹画出“大月饼” 网友：会飞会玩</v>
+        <v>男子用简易“遥控”手套挡号牌 交警：你是奇才啊</v>
       </c>
       <c r="B261">
-        <v>16877</v>
+        <v>16713</v>
       </c>
       <c r="C261" t="str">
-        <v>2019-09-09 14:31</v>
+        <v>2019-12-18 21:24</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="str">
-        <v>台风“法茜”直扑日本 高楼整面“墙”被剥下</v>
+        <v>《只有芸知道》首映黄轩被粉丝提问：我有1家影院8个厅 你想要多少排片</v>
       </c>
       <c r="B262">
-        <v>169214</v>
+        <v>42209</v>
       </c>
       <c r="C262" t="str">
-        <v>2019-09-09 14:30</v>
+        <v>2019-12-18 21:22</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" t="str">
-        <v>印尼海关工作人员被曝向中国游客收“小费” 大使馆回应</v>
+        <v>日本猴子集体烤火还吃烤地瓜 像极了冬天怕冷的你</v>
       </c>
       <c r="B263">
-        <v>98573</v>
+        <v>32400</v>
       </c>
       <c r="C263" t="str">
-        <v>2019-09-09 14:24</v>
+        <v>2019-12-18 21:12</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" t="str">
-        <v>宁夏固原路面塌出大坑出租车被困 目击者：司机吓得烟都点不稳</v>
+        <v>祖孙二人电梯上向后摔倒场面惊险 俩路人扔下背包就冲上前</v>
       </c>
       <c r="B264">
-        <v>33252</v>
+        <v>21412</v>
       </c>
       <c r="C264" t="str">
-        <v>2019-09-09 14:20</v>
+        <v>2019-12-18 21:11</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" t="str">
-        <v>贵州暴雨一养老院27人被困 消防员抬担架施救</v>
+        <v>贵州一男子被错录为吸毒人员21年 县公安副局长：将尽快处理</v>
       </c>
       <c r="B265">
-        <v>10517</v>
+        <v>12805</v>
       </c>
       <c r="C265" t="str">
-        <v>2019-09-09 14:17</v>
+        <v>2019-12-18 20:43</v>
       </c>
     </row>
     <row r="266">
       <c r="A266" t="str">
-        <v>《夏洛特烦恼》“打岔大爷”离世：龙套表演成经典</v>
+        <v>母亲突发癫痫晕倒 7岁女孩镇定用心肺复苏术救醒</v>
       </c>
       <c r="B266">
-        <v>391434</v>
+        <v>8593</v>
       </c>
       <c r="C266" t="str">
-        <v>2019-09-09 14:13</v>
+        <v>2019-12-18 20:41</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" t="str">
-        <v>国家烟草专卖局原副局长赵洪顺涉嫌受贿被提起公诉</v>
+        <v>宜宾矿工被困地下五天四夜：神志清楚体质虚脱  86小时没进食</v>
       </c>
       <c r="B267">
-        <v>54955</v>
+        <v>7768</v>
       </c>
       <c r="C267" t="str">
-        <v>2019-09-09 14:12</v>
+        <v>2019-12-18 20:20</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" t="str">
-        <v>震撼！270平米巨幅国旗三地接力 从陆地到船上献礼国庆</v>
+        <v>实拍陆军一级军士长第2166次跳伞 26年老兵霸气夺“兵王”</v>
       </c>
       <c r="B268">
-        <v>28453</v>
+        <v>16953</v>
       </c>
       <c r="C268" t="str">
-        <v>2019-09-09 14:02</v>
+        <v>2019-12-18 20:18</v>
       </c>
     </row>
     <row r="269">
       <c r="A269" t="str">
-        <v>狗中戏精！狗狗为逃避剪指甲装晕倒 主人的反应亮了</v>
+        <v>陈汀：通过车企、养车、能源三大引擎降低用车成本</v>
       </c>
       <c r="B269">
-        <v>201573</v>
+        <v>18387</v>
       </c>
       <c r="C269" t="str">
-        <v>2019-09-09 13:01</v>
+        <v>2019-12-18 20:14</v>
       </c>
     </row>
     <row r="270">
       <c r="A270" t="str">
-        <v>四川泸州暴雨致1死 房屋被泡公路坍塌警方正全力抢险</v>
+        <v>副驾驶小伙往车外扔烟头 不料把自己车给点着了</v>
       </c>
       <c r="B270">
-        <v>33478</v>
+        <v>40639</v>
       </c>
       <c r="C270" t="str">
-        <v>2019-09-09 13:00</v>
+        <v>2019-12-18 20:07</v>
       </c>
     </row>
     <row r="271">
       <c r="A271" t="str">
-        <v>美42岁男子怒砸华尔街铜牛 一边破坏一边咒骂特朗普</v>
+        <v>家里被人动过却没有丢东西 监控视频让人意外</v>
       </c>
       <c r="B271">
-        <v>33953</v>
+        <v>48014</v>
       </c>
       <c r="C271" t="str">
-        <v>2019-09-09 12:45</v>
+        <v>2019-12-18 19:56</v>
       </c>
     </row>
     <row r="272">
       <c r="A272" t="str">
-        <v>3小时内1250道闪电划破华盛顿夜空 民众：外星人来访</v>
+        <v>山西警方抓捕“同性恋交友”电信诈骗团伙现场：嫌犯刚进门就被扑倒</v>
       </c>
       <c r="B272">
-        <v>89503</v>
+        <v>24484</v>
       </c>
       <c r="C272" t="str">
-        <v>2019-09-09 12:42</v>
+        <v>2019-12-18 19:52</v>
       </c>
     </row>
     <row r="273">
       <c r="A273" t="str">
-        <v>因无端怀疑两名华裔男子 美机场员工按警报引发大混乱</v>
+        <v>香港双层巴士出车祸致6死40伤：车顶被“削掉”一半 多人被甩出</v>
       </c>
       <c r="B273">
-        <v>85140</v>
+        <v>237365</v>
       </c>
       <c r="C273" t="str">
-        <v>2019-09-09 12:36</v>
+        <v>2019-12-18 19:48</v>
       </c>
     </row>
     <row r="274">
       <c r="A274" t="str">
-        <v>俄罗斯乌克兰交换70名囚犯 其中包括MH17空难关键证人</v>
+        <v>消防员双腿发黑照片刷屏 背后原因令人感动</v>
       </c>
       <c r="B274">
-        <v>7301</v>
+        <v>22249</v>
       </c>
       <c r="C274" t="str">
-        <v>2019-09-09 12:35</v>
+        <v>2019-12-18 19:42</v>
       </c>
     </row>
     <row r="275">
       <c r="A275" t="str">
-        <v>墨西哥总统公开吐槽“前任”：一次出行买上千套剃须刀和发胶</v>
+        <v>大船高速上“行驶”惊呆民警 拦下一查船尾到车头足足37米长</v>
       </c>
       <c r="B275">
-        <v>44124</v>
+        <v>16518</v>
       </c>
       <c r="C275" t="str">
-        <v>2019-09-09 12:32</v>
+        <v>2019-12-18 19:42</v>
       </c>
     </row>
     <row r="276">
       <c r="A276" t="str">
-        <v>横冲直撞！游行中大象忽然发飙 至少17人在踩踏中受伤</v>
+        <v>紧急呼叫丨庭审旁听者复述细节称杜少平道歉不真诚 自称放高利贷是帮助他人</v>
       </c>
       <c r="B276">
-        <v>68643</v>
+        <v>387026</v>
       </c>
       <c r="C276" t="str">
-        <v>2019-09-09 12:19</v>
+        <v>2019-12-18 19:42</v>
       </c>
     </row>
     <row r="277">
       <c r="A277" t="str">
-        <v>狗中戏精！狗狗为逃避剪指甲装晕倒 主人的反应亮了</v>
+        <v>5G基站辐射危害人体？2019年十大“科学”流言揭晓</v>
       </c>
       <c r="B277">
-        <v>77785</v>
+        <v>1179897</v>
       </c>
       <c r="C277" t="str">
-        <v>2019-09-09 12:17</v>
+        <v>2019-12-18 19:32</v>
       </c>
     </row>
     <row r="278">
       <c r="A278" t="str">
-        <v>俄罗斯乌克兰交换70名囚犯 其中包括MH17空难关键证人</v>
+        <v>航拍海南陵水违建别墅拆除现场：201栋别墅倒塌后形成巨大废墟</v>
       </c>
       <c r="B278">
-        <v>4205</v>
+        <v>525803</v>
       </c>
       <c r="C278" t="str">
-        <v>2019-09-09 12:15</v>
+        <v>2019-12-18 19:30</v>
       </c>
     </row>
     <row r="279">
       <c r="A279" t="str">
-        <v>山东民政厅厅长陈先运涉嫌严重违纪违法 主动投案</v>
+        <v>猫咪开着车缓缓驶来？民警拦车盘查发现这样一幕</v>
       </c>
       <c r="B279">
-        <v>49643</v>
+        <v>18979</v>
       </c>
       <c r="C279" t="str">
-        <v>2019-09-09 12:01</v>
+        <v>2019-12-18 19:30</v>
       </c>
     </row>
     <row r="280">
       <c r="A280" t="str">
-        <v>贵阳发布驾驶人诚信系统：上路不用带驾照 信用分高受优待</v>
+        <v>大爷被困山中求助民警 被救时拍“解说视频”上演“要命”9连呼</v>
       </c>
       <c r="B280">
-        <v>14721</v>
+        <v>5539</v>
       </c>
       <c r="C280" t="str">
-        <v>2019-09-09 11:12</v>
+        <v>2019-12-18 19:28</v>
       </c>
     </row>
     <row r="281">
       <c r="A281" t="str">
-        <v>上海迪士尼处安检过渡期 街采游客：你选手工检or机器检？</v>
+        <v>余永定：确定经济增长意向性目标时可采取试错的办法</v>
       </c>
       <c r="B281">
-        <v>51675</v>
+        <v>3805</v>
       </c>
       <c r="C281" t="str">
-        <v>2019-09-09 11:00</v>
+        <v>2019-12-18 19:27</v>
       </c>
     </row>
     <row r="282">
       <c r="A282" t="str">
-        <v>航拍黑龙江海林直升机被淹救援 铲车出动救出被困人员</v>
+        <v>熊孩子偷刷信用卡买几千块玩具 妈妈用这招让他们哭着认错</v>
       </c>
       <c r="B282">
-        <v>35751</v>
+        <v>8519</v>
       </c>
       <c r="C282" t="str">
-        <v>2019-09-09 10:45</v>
+        <v>2019-12-18 19:26</v>
       </c>
     </row>
     <row r="283">
       <c r="A283" t="str">
-        <v>梁静茹承认离婚回顾12年情史 两人曾举办3场婚礼</v>
+        <v>起底柳传志接班人宁旻 此前主管资本运作及风控</v>
       </c>
       <c r="B283">
-        <v>204418</v>
+        <v>3375</v>
       </c>
       <c r="C283" t="str">
-        <v>2019-09-09 10:42</v>
+        <v>2019-12-18 19:24</v>
       </c>
     </row>
     <row r="284">
       <c r="A284" t="str">
-        <v>前8月中国贸易顺差扩大46% 中美贸易总值下降9%</v>
+        <v>托儿所员工长期遭职场骚扰集体辞职 所长夫妇痛哭下跪道歉</v>
       </c>
       <c r="B284">
-        <v>7723</v>
+        <v>9877</v>
       </c>
       <c r="C284" t="str">
-        <v>2019-09-09 10:38</v>
+        <v>2019-12-18 19:22</v>
       </c>
     </row>
     <row r="285">
       <c r="A285" t="str">
-        <v>梁靜茹新专辑分享会承认离婚 唱歌时感伤落泪粉丝大喊不要哭</v>
+        <v>印度公司建265个“假新闻”网站 遍布65个国家干扰外交决策</v>
       </c>
       <c r="B285">
-        <v>95973</v>
+        <v>4475</v>
       </c>
       <c r="C285" t="str">
-        <v>2019-09-09 10:37</v>
+        <v>2019-12-18 19:17</v>
       </c>
     </row>
     <row r="286">
       <c r="A286" t="str">
-        <v>哈尔滨台风雨后一桥下积水困24辆车 救援队花7小时施救</v>
+        <v>男子菜场花千元买会“笑”的百斤大鱼 回家上网一查可不得了</v>
       </c>
       <c r="B286">
-        <v>84344</v>
+        <v>1876138</v>
       </c>
       <c r="C286" t="str">
-        <v>2019-09-09 10:33</v>
+        <v>2019-12-18 19:16</v>
       </c>
     </row>
     <row r="287">
       <c r="A287" t="str">
-        <v>专访港籍政协委员梁宏正：四十年来 没有这么担忧过</v>
+        <v>香港警方指挥官谈理大风波：暴徒比黑社会更恶劣</v>
       </c>
       <c r="B287">
-        <v>32822</v>
+        <v>335182</v>
       </c>
       <c r="C287" t="str">
-        <v>2019-09-09 09:14</v>
+        <v>2019-12-18 19:16</v>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" t="str">
+        <v>美众议院弹劾特朗普投票在即 50州民众举行600场集会力挺弹劾</v>
+      </c>
+      <c r="B288">
+        <v>11117</v>
+      </c>
+      <c r="C288" t="str">
+        <v>2019-12-18 19:12</v>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" t="str">
+        <v>沈海高速一货车与小车相撞致5死1伤 警方：货车司机开车玩手机</v>
+      </c>
+      <c r="B289">
+        <v>102009</v>
+      </c>
+      <c r="C289" t="str">
+        <v>2019-12-18 19:06</v>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" t="str">
+        <v>贫苦女运动员不愿退役 瞒着父母参加国际大赛勇夺冠军</v>
+      </c>
+      <c r="B290">
+        <v>8076</v>
+      </c>
+      <c r="C290" t="str">
+        <v>2019-12-18 19:05</v>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" t="str">
+        <v>阿里CEO张勇直播“出道” 网友：我要给张主播刷火箭</v>
+      </c>
+      <c r="B291">
+        <v>18568</v>
+      </c>
+      <c r="C291" t="str">
+        <v>2019-12-18 19:04</v>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" t="str">
+        <v>“路怒症”男子揪出前车司机当街暴打 原因竟是因为一个手势</v>
+      </c>
+      <c r="B292">
+        <v>9249</v>
+      </c>
+      <c r="C292" t="str">
+        <v>2019-12-18 19:03</v>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" t="str">
+        <v>河南肺水肿女童顺利抵京 三地交警千里接力护航生命通道</v>
+      </c>
+      <c r="B293">
+        <v>6490</v>
+      </c>
+      <c r="C293" t="str">
+        <v>2019-12-18 18:57</v>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" t="str">
+        <v>青海警方破获特大毒品案：10斤海洛因藏在6根金属水管里</v>
+      </c>
+      <c r="B294">
+        <v>34757</v>
+      </c>
+      <c r="C294" t="str">
+        <v>2019-12-18 18:54</v>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" t="str">
+        <v>李佳琦谈第一场直播：观看人数不到200 还被人骂</v>
+      </c>
+      <c r="B295">
+        <v>12861</v>
+      </c>
+      <c r="C295" t="str">
+        <v>2019-12-18 18:45</v>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" t="str">
+        <v>学霸合唱团玩反串！牛津大学男生扮成公主 神还原电影名场面</v>
+      </c>
+      <c r="B296">
+        <v>6087962</v>
+      </c>
+      <c r="C296" t="str">
+        <v>2019-12-18 18:36</v>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" t="str">
+        <v>苏州7名绿化工人作业时被车辆冲撞 镇政府：1人伤势较重</v>
+      </c>
+      <c r="B297">
+        <v>14966</v>
+      </c>
+      <c r="C297" t="str">
+        <v>2019-12-18 18:34</v>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" t="str">
+        <v>西班牙警方逮捕中国走私大麻团伙 成员犯错就遭铁棒毒打至骨折</v>
+      </c>
+      <c r="B298">
+        <v>9866</v>
+      </c>
+      <c r="C298" t="str">
+        <v>2019-12-18 18:27</v>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" t="str">
+        <v>香港警方接到76岁女子报案 住宅内查获大量疑似枪械及弹药</v>
+      </c>
+      <c r="B299">
+        <v>83544</v>
+      </c>
+      <c r="C299" t="str">
+        <v>2019-12-18 18:24</v>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" t="str">
+        <v>2人驾车1人骑车上演“碰瓷大戏” 提前准备好道具演技浮夸</v>
+      </c>
+      <c r="B300">
+        <v>11936</v>
+      </c>
+      <c r="C300" t="str">
+        <v>2019-12-18 18:20</v>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" t="str">
+        <v>韩国国务总理秘书室突遭搜查 10多人抱走几大箱文件和硬盘</v>
+      </c>
+      <c r="B301">
+        <v>46014</v>
+      </c>
+      <c r="C301" t="str">
+        <v>2019-12-18 18:17</v>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" t="str">
+        <v>内江地震幼儿园撤离瞬间： 左手一个右手一个 老师抓起娃娃就开跑</v>
+      </c>
+      <c r="B302">
+        <v>845592</v>
+      </c>
+      <c r="C302" t="str">
+        <v>2019-12-18 18:05</v>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" t="str">
+        <v>吴晓求谈市场化制度改革：要为创新提供容错机制</v>
+      </c>
+      <c r="B303">
+        <v>9898</v>
+      </c>
+      <c r="C303" t="str">
+        <v>2019-12-18 18:03</v>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" t="str">
+        <v>西安一女老师被指课堂上揪学生耳朵掌掴 教育局：正调查</v>
+      </c>
+      <c r="B304">
+        <v>13105</v>
+      </c>
+      <c r="C304" t="str">
+        <v>2019-12-18 17:51</v>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" t="str">
+        <v>内蒙古乌兰察布市卫健委：化德县腺鼠疫患者治愈出院</v>
+      </c>
+      <c r="B305">
+        <v>11211</v>
+      </c>
+      <c r="C305" t="str">
+        <v>2019-12-18 17:45</v>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" t="str">
+        <v>14岁少女失踪十日被骗KTV里做“公主” 警方：已责令停业整顿</v>
+      </c>
+      <c r="B306">
+        <v>106332</v>
+      </c>
+      <c r="C306" t="str">
+        <v>2019-12-18 17:44</v>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" t="str">
+        <v>自投罗网！小偷被抓后让同伙送衣服到派出所 结果双双进了拘留所</v>
+      </c>
+      <c r="B307">
+        <v>5980</v>
+      </c>
+      <c r="C307" t="str">
+        <v>2019-12-18 17:34</v>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" t="str">
+        <v>唐山海域一渔船沉没多名船工失联 家属称被其它船只故意碰撞</v>
+      </c>
+      <c r="B308">
+        <v>39401</v>
+      </c>
+      <c r="C308" t="str">
+        <v>2019-12-18 17:32</v>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" t="str">
+        <v>武汉出现今冬首场雪 网友激动发言：一会儿我要出去打雪仗！</v>
+      </c>
+      <c r="B309">
+        <v>12636</v>
+      </c>
+      <c r="C309" t="str">
+        <v>2019-12-18 17:27</v>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" t="str">
+        <v>黄益平：中国经济增长靠创新 关键在支持民营企业</v>
+      </c>
+      <c r="B310">
+        <v>6449</v>
+      </c>
+      <c r="C310" t="str">
+        <v>2019-12-18 17:26</v>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" t="str">
+        <v>注册2万家空壳公司涉案4800亿 绍兴警方抓获虚开发票团伙143人</v>
+      </c>
+      <c r="B311">
+        <v>22486</v>
+      </c>
+      <c r="C311" t="str">
+        <v>2019-12-18 17:22</v>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" t="str">
+        <v>柳传志35年创业路 五个关键决定成就今日联想</v>
+      </c>
+      <c r="B312">
+        <v>33153</v>
+      </c>
+      <c r="C312" t="str">
+        <v>2019-12-18 17:11</v>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" t="str">
+        <v>宜宾首名获救矿工妻子：为丈夫的坚强点赞 肯定不让他下井了</v>
+      </c>
+      <c r="B313">
+        <v>8615</v>
+      </c>
+      <c r="C313" t="str">
+        <v>2019-12-18 17:10</v>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" t="str">
+        <v>什么操作？酒驾被拦一伙人反查交警证件 拿手机拍摄狂喊“你执法证呢”</v>
+      </c>
+      <c r="B314">
+        <v>57727</v>
+      </c>
+      <c r="C314" t="str">
+        <v>2019-12-18 17:05</v>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" t="str">
+        <v>男子车停路边后备箱内49万现金不翼而飞 监拍窃贼打开车门仅用10秒</v>
+      </c>
+      <c r="B315">
+        <v>15526</v>
+      </c>
+      <c r="C315" t="str">
+        <v>2019-12-18 17:02</v>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" t="str">
+        <v>郑州一小区物业发放20万公共收入 业主：感受到自己是“主人”</v>
+      </c>
+      <c r="B316">
+        <v>18593</v>
+      </c>
+      <c r="C316" t="str">
+        <v>2019-12-18 16:26</v>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" t="str">
+        <v>两岁女童患怪病看起来像八十 独特病情为全球唯一一例</v>
+      </c>
+      <c r="B317">
+        <v>197844</v>
+      </c>
+      <c r="C317" t="str">
+        <v>2019-12-18 16:18</v>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" t="str">
+        <v>蒙面小贼拿胡椒喷雾抢劫 被硬核女店员一拖把撵走</v>
+      </c>
+      <c r="B318">
+        <v>17259</v>
+      </c>
+      <c r="C318" t="str">
+        <v>2019-12-18 16:13</v>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" t="str">
+        <v>朱光耀：2019年全球贸易增长承压 自由贸易遭受冲击</v>
+      </c>
+      <c r="B319">
+        <v>2568</v>
+      </c>
+      <c r="C319" t="str">
+        <v>2019-12-18 16:10</v>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" t="str">
+        <v>宁波海关收网行动查洋垃圾1万余吨：走私分子被摁在床上戴手铐</v>
+      </c>
+      <c r="B320">
+        <v>18897</v>
+      </c>
+      <c r="C320" t="str">
+        <v>2019-12-18 16:07</v>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" t="str">
+        <v>邬贺铨：5G的最大贡献是生产力整体增长</v>
+      </c>
+      <c r="B321">
+        <v>3056</v>
+      </c>
+      <c r="C321" t="str">
+        <v>2019-12-18 16:05</v>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" t="str">
+        <v>“操场埋尸案”宣判：主犯杜少平听到死刑时低下头手在颤抖</v>
+      </c>
+      <c r="B322">
+        <v>99493</v>
+      </c>
+      <c r="C322" t="str">
+        <v>2019-12-18 15:54</v>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" t="str">
+        <v>00后消防员救火时突发疾病仍不撤离 退出火场后跪倒在地痛得说不出话</v>
+      </c>
+      <c r="B323">
+        <v>4571</v>
+      </c>
+      <c r="C323" t="str">
+        <v>2019-12-18 15:36</v>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" t="str">
+        <v>朱光耀：中国经济连续14年对全球经济增长贡献最大</v>
+      </c>
+      <c r="B324">
+        <v>7975</v>
+      </c>
+      <c r="C324" t="str">
+        <v>2019-12-18 15:35</v>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" t="str">
+        <v>特朗普：不看众议院的弹劾投票 这是国家耻辱的印记</v>
+      </c>
+      <c r="B325">
+        <v>135719</v>
+      </c>
+      <c r="C325" t="str">
+        <v>2019-12-18 15:26</v>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" t="str">
+        <v>20余名电信诈骗嫌犯被押千里回济南 去洗手间都有俩民警陪同</v>
+      </c>
+      <c r="B326">
+        <v>9245</v>
+      </c>
+      <c r="C326" t="str">
+        <v>2019-12-18 15:19</v>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" t="str">
+        <v>00后冒充易烊千玺建粉丝群实施诈骗 两小学生被骗8万余元</v>
+      </c>
+      <c r="B327">
+        <v>21946</v>
+      </c>
+      <c r="C327" t="str">
+        <v>2019-12-18 15:17</v>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" t="str">
+        <v>四头小黄牛满大街狂奔 警察蜀黍化身斗牛士将其制服</v>
+      </c>
+      <c r="B328">
+        <v>12843</v>
+      </c>
+      <c r="C328" t="str">
+        <v>2019-12-18 15:13</v>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" t="str">
+        <v>老爸无证驾驶“机智”换座欲“瞒天过海” 萌娃哭着一语道破“天机”</v>
+      </c>
+      <c r="B329">
+        <v>11538</v>
+      </c>
+      <c r="C329" t="str">
+        <v>2019-12-18 15:06</v>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" t="str">
+        <v>王忠民：近20年全球首富是在数字经济有所创新的人</v>
+      </c>
+      <c r="B330">
+        <v>11098</v>
+      </c>
+      <c r="C330" t="str">
+        <v>2019-12-18 14:50</v>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" t="str">
+        <v>钟汉良被爆料自残 律师方：他身心健康 将追责诽谤者</v>
+      </c>
+      <c r="B331">
+        <v>10578</v>
+      </c>
+      <c r="C331" t="str">
+        <v>2019-12-18 14:49</v>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" t="str">
+        <v>7个月大的婴儿就任美国名誉市长 口号是“让美国再次友善”</v>
+      </c>
+      <c r="B332">
+        <v>213578</v>
+      </c>
+      <c r="C332" t="str">
+        <v>2019-12-18 14:49</v>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" t="str">
+        <v>下水管道“蛙人”：冬天潜入12米深冰冷污水 摸黑打通地下城市“动脉”</v>
+      </c>
+      <c r="B333">
+        <v>27223</v>
+      </c>
+      <c r="C333" t="str">
+        <v>2019-12-18 14:40</v>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" t="str">
+        <v>男子非法改装车被网友举报 接到交警电话后竟笑出了声</v>
+      </c>
+      <c r="B334">
+        <v>11180</v>
+      </c>
+      <c r="C334" t="str">
+        <v>2019-12-18 14:36</v>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" t="str">
+        <v>“操场埋尸案”宣判：主犯杜少平听到死刑时低下头手在颤抖</v>
+      </c>
+      <c r="B335">
+        <v>3129180</v>
+      </c>
+      <c r="C335" t="str">
+        <v>2019-12-18 14:32</v>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" t="str">
+        <v>起诉日本首相“御用记者”性侵 伊藤诗织胜诉获赔330万日元</v>
+      </c>
+      <c r="B336">
+        <v>20987</v>
+      </c>
+      <c r="C336" t="str">
+        <v>2019-12-18 14:18</v>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" t="str">
+        <v>特朗普前竞选助手“戴罪立功” 刑期从5年减至45天</v>
+      </c>
+      <c r="B337">
+        <v>8605</v>
+      </c>
+      <c r="C337" t="str">
+        <v>2019-12-18 14:09</v>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" t="str">
+        <v>海南警方端掉“杀猪盘”诈骗团伙 一女性网恋70天被骗26万</v>
+      </c>
+      <c r="B338">
+        <v>16622</v>
+      </c>
+      <c r="C338" t="str">
+        <v>2019-12-18 14:08</v>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" t="str">
+        <v>工信部原部长李毅中：全国5G网络覆盖还需要6至7年时间</v>
+      </c>
+      <c r="B339">
+        <v>33782</v>
+      </c>
+      <c r="C339" t="str">
+        <v>2019-12-18 14:07</v>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" t="str">
+        <v>兰州生物药厂员工称厂区土壤检出布鲁氏菌 专家：几乎不可能致病</v>
+      </c>
+      <c r="B340">
+        <v>22874</v>
+      </c>
+      <c r="C340" t="str">
+        <v>2019-12-18 14:00</v>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" t="str">
+        <v>13名矿工生还细节：巷道未被水淹氧气充足 被困矿工传出求救纸条后获救</v>
+      </c>
+      <c r="B341">
+        <v>36020</v>
+      </c>
+      <c r="C341" t="str">
+        <v>2019-12-18 13:50</v>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" t="str">
+        <v>朝阳群众再出手：路遇遮挡号牌的车辆 这名小哥霸气下车一把将纸张撕下</v>
+      </c>
+      <c r="B342">
+        <v>24689</v>
+      </c>
+      <c r="C342" t="str">
+        <v>2019-12-18 13:41</v>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" t="str">
+        <v>印度警察暴打大学男生 女生们冲出围起“人盾”保护他</v>
+      </c>
+      <c r="B343">
+        <v>19980</v>
+      </c>
+      <c r="C343" t="str">
+        <v>2019-12-18 13:34</v>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" t="str">
+        <v>贵州安龙矿难遇难者“要挣钱养家”推掉亲戚饭局 不料遇上事故</v>
+      </c>
+      <c r="B344">
+        <v>34622</v>
+      </c>
+      <c r="C344" t="str">
+        <v>2019-12-18 13:30</v>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" t="str">
+        <v>地铁安检员偷拍女子裙底 广州地铁：已锁定该人并报警</v>
+      </c>
+      <c r="B345">
+        <v>199083</v>
+      </c>
+      <c r="C345" t="str">
+        <v>2019-12-18 13:25</v>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" t="str">
+        <v>湖南“操场埋尸案”一审宣判：主犯杜少平被判死刑</v>
+      </c>
+      <c r="B346">
+        <v>232138</v>
+      </c>
+      <c r="C346" t="str">
+        <v>2019-12-18 13:11</v>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" t="str">
+        <v>海底发现疑似16世纪沉船铁锚 西班牙舰队或靠它首次征服美洲</v>
+      </c>
+      <c r="B347">
+        <v>9196</v>
+      </c>
+      <c r="C347" t="str">
+        <v>2019-12-18 12:56</v>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" t="str">
+        <v>英首相拟立法禁止“脱欧”过渡期再延长 11个月内谈妥全部贸易协议</v>
+      </c>
+      <c r="B348">
+        <v>6591</v>
+      </c>
+      <c r="C348" t="str">
+        <v>2019-12-18 12:51</v>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" t="str">
+        <v>四川资中地震已致9人受伤 直击武警官兵在震中抢险排危</v>
+      </c>
+      <c r="B349">
+        <v>10030</v>
+      </c>
+      <c r="C349" t="str">
+        <v>2019-12-18 12:38</v>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" t="str">
+        <v>“碰瓷”首相？女子给鲍里斯看儿子照片：我孩子长得多像你</v>
+      </c>
+      <c r="B350">
+        <v>9703</v>
+      </c>
+      <c r="C350" t="str">
+        <v>2019-12-18 12:36</v>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" t="str">
+        <v>艰难抗癌3年后 9岁男孩得知自己癌症治愈喜极而泣</v>
+      </c>
+      <c r="B351">
+        <v>27516</v>
+      </c>
+      <c r="C351" t="str">
+        <v>2019-12-18 12:31</v>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" t="str">
+        <v>英国服务员花式摔跤集锦引爆笑 自己吐槽入错行了</v>
+      </c>
+      <c r="B352">
+        <v>5202</v>
+      </c>
+      <c r="C352" t="str">
+        <v>2019-12-18 12:23</v>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353" t="str">
+        <v>东莞一车辆冲破围挡“直钻”施工坑 警方：3人受伤</v>
+      </c>
+      <c r="B353">
+        <v>84754</v>
+      </c>
+      <c r="C353" t="str">
+        <v>2019-12-18 12:04</v>
+      </c>
+    </row>
+    <row r="354">
+      <c r="A354" t="str">
+        <v>贵州安龙矿难被困2人遗体运送出井救援结束 共16人遇难</v>
+      </c>
+      <c r="B354">
+        <v>91879</v>
+      </c>
+      <c r="C354" t="str">
+        <v>2019-12-18 12:00</v>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355" t="str">
+        <v>监拍：内江资中5.2级地震发生时 鱼群疯狂跃出水面</v>
+      </c>
+      <c r="B355">
+        <v>441864</v>
+      </c>
+      <c r="C355" t="str">
+        <v>2019-12-18 11:59</v>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356" t="str">
+        <v>广西柳州“黑老大”张加爱犯10项罪名 一审被判死刑</v>
+      </c>
+      <c r="B356">
+        <v>77577</v>
+      </c>
+      <c r="C356" t="str">
+        <v>2019-12-18 11:55</v>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357" t="str">
+        <v>制止施暴反被拘当事人赵宇获见义勇为先进分子：再遇类似事件会考虑方法</v>
+      </c>
+      <c r="B357">
+        <v>54370</v>
+      </c>
+      <c r="C357" t="str">
+        <v>2019-12-18 11:30</v>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358" t="str">
+        <v>连线资中地震教科书式自救老师：每学期学校都会组织防震演练</v>
+      </c>
+      <c r="B358">
+        <v>17504</v>
+      </c>
+      <c r="C358" t="str">
+        <v>2019-12-18 11:29</v>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359" t="str">
+        <v>男子深夜对邻居家纵火 竟只因歧视自闭症患者</v>
+      </c>
+      <c r="B359">
+        <v>6643</v>
+      </c>
+      <c r="C359" t="str">
+        <v>2019-12-18 11:26</v>
+      </c>
+    </row>
+    <row r="360">
+      <c r="A360" t="str">
+        <v>北京市副市长殷勇：已建立300亿规模的科技创新母基金</v>
+      </c>
+      <c r="B360">
+        <v>13352</v>
+      </c>
+      <c r="C360" t="str">
+        <v>2019-12-18 11:02</v>
+      </c>
+    </row>
+    <row r="361">
+      <c r="A361" t="str">
+        <v>7岁河南重病女童肺功能只剩三分之一 体外装人工肺转运北京跨省救治</v>
+      </c>
+      <c r="B361">
+        <v>9905</v>
+      </c>
+      <c r="C361" t="str">
+        <v>2019-12-18 11:00</v>
+      </c>
+    </row>
+    <row r="362">
+      <c r="A362" t="str">
+        <v>北京人均GDP达到2.1万美元 达到发达经济体的标准</v>
+      </c>
+      <c r="B362">
+        <v>5258</v>
+      </c>
+      <c r="C362" t="str">
+        <v>2019-12-18 10:48</v>
+      </c>
+    </row>
+    <row r="363">
+      <c r="A363" t="str">
+        <v>疾驰中巴失控撞上路边学生 数十人接连被卷入车下死伤惨重</v>
+      </c>
+      <c r="B363">
+        <v>34232</v>
+      </c>
+      <c r="C363" t="str">
+        <v>2019-12-18 10:42</v>
+      </c>
+    </row>
+    <row r="364">
+      <c r="A364" t="str">
+        <v>居民谈四川资中5.2级地震：等反应过来时 东西都倒下来了</v>
+      </c>
+      <c r="B364">
+        <v>164785</v>
+      </c>
+      <c r="C364" t="str">
+        <v>2019-12-18 10:24</v>
+      </c>
+    </row>
+    <row r="365">
+      <c r="A365" t="str">
+        <v>航拍浙江松阳矿山塌方现场 官方：连夜搜寻未发现生命迹象</v>
+      </c>
+      <c r="B365">
+        <v>13607</v>
+      </c>
+      <c r="C365" t="str">
+        <v>2019-12-18 10:13</v>
+      </c>
+    </row>
+    <row r="366">
+      <c r="A366" t="str">
+        <v>四川资中5.2级地震已致4人受伤 多监控直击事发瞬间</v>
+      </c>
+      <c r="B366">
+        <v>23756</v>
+      </c>
+      <c r="C366" t="str">
+        <v>2019-12-18 09:51</v>
+      </c>
+    </row>
+    <row r="367">
+      <c r="A367" t="str">
+        <v>上海阿姨魔性谈垃圾分类2019：苍蝇变少生活更规律 扔错了会再捡回来</v>
+      </c>
+      <c r="B367">
+        <v>259891</v>
+      </c>
+      <c r="C367" t="str">
+        <v>2019-12-18 09:41</v>
+      </c>
+    </row>
+    <row r="368">
+      <c r="A368" t="str">
+        <v>美众议院通过1.4万亿美元预算避免政府关门 特朗普这项需求被拒</v>
+      </c>
+      <c r="B368">
+        <v>20126</v>
+      </c>
+      <c r="C368" t="str">
+        <v>2019-12-18 09:38</v>
+      </c>
+    </row>
+    <row r="369">
+      <c r="A369" t="str">
+        <v>直击四川资中5.2级地震：一中学班级内学生立即躲到课桌下</v>
+      </c>
+      <c r="B369">
+        <v>555446</v>
+      </c>
+      <c r="C369" t="str">
+        <v>2019-12-18 09:18</v>
+      </c>
+    </row>
+    <row r="370">
+      <c r="A370" t="str">
+        <v>四川资中5.2级地震：地面和吊灯明显晃动 提前24秒向成都预警</v>
+      </c>
+      <c r="B370">
+        <v>47333</v>
+      </c>
+      <c r="C370" t="str">
+        <v>2019-12-18 08:55</v>
+      </c>
+    </row>
+    <row r="371">
+      <c r="A371" t="str">
+        <v>杉木树煤矿13名被困矿工全部生还 110秒回顾紧张救援88小时</v>
+      </c>
+      <c r="B371">
+        <v>106610</v>
+      </c>
+      <c r="C371" t="str">
+        <v>2019-12-18 08:52</v>
+      </c>
+    </row>
+    <row r="372">
+      <c r="A372" t="str">
+        <v>杉木树煤矿透水被困13人全部生还：被困井下86小时 敲管子向外界求救</v>
+      </c>
+      <c r="B372">
+        <v>124624</v>
+      </c>
+      <c r="C372" t="str">
+        <v>2019-12-18 08:04</v>
+      </c>
+    </row>
+    <row r="373">
+      <c r="A373" t="str">
+        <v>浙江山体塌方土质松软一捏就碎 300余人连夜搜救失联3人</v>
+      </c>
+      <c r="B373">
+        <v>10556</v>
+      </c>
+      <c r="C373" t="str">
+        <v>2019-12-17 23:18</v>
+      </c>
+    </row>
+    <row r="374">
+      <c r="A374" t="str">
+        <v>巴基斯坦前总统“叫屈”视频曝光：审判不公 我为国家服务了十年</v>
+      </c>
+      <c r="B374">
+        <v>130919</v>
+      </c>
+      <c r="C374" t="str">
+        <v>2019-12-17 23:17</v>
+      </c>
+    </row>
+    <row r="375">
+      <c r="A375" t="str">
+        <v>柳传志将退休盘点其妙语录：马云中国妇女界最喜欢</v>
+      </c>
+      <c r="B375">
+        <v>29139</v>
+      </c>
+      <c r="C375" t="str">
+        <v>2019-12-17 22:34</v>
+      </c>
+    </row>
+    <row r="376">
+      <c r="A376" t="str">
+        <v>大连官方回应获奖logo涉嫌抄袭：设计者称用的免费字库 正调查核实</v>
+      </c>
+      <c r="B376">
+        <v>1736411</v>
+      </c>
+      <c r="C376" t="str">
+        <v>2019-12-17 22:29</v>
+      </c>
+    </row>
+    <row r="377">
+      <c r="A377" t="str">
+        <v>厦门一男子抱女童欲跳桥 实拍民警飞身扑救</v>
+      </c>
+      <c r="B377">
+        <v>18404</v>
+      </c>
+      <c r="C377" t="str">
+        <v>2019-12-17 22:12</v>
+      </c>
+    </row>
+    <row r="378">
+      <c r="A378" t="str">
+        <v>紧急呼叫丨男子个人档案被冒领丢失19年 官方：警方纪委都已介入</v>
+      </c>
+      <c r="B378">
+        <v>355867</v>
+      </c>
+      <c r="C378" t="str">
+        <v>2019-12-17 21:42</v>
+      </c>
+    </row>
+    <row r="379">
+      <c r="A379" t="str">
+        <v>重庆警方破获上亿元集资诈骗案 公司为博取信任带老年人泡温泉</v>
+      </c>
+      <c r="B379">
+        <v>13117</v>
+      </c>
+      <c r="C379" t="str">
+        <v>2019-12-17 21:37</v>
+      </c>
+    </row>
+    <row r="380">
+      <c r="A380" t="str">
+        <v>女子因身份证丢失“被”与陌生男子结婚数年 民政局：无法撤销需法院起诉</v>
+      </c>
+      <c r="B380">
+        <v>180641</v>
+      </c>
+      <c r="C380" t="str">
+        <v>2019-12-17 21:24</v>
+      </c>
+    </row>
+    <row r="381">
+      <c r="A381" t="str">
+        <v>联想创始人柳传志将退休 1分半钟盘点事业生涯高光时刻</v>
+      </c>
+      <c r="B381">
+        <v>43084</v>
+      </c>
+      <c r="C381" t="str">
+        <v>2019-12-17 21:17</v>
+      </c>
+    </row>
+    <row r="382">
+      <c r="A382" t="str">
+        <v>起底柳传志接班人宁旻 此前主管资本运作及风控</v>
+      </c>
+      <c r="B382">
+        <v>30939</v>
+      </c>
+      <c r="C382" t="str">
+        <v>2019-12-17 21:07</v>
+      </c>
+    </row>
+    <row r="383">
+      <c r="A383" t="str">
+        <v>“操场埋尸案”庭审细节：邓世平被下药后锤杀 凶手清明烧纸忏悔</v>
+      </c>
+      <c r="B383">
+        <v>232772</v>
+      </c>
+      <c r="C383" t="str">
+        <v>2019-12-17 20:58</v>
+      </c>
+    </row>
+    <row r="384">
+      <c r="A384" t="str">
+        <v>为让全民吃上鱼子酱 日本成功让雄鲟鱼“变性”</v>
+      </c>
+      <c r="B384">
+        <v>5853</v>
+      </c>
+      <c r="C384" t="str">
+        <v>2019-12-17 20:52</v>
+      </c>
+    </row>
+    <row r="385">
+      <c r="A385" t="str">
+        <v>紧急呼叫丨苏银霞谈于欢案：被辱细节不忍回忆  换作我是于欢也受不了</v>
+      </c>
+      <c r="B385">
+        <v>169894</v>
+      </c>
+      <c r="C385" t="str">
+        <v>2019-12-17 20:46</v>
+      </c>
+    </row>
+    <row r="386">
+      <c r="A386" t="str">
+        <v>唐代高僧鉴真带去日本的舍利佛塔 首度亮相上海博物馆</v>
+      </c>
+      <c r="B386">
+        <v>12839</v>
+      </c>
+      <c r="C386" t="str">
+        <v>2019-12-17 20:42</v>
+      </c>
+    </row>
+    <row r="387">
+      <c r="A387" t="str">
+        <v>福州一村支书酒后KTV失态被停职 自称被人摆拍陷害</v>
+      </c>
+      <c r="B387">
+        <v>2049218</v>
+      </c>
+      <c r="C387" t="str">
+        <v>2019-12-17 20:24</v>
+      </c>
+    </row>
+    <row r="388">
+      <c r="A388" t="str">
+        <v>首艘国产航母山东舰交付海军 中国进入双航母时代</v>
+      </c>
+      <c r="B388">
+        <v>33984</v>
+      </c>
+      <c r="C388" t="str">
+        <v>2019-12-17 20:24</v>
+      </c>
+    </row>
+    <row r="389">
+      <c r="A389" t="str">
+        <v>监拍呼和浩特一男子酒后受伤就医时猥亵女大夫 被行拘15日</v>
+      </c>
+      <c r="B389">
+        <v>143083</v>
+      </c>
+      <c r="C389" t="str">
+        <v>2019-12-17 20:15</v>
+      </c>
+    </row>
+    <row r="390">
+      <c r="A390" t="str">
+        <v>20只吉娃娃“合唱”圣诞歌 1分钟齐齐整整谁也不乱蹦</v>
+      </c>
+      <c r="B390">
+        <v>9623</v>
+      </c>
+      <c r="C390" t="str">
+        <v>2019-12-17 20:13</v>
+      </c>
+    </row>
+    <row r="391">
+      <c r="A391" t="str">
+        <v>港铁平安夜、除夕恢复通宵运营 圣诞新年期间增加700班次</v>
+      </c>
+      <c r="B391">
+        <v>7604</v>
+      </c>
+      <c r="C391" t="str">
+        <v>2019-12-17 20:08</v>
+      </c>
+    </row>
+    <row r="392">
+      <c r="A392" t="str">
+        <v>香港署理行政长官：纾困津贴将于农历新年前发放 约140万人受惠</v>
+      </c>
+      <c r="B392">
+        <v>8331</v>
+      </c>
+      <c r="C392" t="str">
+        <v>2019-12-17 20:01</v>
+      </c>
+    </row>
+    <row r="393">
+      <c r="A393" t="str">
+        <v>8岁儿子太调皮父亲怒把他扔路上 结果回头找时真不见了</v>
+      </c>
+      <c r="B393">
+        <v>188835</v>
+      </c>
+      <c r="C393" t="str">
+        <v>2019-12-17 20:01</v>
+      </c>
+    </row>
+    <row r="394">
+      <c r="A394" t="str">
+        <v>回顾柳传志事业生涯战友 有人进监狱后仍受其资助东山再起</v>
+      </c>
+      <c r="B394">
+        <v>12680</v>
+      </c>
+      <c r="C394" t="str">
+        <v>2019-12-17 19:55</v>
+      </c>
+    </row>
+    <row r="395">
+      <c r="A395" t="str">
+        <v>豹子与乌龟狭路相逢 乌龟使出这一招让豹子认怂</v>
+      </c>
+      <c r="B395">
+        <v>46127</v>
+      </c>
+      <c r="C395" t="str">
+        <v>2019-12-17 19:55</v>
+      </c>
+    </row>
+    <row r="396">
+      <c r="A396" t="str">
+        <v>实拍：猪太胖压塌猪圈地面坠粪池 消防员跳入粪水赤膊救猪</v>
+      </c>
+      <c r="B396">
+        <v>11336</v>
+      </c>
+      <c r="C396" t="str">
+        <v>2019-12-17 19:48</v>
+      </c>
+    </row>
+    <row r="397">
+      <c r="A397" t="str">
+        <v>萌娃主动向交警“举报”亲妈 妈妈崩溃：以前她也这么干</v>
+      </c>
+      <c r="B397">
+        <v>119736</v>
+      </c>
+      <c r="C397" t="str">
+        <v>2019-12-17 19:37</v>
+      </c>
+    </row>
+    <row r="398">
+      <c r="A398" t="str">
+        <v>华裔男子疑因压力过大杀死全家后自杀 全镇居民震惊：他们是最好的家庭</v>
+      </c>
+      <c r="B398">
+        <v>324999</v>
+      </c>
+      <c r="C398" t="str">
+        <v>2019-12-17 19:20</v>
+      </c>
+    </row>
+    <row r="399">
+      <c r="A399" t="str">
+        <v>直击武警“魔鬼周”：奔袭10公里“解救人质” 狙击练习趴地上几小时不动</v>
+      </c>
+      <c r="B399">
+        <v>13069</v>
+      </c>
+      <c r="C399" t="str">
+        <v>2019-12-17 19:14</v>
+      </c>
+    </row>
+    <row r="400">
+      <c r="A400" t="str">
+        <v>陈迪说：看懂《爱尔兰人》——黑帮和工会是怎样搞到一起的？</v>
+      </c>
+      <c r="B400">
+        <v>50425</v>
+      </c>
+      <c r="C400" t="str">
+        <v>2019-12-17 18:53</v>
+      </c>
+    </row>
+    <row r="401">
+      <c r="A401" t="str">
+        <v>“萝卜章”开出发票金额13亿元  济南破获两起虚开增值税发票案</v>
+      </c>
+      <c r="B401">
+        <v>12573</v>
+      </c>
+      <c r="C401" t="str">
+        <v>2019-12-17 18:36</v>
+      </c>
+    </row>
+    <row r="402">
+      <c r="A402" t="str">
+        <v>苹果微软等多家科技公司遭起诉 被指纵容教唆雇佣童工致死伤</v>
+      </c>
+      <c r="B402">
+        <v>27340</v>
+      </c>
+      <c r="C402" t="str">
+        <v>2019-12-17 18:31</v>
+      </c>
+    </row>
+    <row r="403">
+      <c r="A403" t="str">
+        <v>大学生手机不见“好心人”称帮其追回还受了伤 本以为是暖男结局惊人反转</v>
+      </c>
+      <c r="B403">
+        <v>16250</v>
+      </c>
+      <c r="C403" t="str">
+        <v>2019-12-17 18:21</v>
+      </c>
+    </row>
+    <row r="404">
+      <c r="A404" t="str">
+        <v>《全球性别差距报告》发布：男女经济差距扩大 还要257年才能实现平等</v>
+      </c>
+      <c r="B404">
+        <v>23763</v>
+      </c>
+      <c r="C404" t="str">
+        <v>2019-12-17 18:12</v>
+      </c>
+    </row>
+    <row r="405">
+      <c r="A405" t="str">
+        <v>自行车比赛有“神兽”乱入？一路狂奔比选手还厉害</v>
+      </c>
+      <c r="B405">
+        <v>6083</v>
+      </c>
+      <c r="C405" t="str">
+        <v>2019-12-17 18:09</v>
+      </c>
+    </row>
+    <row r="406">
+      <c r="A406" t="str">
+        <v>遭恋人以结婚为由性侵 印度女子在警局门口自焚</v>
+      </c>
+      <c r="B406">
+        <v>19693</v>
+      </c>
+      <c r="C406" t="str">
+        <v>2019-12-17 18:00</v>
+      </c>
+    </row>
+    <row r="407">
+      <c r="A407" t="str">
+        <v>河南新乡一防水工程公司突发大火 现场火光冲天浓烟滚滚</v>
+      </c>
+      <c r="B407">
+        <v>33559</v>
+      </c>
+      <c r="C407" t="str">
+        <v>2019-12-17 17:57</v>
+      </c>
+    </row>
+    <row r="408">
+      <c r="A408" t="str">
+        <v>城市被野猪包围一片狼藉 居民疯了：仿佛住在森林里</v>
+      </c>
+      <c r="B408">
+        <v>29389</v>
+      </c>
+      <c r="C408" t="str">
+        <v>2019-12-17 17:48</v>
+      </c>
+    </row>
+    <row r="409">
+      <c r="A409" t="str">
+        <v>建大坝要水淹千年古城 土耳其把整个古清真寺拖走</v>
+      </c>
+      <c r="B409">
+        <v>8082</v>
+      </c>
+      <c r="C409" t="str">
+        <v>2019-12-17 17:42</v>
+      </c>
+    </row>
+    <row r="410">
+      <c r="A410" t="str">
+        <v>实拍：马儿受惊闹市街头狂奔 交警抓缰绳驾马车画面魔性</v>
+      </c>
+      <c r="B410">
+        <v>29405</v>
+      </c>
+      <c r="C410" t="str">
+        <v>2019-12-17 17:36</v>
+      </c>
+    </row>
+    <row r="411">
+      <c r="A411" t="str">
+        <v>女子商店偷小孩后正准备跑路 眼尖店主一个动作让她计划失败</v>
+      </c>
+      <c r="B411">
+        <v>12640</v>
+      </c>
+      <c r="C411" t="str">
+        <v>2019-12-17 17:32</v>
+      </c>
+    </row>
+    <row r="412">
+      <c r="A412" t="str">
+        <v>等待流星雨太无聊！大学男生吹一段唢呐助兴 整个宿舍楼沸腾了</v>
+      </c>
+      <c r="B412">
+        <v>68007</v>
+      </c>
+      <c r="C412" t="str">
+        <v>2019-12-17 17:25</v>
+      </c>
+    </row>
+    <row r="413">
+      <c r="A413" t="str">
+        <v>劳荣枝被江西检方批准逮捕 涉嫌抢劫故意杀人案</v>
+      </c>
+      <c r="B413">
+        <v>126715</v>
+      </c>
+      <c r="C413" t="str">
+        <v>2019-12-17 17:24</v>
+      </c>
+    </row>
+    <row r="414">
+      <c r="A414" t="str">
+        <v>劳荣枝被江西检方批准逮捕 涉嫌抢劫故意杀人案</v>
+      </c>
+      <c r="B414">
+        <v>26582</v>
+      </c>
+      <c r="C414" t="str">
+        <v>2019-12-17 17:16</v>
+      </c>
+    </row>
+    <row r="415">
+      <c r="A415" t="str">
+        <v>广西一老人被撞倒肇事司逃逸 后又遭到两车连撞不幸身亡</v>
+      </c>
+      <c r="B415">
+        <v>40895</v>
+      </c>
+      <c r="C415" t="str">
+        <v>2019-12-17 17:12</v>
+      </c>
+    </row>
+    <row r="416">
+      <c r="A416" t="str">
+        <v>浙江一货轮海上遇险进水 沉没前11名船员弃船求救</v>
+      </c>
+      <c r="B416">
+        <v>14422</v>
+      </c>
+      <c r="C416" t="str">
+        <v>2019-12-17 17:06</v>
+      </c>
+    </row>
+    <row r="417">
+      <c r="A417" t="str">
+        <v>不法分子听了颤抖的交响乐：别想跑跑不了！公检法机关联合乐团霸气开唱</v>
+      </c>
+      <c r="B417">
+        <v>10499</v>
+      </c>
+      <c r="C417" t="str">
+        <v>2019-12-17 17:04</v>
+      </c>
+    </row>
+    <row r="418">
+      <c r="A418" t="str">
+        <v>制止施暴反被拘当事人赵宇获福州见义勇为先进个人 将参加年度表彰大会</v>
+      </c>
+      <c r="B418">
+        <v>26985</v>
+      </c>
+      <c r="C418" t="str">
+        <v>2019-12-17 17:02</v>
+      </c>
+    </row>
+    <row r="419">
+      <c r="A419" t="str">
+        <v>长春暴雪蓝色预警1.4万环卫工连夜上路清雪：10小时刚吃上一口饭</v>
+      </c>
+      <c r="B419">
+        <v>7267</v>
+      </c>
+      <c r="C419" t="str">
+        <v>2019-12-17 16:56</v>
+      </c>
+    </row>
+    <row r="420">
+      <c r="A420" t="str">
+        <v>顾客点餐意外拍到后厨 眼前一幕让人惊掉下巴</v>
+      </c>
+      <c r="B420">
+        <v>56941</v>
+      </c>
+      <c r="C420" t="str">
+        <v>2019-12-17 16:55</v>
+      </c>
+    </row>
+    <row r="421">
+      <c r="A421" t="str">
+        <v>实拍：男子骑摩托被卷进大货车车底 从车轮中间穿过死里逃生</v>
+      </c>
+      <c r="B421">
+        <v>5605</v>
+      </c>
+      <c r="C421" t="str">
+        <v>2019-12-17 16:51</v>
+      </c>
+    </row>
+    <row r="422">
+      <c r="A422" t="str">
+        <v>湖南耒阳一处大厦仓库起火 浓烟滚滚如同瀑布</v>
+      </c>
+      <c r="B422">
+        <v>21329</v>
+      </c>
+      <c r="C422" t="str">
+        <v>2019-12-17 16:50</v>
+      </c>
+    </row>
+    <row r="423">
+      <c r="A423" t="str">
+        <v>男子偷可乐被反锁店内 反复撞门失败一着急竟出此下策</v>
+      </c>
+      <c r="B423">
+        <v>20558</v>
+      </c>
+      <c r="C423" t="str">
+        <v>2019-12-17 16:48</v>
+      </c>
+    </row>
+    <row r="424">
+      <c r="A424" t="str">
+        <v>巴基斯坦前总统穆沙拉夫因叛国罪被判处死刑 目前人在迪拜</v>
+      </c>
+      <c r="B424">
+        <v>2093115</v>
+      </c>
+      <c r="C424" t="str">
+        <v>2019-12-17 16:27</v>
+      </c>
+    </row>
+    <row r="425">
+      <c r="A425" t="str">
+        <v>女子因教唆中国孕妇赴美生子 被判入狱10个月</v>
+      </c>
+      <c r="B425">
+        <v>6812</v>
+      </c>
+      <c r="C425" t="str">
+        <v>2019-12-17 16:11</v>
+      </c>
+    </row>
+    <row r="426">
+      <c r="A426" t="str">
+        <v>贵州煤矿事故14人死亡2人被困 多部门救援现场曝光</v>
+      </c>
+      <c r="B426">
+        <v>59871</v>
+      </c>
+      <c r="C426" t="str">
+        <v>2019-12-17 16:07</v>
+      </c>
+    </row>
+    <row r="427">
+      <c r="A427" t="str">
+        <v>医院愿对儿科输液器异物事件担责 乐山市卫健委介入调查</v>
+      </c>
+      <c r="B427">
+        <v>10330</v>
+      </c>
+      <c r="C427" t="str">
+        <v>2019-12-17 16:07</v>
+      </c>
+    </row>
+    <row r="428">
+      <c r="A428" t="str">
+        <v>韩国上万民众呼吁无罪释放前总统朴槿惠 铺开巨幅星条旗</v>
+      </c>
+      <c r="B428">
+        <v>23728</v>
+      </c>
+      <c r="C428" t="str">
+        <v>2019-12-17 16:00</v>
+      </c>
+    </row>
+    <row r="429">
+      <c r="A429" t="str">
+        <v>直击浙江松阳山体塌方救援现场：厂房被埋 现场已成废墟</v>
+      </c>
+      <c r="B429">
+        <v>11289</v>
+      </c>
+      <c r="C429" t="str">
+        <v>2019-12-17 16:00</v>
+      </c>
+    </row>
+    <row r="430">
+      <c r="A430" t="str">
+        <v>俄今年出口军售达近千亿元 普京：制裁之下仍在增加</v>
+      </c>
+      <c r="B430">
+        <v>6046</v>
+      </c>
+      <c r="C430" t="str">
+        <v>2019-12-17 15:58</v>
+      </c>
+    </row>
+    <row r="431">
+      <c r="A431" t="str">
+        <v>柳传志退休众多企业家如何评价他 俞敏洪：他是半神半人高不可攀</v>
+      </c>
+      <c r="B431">
+        <v>83838</v>
+      </c>
+      <c r="C431" t="str">
+        <v>2019-12-17 15:46</v>
+      </c>
+    </row>
+    <row r="432">
+      <c r="A432" t="str">
+        <v>电影《哪吒》遗憾落选奥斯卡 中国3部影片全部出局</v>
+      </c>
+      <c r="B432">
+        <v>32270</v>
+      </c>
+      <c r="C432" t="str">
+        <v>2019-12-17 15:35</v>
+      </c>
+    </row>
+    <row r="433">
+      <c r="A433" t="str">
+        <v>联想创始人柳传志将退休 盘点35年创业路：曾被骗钱急出病</v>
+      </c>
+      <c r="B433">
+        <v>21737</v>
+      </c>
+      <c r="C433" t="str">
+        <v>2019-12-17 15:21</v>
+      </c>
+    </row>
+    <row r="434">
+      <c r="A434" t="str">
+        <v>四国空军联合空投百余箱物资 群岛2万民众喜迎“圣诞礼物”</v>
+      </c>
+      <c r="B434">
+        <v>7812</v>
+      </c>
+      <c r="C434" t="str">
+        <v>2019-12-17 15:09</v>
+      </c>
+    </row>
+    <row r="435">
+      <c r="A435" t="str">
+        <v>天津滨海收费站仅供ETC车辆驶入 回应：非ETC车辆只能绕行</v>
+      </c>
+      <c r="B435">
+        <v>1043910</v>
+      </c>
+      <c r="C435" t="str">
+        <v>2019-12-17 15:03</v>
+      </c>
+    </row>
+    <row r="436">
+      <c r="A436" t="str">
+        <v>5岁男孩一分钟徒手劈125块瓦片 首次尝试即创下世界纪录</v>
+      </c>
+      <c r="B436">
+        <v>9566</v>
+      </c>
+      <c r="C436" t="str">
+        <v>2019-12-17 14:45</v>
+      </c>
+    </row>
+    <row r="437">
+      <c r="A437" t="str">
+        <v>浙江松阳山体塌方3人失联现场画面曝光 官方：天气干燥山体松动引起</v>
+      </c>
+      <c r="B437">
+        <v>47182</v>
+      </c>
+      <c r="C437" t="str">
+        <v>2019-12-17 14:39</v>
+      </c>
+    </row>
+    <row r="438">
+      <c r="A438" t="str">
+        <v>警察抓嫌犯朝酒店房间扫射 女子中枪后爬向警察：为什么要打我</v>
+      </c>
+      <c r="B438">
+        <v>410220</v>
+      </c>
+      <c r="C438" t="str">
+        <v>2019-12-17 14:20</v>
+      </c>
+    </row>
+    <row r="439">
+      <c r="A439" t="str">
+        <v>安徽警方悬赏20万嫌疑人尸体被发现 发现者获全额奖励</v>
+      </c>
+      <c r="B439">
+        <v>13433</v>
+      </c>
+      <c r="C439" t="str">
+        <v>2019-12-17 14:12</v>
+      </c>
+    </row>
+    <row r="440">
+      <c r="A440" t="str">
+        <v>津巴布韦副总统妻子涉嫌谋杀亲夫被捕：支开警卫 拔掉丈夫静脉点滴</v>
+      </c>
+      <c r="B440">
+        <v>11916</v>
+      </c>
+      <c r="C440" t="str">
+        <v>2019-12-17 14:09</v>
+      </c>
+    </row>
+    <row r="441">
+      <c r="A441" t="str">
+        <v>白玉兰奖将接受网剧参评 《陈情令》等热播剧得奖难度或较大</v>
+      </c>
+      <c r="B441">
+        <v>24100</v>
+      </c>
+      <c r="C441" t="str">
+        <v>2019-12-17 13:22</v>
+      </c>
+    </row>
+    <row r="442">
+      <c r="A442" t="str">
+        <v>女孩佩戴“能量石”3个月常流鼻血 海关发现辐射超标112倍</v>
+      </c>
+      <c r="B442">
+        <v>18305</v>
+      </c>
+      <c r="C442" t="str">
+        <v>2019-12-17 13:17</v>
+      </c>
+    </row>
+    <row r="443">
+      <c r="A443" t="str">
+        <v>紧急呼叫丨“操场埋尸案”受害人家属：牵涉人数多有些意外 望从严处理凶手</v>
+      </c>
+      <c r="B443">
+        <v>52403</v>
+      </c>
+      <c r="C443" t="str">
+        <v>2019-12-17 13:16</v>
+      </c>
+    </row>
+    <row r="444">
+      <c r="A444" t="str">
+        <v>走失萌娃害怕警察哇哇大哭 民警费力哄好却遇路人“神补刀”</v>
+      </c>
+      <c r="B444">
+        <v>134812</v>
+      </c>
+      <c r="C444" t="str">
+        <v>2019-12-17 13:12</v>
+      </c>
+    </row>
+    <row r="445">
+      <c r="A445" t="str">
+        <v>缅甸司机向中国走私4件缅甸文物 过境时太紧张被云南边检查获</v>
+      </c>
+      <c r="B445">
+        <v>12701</v>
+      </c>
+      <c r="C445" t="str">
+        <v>2019-12-17 13:06</v>
+      </c>
+    </row>
+    <row r="446">
+      <c r="A446" t="str">
+        <v>紧急呼叫｜邓世平之子将提起民事赔偿 如果可以会为父亲申请烈士</v>
+      </c>
+      <c r="B446">
+        <v>468425</v>
+      </c>
+      <c r="C446" t="str">
+        <v>2019-12-17 13:00</v>
+      </c>
+    </row>
+    <row r="447">
+      <c r="A447" t="str">
+        <v>“黑帮教父”德尼罗怒批特朗普家族：卑鄙的人 和黑帮家族一样</v>
+      </c>
+      <c r="B447">
+        <v>42536</v>
+      </c>
+      <c r="C447" t="str">
+        <v>2019-12-17 12:56</v>
+      </c>
+    </row>
+    <row r="448">
+      <c r="A448" t="str">
+        <v>阿根廷前国脚称到中国踢球是糟糕决定：加盟申花第一天就后悔了</v>
+      </c>
+      <c r="B448">
+        <v>63183</v>
+      </c>
+      <c r="C448" t="str">
+        <v>2019-12-17 12:55</v>
+      </c>
+    </row>
+    <row r="449">
+      <c r="A449" t="str">
+        <v>贵州煤矿事故14人死亡2人被困 曾被批逃避监管、通风系统不完善</v>
+      </c>
+      <c r="B449">
+        <v>9953</v>
+      </c>
+      <c r="C449" t="str">
+        <v>2019-12-17 12:38</v>
+      </c>
+    </row>
+    <row r="450">
+      <c r="A450" t="str">
+        <v>小区水管往下淌血水现场触目惊心 背后原因让人哭笑不得</v>
+      </c>
+      <c r="B450">
+        <v>17642</v>
+      </c>
+      <c r="C450" t="str">
+        <v>2019-12-17 12:37</v>
+      </c>
+    </row>
+    <row r="451">
+      <c r="A451" t="str">
+        <v>实拍：女子酒后爬上5楼空调外机不慎踩空 消防员瞬间将其拉住</v>
+      </c>
+      <c r="B451">
+        <v>5032</v>
+      </c>
+      <c r="C451" t="str">
+        <v>2019-12-17 12:34</v>
+      </c>
+    </row>
+    <row r="452">
+      <c r="A452" t="str">
+        <v>民主党议员要“叛变”转投共和党 特朗普：那就太好了</v>
+      </c>
+      <c r="B452">
+        <v>12443</v>
+      </c>
+      <c r="C452" t="str">
+        <v>2019-12-17 12:20</v>
+      </c>
+    </row>
+    <row r="453">
+      <c r="A453" t="str">
+        <v>超级游艇失控撞向岸边控制室 男子惊险逃出躲过一劫</v>
+      </c>
+      <c r="B453">
+        <v>6015</v>
+      </c>
+      <c r="C453" t="str">
+        <v>2019-12-17 12:13</v>
+      </c>
+    </row>
+    <row r="454">
+      <c r="A454" t="str">
+        <v>法国大罢工进入第12天 巴黎大区道路拥堵长达630公里</v>
+      </c>
+      <c r="B454">
+        <v>19959</v>
+      </c>
+      <c r="C454" t="str">
+        <v>2019-12-17 12:11</v>
+      </c>
+    </row>
+    <row r="455">
+      <c r="A455" t="str">
+        <v>香港女子遭示威者包围手机被毁 警方：暴徒满口歪理 冤枉无辜</v>
+      </c>
+      <c r="B455">
+        <v>105941</v>
+      </c>
+      <c r="C455" t="str">
+        <v>2019-12-17 12:01</v>
+      </c>
+    </row>
+    <row r="456">
+      <c r="A456" t="str">
+        <v>香港一天内31人被捕 学生超一半 警方：利用年轻人太卑劣</v>
+      </c>
+      <c r="B456">
+        <v>37258</v>
+      </c>
+      <c r="C456" t="str">
+        <v>2019-12-17 11:59</v>
+      </c>
+    </row>
+    <row r="457">
+      <c r="A457" t="str">
+        <v>贵州一煤矿发生事故14人死亡2人被困 现场拉警戒线多部门正处置</v>
+      </c>
+      <c r="B457">
+        <v>89374</v>
+      </c>
+      <c r="C457" t="str">
+        <v>2019-12-17 11:52</v>
+      </c>
+    </row>
+    <row r="458">
+      <c r="A458" t="str">
+        <v>6名中国男子在菲律宾涉嫌绑架强奸被捕 受害人：不给钱就打我</v>
+      </c>
+      <c r="B458">
+        <v>933530</v>
+      </c>
+      <c r="C458" t="str">
+        <v>2019-12-17 11:51</v>
+      </c>
+    </row>
+    <row r="459">
+      <c r="A459" t="str">
+        <v>卡车撞着轿车开出数百米 肇事司机一脸无辜：我没看到啊</v>
+      </c>
+      <c r="B459">
+        <v>8904</v>
+      </c>
+      <c r="C459" t="str">
+        <v>2019-12-17 11:41</v>
+      </c>
+    </row>
+    <row r="460">
+      <c r="A460" t="str">
+        <v>孙小果出狱后涉黑犯罪二审宣判 维持一审25年有期徒刑判决</v>
+      </c>
+      <c r="B460">
+        <v>164932</v>
+      </c>
+      <c r="C460" t="str">
+        <v>2019-12-17 11:33</v>
+      </c>
+    </row>
+    <row r="461">
+      <c r="A461" t="str">
+        <v>“分手战线”又拉长？欧盟寻求延长英国“脱欧”过渡期</v>
+      </c>
+      <c r="B461">
+        <v>7678</v>
+      </c>
+      <c r="C461" t="str">
+        <v>2019-12-17 11:24</v>
+      </c>
+    </row>
+    <row r="462">
+      <c r="A462" t="str">
+        <v>紧急呼叫丨“操场埋尸案”受害人家属：牵涉人数多有些意外 望从严处理凶手</v>
+      </c>
+      <c r="B462">
+        <v>431173</v>
+      </c>
+      <c r="C462" t="str">
+        <v>2019-12-17 11:09</v>
+      </c>
+    </row>
+    <row r="463">
+      <c r="A463" t="str">
+        <v>再添“大国重器”！国内首艘1300吨自升自航式风电安装船正式交付</v>
+      </c>
+      <c r="B463">
+        <v>17280</v>
+      </c>
+      <c r="C463" t="str">
+        <v>2019-12-17 11:08</v>
+      </c>
+    </row>
+    <row r="464">
+      <c r="A464" t="str">
+        <v>郑州火车站广场无主电梯闲置8年 政府公开道歉：确保月底前运行</v>
+      </c>
+      <c r="B464">
+        <v>36241</v>
+      </c>
+      <c r="C464" t="str">
+        <v>2019-12-17 10:56</v>
+      </c>
+    </row>
+    <row r="465">
+      <c r="A465" t="str">
+        <v>持刀捅伤西安民警的在逃涉毒嫌疑人落网 案发时曾抢劫一快递车逃窜</v>
+      </c>
+      <c r="B465">
+        <v>23253</v>
+      </c>
+      <c r="C465" t="str">
+        <v>2019-12-17 10:51</v>
+      </c>
+    </row>
+    <row r="466">
+      <c r="A466" t="str">
+        <v>乐山一幼童输液时家长发现管子里有虫 涉事科室：正在处置</v>
+      </c>
+      <c r="B466">
+        <v>2184963</v>
+      </c>
+      <c r="C466" t="str">
+        <v>2019-12-17 10:45</v>
+      </c>
+    </row>
+    <row r="467">
+      <c r="A467" t="str">
+        <v>一家四口驾车出行遇车祸3死1伤 肇事司机：让孩子失去家庭 深感懊悔</v>
+      </c>
+      <c r="B467">
+        <v>35894</v>
+      </c>
+      <c r="C467" t="str">
+        <v>2019-12-17 10:36</v>
+      </c>
+    </row>
+    <row r="468">
+      <c r="A468" t="str">
+        <v>坐了17年冤狱获160万国家赔偿 花光后他因偷牛又被判5年</v>
+      </c>
+      <c r="B468">
+        <v>297146</v>
+      </c>
+      <c r="C468" t="str">
+        <v>2019-12-17 10:29</v>
+      </c>
+    </row>
+    <row r="469">
+      <c r="A469" t="str">
+        <v>保定满城数十辆车因结冰湿滑连环追尾 目击者：跟碰碰车似的</v>
+      </c>
+      <c r="B469">
+        <v>36004</v>
+      </c>
+      <c r="C469" t="str">
+        <v>2019-12-17 10:26</v>
+      </c>
+    </row>
+    <row r="470">
+      <c r="A470" t="str">
+        <v>年底复飞无望 波音从明年1月起暂停737 MAX的生产</v>
+      </c>
+      <c r="B470">
+        <v>6316</v>
+      </c>
+      <c r="C470" t="str">
+        <v>2019-12-17 10:05</v>
+      </c>
+    </row>
+    <row r="471">
+      <c r="A471" t="str">
+        <v>美联航客机出故障紧急迫降 乘客拍下惊险一幕：引擎不停冒火光</v>
+      </c>
+      <c r="B471">
+        <v>6312</v>
+      </c>
+      <c r="C471" t="str">
+        <v>2019-12-17 01:11</v>
+      </c>
+    </row>
+    <row r="472">
+      <c r="A472" t="str">
+        <v>紧急呼叫丨专访于欢母亲苏银霞：出租名下厂房还贷 盼望丈夫儿女出狱</v>
+      </c>
+      <c r="B472">
+        <v>399507</v>
+      </c>
+      <c r="C472" t="str">
+        <v>2019-12-17 01:04</v>
+      </c>
+    </row>
+    <row r="473">
+      <c r="A473" t="str">
+        <v>韩国青瓦台：高级幕僚名下只留一套房 其余房产出售配合楼市调控</v>
+      </c>
+      <c r="B473">
+        <v>9227</v>
+      </c>
+      <c r="C473" t="str">
+        <v>2019-12-16 23:44</v>
+      </c>
+    </row>
+    <row r="474">
+      <c r="A474" t="str">
+        <v>紧急呼叫丨学生花2万学高铁乘务却当保安 老师：已安排就业 真是忘恩负义</v>
+      </c>
+      <c r="B474">
+        <v>380238</v>
+      </c>
+      <c r="C474" t="str">
+        <v>2019-12-16 22:48</v>
+      </c>
+    </row>
+    <row r="475">
+      <c r="A475" t="str">
+        <v>广东潮州一女乘客错过下车 殴打驾驶中的公交司机遭刑拘</v>
+      </c>
+      <c r="B475">
+        <v>36134</v>
+      </c>
+      <c r="C475" t="str">
+        <v>2019-12-16 22:41</v>
+      </c>
+    </row>
+    <row r="476">
+      <c r="A476" t="str">
+        <v>女子买“廉价”面膜差点毁容：脸上像涂了502胶水怎么撕都没用</v>
+      </c>
+      <c r="B476">
+        <v>17479</v>
+      </c>
+      <c r="C476" t="str">
+        <v>2019-12-16 22:01</v>
+      </c>
+    </row>
+    <row r="477">
+      <c r="A477" t="str">
+        <v>广州市卫斯理化工厂起火  4人疑因吸入浓烟送医</v>
+      </c>
+      <c r="B477">
+        <v>19388</v>
+      </c>
+      <c r="C477" t="str">
+        <v>2019-12-16 21:56</v>
+      </c>
+    </row>
+    <row r="478">
+      <c r="A478" t="str">
+        <v>派出所所长接到骗子电话还邀其来所里“做客” 接下来的安排简直完美</v>
+      </c>
+      <c r="B478">
+        <v>1173218</v>
+      </c>
+      <c r="C478" t="str">
+        <v>2019-12-16 21:29</v>
+      </c>
+    </row>
+    <row r="479">
+      <c r="A479" t="str">
+        <v>安徽男子逃亡一月后尸体在蒿草丛中被发现 曾致3死被悬赏20万</v>
+      </c>
+      <c r="B479">
+        <v>185429</v>
+      </c>
+      <c r="C479" t="str">
+        <v>2019-12-16 21:21</v>
+      </c>
+    </row>
+    <row r="480">
+      <c r="A480" t="str">
+        <v>司机被查向交警求情 稍加思索后给出的理由竟是“我们都是中国人”</v>
+      </c>
+      <c r="B480">
+        <v>58661</v>
+      </c>
+      <c r="C480" t="str">
+        <v>2019-12-16 21:20</v>
+      </c>
+    </row>
+    <row r="481">
+      <c r="A481" t="str">
+        <v>紧急呼叫丨湖南二胎妈妈在医院坠亡前曾报警 称院方弄错血型让自己压力很大</v>
+      </c>
+      <c r="B481">
+        <v>583545</v>
+      </c>
+      <c r="C481" t="str">
+        <v>2019-12-16 21:06</v>
+      </c>
+    </row>
+    <row r="482">
+      <c r="A482" t="str">
+        <v>嚣张盗贼偷包裹还留“挑衅”纸条 失主看完目瞪口呆</v>
+      </c>
+      <c r="B482">
+        <v>30166</v>
+      </c>
+      <c r="C482" t="str">
+        <v>2019-12-16 20:55</v>
+      </c>
+    </row>
+    <row r="483">
+      <c r="A483" t="str">
+        <v>广州一工厂起火  瞬间形成巨大火球照亮四周</v>
+      </c>
+      <c r="B483">
+        <v>94523</v>
+      </c>
+      <c r="C483" t="str">
+        <v>2019-12-16 20:53</v>
+      </c>
+    </row>
+    <row r="484">
+      <c r="A484" t="str">
+        <v>重庆籍华为员工于摩洛哥失踪26日 父亲：相信儿子还活着</v>
+      </c>
+      <c r="B484">
+        <v>194889</v>
+      </c>
+      <c r="C484" t="str">
+        <v>2019-12-16 20:41</v>
+      </c>
+    </row>
+    <row r="485">
+      <c r="A485" t="str">
+        <v>女子刚拿驾照到交警队大院练车 结果悲剧了</v>
+      </c>
+      <c r="B485">
+        <v>55647</v>
+      </c>
+      <c r="C485" t="str">
+        <v>2019-12-16 20:18</v>
+      </c>
+    </row>
+    <row r="486">
+      <c r="A486" t="str">
+        <v>我国一箭双星发射北斗导航卫星 北斗三号全球系统核心星座部署完成</v>
+      </c>
+      <c r="B486">
+        <v>27167</v>
+      </c>
+      <c r="C486" t="str">
+        <v>2019-12-16 20:11</v>
+      </c>
+    </row>
+    <row r="487">
+      <c r="A487" t="str">
+        <v>北京大雪过后 积水潭医院急诊来了11位摔伤患者</v>
+      </c>
+      <c r="B487">
+        <v>7069</v>
+      </c>
+      <c r="C487" t="str">
+        <v>2019-12-16 19:50</v>
+      </c>
+    </row>
+    <row r="488">
+      <c r="A488" t="str">
+        <v>男子恋上“傻丫头”每日被嘘寒问暖 转账45万元后对方突然失踪</v>
+      </c>
+      <c r="B488">
+        <v>6187</v>
+      </c>
+      <c r="C488" t="str">
+        <v>2019-12-16 19:48</v>
+      </c>
+    </row>
+    <row r="489">
+      <c r="A489" t="str">
+        <v>紧急呼叫丨于欢母亲苏银霞出狱后将白发染黑：重新振作再把工厂开起来</v>
+      </c>
+      <c r="B489">
+        <v>693043</v>
+      </c>
+      <c r="C489" t="str">
+        <v>2019-12-16 19:36</v>
+      </c>
+    </row>
+    <row r="490">
+      <c r="A490" t="str">
+        <v>恶佣虐婴画面曝光：倒拎14个月大女婴甩来甩去</v>
+      </c>
+      <c r="B490">
+        <v>26816</v>
+      </c>
+      <c r="C490" t="str">
+        <v>2019-12-16 19:33</v>
+      </c>
+    </row>
+    <row r="491">
+      <c r="A491" t="str">
+        <v>45岁男子照顾86岁痴呆母亲：这个年纪能被妈妈打 是很幸福的事情</v>
+      </c>
+      <c r="B491">
+        <v>1794321</v>
+      </c>
+      <c r="C491" t="str">
+        <v>2019-12-16 19:26</v>
+      </c>
+    </row>
+    <row r="492">
+      <c r="A492" t="str">
+        <v>印度洋葱贵如金 新人结婚竟互戴洋葱花环“炫富”</v>
+      </c>
+      <c r="B492">
+        <v>24026</v>
+      </c>
+      <c r="C492" t="str">
+        <v>2019-12-16 19:25</v>
+      </c>
+    </row>
+    <row r="493">
+      <c r="A493" t="str">
+        <v>河南连霍高速发生多起交通事故 5人翻越护栏逃生意外坠桥死亡</v>
+      </c>
+      <c r="B493">
+        <v>231081</v>
+      </c>
+      <c r="C493" t="str">
+        <v>2019-12-16 19:23</v>
+      </c>
+    </row>
+    <row r="494">
+      <c r="A494" t="str">
+        <v>演员黄璐发文宣布与范玮离婚：我们始终相信爱情</v>
+      </c>
+      <c r="B494">
+        <v>23934</v>
+      </c>
+      <c r="C494" t="str">
+        <v>2019-12-16 19:16</v>
+      </c>
+    </row>
+    <row r="495">
+      <c r="A495" t="str">
+        <v>宜兴街头一蓝色宝马旋转漂移 警方：已介入调查</v>
+      </c>
+      <c r="B495">
+        <v>40</v>
+      </c>
+      <c r="C495" t="str">
+        <v>2019-12-16 19:10</v>
+      </c>
+    </row>
+    <row r="496">
+      <c r="A496" t="str">
+        <v>暴躁警员多次把中学生抱起“砸”在地上 视频曝光后引众怒</v>
+      </c>
+      <c r="B496">
+        <v>177874</v>
+      </c>
+      <c r="C496" t="str">
+        <v>2019-12-16 19:08</v>
+      </c>
+    </row>
+    <row r="497">
+      <c r="A497" t="str">
+        <v>民警加班至凌晨回家 怕打扰家人睡在门外椅子上</v>
+      </c>
+      <c r="B497">
+        <v>8500</v>
+      </c>
+      <c r="C497" t="str">
+        <v>2019-12-16 18:45</v>
+      </c>
+    </row>
+    <row r="498">
+      <c r="A498" t="str">
+        <v>总有群星在天上 5分钟盘点2019去世名人</v>
+      </c>
+      <c r="B498">
+        <v>60</v>
+      </c>
+      <c r="C498" t="str">
+        <v>2019-12-16 18:40</v>
+      </c>
+    </row>
+    <row r="499">
+      <c r="A499" t="str">
+        <v>胡歌被指“特别流氓”？经纪公司：恶意诽谤如不删除依法追责</v>
+      </c>
+      <c r="B499">
+        <v>8794</v>
+      </c>
+      <c r="C499" t="str">
+        <v>2019-12-16 18:35</v>
+      </c>
+    </row>
+    <row r="500">
+      <c r="A500" t="str">
+        <v>俄司机深夜绕巨大圣诞树玩漂移 下一秒悲剧了</v>
+      </c>
+      <c r="B500">
+        <v>28052</v>
+      </c>
+      <c r="C500" t="str">
+        <v>2019-12-16 18:34</v>
+      </c>
+    </row>
+    <row r="501">
+      <c r="A501" t="str">
+        <v>货车头被撞烂门都没了 司机淡定开上路看呆交警</v>
+      </c>
+      <c r="B501">
+        <v>30336</v>
+      </c>
+      <c r="C501" t="str">
+        <v>2019-12-16 18:32</v>
+      </c>
+    </row>
+    <row r="502">
+      <c r="A502" t="str">
+        <v>湖南“操场埋尸案”将于12月17日开庭 嫌疑人杜少平被控六宗罪</v>
+      </c>
+      <c r="B502">
+        <v>247376</v>
+      </c>
+      <c r="C502" t="str">
+        <v>2019-12-16 18:14</v>
+      </c>
+    </row>
+    <row r="503">
+      <c r="A503" t="str">
+        <v>河南一精神病患者持刀追砍父亲 副所长趁其讨要香烟空手夺刀</v>
+      </c>
+      <c r="B503">
+        <v>14883</v>
+      </c>
+      <c r="C503" t="str">
+        <v>2019-12-16 18:08</v>
+      </c>
+    </row>
+    <row r="504">
+      <c r="A504" t="str">
+        <v>中国武警官方微博上线首日晒出震撼内容 网友：终于等到你</v>
+      </c>
+      <c r="B504">
+        <v>12305</v>
+      </c>
+      <c r="C504" t="str">
+        <v>2019-12-16 17:46</v>
+      </c>
+    </row>
+    <row r="505">
+      <c r="A505" t="str">
+        <v>肾疼！法国工人抗议活动中 1000台苹果手机被碾碎</v>
+      </c>
+      <c r="B505">
+        <v>6232</v>
+      </c>
+      <c r="C505" t="str">
+        <v>2019-12-16 17:43</v>
+      </c>
+    </row>
+    <row r="506">
+      <c r="A506" t="str">
+        <v>再次登月！NASA载人登月火箭建造完成 将送首位女宇航员上月球</v>
+      </c>
+      <c r="B506">
+        <v>103147</v>
+      </c>
+      <c r="C506" t="str">
+        <v>2019-12-16 17:29</v>
+      </c>
+    </row>
+    <row r="507">
+      <c r="A507" t="str">
+        <v>日本发生离奇命案：88岁母亲疑似杀死70岁女儿后自杀</v>
+      </c>
+      <c r="B507">
+        <v>41660</v>
+      </c>
+      <c r="C507" t="str">
+        <v>2019-12-16 17:24</v>
+      </c>
+    </row>
+    <row r="508">
+      <c r="A508" t="str">
+        <v>过ETC通道账户余额竟有2000多万？ 交通部门：是个虚拟数字</v>
+      </c>
+      <c r="B508">
+        <v>40564</v>
+      </c>
+      <c r="C508" t="str">
+        <v>2019-12-16 17:12</v>
+      </c>
+    </row>
+    <row r="509">
+      <c r="A509" t="str">
+        <v>男子高速上演“速度与激情” 车跑着跑着解体留下一路“闪电”</v>
+      </c>
+      <c r="B509">
+        <v>123327</v>
+      </c>
+      <c r="C509" t="str">
+        <v>2019-12-16 16:58</v>
+      </c>
+    </row>
+    <row r="510">
+      <c r="A510" t="str">
+        <v>徐盐铁路今日正式通车 高铁加速苏北融入长三角一体化</v>
+      </c>
+      <c r="B510">
+        <v>33386</v>
+      </c>
+      <c r="C510" t="str">
+        <v>2019-12-16 16:40</v>
+      </c>
+    </row>
+    <row r="511">
+      <c r="A511" t="str">
+        <v>“熊”出新高度！孩子翻墙进工厂上演无敌破坏 喷十几个灭火器还拆了电脑</v>
+      </c>
+      <c r="B511">
+        <v>5988</v>
+      </c>
+      <c r="C511" t="str">
+        <v>2019-12-16 16:31</v>
+      </c>
+    </row>
+    <row r="512">
+      <c r="A512" t="str">
+        <v>笨贼偷包裹一路跑一路掉 忙着捡赃物裤子掉一半都没空提</v>
+      </c>
+      <c r="B512">
+        <v>27324</v>
+      </c>
+      <c r="C512" t="str">
+        <v>2019-12-16 16:31</v>
+      </c>
+    </row>
+    <row r="513">
+      <c r="A513" t="str">
+        <v>权健公司及束昱辉等涉嫌组织传销活动案一审开庭：被告人当庭认罪</v>
+      </c>
+      <c r="B513">
+        <v>71877</v>
+      </c>
+      <c r="C513" t="str">
+        <v>2019-12-16 16:30</v>
+      </c>
+    </row>
+    <row r="514">
+      <c r="A514" t="str">
+        <v>美国警察在警车内连遭十枪身亡 警局公开监控怒斥罪行令人发指</v>
+      </c>
+      <c r="B514">
+        <v>318846</v>
+      </c>
+      <c r="C514" t="str">
+        <v>2019-12-16 16:30</v>
+      </c>
+    </row>
+    <row r="515">
+      <c r="A515" t="str">
+        <v>宜宾煤矿透水事故逃生者讲述：8名矿工死死抱住立柱没被洪水冲走</v>
+      </c>
+      <c r="B515">
+        <v>111045</v>
+      </c>
+      <c r="C515" t="str">
+        <v>2019-12-16 16:30</v>
+      </c>
+    </row>
+    <row r="516">
+      <c r="A516" t="str">
+        <v>桂林3名学生报复围殴一同学 4人均被公安警告处罚</v>
+      </c>
+      <c r="B516">
+        <v>22264</v>
+      </c>
+      <c r="C516" t="str">
+        <v>2019-12-16 16:06</v>
+      </c>
+    </row>
+    <row r="517">
+      <c r="A517" t="str">
+        <v>监拍：男子凌晨溜进派出所偷车 还没出门就被按倒在地</v>
+      </c>
+      <c r="B517">
+        <v>17143</v>
+      </c>
+      <c r="C517" t="str">
+        <v>2019-12-16 15:52</v>
+      </c>
+    </row>
+    <row r="518">
+      <c r="A518" t="str">
+        <v>云南彝良为2名老师举行遗体告别仪式 系家访途中发生车祸身亡</v>
+      </c>
+      <c r="B518">
+        <v>23725</v>
+      </c>
+      <c r="C518" t="str">
+        <v>2019-12-16 15:52</v>
+      </c>
+    </row>
+    <row r="519">
+      <c r="A519" t="str">
+        <v>女子报警称屋内有歹徒挟持其朋友 民警破门后蒙了</v>
+      </c>
+      <c r="B519">
+        <v>6616</v>
+      </c>
+      <c r="C519" t="str">
+        <v>2019-12-16 15:50</v>
+      </c>
+    </row>
+    <row r="520">
+      <c r="A520" t="str">
+        <v>银行职员“监守自盗”顺走金库现金 网上高调炫富晒赃款后被捕</v>
+      </c>
+      <c r="B520">
+        <v>9135</v>
+      </c>
+      <c r="C520" t="str">
+        <v>2019-12-16 15:50</v>
+      </c>
+    </row>
+    <row r="521">
+      <c r="A521" t="str">
+        <v>冰火两重天！冬泳爱好者零下20℃冬泳后 聚在雪地里吃火锅</v>
+      </c>
+      <c r="B521">
+        <v>62079</v>
+      </c>
+      <c r="C521" t="str">
+        <v>2019-12-16 15:49</v>
+      </c>
+    </row>
+    <row r="522">
+      <c r="A522" t="str">
+        <v>道德高尚才能移民美国？美国出新规对移民申请者道德水平提要求</v>
+      </c>
+      <c r="B522">
+        <v>16477</v>
+      </c>
+      <c r="C522" t="str">
+        <v>2019-12-16 15:45</v>
+      </c>
+    </row>
+    <row r="523">
+      <c r="A523" t="str">
+        <v>温州一女子因情感纠纷被丈夫和公公侮辱围殴 警方：已立案侦查</v>
+      </c>
+      <c r="B523">
+        <v>6139970</v>
+      </c>
+      <c r="C523" t="str">
+        <v>2019-12-16 15:27</v>
+      </c>
+    </row>
+    <row r="524">
+      <c r="A524" t="str">
+        <v>直击云南跨境运输毒品案查获现场：114.72公斤毒品混杂于香蕉中</v>
+      </c>
+      <c r="B524">
+        <v>49836</v>
+      </c>
+      <c r="C524" t="str">
+        <v>2019-12-16 15:22</v>
+      </c>
+    </row>
+    <row r="525">
+      <c r="A525" t="str">
+        <v>特朗普一天内狂发123条推特破纪录 白宫挽尊：少批评多鼓励</v>
+      </c>
+      <c r="B525">
+        <v>79054</v>
+      </c>
+      <c r="C525" t="str">
+        <v>2019-12-16 15:18</v>
+      </c>
+    </row>
+    <row r="526">
+      <c r="A526" t="str">
+        <v>江苏茅山上空现罕见美景：云海翻腾 如梦似幻胜“仙宫”</v>
+      </c>
+      <c r="B526">
+        <v>6224</v>
+      </c>
+      <c r="C526" t="str">
+        <v>2019-12-16 14:51</v>
+      </c>
+    </row>
+    <row r="527">
+      <c r="A527" t="str">
+        <v>为悼念火山喷发遇难者 新西兰全国默哀一分钟</v>
+      </c>
+      <c r="B527">
+        <v>5446</v>
+      </c>
+      <c r="C527" t="str">
+        <v>2019-12-16 14:44</v>
+      </c>
+    </row>
+    <row r="528">
+      <c r="A528" t="str">
+        <v>疑因拍摄黑衣人暴行 香港市民遭包围及毁坏手机</v>
+      </c>
+      <c r="B528">
+        <v>7829</v>
+      </c>
+      <c r="C528" t="str">
+        <v>2019-12-16 14:39</v>
+      </c>
+    </row>
+    <row r="529">
+      <c r="A529" t="str">
+        <v>杭州救人牺牲小伙追悼会在郓城举行 救护车载来母亲见儿最后一面</v>
+      </c>
+      <c r="B529">
+        <v>77002</v>
+      </c>
+      <c r="C529" t="str">
+        <v>2019-12-16 14:39</v>
+      </c>
+    </row>
+    <row r="530">
+      <c r="A530" t="str">
+        <v>航拍成贵高铁云雾中穿梭：飞跃468座桥梁 穿过183座隧道</v>
+      </c>
+      <c r="B530">
+        <v>242334</v>
+      </c>
+      <c r="C530" t="str">
+        <v>2019-12-16 14:29</v>
+      </c>
+    </row>
+    <row r="531">
+      <c r="A531" t="str">
+        <v>沈阳棋盘山大火肇事者被判6年 造成直接经济损失2460.5万元</v>
+      </c>
+      <c r="B531">
+        <v>12112</v>
+      </c>
+      <c r="C531" t="str">
+        <v>2019-12-16 14:24</v>
+      </c>
+    </row>
+    <row r="532">
+      <c r="A532" t="str">
+        <v>香港添马公园举行反暴力集会：警民一心 止暴制乱</v>
+      </c>
+      <c r="B532">
+        <v>30937</v>
+      </c>
+      <c r="C532" t="str">
+        <v>2019-12-16 14:12</v>
+      </c>
+    </row>
+    <row r="533">
+      <c r="A533" t="str">
+        <v>肥棕熊冲上马路矫健爬上汽车 下一秒就现场翻车</v>
+      </c>
+      <c r="B533">
+        <v>9735</v>
+      </c>
+      <c r="C533" t="str">
+        <v>2019-12-16 14:11</v>
+      </c>
+    </row>
+    <row r="534">
+      <c r="A534" t="str">
+        <v>女生在宿舍内吃火锅被“顺网线”抓到 监督人员到时人锅俱全</v>
+      </c>
+      <c r="B534">
+        <v>17897</v>
+      </c>
+      <c r="C534" t="str">
+        <v>2019-12-16 13:58</v>
+      </c>
+    </row>
+    <row r="535">
+      <c r="A535" t="str">
+        <v>贵州铜仁蓝天救援队两只搜救犬被毒死 曾多次协助执行救援任务</v>
+      </c>
+      <c r="B535">
+        <v>109176</v>
+      </c>
+      <c r="C535" t="str">
+        <v>2019-12-16 13:48</v>
+      </c>
+    </row>
+    <row r="536">
+      <c r="A536" t="str">
+        <v>海南海口一只一米多长的鳄鱼惊现路面 直击众人协力将其控制</v>
+      </c>
+      <c r="B536">
+        <v>4626</v>
+      </c>
+      <c r="C536" t="str">
+        <v>2019-12-16 13:45</v>
+      </c>
+    </row>
+    <row r="537">
+      <c r="A537" t="str">
+        <v>黑客黑进房屋监控系统 还与屋主嚣张对话：我什么都看得到</v>
+      </c>
+      <c r="B537">
+        <v>27683</v>
+      </c>
+      <c r="C537" t="str">
+        <v>2019-12-16 13:37</v>
+      </c>
+    </row>
+    <row r="538">
+      <c r="A538" t="str">
+        <v>史上耗时最长联合国气候大会：延期2天仍无成果</v>
+      </c>
+      <c r="B538">
+        <v>5853</v>
+      </c>
+      <c r="C538" t="str">
+        <v>2019-12-16 13:32</v>
+      </c>
+    </row>
+    <row r="539">
+      <c r="A539" t="str">
+        <v>西藏日喀则出现暴雪天气 学生在半米深雪道中穿行</v>
+      </c>
+      <c r="B539">
+        <v>6625</v>
+      </c>
+      <c r="C539" t="str">
+        <v>2019-12-16 12:58</v>
+      </c>
+    </row>
+    <row r="540">
+      <c r="A540" t="str">
+        <v>紧急呼叫丨郑州火车站电梯闲置8年 城管：没有一个单位承认建设和养护电梯</v>
+      </c>
+      <c r="B540">
+        <v>2019</v>
+      </c>
+      <c r="C540" t="str">
+        <v>2019-12-16 12:45</v>
+      </c>
+    </row>
+    <row r="541">
+      <c r="A541" t="str">
+        <v>全国百大打车难地点出炉 天津济南成入榜数量最多城市</v>
+      </c>
+      <c r="B541">
+        <v>18017</v>
+      </c>
+      <c r="C541" t="str">
+        <v>2019-12-16 12:34</v>
+      </c>
+    </row>
+    <row r="542">
+      <c r="A542" t="str">
+        <v>紧急呼叫丨郑州火车站电梯闲置8年 城管：没有一个单位承认建设和养护电梯</v>
+      </c>
+      <c r="B542">
+        <v>90807</v>
+      </c>
+      <c r="C542" t="str">
+        <v>2019-12-16 12:32</v>
+      </c>
+    </row>
+    <row r="543">
+      <c r="A543" t="str">
+        <v>连日暴雨河水卷起千层“垃圾浪” 成吨塑料瓶被巨浪冲向岸边</v>
+      </c>
+      <c r="B543">
+        <v>35548</v>
+      </c>
+      <c r="C543" t="str">
+        <v>2019-12-16 12:25</v>
+      </c>
+    </row>
+    <row r="544">
+      <c r="A544" t="str">
+        <v>宜兴街头一蓝色宝马旋转漂移 警方：已介入调查</v>
+      </c>
+      <c r="B544">
+        <v>7380</v>
+      </c>
+      <c r="C544" t="str">
+        <v>2019-12-16 12:24</v>
+      </c>
+    </row>
+    <row r="545">
+      <c r="A545" t="str">
+        <v>著名配音演员陆建艺去世 曾为《罗马假日》格里高利·派克配音</v>
+      </c>
+      <c r="B545">
+        <v>25029</v>
+      </c>
+      <c r="C545" t="str">
+        <v>2019-12-16 12:24</v>
+      </c>
+    </row>
+    <row r="546">
+      <c r="A546" t="str">
+        <v>撒贝宁升级当爸爸 加拿大籍妻子李白产下龙凤胎</v>
+      </c>
+      <c r="B546">
+        <v>319088</v>
+      </c>
+      <c r="C546" t="str">
+        <v>2019-12-16 12:16</v>
+      </c>
+    </row>
+    <row r="547">
+      <c r="A547" t="str">
+        <v>直击闭馆中的故宫雪景：银装素裹白瓦红墙 美到让人感觉“穿越”</v>
+      </c>
+      <c r="B547">
+        <v>42759</v>
+      </c>
+      <c r="C547" t="str">
+        <v>2019-12-16 12:06</v>
+      </c>
+    </row>
+    <row r="548">
+      <c r="A548" t="str">
+        <v>奇观！成千上万只鸟儿结队南下 密集如织网令人惊叹</v>
+      </c>
+      <c r="B548">
+        <v>14294</v>
+      </c>
+      <c r="C548" t="str">
+        <v>2019-12-16 12:03</v>
+      </c>
+    </row>
+    <row r="549">
+      <c r="A549" t="str">
+        <v>直击闭馆中的故宫雪景：银装素裹白瓦红墙 美到让人感觉“穿越”</v>
+      </c>
+      <c r="B549">
+        <v>66655</v>
+      </c>
+      <c r="C549" t="str">
+        <v>2019-12-16 11:42</v>
+      </c>
+    </row>
+    <row r="550">
+      <c r="A550" t="str">
+        <v>男子四处炫耀包里有1亿现金 被人盯上尾随入室遭抢劫杀害</v>
+      </c>
+      <c r="B550">
+        <v>318996</v>
+      </c>
+      <c r="C550" t="str">
+        <v>2019-12-16 11:33</v>
+      </c>
+    </row>
+    <row r="551">
+      <c r="A551" t="str">
+        <v>“锡剧皇后”叶兆言之母姚澄逝世 留下最美的“姚派”唱腔</v>
+      </c>
+      <c r="B551">
+        <v>5622</v>
+      </c>
+      <c r="C551" t="str">
+        <v>2019-12-16 11:29</v>
+      </c>
+    </row>
+    <row r="552">
+      <c r="A552" t="str">
+        <v>厦门塌陷事故原因查明：临时格构立柱承重超负荷 局部顶板瞬间坍塌</v>
+      </c>
+      <c r="B552">
+        <v>516141</v>
+      </c>
+      <c r="C552" t="str">
+        <v>2019-12-16 11:04</v>
+      </c>
+    </row>
+    <row r="553">
+      <c r="A553" t="str">
+        <v>警方陆续公布新西兰火山喷发遇难者名单 背后故事令人心碎</v>
+      </c>
+      <c r="B553">
+        <v>31390</v>
+      </c>
+      <c r="C553" t="str">
+        <v>2019-12-16 11:03</v>
+      </c>
+    </row>
+    <row r="554">
+      <c r="A554" t="str">
+        <v>北京大雪：游人冒雪看天安门升旗仪式 上景山看故宫雪景</v>
+      </c>
+      <c r="B554">
+        <v>24986</v>
+      </c>
+      <c r="C554" t="str">
+        <v>2019-12-16 10:50</v>
+      </c>
+    </row>
+    <row r="555">
+      <c r="A555" t="str">
+        <v>澳洲海滩近百人将头埋入沙中场景奇特 背后原因令人深思</v>
+      </c>
+      <c r="B555">
+        <v>7206</v>
+      </c>
+      <c r="C555" t="str">
+        <v>2019-12-16 10:48</v>
+      </c>
+    </row>
+    <row r="556">
+      <c r="A556" t="str">
+        <v>受降雪和大雾影响 北京周边高速数十条封闭</v>
+      </c>
+      <c r="B556">
+        <v>8822</v>
+      </c>
+      <c r="C556" t="str">
+        <v>2019-12-16 10:43</v>
+      </c>
+    </row>
+    <row r="557">
+      <c r="A557" t="str">
+        <v>特朗普或将三分之一美军撤出阿富汗 美媒：对塔利班单方面让步</v>
+      </c>
+      <c r="B557">
+        <v>22818</v>
+      </c>
+      <c r="C557" t="str">
+        <v>2019-12-16 10:04</v>
+      </c>
+    </row>
+    <row r="558">
+      <c r="A558" t="str">
+        <v>安倍晋三出席奥运主场馆竣工仪式：向世界展现日本力量</v>
+      </c>
+      <c r="B558">
+        <v>15683</v>
+      </c>
+      <c r="C558" t="str">
+        <v>2019-12-16 09:55</v>
+      </c>
+    </row>
+    <row r="559">
+      <c r="A559" t="str">
+        <v>澳门巴黎人上演《梁祝》快闪 演绎浪漫献礼澳门回归20周年</v>
+      </c>
+      <c r="B559">
+        <v>93855</v>
+      </c>
+      <c r="C559" t="str">
+        <v>2019-12-16 09:07</v>
+      </c>
+    </row>
+    <row r="560">
+      <c r="A560" t="str">
+        <v>北京迎来大雪大部分地区积雪深度不超过2厘米 网友：希望下一整天</v>
+      </c>
+      <c r="B560">
+        <v>78495</v>
+      </c>
+      <c r="C560" t="str">
+        <v>2019-12-16 09:02</v>
+      </c>
+    </row>
+    <row r="561">
+      <c r="A561" t="str">
+        <v>湖南男子为捡无人机坠下百米山崖 救援人员用3小时将他抬上山脊</v>
+      </c>
+      <c r="B561">
+        <v>13281</v>
+      </c>
+      <c r="C561" t="str">
+        <v>2019-12-16 08:37</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:C287"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:C561"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/harvest/tencent/新京报-阅读量数据统计.xlsx
+++ b/harvest/tencent/新京报-阅读量数据统计.xlsx
@@ -375,7 +375,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C561"/>
+  <dimension ref="A1:C505"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -393,6167 +393,5551 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>紧急呼叫丨警方回应14岁中学生校内死亡：自称行凶者被抓 系外地骗子</v>
+        <v>青岛地铁回应“肺炎患者确诊前坐遍地铁”事件：他是为了回家 排除故意嫌疑</v>
       </c>
       <c r="B2">
-        <v>702041</v>
+        <v>70277</v>
       </c>
       <c r="C2" t="str">
-        <v>2019-12-22 21:18</v>
+        <v>2020-01-26 23:53</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>浙江一渔船沉没7人失联 空巡飞机搜索200平方海里暂无发现</v>
+        <v>妻子做护士丈夫建医院齐上阵抗击疫情 每天在微信群互相加油</v>
       </c>
       <c r="B3">
-        <v>130829</v>
+        <v>13046</v>
       </c>
       <c r="C3" t="str">
-        <v>2019-12-22 20:52</v>
+        <v>2020-01-26 23:50</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>河北元氏男子用假章骗取一公司4500万 银保监局：成立调查组调查</v>
+        <v>各地防疫条幅大赛河南获胜 网友：像泥石流般无情且迅速</v>
       </c>
       <c r="B4">
-        <v>37633</v>
+        <v>2008769</v>
       </c>
       <c r="C4" t="str">
-        <v>2019-12-22 19:57</v>
+        <v>2020-01-26 23:35</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>台湾男子疑在香港犯抢劫案后落网 台方向港府提司法互助请求</v>
+        <v>强行带疑似感染新冠病毒的孩子离境 武汉父母在马来西亚被捕</v>
       </c>
       <c r="B5">
-        <v>11760</v>
+        <v>7785068</v>
       </c>
       <c r="C5" t="str">
-        <v>2019-12-22 18:23</v>
+        <v>2020-01-26 22:38</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>紧急呼叫丨虞城14岁中学生课间死亡全程监控曝光：跑步后瘫倒</v>
+        <v>山东多地村庄用石头封住村道 交通运输部回应：应急通道不能断</v>
       </c>
       <c r="B6">
-        <v>1379927</v>
+        <v>453537</v>
       </c>
       <c r="C6" t="str">
-        <v>2019-12-22 18:22</v>
+        <v>2020-01-26 22:36</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v>武汉一商场发生命案：外卖员刺死商场员工 12人合围将他控制</v>
+        <v>火神山医院深夜铺设HDPE防渗膜 2.5万平米地块穿上“防护衣”</v>
       </c>
       <c r="B7">
-        <v>1048253</v>
+        <v>40730</v>
       </c>
       <c r="C7" t="str">
-        <v>2019-12-22 18:10</v>
+        <v>2020-01-26 21:28</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v>冬至时节吃了饺子 还多了个“心上人”</v>
+        <v>为避免人员聚集感染病毒 社区书记带音响喊话麻将馆：打完这一把 马上散！</v>
       </c>
       <c r="B8">
-        <v>15795</v>
+        <v>1358620</v>
       </c>
       <c r="C8" t="str">
-        <v>2019-12-22 18:08</v>
+        <v>2020-01-26 21:10</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="str">
-        <v>实拍“千人泼水成冰”：将热水泼向空中 白雾升腾场面壮观</v>
+        <v>“赞美师娘”论文处理结果公布：主编被停职 期刊停刊整顿</v>
       </c>
       <c r="B9">
-        <v>35538</v>
+        <v>9009</v>
       </c>
       <c r="C9" t="str">
-        <v>2019-12-22 18:00</v>
+        <v>2020-01-26 21:06</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="str">
-        <v>重庆30岁工程师疑因抑郁症坠楼身亡 公司：将落实员工心理关怀</v>
+        <v>安徽淮北贵州都匀同日发布通告：禁止湖北牌照车辆入境</v>
       </c>
       <c r="B10">
-        <v>69309</v>
+        <v>19725</v>
       </c>
       <c r="C10" t="str">
-        <v>2019-12-22 17:54</v>
+        <v>2020-01-26 20:52</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="str">
-        <v>河南男子撞伤老人假装送医杀人焚尸案 二审维持死刑</v>
+        <v>故意隐瞒4名家属从武汉返乡 浙江一村支书经群众举报被撤职</v>
       </c>
       <c r="B11">
-        <v>96858</v>
+        <v>101724</v>
       </c>
       <c r="C11" t="str">
-        <v>2019-12-22 17:23</v>
+        <v>2020-01-26 20:52</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="str">
-        <v>山西洪洞封炉事件续 爆料人再发声自称连续接受多部门询问</v>
+        <v>实探隔离眼罩生产厂：日产最高八千套 可防飞溅液体</v>
       </c>
       <c r="B12">
-        <v>86347</v>
+        <v>15771</v>
       </c>
       <c r="C12" t="str">
-        <v>2019-12-22 17:13</v>
+        <v>2020-01-26 20:33</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="str">
-        <v>山东利津一罐车维修时爆炸 罐体碎片散落一地</v>
+        <v>湖北籍游客入住宾馆遭拒？云南指定专门宾馆统一接待</v>
       </c>
       <c r="B13">
-        <v>15247</v>
+        <v>13692</v>
       </c>
       <c r="C13" t="str">
-        <v>2019-12-22 17:03</v>
+        <v>2020-01-26 20:31</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="str">
-        <v>浙江一渔船沉没11人获救 7人失联 海上搜救视频曝光</v>
+        <v>专家谈新冠肺炎治疗：部分抗艾滋病药物及中药对治疗有效</v>
       </c>
       <c r="B14">
-        <v>49358</v>
+        <v>202877</v>
       </c>
       <c r="C14" t="str">
-        <v>2019-12-22 17:02</v>
+        <v>2020-01-26 20:18</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="str">
-        <v>揭秘渔船上的巡回法庭：船栏杆上挂国徽 泡沫箱当“桌子”</v>
+        <v>白岩松回应网传“将对话钟南山”：哪舍得再去打扰他 过几天吧</v>
       </c>
       <c r="B15">
-        <v>8867</v>
+        <v>130700</v>
       </c>
       <c r="C15" t="str">
-        <v>2019-12-22 16:13</v>
+        <v>2020-01-26 20:11</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="str">
-        <v>“他拉我跑了！”货车超载司机贿赂未果 挟持辅警疯狂逃窜</v>
+        <v>央视节目白岩松将再次连线钟南山？ 记者证实为假消息</v>
       </c>
       <c r="B16">
-        <v>21047</v>
+        <v>815727</v>
       </c>
       <c r="C16" t="str">
-        <v>2019-12-22 15:30</v>
+        <v>2020-01-26 19:44</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="str">
-        <v>去冬季草原看风景不慎陷入河道深雪坑 救援队冒-30℃低温跪地铲雪</v>
+        <v>国家卫健委：新型冠状病毒潜伏期具有传染性 尚未发现病毒变异证据</v>
       </c>
       <c r="B17">
-        <v>6526</v>
+        <v>18556</v>
       </c>
       <c r="C17" t="str">
-        <v>2019-12-22 14:48</v>
+        <v>2020-01-26 19:42</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="str">
-        <v>全港受损交通灯全面恢复运作 林郑月娥发文感谢各方努力</v>
+        <v>成都宜昌等22城市要求商品房售楼处关门 以应对新冠肺炎疫情</v>
       </c>
       <c r="B18">
-        <v>14379</v>
+        <v>10545</v>
       </c>
       <c r="C18" t="str">
-        <v>2019-12-22 14:29</v>
+        <v>2020-01-26 19:21</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="str">
-        <v>古巴时隔43年后再任命总理 系卡斯特罗后首位总理</v>
+        <v>湖南一药店口罩卖到40元一个被投诉 店铺：每个进价就要30元</v>
       </c>
       <c r="B19">
-        <v>319639</v>
+        <v>1417761</v>
       </c>
       <c r="C19" t="str">
-        <v>2019-12-22 11:40</v>
+        <v>2020-01-26 19:19</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="str">
-        <v>长沙一处路面坍塌大量水不断涌出 抢险泵车紧急灌入混凝土</v>
+        <v>上海宣布停运所有省际班车 违反者将被处理</v>
       </c>
       <c r="B20">
-        <v>11273</v>
+        <v>66894</v>
       </c>
       <c r="C20" t="str">
-        <v>2019-12-22 11:27</v>
+        <v>2020-01-26 19:12</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="str">
-        <v>“丽江反杀案”背后：一方“家破人亡”不敢生病 一方暴瘦20斤坚持扫屋</v>
+        <v>吉林市首批援鄂医疗队整装待发 护士长：儿子说妈妈你放心去吧</v>
       </c>
       <c r="B21">
-        <v>2123569</v>
+        <v>25454</v>
       </c>
       <c r="C21" t="str">
-        <v>2019-12-22 11:09</v>
+        <v>2020-01-26 18:38</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="str">
-        <v>广东中山一高层住房发生大火 官方：已致6人死亡</v>
+        <v>河南一退伍老兵除夕挖蔬菜 驱车400公里送到火神山医院工地</v>
       </c>
       <c r="B22">
-        <v>31291</v>
+        <v>205240</v>
       </c>
       <c r="C22" t="str">
-        <v>2019-12-22 11:08</v>
+        <v>2020-01-26 18:29</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="str">
-        <v>紧急呼叫丨女子指控邻居20多年前性侵反被告：哪怕离婚也要让对方付出代价</v>
+        <v>又有数百趟列车因疫情停运  涉我国华中华东西南西北多地</v>
       </c>
       <c r="B23">
-        <v>780490</v>
+        <v>14800</v>
       </c>
       <c r="C23" t="str">
-        <v>2019-12-22 00:38</v>
+        <v>2020-01-26 18:29</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="str">
-        <v>广西柳州一公路施工现场塌方：2辆挖掘机被埋 2名驾驶人员遇难</v>
+        <v>安倍紧急召开发布会：日本计划包机从武汉撤侨</v>
       </c>
       <c r="B24">
-        <v>31549</v>
+        <v>60535</v>
       </c>
       <c r="C24" t="str">
-        <v>2019-12-21 23:01</v>
+        <v>2020-01-26 18:24</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="str">
-        <v>紧急呼叫丨母亲详述14岁儿子校园身亡：新衣领子被撕掉 送医后口鼻出血</v>
+        <v>卫健委副主任回答是否存在瞒报新冠肺炎感染人数：所有信息都有公示</v>
       </c>
       <c r="B25">
-        <v>782482</v>
+        <v>832250</v>
       </c>
       <c r="C25" t="str">
-        <v>2019-12-21 21:10</v>
+        <v>2020-01-26 18:15</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="str">
-        <v>紧急呼叫丨女子指控邻居20多年前性侵反被告：哪怕离婚也要让对方付出代价</v>
+        <v>紧急呼叫 | 武汉火神山医院工人每天10小时赶工 瞒着母亲：在家待着呢</v>
       </c>
       <c r="B26">
-        <v>392438</v>
+        <v>2179237</v>
       </c>
       <c r="C26" t="str">
-        <v>2019-12-21 18:57</v>
+        <v>2020-01-26 17:41</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="str">
-        <v>湖南一女生被辍学女孩殴打多处受伤 警方：打人者已送去矫治教育</v>
+        <v>全国多地要求公共场合必须戴口罩 广东：违者将被处罚</v>
       </c>
       <c r="B27">
-        <v>37386</v>
+        <v>666766</v>
       </c>
       <c r="C27" t="str">
-        <v>2019-12-21 18:56</v>
+        <v>2020-01-26 17:02</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="str">
-        <v>紧急呼叫丨临汾贫困户被默许烧煤 村干部：讲政策不允许但对老人有同情心</v>
+        <v>工信部副部长：湖北每天需求10万件医用防护服 国内产能供不应求</v>
       </c>
       <c r="B28">
-        <v>578358</v>
+        <v>74655</v>
       </c>
       <c r="C28" t="str">
-        <v>2019-12-21 18:45</v>
+        <v>2020-01-26 16:54</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="str">
-        <v>实拍河北正定开元寺遗址发掘现场：7个朝代文化层出土文物6700件</v>
+        <v>豫鄂交界！河南唐河60小时检查9000辆车 全县商超酒店均停业</v>
       </c>
       <c r="B29">
-        <v>179272</v>
+        <v>527649</v>
       </c>
       <c r="C29" t="str">
-        <v>2019-12-21 18:10</v>
+        <v>2020-01-26 16:45</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="str">
-        <v>监拍：轮胎从大货车上脱落 弹跳一圈后嵌入小车挡风玻璃</v>
+        <v>河南首批医疗队驰援武汉 男子送别亲属现场痛哭大喊“我爱你”</v>
       </c>
       <c r="B30">
-        <v>118108</v>
+        <v>2413795</v>
       </c>
       <c r="C30" t="str">
-        <v>2019-12-21 18:03</v>
+        <v>2020-01-26 16:27</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="str">
-        <v>吉林通化大客车坠落已致6死 事发画面曝光：失控打转后坠落路基</v>
+        <v>防范新型冠状病毒肺炎 天津长春西安三亚等多地暂停省际交通恢复时间待定</v>
       </c>
       <c r="B31">
-        <v>2944649</v>
+        <v>61038</v>
       </c>
       <c r="C31" t="str">
-        <v>2019-12-21 17:35</v>
+        <v>2020-01-26 16:02</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="str">
-        <v>山西阳城一天然气管道破裂致气体泄漏起火 现场喷出数米高火团</v>
+        <v>陆军军医大学医疗队到武汉后先培训再上岗 2次考核不合格退回原单位</v>
       </c>
       <c r="B32">
-        <v>59975</v>
+        <v>203272</v>
       </c>
       <c r="C32" t="str">
-        <v>2019-12-21 17:33</v>
+        <v>2020-01-26 15:59</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="str">
-        <v>辅警在派出所楼梯上蹦蹦跳跳 背后原因让人心酸</v>
+        <v>史上最冷清春节旅游季：曾经热门景区人山人海 如今合唱“凉凉”</v>
       </c>
       <c r="B33">
-        <v>34401</v>
+        <v>31018</v>
       </c>
       <c r="C33" t="str">
-        <v>2019-12-21 17:04</v>
+        <v>2020-01-26 15:57</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="str">
-        <v>“小蛇”半夜钻进裤内吓坏男子 7名消防员火速出动结果却哭笑不得</v>
+        <v>航拍武汉雷神山医院施工现场：停车场上建医院 比火神山医院更大</v>
       </c>
       <c r="B34">
-        <v>20295</v>
+        <v>226249</v>
       </c>
       <c r="C34" t="str">
-        <v>2019-12-21 16:27</v>
+        <v>2020-01-26 15:54</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="str">
-        <v>未按乘客意愿停靠 天津公交司机遭受乘客数十记重拳住院</v>
+        <v>汕头交通管制通告发布两小时后撤回 不再限制车辆人员进出</v>
       </c>
       <c r="B35">
-        <v>55585</v>
+        <v>421499</v>
       </c>
       <c r="C35" t="str">
-        <v>2019-12-21 16:16</v>
+        <v>2020-01-26 15:54</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="str">
-        <v>工人翻护栏被拦称不知斑马线为何物 交警接下来的做法引网友狂赞</v>
+        <v>林郑月娥致函国务院：希望内地协助供应口罩</v>
       </c>
       <c r="B36">
-        <v>23735</v>
+        <v>155264</v>
       </c>
       <c r="C36" t="str">
-        <v>2019-12-21 15:33</v>
+        <v>2020-01-26 15:44</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="str">
-        <v>夜晚“炸街”飙车玩漂移 江苏江阴7名“飙车党”被抓</v>
+        <v>北京6家医院组建国家援鄂抗疫医疗队 121人飞赴武汉</v>
       </c>
       <c r="B37">
-        <v>21876</v>
+        <v>15356</v>
       </c>
       <c r="C37" t="str">
-        <v>2019-12-21 15:09</v>
+        <v>2020-01-26 15:43</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="str">
-        <v>紧急呼叫丨黑龙江一服刑人员被关禁闭4天后死亡 监狱称存在工作失误</v>
+        <v>河南信阳设卡劝返湖北车辆和人员 有男子编造“封城”谣言被行拘</v>
       </c>
       <c r="B38">
-        <v>36801</v>
+        <v>168841</v>
       </c>
       <c r="C38" t="str">
-        <v>2019-12-21 15:08</v>
+        <v>2020-01-26 15:22</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="str">
-        <v>“挖出孩子尸身查死因”后续：家长向警方递交证据材料 质疑法医验尸太草率</v>
+        <v>中南医院专家桂希恩受访：预计正月十五前疫情可能现“拐点”</v>
       </c>
       <c r="B39">
-        <v>278576</v>
+        <v>51510</v>
       </c>
       <c r="C39" t="str">
-        <v>2019-12-21 15:07</v>
+        <v>2020-01-26 15:18</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="str">
-        <v>24年前和多个小孩被塞阁楼待卖 贵州一被拐男子寻亲成功相拥痛哭</v>
+        <v>海南多人抢购大米有店主加价出售 官方：货源充足</v>
       </c>
       <c r="B40">
-        <v>19916</v>
+        <v>47877</v>
       </c>
       <c r="C40" t="str">
-        <v>2019-12-21 15:00</v>
+        <v>2020-01-26 15:15</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="str">
-        <v>吉林通化一大客车坠落江边部分车体落水 已致4人死亡多人受伤</v>
+        <v>实探武汉雷神山医院建设现场：施工队凌晨进场 挖掘机集结待命</v>
       </c>
       <c r="B41">
-        <v>25377</v>
+        <v>2168463</v>
       </c>
       <c r="C41" t="str">
-        <v>2019-12-21 14:29</v>
+        <v>2020-01-26 14:59</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="str">
-        <v>紧急呼叫丨黑龙江一服刑人员被关禁闭4天后死亡 监狱称存在工作失误</v>
+        <v>三部门下发禁止野生动物交易公告 违法者将移送公安机关</v>
       </c>
       <c r="B42">
-        <v>673914</v>
+        <v>797963</v>
       </c>
       <c r="C42" t="str">
-        <v>2019-12-21 14:29</v>
+        <v>2020-01-26 14:58</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="str">
-        <v>广西老人被三车连撞死亡续：仍有一肇事者在逃 老人无妻无子系五保户</v>
+        <v>济南岳阳两地干部因防控新冠肺炎不力 被当地通报批评</v>
       </c>
       <c r="B43">
-        <v>26117</v>
+        <v>29093</v>
       </c>
       <c r="C43" t="str">
-        <v>2019-12-21 14:25</v>
+        <v>2020-01-26 14:46</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="str">
-        <v>济南官方回应土地涨价无法兑现合约事件：通过法院判决或调解处理</v>
+        <v>陕西首批137人援鄂医疗队出征 医生家属：我们应该早点去</v>
       </c>
       <c r="B44">
-        <v>19121</v>
+        <v>773058</v>
       </c>
       <c r="C44" t="str">
-        <v>2019-12-21 14:18</v>
+        <v>2020-01-26 14:38</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="str">
-        <v>港铁大学站关闭一个多月后重开 乘客：不用那么早起床了</v>
+        <v>香港医院接诊新型肺炎患者时出失误 至少12人需隔离观察</v>
       </c>
       <c r="B45">
-        <v>244933</v>
+        <v>38613</v>
       </c>
       <c r="C45" t="str">
-        <v>2019-12-21 14:15</v>
+        <v>2020-01-26 14:08</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="str">
-        <v>美国遭暴风雪侵袭 高速路上30辆车连环相撞现场惨烈</v>
+        <v>直击火神山医院排污建设提前进场施工：废水处理将全封闭运行</v>
       </c>
       <c r="B46">
-        <v>8046</v>
+        <v>62950</v>
       </c>
       <c r="C46" t="str">
-        <v>2019-12-21 13:49</v>
+        <v>2020-01-26 13:48</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="str">
-        <v>15岁中国高中生琥珀内发现1亿年前甲虫 专家：全新物种</v>
+        <v>直击东航全货机海外急运300多万只口罩抵达武汉 机长：时刻和武汉同在</v>
       </c>
       <c r="B47">
-        <v>66379</v>
+        <v>1496414</v>
       </c>
       <c r="C47" t="str">
-        <v>2019-12-21 13:36</v>
+        <v>2020-01-26 13:36</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="str">
-        <v>四川眉山修高速路现场挖出古墓：一对 “金童玉女”看守门户</v>
+        <v>紧急呼叫丨黄冈一医疗中心改造成“小汤山”医院 计划5月投用因疫情被征用</v>
       </c>
       <c r="B48">
-        <v>258748</v>
+        <v>766038</v>
       </c>
       <c r="C48" t="str">
-        <v>2019-12-21 12:25</v>
+        <v>2020-01-26 13:27</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="str">
-        <v>两艘美国邮轮在港口相撞 一声巨响后碎片飞溅</v>
+        <v>四川138人医疗救援队抵达武汉 驰援护士剪掉多年及腰长发</v>
       </c>
       <c r="B49">
-        <v>33480</v>
+        <v>22254</v>
       </c>
       <c r="C49" t="str">
-        <v>2019-12-21 12:05</v>
+        <v>2020-01-26 13:09</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="str">
-        <v>西安一高层住户家突发大火 明火猛烈燃烧一对母女伤重身亡</v>
+        <v>新型肺炎疫情仍然严峻 韩法美三国公布从武汉撤侨计划</v>
       </c>
       <c r="B50">
-        <v>92628</v>
+        <v>10836</v>
       </c>
       <c r="C50" t="str">
-        <v>2019-12-21 12:02</v>
+        <v>2020-01-26 13:08</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="str">
-        <v>美载人飞船“星际客机”首飞失败 未进入预定轨道</v>
+        <v>马鞍山警方回应商铺售卖二手口罩：口罩系收购而来 不是二手口罩</v>
       </c>
       <c r="B51">
-        <v>110392</v>
+        <v>122357</v>
       </c>
       <c r="C51" t="str">
-        <v>2019-12-21 11:16</v>
+        <v>2020-01-26 12:53</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="str">
-        <v>湖北一司机吃包子被查出酒驾 交警当场检测包子证明清白</v>
+        <v>义乌有作坊疑生产问题口罩自称“和气生财” 相关物品已被扣押</v>
       </c>
       <c r="B52">
-        <v>198239</v>
+        <v>130117</v>
       </c>
       <c r="C52" t="str">
-        <v>2019-12-21 01:10</v>
+        <v>2020-01-26 12:46</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="str">
-        <v>紧急呼叫丨女企业家质疑招标造假反被告敲诈：中标者自愿给百万补偿 我无罪</v>
+        <v>新型肺炎疫情仍然严峻 韩法美三国公布从武汉撤侨计划</v>
       </c>
       <c r="B53">
-        <v>115469</v>
+        <v>184014</v>
       </c>
       <c r="C53" t="str">
-        <v>2019-12-21 00:35</v>
+        <v>2020-01-26 12:44</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="str">
-        <v>美主持人厌倦报道特朗普弹劾案：来个校园枪击案新鲜一下吧</v>
+        <v>武汉火神山医院建设第3天：大部分土地已平整 正进行防渗铺设</v>
       </c>
       <c r="B54">
-        <v>12757</v>
+        <v>415857</v>
       </c>
       <c r="C54" t="str">
-        <v>2019-12-21 00:08</v>
+        <v>2020-01-26 12:34</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="str">
-        <v>英国下议院通过“脱欧”协议 首相准时“脱欧”誓言将兑现</v>
+        <v>加拿大通报首例新型冠状病毒感染病例 患者从武汉经广州到多伦多</v>
       </c>
       <c r="B55">
-        <v>1135632</v>
+        <v>124948</v>
       </c>
       <c r="C55" t="str">
-        <v>2019-12-21 00:03</v>
+        <v>2020-01-26 12:02</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="str">
-        <v>第二名擅闯特朗普庄园的中国女子出庭：对所有指控均不认罪</v>
+        <v>担心亲友感染新冠肺炎 湖南夫妻主动延期办婚宴</v>
       </c>
       <c r="B56">
-        <v>9898</v>
+        <v>6202</v>
       </c>
       <c r="C56" t="str">
-        <v>2019-12-20 23:49</v>
+        <v>2020-01-26 11:47</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="str">
-        <v>香港民间团体“撑警”游行：辛劳未得应有回报 呼吁给警察加薪</v>
+        <v>美女手语老师录制新型病毒防控指南手语版 网友：太谢谢你了</v>
       </c>
       <c r="B57">
-        <v>14327</v>
+        <v>6202761</v>
       </c>
       <c r="C57" t="str">
-        <v>2019-12-20 23:26</v>
+        <v>2020-01-26 10:24</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="str">
-        <v>紧急呼叫丨14岁少年疑遭校园暴力身亡：家长挖出尸身再送检 警方重启调查</v>
+        <v>紧急呼叫丨湖北孝感医院防护品缺口大：物资紧张时医生戴外科口罩上一线</v>
       </c>
       <c r="B58">
-        <v>640597</v>
+        <v>29603</v>
       </c>
       <c r="C58" t="str">
-        <v>2019-12-20 22:55</v>
+        <v>2020-01-26 09:26</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="str">
-        <v>湖南一“黑老大”涉12宗罪一审被判死刑 曾多次强奸未成年少女、幼女</v>
+        <v>湖北孝感医院防护品缺口大：物资紧张时医生戴外科口罩上一线</v>
       </c>
       <c r="B59">
-        <v>528438</v>
+        <v>6066079</v>
       </c>
       <c r="C59" t="str">
-        <v>2019-12-20 22:54</v>
+        <v>2020-01-26 00:32</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="str">
-        <v>大使馆回应中国船员在马达加斯加遭监禁：要求船东担负责任</v>
+        <v>2架载有数名武汉乘客国际航班飞抵杭州 机场：按防控规范处理</v>
       </c>
       <c r="B60">
-        <v>401556</v>
+        <v>128596</v>
       </c>
       <c r="C60" t="str">
-        <v>2019-12-20 22:03</v>
+        <v>2020-01-26 00:26</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="str">
-        <v>王府井步行街北延开街 现场举行庆祝活动流光溢彩游人熙攘</v>
+        <v>山东138名医护人员出征武汉抗击新冠肺炎 丈夫和妻子深情相拥告别</v>
       </c>
       <c r="B61">
-        <v>24407</v>
+        <v>93385</v>
       </c>
       <c r="C61" t="str">
-        <v>2019-12-20 21:30</v>
+        <v>2020-01-26 00:12</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="str">
-        <v>武汉被刺伤医生一年后重拿手术刀：要克服许多心理问题 希望做得更好</v>
+        <v>菲律宾停飞往返武汉航班 包机送返近500名武汉游客</v>
       </c>
       <c r="B62">
-        <v>189723</v>
+        <v>81188</v>
       </c>
       <c r="C62" t="str">
-        <v>2019-12-20 21:02</v>
+        <v>2020-01-25 23:55</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="str">
-        <v>管制刀具竟成1岁多宝宝的玩具？粗心“熊爸”这样带娃惊呆民警</v>
+        <v>紧急呼叫丨旅客讲述与116名武汉旅客同乘飞机：观察半个月 不敢见父母</v>
       </c>
       <c r="B63">
-        <v>11046</v>
+        <v>4599578</v>
       </c>
       <c r="C63" t="str">
-        <v>2019-12-20 20:47</v>
+        <v>2020-01-25 23:50</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="str">
-        <v>3岁男孩骑车“勇闯天涯” 结果下一秒就被警察提溜着车抱回</v>
+        <v>全国30个省份启动一级应急响应 涵盖总人口超13亿</v>
       </c>
       <c r="B64">
-        <v>25045</v>
+        <v>1711051</v>
       </c>
       <c r="C64" t="str">
-        <v>2019-12-20 20:33</v>
+        <v>2020-01-25 23:30</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="str">
-        <v>奇葩说辩手马薇薇卸任米未传媒子公司高管 已成7公司实控人</v>
+        <v>广西河南两地紧急排查多名乘坐高铁返乡乘客 已确诊有人感染新型肺炎</v>
       </c>
       <c r="B65">
-        <v>12439</v>
+        <v>531795</v>
       </c>
       <c r="C65" t="str">
-        <v>2019-12-20 20:27</v>
+        <v>2020-01-25 23:14</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="str">
-        <v>湖南省一监狱被曝囚犯聚众赌博 回应：初步查明监区长涉嫌滥用职权</v>
+        <v>武汉协和医院一清洁工选择在家自我隔离：要避免交叉感染</v>
       </c>
       <c r="B66">
-        <v>223026</v>
+        <v>128019</v>
       </c>
       <c r="C66" t="str">
-        <v>2019-12-20 20:10</v>
+        <v>2020-01-25 22:34</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="str">
-        <v>香港已有80名教师被捕 多涉嫌散播仇恨言论或使用不当教材</v>
+        <v>湖北省公安厅：全力保障应急物资和医护人员运输 三类车辆免费高速通行</v>
       </c>
       <c r="B67">
-        <v>14765</v>
+        <v>68191</v>
       </c>
       <c r="C67" t="str">
-        <v>2019-12-20 20:10</v>
+        <v>2020-01-25 22:31</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="str">
-        <v>海口两名小学生放学回家途中被叉车撞倒 一人卷入车底</v>
+        <v>北京所有省际公路客运宣布全部停运 恢复时间尚未明确</v>
       </c>
       <c r="B68">
-        <v>20209</v>
+        <v>58506</v>
       </c>
       <c r="C68" t="str">
-        <v>2019-12-20 20:07</v>
+        <v>2020-01-25 22:29</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="str">
-        <v>紧急呼叫丨山西临汾村民称煤改气后取暖差：屋里穿羽绒服 远不如烧煤热</v>
+        <v>天津赴日本大邮轮上17人出现发热症状 卫健委：排除新型病毒肺炎</v>
       </c>
       <c r="B69">
-        <v>400376</v>
+        <v>410952</v>
       </c>
       <c r="C69" t="str">
-        <v>2019-12-20 20:04</v>
+        <v>2020-01-25 22:19</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="str">
-        <v>公交司机危险驾驶 被罚当街做这件事民众拍手叫好</v>
+        <v>故乡里的中国｜“卫嘴子”的执念：就爱和煎饼馃子较劲</v>
       </c>
       <c r="B70">
-        <v>6205</v>
+        <v>18970</v>
       </c>
       <c r="C70" t="str">
-        <v>2019-12-20 19:57</v>
+        <v>2020-01-25 21:59</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="str">
-        <v>鸡排店凌晨冒出白烟 消防员全副武装到场结局却让人意外</v>
+        <v>北京所有省际客运宣布全部停运 恢复时间尚未明确</v>
       </c>
       <c r="B71">
-        <v>36364</v>
+        <v>298927</v>
       </c>
       <c r="C71" t="str">
-        <v>2019-12-20 19:56</v>
+        <v>2020-01-25 21:16</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="str">
-        <v>河南一女孩疑被困KTV陪侍追踪：经营者被刑拘 派出所所长停职</v>
+        <v>湖北省民政厅：已接受口罩等捐赠超3000万元 医疗物资仍十分紧张</v>
       </c>
       <c r="B72">
-        <v>213321</v>
+        <v>25081</v>
       </c>
       <c r="C72" t="str">
-        <v>2019-12-20 19:29</v>
+        <v>2020-01-25 21:14</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="str">
-        <v>太子奶创始人李途纯获无罪7年后：仍负债11亿成失信老赖 欲重返食品行业</v>
+        <v>民警遇即将到武汉支援的医护人员求助 将其送到医院后送上贴心嘱咐</v>
       </c>
       <c r="B73">
-        <v>51917</v>
+        <v>39649</v>
       </c>
       <c r="C73" t="str">
-        <v>2019-12-20 19:29</v>
+        <v>2020-01-25 20:39</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="str">
-        <v>界首民政局回应女子被结婚5次：可由公安机关出具证明 比起诉解决快</v>
+        <v>广州一城管局副局长疑染新冠肺炎被隔离观察 曾带病到花市视察</v>
       </c>
       <c r="B74">
-        <v>188770</v>
+        <v>1004717</v>
       </c>
       <c r="C74" t="str">
-        <v>2019-12-20 19:23</v>
+        <v>2020-01-25 20:25</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="str">
-        <v>陕西宝鸡一镇人大主席嫖宿幼女 涉嫌强奸罪被逮捕</v>
+        <v>紧急呼叫丨探访上海新型冠状病毒检测盒生产实验室 采样测定仅需60分钟</v>
       </c>
       <c r="B75">
-        <v>415529</v>
+        <v>7186043</v>
       </c>
       <c r="C75" t="str">
-        <v>2019-12-20 19:15</v>
+        <v>2020-01-25 20:06</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="str">
-        <v>实拍：毒贩顺空调管道至楼下邻居家躲狭小衣柜 警方持枪一拥而上抓捕</v>
+        <v>担心亲友感染新冠肺炎 湖南夫妻主动延期办婚宴</v>
       </c>
       <c r="B76">
-        <v>22314</v>
+        <v>63139</v>
       </c>
       <c r="C76" t="str">
-        <v>2019-12-20 19:03</v>
+        <v>2020-01-25 19:02</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="str">
-        <v>联合国维和部队被曝性侵海地女性：用食物做交换 留下数百孩子</v>
+        <v>香港应变级别提升至“紧急” 将无期限暂停来往武汉航班高铁</v>
       </c>
       <c r="B77">
-        <v>709398</v>
+        <v>64613</v>
       </c>
       <c r="C77" t="str">
-        <v>2019-12-20 18:50</v>
+        <v>2020-01-25 18:58</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="str">
-        <v>男子给兄弟“戴绿帽”还想用钱解决 被打趴钞票散一地</v>
+        <v>青海省确诊1例新型肺炎病例：自武汉到西宁探亲</v>
       </c>
       <c r="B78">
-        <v>158471</v>
+        <v>68994</v>
       </c>
       <c r="C78" t="str">
-        <v>2019-12-20 18:39</v>
+        <v>2020-01-25 18:47</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="str">
-        <v>大学生校内拉网捕鱼现捞现吃 4万余斤大鱼全校免费供应</v>
+        <v>紧急呼叫丨武汉新冠肺炎重症护理护士：患者病情整体向好 日常工作强度很大</v>
       </c>
       <c r="B79">
-        <v>25453</v>
+        <v>3653148</v>
       </c>
       <c r="C79" t="str">
-        <v>2019-12-20 18:39</v>
+        <v>2020-01-25 18:40</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="str">
-        <v>紧急呼叫丨哈尔滨一文化博物馆被指违建7万平米：八卦阵、仿古亭均未批先建</v>
+        <v>浙江首批135名医护人员前往武汉支援 母亲含泪告别女儿：妈妈会回来</v>
       </c>
       <c r="B80">
-        <v>191752</v>
+        <v>1828287</v>
       </c>
       <c r="C80" t="str">
-        <v>2019-12-20 18:36</v>
+        <v>2020-01-25 18:19</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="str">
-        <v>8个月大婴儿被粗心妈妈锁车内 警民合力撬门将车钥匙“钓”出</v>
+        <v>武汉火神山医院施工第2日：施工位置微调 排污方案正制定</v>
       </c>
       <c r="B81">
-        <v>18240</v>
+        <v>3753127</v>
       </c>
       <c r="C81" t="str">
-        <v>2019-12-20 18:36</v>
+        <v>2020-01-25 17:52</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="str">
-        <v>男子入室行窃吵醒主人 狼狈逃跑时摔倒还掉鞋令人捧腹</v>
+        <v>疾控专家：轻微感冒最好居家隔离 涌入医院恐加大感染风险</v>
       </c>
       <c r="B82">
-        <v>17391</v>
+        <v>48248</v>
       </c>
       <c r="C82" t="str">
-        <v>2019-12-20 18:32</v>
+        <v>2020-01-25 16:51</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="str">
-        <v>实拍：13岁男孩立志做“Tony老师” 奔波千里携16岁女孩私奔</v>
+        <v>河南长垣医疗器械厂家：加班生产仍供不应求 产品被人转手十倍倒卖</v>
       </c>
       <c r="B83">
-        <v>11132</v>
+        <v>823861</v>
       </c>
       <c r="C83" t="str">
-        <v>2019-12-20 18:25</v>
+        <v>2020-01-25 16:48</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="str">
-        <v>监拍：骑车男子被大货车卷入车底 奇迹般站起仅受擦伤</v>
+        <v>威海急寻K1068次列车接触新型肺炎乘客 疾控：多名同车乘客已登记</v>
       </c>
       <c r="B84">
-        <v>16421</v>
+        <v>152559</v>
       </c>
       <c r="C84" t="str">
-        <v>2019-12-20 18:20</v>
+        <v>2020-01-25 15:56</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="str">
-        <v>河南信阳一楼房拆迁时突然坍塌 挖掘机被埋司机当场死亡</v>
+        <v>上海取消2月2日结婚登记 民政局：只要感情深厚 每一天都是好日子</v>
       </c>
       <c r="B85">
-        <v>77271</v>
+        <v>71234</v>
       </c>
       <c r="C85" t="str">
-        <v>2019-12-20 18:18</v>
+        <v>2020-01-25 15:50</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="str">
-        <v>辽宁男子自制绳索挑战登雪山却掉悬崖 实拍消防员零下20℃寒夜救人</v>
+        <v>广西2岁新冠肺炎病例打破染病年龄下限 曾跟着家人去过武汉</v>
       </c>
       <c r="B86">
-        <v>8870</v>
+        <v>1101785</v>
       </c>
       <c r="C86" t="str">
-        <v>2019-12-20 18:16</v>
+        <v>2020-01-25 13:56</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="str">
-        <v>大妈当街试穿内裤被店主拍下 最后结局竟意外“反转”</v>
+        <v>武汉医生大年初一向姐姐视频拜年 哽咽询问“爸爸妈妈好不好”</v>
       </c>
       <c r="B87">
-        <v>305471</v>
+        <v>2529902</v>
       </c>
       <c r="C87" t="str">
-        <v>2019-12-20 18:08</v>
+        <v>2020-01-25 13:52</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="str">
-        <v>孩子被外公抱一直哭闹 驾驶员心疼“母爱爆棚”一波神操作</v>
+        <v>紧急呼叫丨湖北多地医院求援防护物资：日需万个口罩 部分重点科室告急</v>
       </c>
       <c r="B88">
-        <v>41935</v>
+        <v>6097199</v>
       </c>
       <c r="C88" t="str">
-        <v>2019-12-20 17:43</v>
+        <v>2020-01-25 13:33</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="str">
-        <v>九名女孩占半条马路拍热舞视频 正常行驶车辆被迫逆行</v>
+        <v>马来西亚确诊3例新型肺炎病例 均为新加坡首名确诊男子亲属</v>
       </c>
       <c r="B89">
-        <v>17981</v>
+        <v>87278</v>
       </c>
       <c r="C89" t="str">
-        <v>2019-12-20 17:35</v>
+        <v>2020-01-25 13:19</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="str">
-        <v>拜登竞选总统发言 隔壁候选人乱挥手被怼：你把手给我放下！</v>
+        <v>载335人新加坡至杭航班发现武汉发烧人员 新加坡：拒绝入境消息不实</v>
       </c>
       <c r="B90">
-        <v>10282</v>
+        <v>5997255</v>
       </c>
       <c r="C90" t="str">
-        <v>2019-12-20 17:34</v>
+        <v>2020-01-25 12:38</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="str">
-        <v>韩国一监狱旧址附近发现40多具无名遗骸 或为39年前光州事件失踪者</v>
+        <v>澳大利亚确认首例新型冠状病毒病例 患者为中国公民曾去过武汉</v>
       </c>
       <c r="B91">
-        <v>99214</v>
+        <v>90078</v>
       </c>
       <c r="C91" t="str">
-        <v>2019-12-20 17:30</v>
+        <v>2020-01-25 11:37</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="str">
-        <v>安徽两司机斗气在街面反复超车 警方：双方涉嫌危险驾驶罪 已刑拘</v>
+        <v>尼泊尔确认首例新型冠状病毒病例 患者曾在武汉留学</v>
       </c>
       <c r="B92">
-        <v>26754</v>
+        <v>6942</v>
       </c>
       <c r="C92" t="str">
-        <v>2019-12-20 17:19</v>
+        <v>2020-01-25 11:24</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="str">
-        <v>“暴躁鸡”上线！公鸡被说丑还挨扇 雪地狂追男子报仇笑翻网友</v>
+        <v>西藏昌都发生5.1级地震 消防集结暂未发现人员伤亡</v>
       </c>
       <c r="B93">
-        <v>63401</v>
+        <v>150710</v>
       </c>
       <c r="C93" t="str">
-        <v>2019-12-20 17:14</v>
+        <v>2020-01-25 11:18</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="str">
-        <v>药学博士生喜提2020“美利坚小姐”桂冠 才艺展示环节现场做实验</v>
+        <v>尼泊尔确认首例新型冠状病毒病例 患者曾在武汉留学</v>
       </c>
       <c r="B94">
-        <v>26085</v>
+        <v>394254</v>
       </c>
       <c r="C94" t="str">
-        <v>2019-12-20 17:13</v>
+        <v>2020-01-25 10:24</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="str">
-        <v>日本议员推动赌场项目 涉嫌收受中国贿赂被搜查</v>
+        <v>湖北中西医结合医院一医生疑因感染新冠肺炎离世 院方：已退休数年</v>
       </c>
       <c r="B95">
-        <v>9755</v>
+        <v>154339</v>
       </c>
       <c r="C95" t="str">
-        <v>2019-12-20 17:10</v>
+        <v>2020-01-25 10:19</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="str">
-        <v>命案逃犯潜逃11年后因爱自首 民警的做法引网友怒赞</v>
+        <v>欧洲首例！法国确诊3例新型冠状病毒病例 其中两人为亲属</v>
       </c>
       <c r="B96">
-        <v>10517</v>
+        <v>542186</v>
       </c>
       <c r="C96" t="str">
-        <v>2019-12-20 17:04</v>
+        <v>2020-01-25 09:57</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="str">
-        <v>紧急呼叫丨山西临汾村民取暖锅炉被没收：交不起燃气费 烧煤要罚款只好挨冻</v>
+        <v>国家卫健委：全国新冠肺炎确诊1287例 已致41例死亡</v>
       </c>
       <c r="B97">
-        <v>1203719</v>
+        <v>68477</v>
       </c>
       <c r="C97" t="str">
-        <v>2019-12-20 16:58</v>
+        <v>2020-01-25 09:43</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="str">
-        <v>广西一拖拉机街头失控冲撞致1死10伤 目击者：轰隆一声好可怕</v>
+        <v>除夕夜重庆135名医生奔赴武汉 怒吼：一个都不能少 平安归来</v>
       </c>
       <c r="B98">
-        <v>319175</v>
+        <v>557554</v>
       </c>
       <c r="C98" t="str">
-        <v>2019-12-20 16:55</v>
+        <v>2020-01-25 00:58</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="str">
-        <v>山西寿阳警方破获涉案赌资6亿元网络赌博案 18人被刑事拘留</v>
+        <v>大连第六医院隔离区里 护士隔门写下祝福：我们会一起安全回家</v>
       </c>
       <c r="B99">
-        <v>12100</v>
+        <v>99267</v>
       </c>
       <c r="C99" t="str">
-        <v>2019-12-20 16:40</v>
+        <v>2020-01-24 23:49</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="str">
-        <v>被拳王KO的成都大学生格斗新手离世  家属：申请尸检用法律维权</v>
+        <v>广东128名医务人员奔赴武汉支援 有人抛下丈夫的生日午饭响应征召</v>
       </c>
       <c r="B100">
-        <v>2136431</v>
+        <v>1345020</v>
       </c>
       <c r="C100" t="str">
-        <v>2019-12-20 16:34</v>
+        <v>2020-01-24 23:41</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="str">
-        <v>马云谈中美贸易谈判达成：真正变革的开始 过去的贸易模式结束</v>
+        <v>武汉各医院仍急需物资 京东捐赠100万只口罩及6万件医疗物资</v>
       </c>
       <c r="B101">
-        <v>28426</v>
+        <v>110843</v>
       </c>
       <c r="C101" t="str">
-        <v>2019-12-20 16:20</v>
+        <v>2020-01-24 22:55</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="str">
-        <v>仅用20秒！货车着火直接开到消防队 消防员20秒出警4分钟扑灭刷新记录</v>
+        <v>放下年夜饭筷子出发！除夕夜上海医疗队“逆行”出发驰援武汉</v>
       </c>
       <c r="B102">
-        <v>14386</v>
+        <v>3722279</v>
       </c>
       <c r="C102" t="str">
-        <v>2019-12-20 16:18</v>
+        <v>2020-01-24 22:46</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="str">
-        <v>市民在柜子里捡到一块手表 仔细一看忙报警</v>
+        <v>武汉“夫妻档”医护人员除夕夜和孩子视频 9岁儿子：在心里想爸爸</v>
       </c>
       <c r="B103">
-        <v>33616</v>
+        <v>134121</v>
       </c>
       <c r="C103" t="str">
-        <v>2019-12-20 16:14</v>
+        <v>2020-01-24 22:30</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="str">
-        <v>吸毒男子遇民警抓捕想翻窗逃 空中悬挂一小时后投案</v>
+        <v>武汉火神山医院选址有误白挖了？知情人：谣言！正在昼夜赶工</v>
       </c>
       <c r="B104">
-        <v>6603</v>
+        <v>508771</v>
       </c>
       <c r="C104" t="str">
-        <v>2019-12-20 15:59</v>
+        <v>2020-01-24 22:28</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="str">
-        <v>实力坑夫！妻子花光钱怕被发现伪造银行存单 丈夫取款时蒙了</v>
+        <v>马鞍山有人当街出售废旧口罩？ 目击者：摸上去很软 钢丝都弯了</v>
       </c>
       <c r="B105">
-        <v>17913</v>
+        <v>329892</v>
       </c>
       <c r="C105" t="str">
-        <v>2019-12-20 15:59</v>
+        <v>2020-01-24 22:24</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="str">
-        <v>16岁高中生和朋友说唱Battle 愿赌服输从5米高桥跳河身亡</v>
+        <v>故乡里的中国｜故乡过年的北漂山东人 后备箱里满满亲情</v>
       </c>
       <c r="B106">
-        <v>9260</v>
+        <v>25134</v>
       </c>
       <c r="C106" t="str">
-        <v>2019-12-20 15:55</v>
+        <v>2020-01-24 21:33</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="str">
-        <v>心上人结婚新娘却不是自己 女子愤怒“抢婚”试图暴打新娘</v>
+        <v>武汉医院医务工作者除夕依然坚守 隔离病房中向家人拜年</v>
       </c>
       <c r="B107">
-        <v>8089</v>
+        <v>2873526</v>
       </c>
       <c r="C107" t="str">
-        <v>2019-12-20 15:53</v>
+        <v>2020-01-24 21:15</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="str">
-        <v>男子给兄弟“戴绿帽”还想用钱解决 被打趴钞票散一地</v>
+        <v>除夕夜武汉火神山医院施工现场：工人连夜赶工 排队站路边吃“年夜饭”</v>
       </c>
       <c r="B108">
-        <v>57446</v>
+        <v>4203996</v>
       </c>
       <c r="C108" t="str">
-        <v>2019-12-20 15:42</v>
+        <v>2020-01-24 21:13</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="str">
-        <v>8岁女孩被锁屋内家长狂喊无回应吓坏 消防员撬门后看到哭笑不得一幕</v>
+        <v>山东一医院千名医护人员请战抗击新型肺炎 按手印写下“请战书”</v>
       </c>
       <c r="B109">
-        <v>43123</v>
+        <v>137489</v>
       </c>
       <c r="C109" t="str">
-        <v>2019-12-20 15:38</v>
+        <v>2020-01-24 21:08</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="str">
-        <v>四川一对师生爆发冲突从教室打到办公室 教育局：正调查 老师被停职</v>
+        <v>紧急呼叫丨武汉三甲医院医生：医院收治压力大 希望加大预防信息科普力度</v>
       </c>
       <c r="B110">
-        <v>16270</v>
+        <v>2719091</v>
       </c>
       <c r="C110" t="str">
-        <v>2019-12-20 15:36</v>
+        <v>2020-01-24 21:07</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="str">
-        <v>安徽留守老人失踪两年后遗体在水库内被发现 警方悬赏5万元征集线索</v>
+        <v>山东德州一消毒剂企业召回百名工人 日产万瓶保障疫情需求</v>
       </c>
       <c r="B111">
-        <v>3565</v>
+        <v>20653</v>
       </c>
       <c r="C111" t="str">
-        <v>2019-12-20 15:30</v>
+        <v>2020-01-24 20:57</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="str">
-        <v>英国沙雕传统：女王前往议会演讲 得先“逮捕”议员当“人质”</v>
+        <v>湖北卫健委：发热病人就诊增加 新型肺炎进入第二波流行上升期</v>
       </c>
       <c r="B112">
-        <v>5103</v>
+        <v>43158</v>
       </c>
       <c r="C112" t="str">
-        <v>2019-12-20 15:21</v>
+        <v>2020-01-24 19:37</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="str">
-        <v>山东一恶势力团伙开赌场垄断生猪屠宰市场 涉4宗罪被判刑</v>
+        <v>上海一口罩厂除夕加班赶制订单平价出售 董事长：我已经两天两夜没睡觉了</v>
       </c>
       <c r="B113">
-        <v>16815</v>
+        <v>61781</v>
       </c>
       <c r="C113" t="str">
-        <v>2019-12-20 15:19</v>
+        <v>2020-01-24 18:48</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="str">
-        <v>男子玩蹦床发生恐怖一幕：身体反向折叠180度吓坏网友</v>
+        <v>武汉“小汤山”开建劳务公司招工电话被打爆 多人报名要做免费义工</v>
       </c>
       <c r="B114">
-        <v>65979</v>
+        <v>172142</v>
       </c>
       <c r="C114" t="str">
-        <v>2019-12-20 15:18</v>
+        <v>2020-01-24 18:45</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="str">
-        <v>山西襄汾商户称取暖炉被镇政府人员浇水禁用 县政府：在核实调查</v>
+        <v>世卫组织：中国已上报武汉第四代病例 建议继续分享相关信息</v>
       </c>
       <c r="B115">
-        <v>16168</v>
+        <v>53527</v>
       </c>
       <c r="C115" t="str">
-        <v>2019-12-20 15:08</v>
+        <v>2020-01-24 17:23</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="str">
-        <v>女子横穿马路被撞 丈夫横穿马路接她也在同一地点被撞</v>
+        <v>海外华人积极捐助物资助力武汉：航空公司减免运费帮助运输</v>
       </c>
       <c r="B116">
-        <v>12948</v>
+        <v>405404</v>
       </c>
       <c r="C116" t="str">
-        <v>2019-12-20 15:03</v>
+        <v>2020-01-24 16:58</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="str">
-        <v>深圳住建局回应二手房涨幅超5%可投诉：需存在串联涨价的行为</v>
+        <v>欧盟领导人正式签署英国“脱欧”协议：希望双方作为伙伴开始新篇章</v>
       </c>
       <c r="B117">
-        <v>28434</v>
+        <v>52220</v>
       </c>
       <c r="C117" t="str">
-        <v>2019-12-20 15:00</v>
+        <v>2020-01-24 16:35</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="str">
-        <v>男子将员工工资落在动车上 70多个信封装满现金</v>
+        <v>英男子讲述疑似感染新型肺炎经历：与医生一起隔离 写字条传递信息</v>
       </c>
       <c r="B118">
-        <v>6534</v>
+        <v>25169</v>
       </c>
       <c r="C118" t="str">
-        <v>2019-12-20 14:55</v>
+        <v>2020-01-24 16:08</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="str">
-        <v>最美国门名片 | 实拍移民警察宿舍盘查越南劳工 24小时巡逻只能睡车上</v>
+        <v>紧急呼叫丨上海公共卫生临床中心：一种抗艾滋病药物对新型肺炎治疗有效</v>
       </c>
       <c r="B119">
-        <v>12874</v>
+        <v>24865697</v>
       </c>
       <c r="C119" t="str">
-        <v>2019-12-20 14:41</v>
+        <v>2020-01-24 15:46</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="str">
-        <v>罕见大鱼“长脚”蹲坐深海 酷似岩石耐心等猎物上门</v>
+        <v>医护人员全副武装穿成一个样互不认识 就在背后写上名字方便辨认</v>
       </c>
       <c r="B120">
-        <v>7738</v>
+        <v>13384438</v>
       </c>
       <c r="C120" t="str">
-        <v>2019-12-20 14:40</v>
+        <v>2020-01-24 15:24</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="str">
-        <v>甘肃一载33吨粗苯罐车被撞泄漏 2公里范围内人员疏散转移</v>
+        <v>天津新型肺炎病例聚集性发病：动车客运段乘务车间3职工确诊</v>
       </c>
       <c r="B121">
-        <v>14741</v>
+        <v>244651</v>
       </c>
       <c r="C121" t="str">
-        <v>2019-12-20 14:37</v>
+        <v>2020-01-24 14:30</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="str">
-        <v>老赖欠款200多万元潜逃国外：因生活太苦暴瘦近20斤 被遣返时满头白发</v>
+        <v>印度称印度护士在沙特感染新型肺炎 沙特方予以否认</v>
       </c>
       <c r="B122">
-        <v>16058</v>
+        <v>82415</v>
       </c>
       <c r="C122" t="str">
-        <v>2019-12-20 14:25</v>
+        <v>2020-01-24 13:46</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="str">
-        <v>一箭九星！中巴地球资源04A星成功发射升空</v>
+        <v>武汉“小汤山”医院正昼夜抢建 将提供千个床位预期2月3日投用</v>
       </c>
       <c r="B123">
-        <v>7034</v>
+        <v>409422</v>
       </c>
       <c r="C123" t="str">
-        <v>2019-12-20 13:58</v>
+        <v>2020-01-24 13:10</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="str">
-        <v>你家的摄像头可能被控制了！男子收集3870部视频对外出售</v>
+        <v>雍和宫国博闭馆鸡鸣寺取消除夕敲钟 全国多地公共场所宣布关闭</v>
       </c>
       <c r="B124">
-        <v>25826</v>
+        <v>84878</v>
       </c>
       <c r="C124" t="str">
-        <v>2019-12-20 13:57</v>
+        <v>2020-01-24 13:02</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="str">
-        <v>香港医管局主席：医护人员罢工不可接受 将按守则条例严肃跟进</v>
+        <v>内蒙古确诊1例新增2例疑似新型冠状肺炎病例：均来自武汉</v>
       </c>
       <c r="B125">
-        <v>26852</v>
+        <v>76636</v>
       </c>
       <c r="C125" t="str">
-        <v>2019-12-20 13:57</v>
+        <v>2020-01-24 13:02</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="str">
-        <v>香港水警快艇追截可疑船只时翻沉 三名水警坠海受伤</v>
+        <v>19名院士学者联名呼吁：杜绝野生动物非法食用和交易</v>
       </c>
       <c r="B126">
-        <v>12126</v>
+        <v>75600</v>
       </c>
       <c r="C126" t="str">
-        <v>2019-12-20 13:28</v>
+        <v>2020-01-24 12:08</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="str">
-        <v>李阳前妻Kim鼓励宇芽：她会拥有闪亮的生活</v>
+        <v>受新型肺炎疫情影响 湖北武汉咸宁等8地区实行公共交通管制</v>
       </c>
       <c r="B127">
-        <v>11418</v>
+        <v>22745</v>
       </c>
       <c r="C127" t="str">
-        <v>2019-12-20 13:16</v>
+        <v>2020-01-24 11:17</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="str">
-        <v>吉林长春多车陷入一桥洞冰窟窿 村支书：有警示牌 司机不听劝</v>
+        <v>世卫组织谈防控肺炎疫情：最大挑战是“未知” 尚未掌握传播方式</v>
       </c>
       <c r="B128">
-        <v>13446</v>
+        <v>152031</v>
       </c>
       <c r="C128" t="str">
-        <v>2019-12-20 13:15</v>
+        <v>2020-01-24 05:16</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="str">
-        <v>专访“疯狂英语”李阳前妻Kim：他至今没有认识到自己错误</v>
+        <v>世卫组织：中国有权采取封城等措施 已决定将为病毒命名</v>
       </c>
       <c r="B129">
-        <v>313791</v>
+        <v>340120</v>
       </c>
       <c r="C129" t="str">
-        <v>2019-12-20 13:08</v>
+        <v>2020-01-24 05:05</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="str">
-        <v>百城住宅库存同比连增12个月 年内已有300多家房企发破产文书</v>
+        <v>世卫组织：新型肺炎不构成国际关注突发公共卫生事件</v>
       </c>
       <c r="B130">
-        <v>16780</v>
+        <v>1053189</v>
       </c>
       <c r="C130" t="str">
-        <v>2019-12-20 13:00</v>
+        <v>2020-01-24 03:49</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="str">
-        <v>新议会开幕科尔宾硬着头皮参加 记者这个问题气得他摔门就走</v>
+        <v>湖北省市场监管局：存在超市抢购和蔬菜短缺现象 农产品价格基本平稳</v>
       </c>
       <c r="B131">
-        <v>5108</v>
+        <v>29798</v>
       </c>
       <c r="C131" t="str">
-        <v>2019-12-20 13:00</v>
+        <v>2020-01-24 00:33</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="str">
-        <v>专访Kim：没和李阳复婚 称他“丈夫”是照顾孩子感受</v>
+        <v>湖北省救治组专家：体温和呼吸道症状好转是解除隔离的重要标准</v>
       </c>
       <c r="B132">
-        <v>18604</v>
+        <v>146457</v>
       </c>
       <c r="C132" t="str">
-        <v>2019-12-20 12:58</v>
+        <v>2020-01-24 00:17</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="str">
-        <v>野鹿屁卡围栏一脸生无可恋等待救援 得救后“腿麻”跑得踉踉跄跄</v>
+        <v>通过了！“脱欧”协议获得女王批准 英国距离“脱欧”又近一步</v>
       </c>
       <c r="B133">
-        <v>52717</v>
+        <v>19621</v>
       </c>
       <c r="C133" t="str">
-        <v>2019-12-20 12:43</v>
+        <v>2020-01-24 00:17</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="str">
-        <v>实拍600吨走私白糖被南通海关现场查扣 5人被抓获</v>
+        <v>湖北省救治组专家：大多数病人临床表现以发热、乏力、干咳为主</v>
       </c>
       <c r="B134">
-        <v>9891</v>
+        <v>53134</v>
       </c>
       <c r="C134" t="str">
-        <v>2019-12-20 12:23</v>
+        <v>2020-01-24 00:10</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="str">
-        <v>谈判再次破裂 韩方拒绝承担美军在朝鲜半岛外费用</v>
+        <v>湖北省市场监管局：已约谈各大药企 口罩等医用物品目前价格稳定</v>
       </c>
       <c r="B135">
-        <v>27546</v>
+        <v>24235</v>
       </c>
       <c r="C135" t="str">
-        <v>2019-12-20 12:23</v>
+        <v>2020-01-24 00:10</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="str">
-        <v>女子直播中为遭霸凌儿子出气 扬言要打爆霸凌者头后被捕</v>
+        <v>多项体育赛事受新型肺炎疫情影响宣布取消 超级杯或将暂缓进行</v>
       </c>
       <c r="B136">
-        <v>9557</v>
+        <v>111081</v>
       </c>
       <c r="C136" t="str">
-        <v>2019-12-20 12:22</v>
+        <v>2020-01-24 00:09</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="str">
-        <v>安徽留守老人失踪两年后遗体在水库内被发现 警方悬赏5万元征集线索</v>
+        <v>越南确认2例新型肺炎病例：两人系父子关系 曾辗转多城</v>
       </c>
       <c r="B137">
-        <v>19671</v>
+        <v>27648</v>
       </c>
       <c r="C137" t="str">
-        <v>2019-12-20 12:15</v>
+        <v>2020-01-24 00:00</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="str">
-        <v>专访李阳前妻Kim：我为什么会说原谅</v>
+        <v>故乡里的中国｜两代海岛舞者的“快”“慢”舞步</v>
       </c>
       <c r="B138">
-        <v>737336</v>
+        <v>13659</v>
       </c>
       <c r="C138" t="str">
-        <v>2019-12-20 12:13</v>
+        <v>2020-01-23 23:57</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="str">
-        <v>南阳一小区高楼起火男子爬窗坠楼 警方：已认定系自杀事故</v>
+        <v>甘肃确认2例新型肺炎病例 其中一人有武汉农贸市场活动史</v>
       </c>
       <c r="B139">
-        <v>15338</v>
+        <v>339616</v>
       </c>
       <c r="C139" t="str">
-        <v>2019-12-20 12:10</v>
+        <v>2020-01-23 23:24</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="str">
-        <v>大选惨败心情差 科尔宾与约翰逊并肩走全程“扑克脸”</v>
+        <v>武汉多家超市菜价上涨？湖北省市场监管局：哄抬物价将从重处罚</v>
       </c>
       <c r="B140">
-        <v>21561</v>
+        <v>123236</v>
       </c>
       <c r="C140" t="str">
-        <v>2019-12-20 12:06</v>
+        <v>2020-01-23 23:18</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="str">
-        <v>江苏南通一工地脚手架倒塌致1死9伤 现场画面曝光</v>
+        <v>武汉86岁老专家开电动轮椅去门诊部上班：一辈子我不就是为了病人嘛</v>
       </c>
       <c r="B141">
-        <v>255020</v>
+        <v>163084</v>
       </c>
       <c r="C141" t="str">
-        <v>2019-12-20 12:03</v>
+        <v>2020-01-23 23:12</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="str">
-        <v>未受到此前路面塌陷事故影响 厦门地铁2号线将于25日开通运营</v>
+        <v>武汉一母亲给自我隔离的医生儿子含泪送饭 称支持他战斗到最后</v>
       </c>
       <c r="B142">
-        <v>8589</v>
+        <v>430379</v>
       </c>
       <c r="C142" t="str">
-        <v>2019-12-20 12:02</v>
+        <v>2020-01-23 22:52</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="str">
-        <v>上海火车站一女子抱走女童被当场抓获 警方：因涉嫌拐骗儿童被刑拘</v>
+        <v>武汉将于郊区建“小汤山模式”医院 计划6天内建成</v>
       </c>
       <c r="B143">
-        <v>273416</v>
+        <v>717548</v>
       </c>
       <c r="C143" t="str">
-        <v>2019-12-20 11:52</v>
+        <v>2020-01-23 22:48</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="str">
-        <v>四川一对师生爆发冲突从教室打到办公室 教育局：正调查 老师被停职</v>
+        <v>新加坡确认首例新型肺炎病例：66岁武汉男性 20日乘飞机抵达</v>
       </c>
       <c r="B144">
-        <v>1200628</v>
+        <v>47135</v>
       </c>
       <c r="C144" t="str">
-        <v>2019-12-20 11:47</v>
+        <v>2020-01-23 22:23</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="str">
-        <v>皮卡冲进机场航站楼撞上服务台 两员工急忙蹲下逃过一劫</v>
+        <v>湖北一女子抢救无效去世 多名家属狂殴医生致颅脑损伤</v>
       </c>
       <c r="B145">
-        <v>18411</v>
+        <v>3312105</v>
       </c>
       <c r="C145" t="str">
-        <v>2019-12-20 11:41</v>
+        <v>2020-01-23 22:20</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="str">
-        <v>河北唐山曹妃甸4只白鹳疑似中毒死亡 国家林业和草原局派员进驻</v>
+        <v>故宫因新型肺炎疫情自正月初一起闭馆 开放时间暂未定</v>
       </c>
       <c r="B146">
-        <v>17611</v>
+        <v>929213</v>
       </c>
       <c r="C146" t="str">
-        <v>2019-12-20 11:29</v>
+        <v>2020-01-23 22:19</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="str">
-        <v>村干部谈“广西老人惨遭三车连撞死亡”：他无儿无女 当天独自前往看病</v>
+        <v>G488次高铁经停武汉站 4岁女孩写下：中国加油！武汉加油！</v>
       </c>
       <c r="B147">
-        <v>133423</v>
+        <v>1153084</v>
       </c>
       <c r="C147" t="str">
-        <v>2019-12-20 11:25</v>
+        <v>2020-01-23 22:03</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="str">
-        <v>监控拍下瞬间：公交司机双手撒开方向盘低头看手机 3秒后追尾前车</v>
+        <v>上海重启“小汤山模式”集中收治肺炎患者 涉武汉列车进行预防性消杀</v>
       </c>
       <c r="B148">
-        <v>51150</v>
+        <v>1060659</v>
       </c>
       <c r="C148" t="str">
-        <v>2019-12-20 11:21</v>
+        <v>2020-01-23 21:47</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="str">
-        <v>民主党议员弹劾投票现场“跳反” 获特朗普会见高调转投共和党</v>
+        <v>武汉多家医院发公告急需防护物资捐赠 交管局称可开设绿色通道</v>
       </c>
       <c r="B149">
-        <v>35267</v>
+        <v>45745</v>
       </c>
       <c r="C149" t="str">
-        <v>2019-12-20 10:43</v>
+        <v>2020-01-23 21:34</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="str">
-        <v>浙江松阳矿山塌方已找到2名失联人员 无生命体征</v>
+        <v>湖北赤壁宣布24日起公共汽车客运全暂停 全市取消各类大型文化活动</v>
       </c>
       <c r="B150">
-        <v>16254</v>
+        <v>23097</v>
       </c>
       <c r="C150" t="str">
-        <v>2019-12-20 10:31</v>
+        <v>2020-01-23 21:32</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="str">
-        <v>“网传应县警察打人”视频引关注 警方：系故意制造假象 2人被拘留</v>
+        <v>好莱坞大亨与维密模特对话曝光：和我一起找乐子 否则失去大好机会</v>
       </c>
       <c r="B151">
-        <v>19586</v>
+        <v>22472</v>
       </c>
       <c r="C151" t="str">
-        <v>2019-12-20 10:19</v>
+        <v>2020-01-23 21:30</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="str">
-        <v>贵州一镇长受贿百万获刑五年 曾和女局长一起公开检讨</v>
+        <v>铁路免收退票费扩至全国 自1月24日0时起执行</v>
       </c>
       <c r="B152">
-        <v>11244</v>
+        <v>33717</v>
       </c>
       <c r="C152" t="str">
-        <v>2019-12-20 10:08</v>
+        <v>2020-01-23 21:29</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="str">
-        <v>前苏联最后一位领导人戈尔巴乔夫因肺炎住院</v>
+        <v>防控新冠状病毒肺炎疫情 北京市取消包括庙会在内的大型活动</v>
       </c>
       <c r="B153">
-        <v>6893</v>
+        <v>32003</v>
       </c>
       <c r="C153" t="str">
-        <v>2019-12-20 09:50</v>
+        <v>2020-01-23 20:55</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="str">
-        <v>贵州一镇长受贿百万获刑五年 曾和女局长一起公开检讨</v>
+        <v>湖北省教育厅：中小学春季开学确定延期</v>
       </c>
       <c r="B154">
-        <v>40067</v>
+        <v>818917</v>
       </c>
       <c r="C154" t="str">
-        <v>2019-12-20 09:33</v>
+        <v>2020-01-23 20:43</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="str">
-        <v>俄联邦安全局附近发生枪击致1死5伤 死者为安全局雇员</v>
+        <v>雅思和托福取消近期的武汉考试 将给予考生全额退费</v>
       </c>
       <c r="B155">
-        <v>5713</v>
+        <v>50913</v>
       </c>
       <c r="C155" t="str">
-        <v>2019-12-20 08:53</v>
+        <v>2020-01-23 20:37</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="str">
-        <v>湖南汉寿一男子砍死妻女砍伤父母 警方称其生意亏损有轻生念头</v>
+        <v>澳籍华人取消回武汉探亲：父母原本正期待见到第一个孙子</v>
       </c>
       <c r="B156">
-        <v>13707</v>
+        <v>26411</v>
       </c>
       <c r="C156" t="str">
-        <v>2019-12-19 23:01</v>
+        <v>2020-01-23 20:30</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="str">
-        <v>普京谈俄罗斯女总统应具备什么素质：和男总统一样</v>
+        <v>湖南高速公路应对武汉肺炎疫情：收费员必戴口罩 对司乘人员测体温</v>
       </c>
       <c r="B157">
-        <v>148855</v>
+        <v>241944</v>
       </c>
       <c r="C157" t="str">
-        <v>2019-12-19 22:52</v>
+        <v>2020-01-23 20:28</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="str">
-        <v>“奶奶级杀手”谋杀亲夫后 再杀一名外貌相近女子盗其身份逃亡</v>
+        <v>东京奥运会武汉站资格赛相继取消：因新型肺炎病例剧增</v>
       </c>
       <c r="B158">
-        <v>9384</v>
+        <v>20718</v>
       </c>
       <c r="C158" t="str">
-        <v>2019-12-19 22:34</v>
+        <v>2020-01-23 20:16</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="str">
-        <v>记者会上被问及执政生涯中最糟糕回忆 普京提到了这起事件</v>
+        <v>成都免费发口罩企业回应争议：希望质疑我们做宣传的 拿出口罩来</v>
       </c>
       <c r="B159">
-        <v>6146</v>
+        <v>40121</v>
       </c>
       <c r="C159" t="str">
-        <v>2019-12-19 22:19</v>
+        <v>2020-01-23 20:14</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="str">
-        <v>中国船员疑遭马达加斯加扣押 家属讲述探监细节：见面都在哭</v>
+        <v>世卫组织驻华代表：封锁千万级人口大城在科学上是史无前例的</v>
       </c>
       <c r="B160">
-        <v>29582</v>
+        <v>2289422</v>
       </c>
       <c r="C160" t="str">
-        <v>2019-12-19 21:47</v>
+        <v>2020-01-23 19:59</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="str">
-        <v>女子潜水意外邂逅巨形座头鲸 整个人被猛撞场面惊险</v>
+        <v>拉美3国出现新型肺炎疑似病例 患者均从中国出发</v>
       </c>
       <c r="B161">
-        <v>80883</v>
+        <v>105335</v>
       </c>
       <c r="C161" t="str">
-        <v>2019-12-19 21:43</v>
+        <v>2020-01-23 19:53</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="str">
-        <v>山东菏泽一商铺起火蔓延整栋 目击者：多辆汽车被火引燃</v>
+        <v>北京新增8例新型肺炎病例 累计确诊22例均有湖北接触史</v>
       </c>
       <c r="B162">
-        <v>7230</v>
+        <v>87664</v>
       </c>
       <c r="C162" t="str">
-        <v>2019-12-19 21:39</v>
+        <v>2020-01-23 19:30</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="str">
-        <v>巴基斯坦前总统发视频回应“被判死刑”：都是私人恩怨</v>
+        <v>交通部：暂停进入武汉的道路水路客运班线 途经班线应立即绕行</v>
       </c>
       <c r="B163">
-        <v>11320</v>
+        <v>486124</v>
       </c>
       <c r="C163" t="str">
-        <v>2019-12-19 21:37</v>
+        <v>2020-01-23 19:29</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="str">
-        <v>接警员凌晨两点半接到神秘来电：你们负责捞尸嘛？</v>
+        <v>陕西首次确诊3例新型肺炎病例 一人曾与武汉发热病人同室开会</v>
       </c>
       <c r="B164">
-        <v>8177</v>
+        <v>335897</v>
       </c>
       <c r="C164" t="str">
-        <v>2019-12-19 21:29</v>
+        <v>2020-01-23 19:28</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="str">
-        <v>大货车撞上轿车竟毫无知觉 将其铲出数百米路过司机狂按喇叭提醒</v>
+        <v>世卫组织：新型肺炎感染症状不一 武汉“封城”举措或降低传播风险</v>
       </c>
       <c r="B165">
-        <v>29195</v>
+        <v>85555</v>
       </c>
       <c r="C165" t="str">
-        <v>2019-12-19 21:12</v>
+        <v>2020-01-23 19:28</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="str">
-        <v>普京谈特朗普弹劾案：这是美国国内的政治斗争</v>
+        <v>新疆首次确认2例新型肺炎确诊病例 也是武汉来的</v>
       </c>
       <c r="B166">
-        <v>488441</v>
+        <v>159985</v>
       </c>
       <c r="C166" t="str">
-        <v>2019-12-19 20:31</v>
+        <v>2020-01-23 19:26</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="str">
-        <v>王力宏回应被娃哈哈解约：一块长大的 会继续喝</v>
+        <v>探访武汉发热患者诊疗定点医院：患者排长龙就诊 医院正抓紧腾出病房</v>
       </c>
       <c r="B167">
-        <v>516778</v>
+        <v>1938592</v>
       </c>
       <c r="C167" t="str">
-        <v>2019-12-19 20:20</v>
+        <v>2020-01-23 19:18</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="str">
-        <v>女子强迫男子与其过夜但男子不从 女子报警求主持公道结果双双被拘</v>
+        <v>香港确认2例新型冠状病毒病例 患者均曾前往武汉</v>
       </c>
       <c r="B168">
-        <v>473415</v>
+        <v>102790</v>
       </c>
       <c r="C168" t="str">
-        <v>2019-12-19 20:15</v>
+        <v>2020-01-23 19:15</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="str">
-        <v>吓人！司机太紧张操作不当 皮卡车冲出斜坡“挂”在菜市场</v>
+        <v>波音737起飞后舱内浓烟弥漫：乘客在警报声中绝望哭泣</v>
       </c>
       <c r="B169">
-        <v>36769</v>
+        <v>138822</v>
       </c>
       <c r="C169" t="str">
-        <v>2019-12-19 20:11</v>
+        <v>2020-01-23 19:15</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="str">
-        <v>清华海归博士孙夕庆案入选国家赔偿典型案例：已拿到54万赔偿金</v>
+        <v>河南首例新型冠状病毒感染者退烧：身体正在恢复 一顿能吃一个馒头</v>
       </c>
       <c r="B170">
-        <v>15011</v>
+        <v>812047</v>
       </c>
       <c r="C170" t="str">
-        <v>2019-12-19 19:58</v>
+        <v>2020-01-23 19:14</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="str">
-        <v>16岁少女离家出走称被父亲猥亵 民警一查实际上去投奔18岁男友</v>
+        <v>武汉多区电影院已暂停营业 官方：影院十分配合 正处理退票事宜</v>
       </c>
       <c r="B171">
-        <v>37246</v>
+        <v>53689</v>
       </c>
       <c r="C171" t="str">
-        <v>2019-12-19 19:49</v>
+        <v>2020-01-23 18:48</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="str">
-        <v>山西洪洞一村委用水泥封堵村民炉灶引不满：天然气费用高难承受</v>
+        <v>湖北黄冈宣布公共交通23日24时关闭 疫情指挥部：保证物资充足</v>
       </c>
       <c r="B172">
-        <v>2571235</v>
+        <v>19983</v>
       </c>
       <c r="C172" t="str">
-        <v>2019-12-19 19:48</v>
+        <v>2020-01-23 18:32</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="str">
-        <v>全国百大打车难地点出炉 高德打车推出“打车难补贴券”</v>
+        <v>抗击新型肺炎一线医护人员：有人为方便穿防护服剪掉长发 有人主动推迟婚期</v>
       </c>
       <c r="B173">
-        <v>9156</v>
+        <v>1804669</v>
       </c>
       <c r="C173" t="str">
-        <v>2019-12-19 19:47</v>
+        <v>2020-01-23 18:31</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="str">
-        <v>普京年度记者会再谈俄罗斯被禁赛：有人想“清除”俄运动员</v>
+        <v>武汉市所有旅游团队取消 文博场馆闭馆至元宵节</v>
       </c>
       <c r="B174">
-        <v>23096</v>
+        <v>28895</v>
       </c>
       <c r="C174" t="str">
-        <v>2019-12-19 19:43</v>
+        <v>2020-01-23 17:38</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="str">
-        <v>默克尔：不会将华为排除出德国市场 中方没施压</v>
+        <v>武汉开通24小时接收社会捐赠热线 护目镜防护服等医用物资供应短缺</v>
       </c>
       <c r="B175">
-        <v>22145</v>
+        <v>450262</v>
       </c>
       <c r="C175" t="str">
-        <v>2019-12-19 19:36</v>
+        <v>2020-01-23 17:30</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="str">
-        <v>52岁CEO拍心酸视频自白：我没有一个朋友 打动数百万网友</v>
+        <v>清华北大24日起暂停校园参观：为配合防控新型冠状病毒肺炎疫情</v>
       </c>
       <c r="B176">
-        <v>18070</v>
+        <v>102544</v>
       </c>
       <c r="C176" t="str">
-        <v>2019-12-19 19:28</v>
+        <v>2020-01-23 17:20</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="str">
-        <v>贵州遵义4车相撞致1死3伤 消防员正好路过紧急施救</v>
+        <v>美国罕见寒流来袭 天降“鬣蜥雨”惊呆路人</v>
       </c>
       <c r="B177">
-        <v>16734</v>
+        <v>65543</v>
       </c>
       <c r="C177" t="str">
-        <v>2019-12-19 19:26</v>
+        <v>2020-01-23 16:53</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="str">
-        <v>澳山火肆虐但水源短缺 直升机只好从居民游泳池“打水”灭火</v>
+        <v>中国邮政将对武汉进出口邮件二次消毒 客服：服务人员会戴口罩</v>
       </c>
       <c r="B178">
-        <v>5844</v>
+        <v>51889</v>
       </c>
       <c r="C178" t="str">
-        <v>2019-12-19 19:01</v>
+        <v>2020-01-23 16:51</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="str">
-        <v>纽约遭罕见“雪飑”袭击：排山倒海宛如世界末日</v>
+        <v>福建长乐机场发现1名疑似肺炎患者 用隔离箱运上救护车</v>
       </c>
       <c r="B179">
-        <v>16729</v>
+        <v>6006009</v>
       </c>
       <c r="C179" t="str">
-        <v>2019-12-19 18:56</v>
+        <v>2020-01-23 16:50</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="str">
-        <v>9名中国船员疑遭马达加斯加强制监禁 狱中录视频“喊冤”</v>
+        <v>紧急呼叫丨武汉封城下的外卖骑手：药品和蔬菜订单多 和顾客不交流送达就走</v>
       </c>
       <c r="B180">
-        <v>318593</v>
+        <v>718396</v>
       </c>
       <c r="C180" t="str">
-        <v>2019-12-19 18:54</v>
+        <v>2020-01-23 16:39</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="str">
-        <v>丈夫忘买鸡腿后被妻子捅死案开庭 妻子：我不该一时冲动</v>
+        <v>湖北鄂州全市铁路车站暂时关闭 疫情指挥部：物资储备充足</v>
       </c>
       <c r="B181">
-        <v>276625</v>
+        <v>253018</v>
       </c>
       <c r="C181" t="str">
-        <v>2019-12-19 18:54</v>
+        <v>2020-01-23 16:36</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="str">
-        <v>监拍：骑车男子闯红灯被夹入两车 车身粉碎男子奇迹站起生还</v>
+        <v>官方通报退伍军人被顶替工作23年：4人涉嫌犯罪被移交司法机关</v>
       </c>
       <c r="B182">
-        <v>36521</v>
+        <v>24800</v>
       </c>
       <c r="C182" t="str">
-        <v>2019-12-19 18:47</v>
+        <v>2020-01-23 16:33</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="str">
-        <v>郑州曹春生反击强拆致1死1伤获刑8年 律师：法院认定为防卫过当</v>
+        <v>因接触网设备故障 京九铁路多趟列车晚点</v>
       </c>
       <c r="B183">
-        <v>41570</v>
+        <v>8825</v>
       </c>
       <c r="C183" t="str">
-        <v>2019-12-19 18:47</v>
+        <v>2020-01-23 16:20</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="str">
-        <v>店主不扫门前垃圾城管放大招 送来百斤重钢筋水泥垃圾桶</v>
+        <v>大象在酒店内闲庭信步惊呆房客 酒店回应令人吃惊</v>
       </c>
       <c r="B184">
-        <v>81723</v>
+        <v>11552</v>
       </c>
       <c r="C184" t="str">
-        <v>2019-12-19 18:41</v>
+        <v>2020-01-23 16:09</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="str">
-        <v>一根烟头一支笔字迹“离奇”消失 45秒揭秘6000斤稻骗局</v>
+        <v>探访“封城”武汉城区：市民排长队买蔬菜 路上无公交营运空荡荡</v>
       </c>
       <c r="B185">
-        <v>38813</v>
+        <v>561542</v>
       </c>
       <c r="C185" t="str">
-        <v>2019-12-19 18:37</v>
+        <v>2020-01-23 15:14</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="str">
-        <v>司机结冰路面行车发生侧翻 车辆旋转360度后出现神奇一幕</v>
+        <v>浙江新型肺炎确诊27例 首例46岁男性患者已基本痊愈</v>
       </c>
       <c r="B186">
-        <v>48982</v>
+        <v>25042</v>
       </c>
       <c r="C186" t="str">
-        <v>2019-12-19 18:32</v>
+        <v>2020-01-23 15:08</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="str">
-        <v>温州一十字路口两车相撞 黑色宝马冲断护栏从桥上坠入河中</v>
+        <v>“电影为小生命为大”春节档电影全部宣布撤档 网友回应：择日再见</v>
       </c>
       <c r="B187">
-        <v>25027</v>
+        <v>87672</v>
       </c>
       <c r="C187" t="str">
-        <v>2019-12-19 18:26</v>
+        <v>2020-01-23 15:00</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="str">
-        <v>富豪为欢迎女儿回家竟这样装饰豪宅 家人接连摔跤差点崩溃</v>
+        <v>弹劾审判首日：特朗普连发132条推特破两项纪录</v>
       </c>
       <c r="B188">
-        <v>27352</v>
+        <v>72139</v>
       </c>
       <c r="C188" t="str">
-        <v>2019-12-19 18:08</v>
+        <v>2020-01-23 14:39</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="str">
-        <v>安徽一藏獒发狂咬伤主人后又咬4人 民警紧急前往一枪毙命</v>
+        <v>美国首例肺炎病例治疗过程曝光：由机器人治疗 状况令人满意</v>
       </c>
       <c r="B189">
-        <v>43061</v>
+        <v>451814</v>
       </c>
       <c r="C189" t="str">
-        <v>2019-12-19 18:05</v>
+        <v>2020-01-23 14:14</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="str">
-        <v>美国和漫威的“瓦坎达”有自由贸易协定？美国农业部这份名单“神了”</v>
+        <v>直击武汉“封城”后现状：机场、火车站、地铁人流稀少  轮渡停航后消毒</v>
       </c>
       <c r="B190">
-        <v>6000</v>
+        <v>1498090</v>
       </c>
       <c r="C190" t="str">
-        <v>2019-12-19 18:04</v>
+        <v>2020-01-23 13:45</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="str">
-        <v>宜宾煤矿事故井下救援视频曝光：56岁矿工赌命潜水10多米后获救</v>
+        <v>吉林省确认1例输入性新型肺炎病例 42岁女性武汉工作返乡后发热</v>
       </c>
       <c r="B191">
-        <v>252638</v>
+        <v>36109</v>
       </c>
       <c r="C191" t="str">
-        <v>2019-12-19 18:03</v>
+        <v>2020-01-23 13:18</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="str">
-        <v>价值14余万元的7块金条不翼而飞 失主民警认真排查得知真相后哭笑不得</v>
+        <v>紧急呼叫丨探访“封城”后武汉菜市：多人排队有商品卖光 价格无明显变化</v>
       </c>
       <c r="B192">
-        <v>125550</v>
+        <v>3798758</v>
       </c>
       <c r="C192" t="str">
-        <v>2019-12-19 17:47</v>
+        <v>2020-01-23 13:13</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="str">
-        <v>紧急呼叫丨黑龙江一猪场架设干扰器致航班信号丢失 回应：怕无人机投放病毒</v>
+        <v>不回武汉的上海白领：疫情转变非常突然 希望外界减少对武汉的偏见</v>
       </c>
       <c r="B193">
-        <v>484149</v>
+        <v>5436206</v>
       </c>
       <c r="C193" t="str">
-        <v>2019-12-19 17:39</v>
+        <v>2020-01-23 13:04</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="str">
-        <v>四川一医院输液管现虫状异物追踪：问题输液器和抽检产品送省级机构检测</v>
+        <v>西班牙受强风暴袭击 齐腰高泡沫“侵袭”城镇民众艰难行走</v>
       </c>
       <c r="B194">
-        <v>31649</v>
+        <v>24842</v>
       </c>
       <c r="C194" t="str">
-        <v>2019-12-19 17:32</v>
+        <v>2020-01-23 12:27</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="str">
-        <v>南方人羡慕了！东北幼儿园老师花2小时 用雪建成雪迷宫</v>
+        <v>口罩生产商3至5倍补偿请工人返厂加班：有经销商和供货商愿意分摊成本</v>
       </c>
       <c r="B195">
-        <v>13459</v>
+        <v>221783</v>
       </c>
       <c r="C195" t="str">
-        <v>2019-12-19 17:19</v>
+        <v>2020-01-23 12:20</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="str">
-        <v>医生谈分娩镇痛率应纳入医疗机构管理指标：对麻醉学科发展是好事</v>
+        <v>黑龙江确认首例新型肺炎病例：现年69岁 武汉回来后就开始发热</v>
       </c>
       <c r="B196">
-        <v>6995</v>
+        <v>8349</v>
       </c>
       <c r="C196" t="str">
-        <v>2019-12-19 17:11</v>
+        <v>2020-01-23 12:17</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="str">
-        <v>袁隆平海水稻团队亩产超400公斤 海水稻研究水平领先世界</v>
+        <v>希腊首位女总统诞生：唯一总统候选人 曾在最高行政法院工作40年</v>
       </c>
       <c r="B197">
-        <v>44309</v>
+        <v>11517</v>
       </c>
       <c r="C197" t="str">
-        <v>2019-12-19 17:09</v>
+        <v>2020-01-23 12:11</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="str">
-        <v>商务部：关于《外商投资法》政府及其部门不得实行差别和歧视待遇</v>
+        <v>法国总统当场发飙视频曝光 怒斥警卫：你给我滚</v>
       </c>
       <c r="B198">
-        <v>5221</v>
+        <v>15993</v>
       </c>
       <c r="C198" t="str">
-        <v>2019-12-19 17:07</v>
+        <v>2020-01-23 11:56</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="str">
-        <v>7岁多动症男孩告诉父母“学校很可怕” 看到监控后家人心惊肉跳</v>
+        <v>现场：西雅图街头发生枪击致1死5伤 枪手在逃</v>
       </c>
       <c r="B199">
-        <v>7229262</v>
+        <v>6826</v>
       </c>
       <c r="C199" t="str">
-        <v>2019-12-19 17:06</v>
+        <v>2020-01-23 11:54</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="str">
-        <v>女子横穿马路被撞 丈夫横穿马路接她也在同一地点被撞</v>
+        <v>伊朗总统鲁哈尼：无论有无核协议 伊朗永远不会寻求核武器</v>
       </c>
       <c r="B200">
-        <v>139852</v>
+        <v>52270</v>
       </c>
       <c r="C200" t="str">
-        <v>2019-12-19 17:03</v>
+        <v>2020-01-23 11:47</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="str">
-        <v>航拍：为庆祝辽宁舰“脱单” 哈工程师生3小时造出两艘雪地“航母”</v>
+        <v>湖北经视主持人戴口罩播新闻？回应：是在教大家正确佩戴口罩</v>
       </c>
       <c r="B201">
-        <v>83892</v>
+        <v>14434</v>
       </c>
       <c r="C201" t="str">
-        <v>2019-12-19 16:45</v>
+        <v>2020-01-23 11:25</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="str">
-        <v>香港6旬男子涉元朗站袭击案 现被加控串谋有意图伤人</v>
+        <v>印度推出女太空机器人 能说能动还会“模仿秀”</v>
       </c>
       <c r="B202">
-        <v>25054</v>
+        <v>6732</v>
       </c>
       <c r="C202" t="str">
-        <v>2019-12-19 16:31</v>
+        <v>2020-01-23 11:21</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="str">
-        <v>商务部：今天正在组织向市场投放4万吨中央储备猪肉</v>
+        <v>澳门旅游局宣布取消春节庆祝活动 已确诊2例新型冠状病毒病例</v>
       </c>
       <c r="B203">
-        <v>12568</v>
+        <v>107519</v>
       </c>
       <c r="C203" t="str">
-        <v>2019-12-19 16:29</v>
+        <v>2020-01-23 11:14</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="str">
-        <v>牙医版雪人：大夫为雪人装假牙 调试对话笑翻网友</v>
+        <v>联合国秘书长谈人类面临四大威胁：核威胁增加 地球在“燃烧”</v>
       </c>
       <c r="B204">
-        <v>5236</v>
+        <v>8299</v>
       </c>
       <c r="C204" t="str">
-        <v>2019-12-19 16:24</v>
+        <v>2020-01-23 11:04</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="str">
-        <v>学生和保安起争执遭警棍打头 校方：涉事保安已开除</v>
+        <v>美加澳等国强化防疫措施 在机场加紧筛查武汉肺炎疫区旅客</v>
       </c>
       <c r="B205">
-        <v>9075</v>
+        <v>305900</v>
       </c>
       <c r="C205" t="str">
-        <v>2019-12-19 16:22</v>
+        <v>2020-01-23 10:27</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="str">
-        <v>第一阶段经贸协议达成后 中国首度公布对美加征关税排除清单</v>
+        <v>湖北经视主持人戴口罩播新闻？回应：是在教大家正确佩戴口罩</v>
       </c>
       <c r="B206">
-        <v>5979</v>
+        <v>1402555</v>
       </c>
       <c r="C206" t="str">
-        <v>2019-12-19 16:19</v>
+        <v>2020-01-23 10:18</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="str">
-        <v>女子大喊要炸飞机引发恐慌 事后她的解释令人崩溃</v>
+        <v>武汉女子自称吃退烧药后进法国 中使馆：已要求她通知急救部门</v>
       </c>
       <c r="B207">
-        <v>16918</v>
+        <v>475143</v>
       </c>
       <c r="C207" t="str">
-        <v>2019-12-19 16:05</v>
+        <v>2020-01-23 10:01</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="str">
-        <v>辉山乳业被退市！实控人曾为身家260亿辽宁首富 如今成“老赖”</v>
+        <v>新型肺炎已致17人死亡：均来自湖北省 最大89岁最小48岁</v>
       </c>
       <c r="B208">
-        <v>32299</v>
+        <v>370410</v>
       </c>
       <c r="C208" t="str">
-        <v>2019-12-19 16:02</v>
+        <v>2020-01-23 09:43</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="str">
-        <v>内江地震画面曝光：门框晃动丈夫大喊“过来” 一把拉过怀孕妻子拥入怀中</v>
+        <v>武汉凌晨发布离汉通道关闭消息 部分旅客选择连夜出城列车上全员戴口罩</v>
       </c>
       <c r="B209">
-        <v>3328665</v>
+        <v>4750337</v>
       </c>
       <c r="C209" t="str">
-        <v>2019-12-19 16:00</v>
+        <v>2020-01-23 09:29</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="str">
-        <v>不停向15岁学生发裸照 前美国小姐教师法庭痛哭</v>
+        <v>世卫组织推迟决定肺炎疫情是否构成国际关注突发公共卫生事件：仍需更多信息</v>
       </c>
       <c r="B210">
-        <v>22781</v>
+        <v>867561</v>
       </c>
       <c r="C210" t="str">
-        <v>2019-12-19 15:55</v>
+        <v>2020-01-23 09:09</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="str">
-        <v>男子买单没抢过朋友怒了 朝对方脸上就是一拳</v>
+        <v>直击武汉多家医院大量医护人员抗疫画面 举拳齐喊：武汉必胜</v>
       </c>
       <c r="B211">
-        <v>19409</v>
+        <v>11757</v>
       </c>
       <c r="C211" t="str">
-        <v>2019-12-19 15:54</v>
+        <v>2020-01-23 08:22</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="str">
-        <v>紧急呼叫丨河南“被结婚” 5次女子现身：一结婚对象已去世 却显示在婚</v>
+        <v>超长“脱欧”终至尾声 英首相“脱欧”协议获议会批准</v>
       </c>
       <c r="B212">
-        <v>183084</v>
+        <v>7366</v>
       </c>
       <c r="C212" t="str">
-        <v>2019-12-19 15:49</v>
+        <v>2020-01-23 07:43</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="str">
-        <v>看印度如何给车上牌照：一笔一划全靠手画 比印的还工整</v>
+        <v>武汉宣布机场火车站离汉通道关闭 要求市民无特殊原因不要离城</v>
       </c>
       <c r="B213">
-        <v>35441</v>
+        <v>829789</v>
       </c>
       <c r="C213" t="str">
-        <v>2019-12-19 15:28</v>
+        <v>2020-01-23 07:31</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="str">
-        <v>杭州径山寺等地下雪 网友：杭州终于挤进了下雪的行列</v>
+        <v>江苏确诊首例新型肺炎病例 患者从武汉返回当天即“中招”</v>
       </c>
       <c r="B214">
-        <v>93196</v>
+        <v>57490</v>
       </c>
       <c r="C214" t="str">
-        <v>2019-12-19 15:09</v>
+        <v>2020-01-23 03:14</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="str">
-        <v>众议院通过特朗普弹劾条款 佩洛西：今天是个好日子</v>
+        <v>武汉宣布机场火车站离汉通道关闭 要求市民无特殊原因不要离城</v>
       </c>
       <c r="B215">
-        <v>29557</v>
+        <v>52878</v>
       </c>
       <c r="C215" t="str">
-        <v>2019-12-19 15:08</v>
+        <v>2020-01-23 02:47</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="str">
-        <v>玉林容县风力发电机发生爆炸？ 事发地实为葡萄牙</v>
+        <v>北京新增4例新型冠状病毒肺炎病例：行程上均和武汉有密切关联</v>
       </c>
       <c r="B216">
-        <v>4166</v>
+        <v>27471</v>
       </c>
       <c r="C216" t="str">
-        <v>2019-12-19 14:54</v>
+        <v>2020-01-23 02:16</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="str">
-        <v>紧急呼叫｜三位宜宾矿工还原井下时刻：曾尝试用塑料管作呼吸器潜水出去</v>
+        <v>紧急呼叫丨春节不回家的武汉北漂：我妹开玩笑说我们都被当“丧尸”看了</v>
       </c>
       <c r="B217">
-        <v>101564</v>
+        <v>955073</v>
       </c>
       <c r="C217" t="str">
-        <v>2019-12-19 14:50</v>
+        <v>2020-01-23 02:14</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="str">
-        <v>澳山火肆虐总理却被曝出国度假 民众抗议：莫里森你死哪儿去了</v>
+        <v>黑龙江确认首例新型肺炎病例：现年69岁 武汉回来后就开始发热</v>
       </c>
       <c r="B218">
-        <v>11253</v>
+        <v>57557</v>
       </c>
       <c r="C218" t="str">
-        <v>2019-12-19 14:34</v>
+        <v>2020-01-23 02:14</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="str">
-        <v>谈及同事过劳心脏病发 香港警方指挥官洒泪：香港真的需要我们</v>
+        <v>紧急呼叫丨春节不回家的武汉“厦漂”：担忧故乡亲人 反感网友地域调侃</v>
       </c>
       <c r="B219">
-        <v>88261</v>
+        <v>561175</v>
       </c>
       <c r="C219" t="str">
-        <v>2019-12-19 14:32</v>
+        <v>2020-01-23 01:55</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="str">
-        <v>主播女友提分手 男子崩溃颤抖大哭：一口气喝下半斤白酒和20多颗头孢</v>
+        <v>李宗盛蔡依林湖北演唱会宣布延期 Jolin粉丝：不会因此退票</v>
       </c>
       <c r="B220">
-        <v>41268</v>
+        <v>41278</v>
       </c>
       <c r="C220" t="str">
-        <v>2019-12-19 14:29</v>
+        <v>2020-01-23 01:52</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="str">
-        <v>联邦快递股价暴跌 国家贸易紧张局势为原因之一</v>
+        <v>多名航司安全员主动申请执飞涉鄂航班 有人孩子才两岁有人刚领证</v>
       </c>
       <c r="B221">
-        <v>17427</v>
+        <v>130121</v>
       </c>
       <c r="C221" t="str">
-        <v>2019-12-19 14:23</v>
+        <v>2020-01-23 01:08</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="str">
-        <v>日网售中国制造儿童救生衣 称可漂浮24小时结果20秒就沉底</v>
+        <v>紧急呼叫丨男子回忆感染新型肺炎离世的老伴：一开始像感冒很快就站不稳</v>
       </c>
       <c r="B222">
-        <v>33537</v>
+        <v>8117482</v>
       </c>
       <c r="C222" t="str">
-        <v>2019-12-19 14:21</v>
+        <v>2020-01-23 01:00</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="str">
-        <v>村民遇塌方被埋只剩头露地面 警民上演3小时生死营救</v>
+        <v>回到现场丨一线医护人员穿的防护服啥样？记者亲测：连体密封 材质轻薄光滑</v>
       </c>
       <c r="B223">
-        <v>32834</v>
+        <v>1489142</v>
       </c>
       <c r="C223" t="str">
-        <v>2019-12-19 14:00</v>
+        <v>2020-01-23 01:00</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="str">
-        <v>2019中国年度新锐榜发布 《我们视频》陈迪获得年度知道分子称号</v>
+        <v>回到现场丨直击武汉新型肺炎隔离病房：护士着防护服12小时 未喝过一口水</v>
       </c>
       <c r="B224">
-        <v>291</v>
+        <v>58016</v>
       </c>
       <c r="C224" t="str">
-        <v>2019-12-19 13:21</v>
+        <v>2020-01-23 00:30</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="str">
-        <v>临沂重型半挂车连撞十余车现场一片狼籍 交警：4人受伤</v>
+        <v>深圳一国企年会喝16万元茅台董事长被双开 纪委通报处分12人</v>
       </c>
       <c r="B225">
-        <v>6913</v>
+        <v>66804</v>
       </c>
       <c r="C225" t="str">
-        <v>2019-12-19 13:20</v>
+        <v>2020-01-23 00:22</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="str">
-        <v>流浪老人自制“电动房车”违规上路 交警拦停处理结局暖心</v>
+        <v>武汉市副市长：安排7家医院腾出3400张床位专门收治发热患者</v>
       </c>
       <c r="B226">
-        <v>16949</v>
+        <v>59995</v>
       </c>
       <c r="C226" t="str">
-        <v>2019-12-19 13:00</v>
+        <v>2020-01-22 23:58</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="str">
-        <v>山西交口道尔驾校称不识字花钱办驾照 车管所：驾校3人被开除</v>
+        <v>紧急呼叫丨新型肺炎患者儿子：爸！你要看到我结婚生子有家庭</v>
       </c>
       <c r="B227">
-        <v>16869</v>
+        <v>2616384</v>
       </c>
       <c r="C227" t="str">
-        <v>2019-12-19 12:51</v>
+        <v>2020-01-22 23:57</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="str">
-        <v>矿难集中爆发 贵州叫停年产30万吨以下小煤矿生产</v>
+        <v>河北确诊首例输入性新型肺炎病例：患者从武汉到石家庄探亲</v>
       </c>
       <c r="B228">
-        <v>6365</v>
+        <v>85758</v>
       </c>
       <c r="C228" t="str">
-        <v>2019-12-19 12:36</v>
+        <v>2020-01-22 23:46</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="str">
-        <v>2019中国年度新锐榜发布 《我们视频》陈迪获得年度知道分子称号</v>
+        <v>上海各行业启动新型冠状病毒肺炎防控 活禽交易被叫停</v>
       </c>
       <c r="B229">
-        <v>11559</v>
+        <v>26805</v>
       </c>
       <c r="C229" t="str">
-        <v>2019-12-19 12:35</v>
+        <v>2020-01-22 23:40</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="str">
-        <v>少女私闯机场偷开飞机 结果还没起飞就悲剧了</v>
+        <v>回到现场丨探访武汉隔离病房伙食：四菜一饭准点送达 护士安慰“国家管饭”</v>
       </c>
       <c r="B230">
-        <v>20650</v>
+        <v>1384816</v>
       </c>
       <c r="C230" t="str">
-        <v>2019-12-19 12:28</v>
+        <v>2020-01-22 23:22</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="str">
-        <v>山东济宁男子街头脚踹路过女子泄私愤 不敢惹男的怕挨打</v>
+        <v>湖北省新型冠状病毒感染肺炎确诊病例444例 已致17人死亡</v>
       </c>
       <c r="B231">
-        <v>36930</v>
+        <v>2724815</v>
       </c>
       <c r="C231" t="str">
-        <v>2019-12-19 12:22</v>
+        <v>2020-01-22 23:07</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="str">
-        <v>抗议者混进集会拉横幅“你要下台了” 特朗普怒呛：赶她出去！</v>
+        <v>回到现场丨隔离病房的医护人员：12小时滴水未进 隔离面罩往下直滴水</v>
       </c>
       <c r="B232">
-        <v>215884</v>
+        <v>1166445</v>
       </c>
       <c r="C232" t="str">
-        <v>2019-12-19 12:13</v>
+        <v>2020-01-22 22:59</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="str">
-        <v>高校足球赛现VAR竟是学生自制 没想到还真发挥作用了</v>
+        <v>武汉市副市长：减少公众聚集取消归元寺祈福黄鹤楼夜游</v>
       </c>
       <c r="B233">
-        <v>9137</v>
+        <v>51543</v>
       </c>
       <c r="C233" t="str">
-        <v>2019-12-19 11:59</v>
+        <v>2020-01-22 22:54</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="str">
-        <v>日本一波音客机起飞后冒黑烟 引擎火光清晰可见</v>
+        <v>回到现场丨武汉被隔离肺炎患者：昏迷时听到儿子说“你一定要看到我结婚”</v>
       </c>
       <c r="B234">
-        <v>7156</v>
+        <v>1508404</v>
       </c>
       <c r="C234" t="str">
-        <v>2019-12-19 11:53</v>
+        <v>2020-01-22 22:36</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="str">
-        <v>顶级芭蕾舞学校曝丑闻：鼓励学生抽烟保持苗条</v>
+        <v>直击武汉多家医院大量医护人员抗疫画面 举拳齐喊：武汉必胜</v>
       </c>
       <c r="B235">
-        <v>26641</v>
+        <v>5114666</v>
       </c>
       <c r="C235" t="str">
-        <v>2019-12-19 11:50</v>
+        <v>2020-01-22 22:28</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="str">
-        <v>白宫发声明谴责众议院通过弹劾 特朗普：很高兴共和党人都支持我</v>
+        <v>福州一中医馆称自制茶饮可防控肺炎病毒 涉虚假广告将被立案调查</v>
       </c>
       <c r="B236">
-        <v>137705</v>
+        <v>65822</v>
       </c>
       <c r="C236" t="str">
-        <v>2019-12-19 11:44</v>
+        <v>2020-01-22 22:19</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="str">
-        <v>一家人与蛇同住半个多月 知道蛇的品种后倒吸一口凉气</v>
+        <v>冲浪者挑战18米高巨浪 被瞬间吞没场面超惊险</v>
       </c>
       <c r="B237">
-        <v>5016</v>
+        <v>46010</v>
       </c>
       <c r="C237" t="str">
-        <v>2019-12-19 11:40</v>
+        <v>2020-01-22 22:00</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="str">
-        <v>未到站要下车遭拒 哈尔滨公交车上一男子用安全锤砸窗跳车</v>
+        <v>回到现场丨直击武汉新型肺炎隔离病房：护士着防护服12小时 未喝过一口水</v>
       </c>
       <c r="B238">
-        <v>22044</v>
+        <v>3550369</v>
       </c>
       <c r="C238" t="str">
-        <v>2019-12-19 11:34</v>
+        <v>2020-01-22 21:54</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="str">
-        <v>清华大学一90后老师校内河中身亡：此前曾饮酒</v>
+        <v>全国新型冠状病毒肺炎已确诊473例 其中湖北375例死亡9例</v>
       </c>
       <c r="B239">
-        <v>61178</v>
+        <v>450369</v>
       </c>
       <c r="C239" t="str">
-        <v>2019-12-19 11:14</v>
+        <v>2020-01-22 21:37</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="str">
-        <v>安徽临泉彻查退役军人档案被冒领事件 当事人：调查组还没找我</v>
+        <v>香港发现首宗高度怀疑新型冠状病毒肺炎个案：搭高铁从武汉赴港旅游</v>
       </c>
       <c r="B240">
-        <v>33557</v>
+        <v>188664</v>
       </c>
       <c r="C240" t="str">
-        <v>2019-12-19 10:59</v>
+        <v>2020-01-22 21:35</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="str">
-        <v>合肥网红交警夜查 “铁粉”主动停车交代酒驾</v>
+        <v>武汉文旅局：全市旅行社暂停组团收客 景区停办一切大型活动</v>
       </c>
       <c r="B241">
-        <v>35129</v>
+        <v>151608</v>
       </c>
       <c r="C241" t="str">
-        <v>2019-12-19 10:57</v>
+        <v>2020-01-22 21:16</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="str">
-        <v>宜宾获救矿工还原求生细节：吃皮带和煤填肚子 水淹到脚下时极度绝望</v>
+        <v>跟拍总统却遭遇大浪 多名记者翻船落水</v>
       </c>
       <c r="B242">
-        <v>197413</v>
+        <v>190849</v>
       </c>
       <c r="C242" t="str">
-        <v>2019-12-19 10:23</v>
+        <v>2020-01-22 21:15</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="str">
-        <v>美法院：批准贾跃亭个人破产重组继续推进 驳回债权方请求</v>
+        <v>广西确诊2例新型肺炎病例 有人接触过武汉来者后感染</v>
       </c>
       <c r="B243">
-        <v>36801</v>
+        <v>8560</v>
       </c>
       <c r="C243" t="str">
-        <v>2019-12-19 10:18</v>
+        <v>2020-01-22 20:53</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="str">
-        <v>美国历史上第三个被正式弹劾的总统！众议院通过对特朗普弹劾条款</v>
+        <v>黑龙江呼兰河同一处冰面 五天3辆车掉进冰窟窿</v>
       </c>
       <c r="B244">
-        <v>140035</v>
+        <v>15578</v>
       </c>
       <c r="C244" t="str">
-        <v>2019-12-19 09:39</v>
+        <v>2020-01-22 20:49</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="str">
-        <v>不满对特朗普的指控 共和党议员发言时另类抗议：沉默数十秒</v>
+        <v>獐子岛2019年预亏约4亿元 自称受扇贝去年跑路影响就亏了3亿</v>
       </c>
       <c r="B245">
-        <v>148157</v>
+        <v>53134</v>
       </c>
       <c r="C245" t="str">
-        <v>2019-12-19 09:29</v>
+        <v>2020-01-22 20:44</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="str">
-        <v>为拖延弹劾特朗普投票 共和党议员使出了这些招</v>
+        <v>宁夏确诊首例新型肺炎病例：是一名在武汉工作的90后</v>
       </c>
       <c r="B246">
-        <v>8653</v>
+        <v>54472</v>
       </c>
       <c r="C246" t="str">
-        <v>2019-12-19 09:12</v>
+        <v>2020-01-22 20:07</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="str">
-        <v>广州地铁安检员偷拍女乘客裙底 警方：已行拘</v>
+        <v>直击春运多地交通枢纽：乘客九成佩戴口罩 工作人员多未做防护</v>
       </c>
       <c r="B247">
-        <v>465331</v>
+        <v>658035</v>
       </c>
       <c r="C247" t="str">
-        <v>2019-12-19 09:04</v>
+        <v>2020-01-22 20:00</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="str">
-        <v>共和党议员花式为特朗普辩护：总统已经“惨过耶稣”</v>
+        <v>可怜袋鼠被男子狂殴打趴下 同伴在一旁大笑拍视频遭炮轰</v>
       </c>
       <c r="B248">
-        <v>78994</v>
+        <v>7416</v>
       </c>
       <c r="C248" t="str">
-        <v>2019-12-19 07:54</v>
+        <v>2020-01-22 20:00</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="str">
-        <v>特朗普弹劾案展开激烈辩论 民主党控诉：总统以为自己是国王</v>
+        <v>妻子提出离婚惨遭囚禁铁笼中 6个月后机智获救</v>
       </c>
       <c r="B249">
-        <v>147358</v>
+        <v>39021</v>
       </c>
       <c r="C249" t="str">
-        <v>2019-12-19 01:17</v>
+        <v>2020-01-22 19:53</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="str">
-        <v>沈阳大学一研究生称在校内被同学捅伤 警方：正在抓捕犯罪嫌疑人</v>
+        <v>宝马车舱装满垃圾引路人报警 车主：我捡的明明是黄金</v>
       </c>
       <c r="B250">
-        <v>439959</v>
+        <v>40094</v>
       </c>
       <c r="C250" t="str">
-        <v>2019-12-19 00:08</v>
+        <v>2020-01-22 19:50</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="str">
-        <v>网商银行易洪涛：未来数字会成为最宝贵的资产</v>
+        <v>老死不相往来的邻居握手言和 这个派出所“警司联调”究竟做了啥？</v>
       </c>
       <c r="B251">
-        <v>8061</v>
+        <v>11246</v>
       </c>
       <c r="C251" t="str">
-        <v>2019-12-18 23:33</v>
+        <v>2020-01-22 19:47</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="str">
-        <v>香港警方指挥官：希望年轻人多一点家国情怀</v>
+        <v>山西省确诊首例新型肺炎病例：曾在武汉旅游 回程时路过石家庄</v>
       </c>
       <c r="B252">
-        <v>21500</v>
+        <v>171985</v>
       </c>
       <c r="C252" t="str">
-        <v>2019-12-18 23:29</v>
+        <v>2020-01-22 19:35</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="str">
-        <v>张江：科创板非常强调上市后的管理和退市</v>
+        <v>贵州省确诊首例新型肺炎病例 患者发病前一周在武汉住过</v>
       </c>
       <c r="B253">
-        <v>7178</v>
+        <v>17548</v>
       </c>
       <c r="C253" t="str">
-        <v>2019-12-18 23:25</v>
+        <v>2020-01-22 19:32</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="str">
-        <v>男子差一秒就被车撞飞 关键时刻他“神走位”上演教科书级自救</v>
+        <v>5岁女孩随千人移民大军走丢 母女重逢后相拥而泣</v>
       </c>
       <c r="B254">
-        <v>14389</v>
+        <v>9697</v>
       </c>
       <c r="C254" t="str">
-        <v>2019-12-18 22:48</v>
+        <v>2020-01-22 19:06</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="str">
-        <v>兰州市委原常委、秘书长张国一被双开 通报称其贪得无厌利令智昏</v>
+        <v>多平台暂停武汉疫区外卖服务 美团饿了么：餐箱会进行消毒</v>
       </c>
       <c r="B255">
-        <v>32669</v>
+        <v>23950</v>
       </c>
       <c r="C255" t="str">
-        <v>2019-12-18 22:42</v>
+        <v>2020-01-22 19:05</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="str">
-        <v>史上最累骗子？给自己寄上千个快递“碰瓷” 有时还要赶去另一个城市收件</v>
+        <v>新型肺炎疫情隔离区画面曝光 武汉大学人民医院数百名医务人员一线奋战</v>
       </c>
       <c r="B256">
-        <v>2495069</v>
+        <v>623048</v>
       </c>
       <c r="C256" t="str">
-        <v>2019-12-18 22:36</v>
+        <v>2020-01-22 18:59</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="str">
-        <v>郑爽被曝分手后首亮相：正在挑剧本 希望作品深入人心</v>
+        <v>福建确认首例新型肺炎病例：70岁男子从武汉回乡后第四天入院隔离</v>
       </c>
       <c r="B257">
-        <v>66046</v>
+        <v>91809</v>
       </c>
       <c r="C257" t="str">
-        <v>2019-12-18 22:12</v>
+        <v>2020-01-22 18:48</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="str">
-        <v>张云飞：5G催化云游戏发展 目前网络稳定性还需提升</v>
+        <v>湖北各地出现口罩防护服等防疫物资短缺 拟请求国家支援</v>
       </c>
       <c r="B258">
-        <v>3461</v>
+        <v>77480</v>
       </c>
       <c r="C258" t="str">
-        <v>2019-12-18 21:45</v>
+        <v>2020-01-22 18:32</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="str">
-        <v>京东何晓冬：降低成本有利于5G尽快投入应用创新</v>
+        <v>堵路30秒还刹车2次！司机与消防车斗气被扣200元罚3分 网友：罚轻了</v>
       </c>
       <c r="B259">
-        <v>2746</v>
+        <v>15337</v>
       </c>
       <c r="C259" t="str">
-        <v>2019-12-18 21:38</v>
+        <v>2020-01-22 18:30</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="str">
-        <v>荆伟：5G是产业和消费者生态体系的一次迭代机会</v>
+        <v>安徽省确认首例新型肺炎确诊病例</v>
       </c>
       <c r="B260">
-        <v>10066</v>
+        <v>30257</v>
       </c>
       <c r="C260" t="str">
-        <v>2019-12-18 21:30</v>
+        <v>2020-01-22 18:20</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="str">
-        <v>男子用简易“遥控”手套挡号牌 交警：你是奇才啊</v>
+        <v>成都防控新型肺炎现场 双流机场对武汉进港人员挨个测体温</v>
       </c>
       <c r="B261">
-        <v>16713</v>
+        <v>94740</v>
       </c>
       <c r="C261" t="str">
-        <v>2019-12-18 21:24</v>
+        <v>2020-01-22 18:20</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="str">
-        <v>《只有芸知道》首映黄轩被粉丝提问：我有1家影院8个厅 你想要多少排片</v>
+        <v>回到现场丨直击武汉华南海鲜市场退租：商户戴口罩排长队 可领万元补贴</v>
       </c>
       <c r="B262">
-        <v>42209</v>
+        <v>3633722</v>
       </c>
       <c r="C262" t="str">
-        <v>2019-12-18 21:22</v>
+        <v>2020-01-22 18:12</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" t="str">
-        <v>日本猴子集体烤火还吃烤地瓜 像极了冬天怕冷的你</v>
+        <v>卫健委高级别专家李兰娟：新型冠状病毒56摄氏度环境下30分钟死亡</v>
       </c>
       <c r="B263">
-        <v>32400</v>
+        <v>648175</v>
       </c>
       <c r="C263" t="str">
-        <v>2019-12-18 21:12</v>
+        <v>2020-01-22 18:07</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" t="str">
-        <v>祖孙二人电梯上向后摔倒场面惊险 俩路人扔下背包就冲上前</v>
+        <v>辽宁确认2例输入性新型肺炎病例 分别在湖北武汉和仙桃工作</v>
       </c>
       <c r="B264">
-        <v>21412</v>
+        <v>169200</v>
       </c>
       <c r="C264" t="str">
-        <v>2019-12-18 21:11</v>
+        <v>2020-01-22 18:04</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" t="str">
-        <v>贵州一男子被错录为吸毒人员21年 县公安副局长：将尽快处理</v>
+        <v>海南确诊4例新型肺炎病例：患者均从武汉抵达海南</v>
       </c>
       <c r="B265">
-        <v>12805</v>
+        <v>39864</v>
       </c>
       <c r="C265" t="str">
-        <v>2019-12-18 20:43</v>
+        <v>2020-01-22 18:02</v>
       </c>
     </row>
     <row r="266">
       <c r="A266" t="str">
-        <v>母亲突发癫痫晕倒 7岁女孩镇定用心肺复苏术救醒</v>
+        <v>电脑落在疾驰车辆引擎盖上 摩托车手一个动作惊险“救回”</v>
       </c>
       <c r="B266">
-        <v>8593</v>
+        <v>11245</v>
       </c>
       <c r="C266" t="str">
-        <v>2019-12-18 20:41</v>
+        <v>2020-01-22 17:54</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" t="str">
-        <v>宜宾矿工被困地下五天四夜：神志清楚体质虚脱  86小时没进食</v>
+        <v>武汉打车平台联合启动疫情应急措施</v>
       </c>
       <c r="B267">
-        <v>7768</v>
+        <v>32646</v>
       </c>
       <c r="C267" t="str">
-        <v>2019-12-18 20:20</v>
+        <v>2020-01-22 17:49</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" t="str">
-        <v>实拍陆军一级军士长第2166次跳伞 26年老兵霸气夺“兵王”</v>
+        <v>武汉中南医院宣布用ECMO技术成功救治一位新型冠状病毒患者</v>
       </c>
       <c r="B268">
-        <v>16953</v>
+        <v>18890</v>
       </c>
       <c r="C268" t="str">
-        <v>2019-12-18 20:18</v>
+        <v>2020-01-22 17:46</v>
       </c>
     </row>
     <row r="269">
       <c r="A269" t="str">
-        <v>陈汀：通过车企、养车、能源三大引擎降低用车成本</v>
+        <v>武汉女子乘火车探亲途中发热 扬州卫健委：已掌握同车旅客情况</v>
       </c>
       <c r="B269">
-        <v>18387</v>
+        <v>1268951</v>
       </c>
       <c r="C269" t="str">
-        <v>2019-12-18 20:14</v>
+        <v>2020-01-22 17:33</v>
       </c>
     </row>
     <row r="270">
       <c r="A270" t="str">
-        <v>副驾驶小伙往车外扔烟头 不料把自己车给点着了</v>
+        <v>萌娃独自在家用哭泣小奶音报警：想妈妈想爸爸 我害怕</v>
       </c>
       <c r="B270">
-        <v>40639</v>
+        <v>41012</v>
       </c>
       <c r="C270" t="str">
-        <v>2019-12-18 20:07</v>
+        <v>2020-01-22 17:31</v>
       </c>
     </row>
     <row r="271">
       <c r="A271" t="str">
-        <v>家里被人动过却没有丢东西 监控视频让人意外</v>
+        <v>武汉中南医院宣布用ECMO技术成功救治一位新型冠状病毒患者</v>
       </c>
       <c r="B271">
-        <v>48014</v>
+        <v>963999</v>
       </c>
       <c r="C271" t="str">
-        <v>2019-12-18 19:56</v>
+        <v>2020-01-22 17:30</v>
       </c>
     </row>
     <row r="272">
       <c r="A272" t="str">
-        <v>山西警方抓捕“同性恋交友”电信诈骗团伙现场：嫌犯刚进门就被扑倒</v>
+        <v>900斤“绿巨人”为爱征婚 因女方不够重拒绝300多人</v>
       </c>
       <c r="B272">
-        <v>24484</v>
+        <v>43781</v>
       </c>
       <c r="C272" t="str">
-        <v>2019-12-18 19:52</v>
+        <v>2020-01-22 17:30</v>
       </c>
     </row>
     <row r="273">
       <c r="A273" t="str">
-        <v>香港双层巴士出车祸致6死40伤：车顶被“削掉”一半 多人被甩出</v>
+        <v>变异小山羊长出人脸 被村民众星拱月视若神明膜拜</v>
       </c>
       <c r="B273">
-        <v>237365</v>
+        <v>39987</v>
       </c>
       <c r="C273" t="str">
-        <v>2019-12-18 19:48</v>
+        <v>2020-01-22 17:24</v>
       </c>
     </row>
     <row r="274">
       <c r="A274" t="str">
-        <v>消防员双腿发黑照片刷屏 背后原因令人感动</v>
+        <v>广州疾控专家称半天可完成病例快速检测：已筛查100多份病例样本</v>
       </c>
       <c r="B274">
-        <v>22249</v>
+        <v>61550</v>
       </c>
       <c r="C274" t="str">
-        <v>2019-12-18 19:42</v>
+        <v>2020-01-22 17:18</v>
       </c>
     </row>
     <row r="275">
       <c r="A275" t="str">
-        <v>大船高速上“行驶”惊呆民警 拦下一查船尾到车头足足37米长</v>
+        <v>朝阳医院伤医事件2人阻拦暴徒被砍伤 民政局：认定是见义勇为</v>
       </c>
       <c r="B275">
-        <v>16518</v>
+        <v>294400</v>
       </c>
       <c r="C275" t="str">
-        <v>2019-12-18 19:42</v>
+        <v>2020-01-22 17:18</v>
       </c>
     </row>
     <row r="276">
       <c r="A276" t="str">
-        <v>紧急呼叫丨庭审旁听者复述细节称杜少平道歉不真诚 自称放高利贷是帮助他人</v>
+        <v>特朗普或再推旅行禁令 这次新增白俄罗斯等7个国家</v>
       </c>
       <c r="B276">
-        <v>387026</v>
+        <v>7901</v>
       </c>
       <c r="C276" t="str">
-        <v>2019-12-18 19:42</v>
+        <v>2020-01-22 17:12</v>
       </c>
     </row>
     <row r="277">
       <c r="A277" t="str">
-        <v>5G基站辐射危害人体？2019年十大“科学”流言揭晓</v>
+        <v>实拍：澳洲海岸惊现夜光藻 海面发出幽蓝荧光如仙境</v>
       </c>
       <c r="B277">
-        <v>1179897</v>
+        <v>8445</v>
       </c>
       <c r="C277" t="str">
-        <v>2019-12-18 19:32</v>
+        <v>2020-01-22 17:09</v>
       </c>
     </row>
     <row r="278">
       <c r="A278" t="str">
-        <v>航拍海南陵水违建别墅拆除现场：201栋别墅倒塌后形成巨大废墟</v>
+        <v>新型肺炎疫情隔离区画面曝光 武汉大学人民医院数百名医务人员一线奋战</v>
       </c>
       <c r="B278">
-        <v>525803</v>
+        <v>2799326</v>
       </c>
       <c r="C278" t="str">
-        <v>2019-12-18 19:30</v>
+        <v>2020-01-22 17:04</v>
       </c>
     </row>
     <row r="279">
       <c r="A279" t="str">
-        <v>猫咪开着车缓缓驶来？民警拦车盘查发现这样一幕</v>
+        <v>朝阳医院暴力伤医者涉嫌故意杀人被批捕</v>
       </c>
       <c r="B279">
-        <v>18979</v>
+        <v>11367</v>
       </c>
       <c r="C279" t="str">
-        <v>2019-12-18 19:30</v>
+        <v>2020-01-22 16:56</v>
       </c>
     </row>
     <row r="280">
       <c r="A280" t="str">
-        <v>大爷被困山中求助民警 被救时拍“解说视频”上演“要命”9连呼</v>
+        <v>四川理县发生4.5级地震 消防部门暂未接到求救报警</v>
       </c>
       <c r="B280">
-        <v>5539</v>
+        <v>597115</v>
       </c>
       <c r="C280" t="str">
-        <v>2019-12-18 19:28</v>
+        <v>2020-01-22 16:42</v>
       </c>
     </row>
     <row r="281">
       <c r="A281" t="str">
-        <v>余永定：确定经济增长意向性目标时可采取试错的办法</v>
+        <v>特朗普弹劾审判首日落下帷幕：共和党“大获全胜”实现“11杀”</v>
       </c>
       <c r="B281">
-        <v>3805</v>
+        <v>1235116</v>
       </c>
       <c r="C281" t="str">
-        <v>2019-12-18 19:27</v>
+        <v>2020-01-22 16:31</v>
       </c>
     </row>
     <row r="282">
       <c r="A282" t="str">
-        <v>熊孩子偷刷信用卡买几千块玩具 妈妈用这招让他们哭着认错</v>
+        <v>武汉女医生瞒丈夫请战上防疫前线  医院：她去的是最累最危险的地方</v>
       </c>
       <c r="B282">
-        <v>8519</v>
+        <v>224129</v>
       </c>
       <c r="C282" t="str">
-        <v>2019-12-18 19:26</v>
+        <v>2020-01-22 16:06</v>
       </c>
     </row>
     <row r="283">
       <c r="A283" t="str">
-        <v>起底柳传志接班人宁旻 此前主管资本运作及风控</v>
+        <v>医药零售商回应口罩限购：为确保供应 防有人低价买高价倒卖</v>
       </c>
       <c r="B283">
-        <v>3375</v>
+        <v>57520</v>
       </c>
       <c r="C283" t="str">
-        <v>2019-12-18 19:24</v>
+        <v>2020-01-22 16:01</v>
       </c>
     </row>
     <row r="284">
       <c r="A284" t="str">
-        <v>托儿所员工长期遭职场骚扰集体辞职 所长夫妇痛哭下跪道歉</v>
+        <v>武汉卫健委副主任被感染上海探亲拒绝就诊？官方辟谣：严重不实</v>
       </c>
       <c r="B284">
-        <v>9877</v>
+        <v>119268</v>
       </c>
       <c r="C284" t="str">
-        <v>2019-12-18 19:22</v>
+        <v>2020-01-22 15:55</v>
       </c>
     </row>
     <row r="285">
       <c r="A285" t="str">
-        <v>印度公司建265个“假新闻”网站 遍布65个国家干扰外交决策</v>
+        <v>武威美女副市长姜保红因受贿被判12年 曾为谋求晋升搞权色交易</v>
       </c>
       <c r="B285">
-        <v>4475</v>
+        <v>2465567</v>
       </c>
       <c r="C285" t="str">
-        <v>2019-12-18 19:17</v>
+        <v>2020-01-22 15:51</v>
       </c>
     </row>
     <row r="286">
       <c r="A286" t="str">
-        <v>男子菜场花千元买会“笑”的百斤大鱼 回家上网一查可不得了</v>
+        <v>疫情是否存在瞒报？国家卫健委回应：高度重视信息公开</v>
       </c>
       <c r="B286">
-        <v>1876138</v>
+        <v>29322</v>
       </c>
       <c r="C286" t="str">
-        <v>2019-12-18 19:16</v>
+        <v>2020-01-22 15:33</v>
       </c>
     </row>
     <row r="287">
       <c r="A287" t="str">
-        <v>香港警方指挥官谈理大风波：暴徒比黑社会更恶劣</v>
+        <v>紧急呼叫丨武汉华南海鲜市场附近小区一六旬老人去世 家属称系感染新型肺炎</v>
       </c>
       <c r="B287">
-        <v>335182</v>
+        <v>1596174</v>
       </c>
       <c r="C287" t="str">
-        <v>2019-12-18 19:16</v>
+        <v>2020-01-22 15:22</v>
       </c>
     </row>
     <row r="288">
       <c r="A288" t="str">
-        <v>美众议院弹劾特朗普投票在即 50州民众举行600场集会力挺弹劾</v>
+        <v>紧急呼叫丨专访9958负责人回应吴花燕风波：违规只因想救人 文案有夸大</v>
       </c>
       <c r="B288">
-        <v>11117</v>
+        <v>509678</v>
       </c>
       <c r="C288" t="str">
-        <v>2019-12-18 19:12</v>
+        <v>2020-01-22 15:18</v>
       </c>
     </row>
     <row r="289">
       <c r="A289" t="str">
-        <v>沈海高速一货车与小车相撞致5死1伤 警方：货车司机开车玩手机</v>
+        <v>84岁老人推轮椅买站票连夜去看老伴背后故事： 女儿称父亲瞒着他们先出发</v>
       </c>
       <c r="B289">
-        <v>102009</v>
+        <v>34831</v>
       </c>
       <c r="C289" t="str">
-        <v>2019-12-18 19:06</v>
+        <v>2020-01-22 15:15</v>
       </c>
     </row>
     <row r="290">
       <c r="A290" t="str">
-        <v>贫苦女运动员不愿退役 瞒着父母参加国际大赛勇夺冠军</v>
+        <v>河南失踪少女被一对父子性侵生3孩  主犯被判强奸罪获刑15年</v>
       </c>
       <c r="B290">
-        <v>8076</v>
+        <v>401387</v>
       </c>
       <c r="C290" t="str">
-        <v>2019-12-18 19:05</v>
+        <v>2020-01-22 15:05</v>
       </c>
     </row>
     <row r="291">
       <c r="A291" t="str">
-        <v>阿里CEO张勇直播“出道” 网友：我要给张主播刷火箭</v>
+        <v>斯里兰卡要打破双胞胎同场世界纪录！1.2万人同场挤爆体育馆</v>
       </c>
       <c r="B291">
-        <v>18568</v>
+        <v>14005</v>
       </c>
       <c r="C291" t="str">
-        <v>2019-12-18 19:04</v>
+        <v>2020-01-22 14:57</v>
       </c>
     </row>
     <row r="292">
       <c r="A292" t="str">
-        <v>“路怒症”男子揪出前车司机当街暴打 原因竟是因为一个手势</v>
+        <v>国家卫健委：武汉禁止活禽销售 严禁野生动物和活禽进入</v>
       </c>
       <c r="B292">
-        <v>9249</v>
+        <v>482634</v>
       </c>
       <c r="C292" t="str">
-        <v>2019-12-18 19:03</v>
+        <v>2020-01-22 14:55</v>
       </c>
     </row>
     <row r="293">
       <c r="A293" t="str">
-        <v>河南肺水肿女童顺利抵京 三地交警千里接力护航生命通道</v>
+        <v>腾格里沙漠12万平米污染物转运完成 运往固废填埋场处置</v>
       </c>
       <c r="B293">
-        <v>6490</v>
+        <v>4294</v>
       </c>
       <c r="C293" t="str">
-        <v>2019-12-18 18:57</v>
+        <v>2020-01-22 14:53</v>
       </c>
     </row>
     <row r="294">
       <c r="A294" t="str">
-        <v>青海警方破获特大毒品案：10斤海洛因藏在6根金属水管里</v>
+        <v>主人为患癌爱犬举办告别会 意外吸引数百人携小狗为它加油打气</v>
       </c>
       <c r="B294">
-        <v>34757</v>
+        <v>8140</v>
       </c>
       <c r="C294" t="str">
-        <v>2019-12-18 18:54</v>
+        <v>2020-01-22 14:48</v>
       </c>
     </row>
     <row r="295">
       <c r="A295" t="str">
-        <v>李佳琦谈第一场直播：观看人数不到200 还被人骂</v>
+        <v>四川一大爷骑自行车上高速准备到广州过年 大爷一张嘴民警乐了</v>
       </c>
       <c r="B295">
-        <v>12861</v>
+        <v>439915</v>
       </c>
       <c r="C295" t="str">
-        <v>2019-12-18 18:45</v>
+        <v>2020-01-22 14:43</v>
       </c>
     </row>
     <row r="296">
       <c r="A296" t="str">
-        <v>学霸合唱团玩反串！牛津大学男生扮成公主 神还原电影名场面</v>
+        <v>四川暂停发往武汉的客运车 登记近期途经武汉客运车司乘信息</v>
       </c>
       <c r="B296">
-        <v>6087962</v>
+        <v>24098</v>
       </c>
       <c r="C296" t="str">
-        <v>2019-12-18 18:36</v>
+        <v>2020-01-22 14:36</v>
       </c>
     </row>
     <row r="297">
       <c r="A297" t="str">
-        <v>苏州7名绿化工人作业时被车辆冲撞 镇政府：1人伤势较重</v>
+        <v>广东新增9例新型肺炎确诊病例 广州佛山韶关三地首次确诊</v>
       </c>
       <c r="B297">
-        <v>14966</v>
+        <v>13280</v>
       </c>
       <c r="C297" t="str">
-        <v>2019-12-18 18:34</v>
+        <v>2020-01-22 14:33</v>
       </c>
     </row>
     <row r="298">
       <c r="A298" t="str">
-        <v>西班牙警方逮捕中国走私大麻团伙 成员犯错就遭铁棒毒打至骨折</v>
+        <v>安徽高院原院长张坚被“双开” 曾帮涉黑涉恶罪犯减刑假释改判</v>
       </c>
       <c r="B298">
-        <v>9866</v>
+        <v>11056</v>
       </c>
       <c r="C298" t="str">
-        <v>2019-12-18 18:27</v>
+        <v>2020-01-22 14:32</v>
       </c>
     </row>
     <row r="299">
       <c r="A299" t="str">
-        <v>香港警方接到76岁女子报案 住宅内查获大量疑似枪械及弹药</v>
+        <v>泰国确认4例新型冠状病毒肺炎病例  73岁泰国患者曾到武汉旅游</v>
       </c>
       <c r="B299">
-        <v>83544</v>
+        <v>120511</v>
       </c>
       <c r="C299" t="str">
-        <v>2019-12-18 18:24</v>
+        <v>2020-01-22 14:10</v>
       </c>
     </row>
     <row r="300">
       <c r="A300" t="str">
-        <v>2人驾车1人骑车上演“碰瓷大戏” 提前准备好道具演技浮夸</v>
+        <v>河北副省长李谦被双开：丧失理想信念 生活腐化搞钱色交易</v>
       </c>
       <c r="B300">
-        <v>11936</v>
+        <v>148004</v>
       </c>
       <c r="C300" t="str">
-        <v>2019-12-18 18:20</v>
+        <v>2020-01-22 13:48</v>
       </c>
     </row>
     <row r="301">
       <c r="A301" t="str">
-        <v>韩国国务总理秘书室突遭搜查 10多人抱走几大箱文件和硬盘</v>
+        <v>狗子头卡在笼子里苦苦哀嚎 然而主人早已看穿一切</v>
       </c>
       <c r="B301">
-        <v>46014</v>
+        <v>17943</v>
       </c>
       <c r="C301" t="str">
-        <v>2019-12-18 18:17</v>
+        <v>2020-01-22 13:30</v>
       </c>
     </row>
     <row r="302">
       <c r="A302" t="str">
-        <v>内江地震幼儿园撤离瞬间： 左手一个右手一个 老师抓起娃娃就开跑</v>
+        <v>浙江新增确诊新型冠状病毒感染肺炎5例 宁波3例温州2例</v>
       </c>
       <c r="B302">
-        <v>845592</v>
+        <v>59510</v>
       </c>
       <c r="C302" t="str">
-        <v>2019-12-18 18:05</v>
+        <v>2020-01-22 13:30</v>
       </c>
     </row>
     <row r="303">
       <c r="A303" t="str">
-        <v>吴晓求谈市场化制度改革：要为创新提供容错机制</v>
+        <v>航拍直击鸡鸣三省大桥通车：车辆在云雾中穿梭 乌蒙山区打通“交通死角”</v>
       </c>
       <c r="B303">
-        <v>9898</v>
+        <v>20789</v>
       </c>
       <c r="C303" t="str">
-        <v>2019-12-18 18:03</v>
+        <v>2020-01-22 13:29</v>
       </c>
     </row>
     <row r="304">
       <c r="A304" t="str">
-        <v>西安一女老师被指课堂上揪学生耳朵掌掴 教育局：正调查</v>
+        <v>返乡列车丨往返北京和四川的57岁农民工：等我干不动了 就换儿子出去</v>
       </c>
       <c r="B304">
-        <v>13105</v>
+        <v>17740</v>
       </c>
       <c r="C304" t="str">
-        <v>2019-12-18 17:51</v>
+        <v>2020-01-22 13:26</v>
       </c>
     </row>
     <row r="305">
       <c r="A305" t="str">
-        <v>内蒙古乌兰察布市卫健委：化德县腺鼠疫患者治愈出院</v>
+        <v>国新办新闻发布会要点：武汉肺炎疫情病毒疑来源野生动物 已致9人死亡</v>
       </c>
       <c r="B305">
-        <v>11211</v>
+        <v>5064675</v>
       </c>
       <c r="C305" t="str">
-        <v>2019-12-18 17:45</v>
+        <v>2020-01-22 13:25</v>
       </c>
     </row>
     <row r="306">
       <c r="A306" t="str">
-        <v>14岁少女失踪十日被骗KTV里做“公主” 警方：已责令停业整顿</v>
+        <v>伊朗议员公开宣布悬赏300万美元刺杀特朗普 美方：荒谬</v>
       </c>
       <c r="B306">
-        <v>106332</v>
+        <v>39651</v>
       </c>
       <c r="C306" t="str">
-        <v>2019-12-18 17:44</v>
+        <v>2020-01-22 13:20</v>
       </c>
     </row>
     <row r="307">
       <c r="A307" t="str">
-        <v>自投罗网！小偷被抓后让同伙送衣服到派出所 结果双双进了拘留所</v>
+        <v>福建“协助父亲自杀案”一审宣判 被告人被判刑三年缓刑五年</v>
       </c>
       <c r="B307">
-        <v>5980</v>
+        <v>33229</v>
       </c>
       <c r="C307" t="str">
-        <v>2019-12-18 17:34</v>
+        <v>2020-01-22 13:16</v>
       </c>
     </row>
     <row r="308">
       <c r="A308" t="str">
-        <v>唐山海域一渔船沉没多名船工失联 家属称被其它船只故意碰撞</v>
+        <v>波音737MAX复飞之路困难重重：机上软件问题仍在修复 工厂已停产</v>
       </c>
       <c r="B308">
-        <v>39401</v>
+        <v>17190</v>
       </c>
       <c r="C308" t="str">
-        <v>2019-12-18 17:32</v>
+        <v>2020-01-22 13:10</v>
       </c>
     </row>
     <row r="309">
       <c r="A309" t="str">
-        <v>武汉出现今冬首场雪 网友激动发言：一会儿我要出去打雪仗！</v>
+        <v>国家卫健委：建议武汉外的人不去武汉 武汉的市民不出武汉</v>
       </c>
       <c r="B309">
-        <v>12636</v>
+        <v>5534</v>
       </c>
       <c r="C309" t="str">
-        <v>2019-12-18 17:27</v>
+        <v>2020-01-22 13:06</v>
       </c>
     </row>
     <row r="310">
       <c r="A310" t="str">
-        <v>黄益平：中国经济增长靠创新 关键在支持民营企业</v>
+        <v>女子前晚停车后忘记关窗 第二天车内这一幕令她当场后悔</v>
       </c>
       <c r="B310">
-        <v>6449</v>
+        <v>27604</v>
       </c>
       <c r="C310" t="str">
-        <v>2019-12-18 17:26</v>
+        <v>2020-01-22 13:01</v>
       </c>
     </row>
     <row r="311">
       <c r="A311" t="str">
-        <v>注册2万家空壳公司涉案4800亿 绍兴警方抓获虚开发票团伙143人</v>
+        <v>国家卫健委：医务人员感染为“人传人”提供了证据</v>
       </c>
       <c r="B311">
-        <v>22486</v>
+        <v>39275</v>
       </c>
       <c r="C311" t="str">
-        <v>2019-12-18 17:22</v>
+        <v>2020-01-22 12:41</v>
       </c>
     </row>
     <row r="312">
       <c r="A312" t="str">
-        <v>柳传志35年创业路 五个关键决定成就今日联想</v>
+        <v>国家卫健委：建议大家不去人员密集场所 提倡“口罩文明”</v>
       </c>
       <c r="B312">
-        <v>33153</v>
+        <v>84017</v>
       </c>
       <c r="C312" t="str">
-        <v>2019-12-18 17:11</v>
+        <v>2020-01-22 12:41</v>
       </c>
     </row>
     <row r="313">
       <c r="A313" t="str">
-        <v>宜宾首名获救矿工妻子：为丈夫的坚强点赞 肯定不让他下井了</v>
+        <v>澳门确诊首例新型冠状病毒感染肺炎病例 患者为旅澳的武汉旅客</v>
       </c>
       <c r="B313">
-        <v>8615</v>
+        <v>10920</v>
       </c>
       <c r="C313" t="str">
-        <v>2019-12-18 17:10</v>
+        <v>2020-01-22 12:12</v>
       </c>
     </row>
     <row r="314">
       <c r="A314" t="str">
-        <v>什么操作？酒驾被拦一伙人反查交警证件 拿手机拍摄狂喊“你执法证呢”</v>
+        <v>回到现场丨武汉市第七医院暂停接诊：正在整改病房 专收新型肺炎相关患者</v>
       </c>
       <c r="B314">
-        <v>57727</v>
+        <v>1171827</v>
       </c>
       <c r="C314" t="str">
-        <v>2019-12-18 17:05</v>
+        <v>2020-01-22 12:10</v>
       </c>
     </row>
     <row r="315">
       <c r="A315" t="str">
-        <v>男子车停路边后备箱内49万现金不翼而飞 监拍窃贼打开车门仅用10秒</v>
+        <v>国家疾控中心：新型冠状病毒的来源是野生动物 儿童不易感</v>
       </c>
       <c r="B315">
-        <v>15526</v>
+        <v>986858</v>
       </c>
       <c r="C315" t="str">
-        <v>2019-12-18 17:02</v>
+        <v>2020-01-22 11:51</v>
       </c>
     </row>
     <row r="316">
       <c r="A316" t="str">
-        <v>郑州一小区物业发放20万公共收入 业主：感受到自己是“主人”</v>
+        <v>澳大利亚疑患新型冠状病毒肺炎男子临床症状消失 目前状况良好</v>
       </c>
       <c r="B316">
-        <v>18593</v>
+        <v>9732</v>
       </c>
       <c r="C316" t="str">
-        <v>2019-12-18 16:26</v>
+        <v>2020-01-22 11:39</v>
       </c>
     </row>
     <row r="317">
       <c r="A317" t="str">
-        <v>两岁女童患怪病看起来像八十 独特病情为全球唯一一例</v>
+        <v>哈里飞抵加拿大与妻儿相会 下飞机时露出轻松笑容</v>
       </c>
       <c r="B317">
-        <v>197844</v>
+        <v>88391</v>
       </c>
       <c r="C317" t="str">
-        <v>2019-12-18 16:18</v>
+        <v>2020-01-22 11:31</v>
       </c>
     </row>
     <row r="318">
       <c r="A318" t="str">
-        <v>蒙面小贼拿胡椒喷雾抢劫 被硬核女店员一拖把撵走</v>
+        <v>特朗普弹劾案审判拉开帷幕 这些“真相”你要知道</v>
       </c>
       <c r="B318">
-        <v>17259</v>
+        <v>20496</v>
       </c>
       <c r="C318" t="str">
-        <v>2019-12-18 16:13</v>
+        <v>2020-01-22 11:04</v>
       </c>
     </row>
     <row r="319">
       <c r="A319" t="str">
-        <v>朱光耀：2019年全球贸易增长承压 自由贸易遭受冲击</v>
+        <v>国家卫健委：病例数量变化大与诊断试剂下发有关</v>
       </c>
       <c r="B319">
-        <v>2568</v>
+        <v>1046298</v>
       </c>
       <c r="C319" t="str">
-        <v>2019-12-18 16:10</v>
+        <v>2020-01-22 10:51</v>
       </c>
     </row>
     <row r="320">
       <c r="A320" t="str">
-        <v>宁波海关收网行动查洋垃圾1万余吨：走私分子被摁在床上戴手铐</v>
+        <v>新加坡卫生部：7例新型肺炎疑似病例全为阴性 春节将加强防范</v>
       </c>
       <c r="B320">
-        <v>18897</v>
+        <v>14046</v>
       </c>
       <c r="C320" t="str">
-        <v>2019-12-18 16:07</v>
+        <v>2020-01-22 10:49</v>
       </c>
     </row>
     <row r="321">
       <c r="A321" t="str">
-        <v>邬贺铨：5G的最大贡献是生产力整体增长</v>
+        <v>专家称武汉新型肺炎存在变异可能 重症病例“一人一案”</v>
       </c>
       <c r="B321">
-        <v>3056</v>
+        <v>35610</v>
       </c>
       <c r="C321" t="str">
-        <v>2019-12-18 16:05</v>
+        <v>2020-01-22 10:20</v>
       </c>
     </row>
     <row r="322">
       <c r="A322" t="str">
-        <v>“操场埋尸案”宣判：主犯杜少平听到死刑时低下头手在颤抖</v>
+        <v>紧急呼叫丨武汉医护人员：有男护士刚成奶爸就前往增援 会紧张但这是责任</v>
       </c>
       <c r="B322">
-        <v>99493</v>
+        <v>1337712</v>
       </c>
       <c r="C322" t="str">
-        <v>2019-12-18 15:54</v>
+        <v>2020-01-22 09:59</v>
       </c>
     </row>
     <row r="323">
       <c r="A323" t="str">
-        <v>00后消防员救火时突发疾病仍不撤离 退出火场后跪倒在地痛得说不出话</v>
+        <v>上海确认首例输入性新型肺炎病例 患者系武汉籍上周刚抵沪</v>
       </c>
       <c r="B323">
-        <v>4571</v>
+        <v>6747</v>
       </c>
       <c r="C323" t="str">
-        <v>2019-12-18 15:36</v>
+        <v>2020-01-22 09:43</v>
       </c>
     </row>
     <row r="324">
       <c r="A324" t="str">
-        <v>朱光耀：中国经济连续14年对全球经济增长贡献最大</v>
+        <v>“春节电话亭”年夜饭篇：南北方年夜饭大赏 这个地方饺子即王者</v>
       </c>
       <c r="B324">
-        <v>7975</v>
+        <v>950173</v>
       </c>
       <c r="C324" t="str">
-        <v>2019-12-18 15:35</v>
+        <v>2020-01-22 09:34</v>
       </c>
     </row>
     <row r="325">
       <c r="A325" t="str">
-        <v>特朗普：不看众议院的弹劾投票 这是国家耻辱的印记</v>
+        <v>全国确诊新型肺炎324例 湖北启动突发公共卫生事件二级应急响应</v>
       </c>
       <c r="B325">
-        <v>135719</v>
+        <v>434637</v>
       </c>
       <c r="C325" t="str">
-        <v>2019-12-18 15:26</v>
+        <v>2020-01-22 08:40</v>
       </c>
     </row>
     <row r="326">
       <c r="A326" t="str">
-        <v>20余名电信诈骗嫌犯被押千里回济南 去洗手间都有俩民警陪同</v>
+        <v>美国确诊首例新型冠状病毒感染肺炎病例 患者曾到武汉周边旅游</v>
       </c>
       <c r="B326">
-        <v>9245</v>
+        <v>8022</v>
       </c>
       <c r="C326" t="str">
-        <v>2019-12-18 15:19</v>
+        <v>2020-01-22 07:36</v>
       </c>
     </row>
     <row r="327">
       <c r="A327" t="str">
-        <v>00后冒充易烊千玺建粉丝群实施诈骗 两小学生被骗8万余元</v>
+        <v>美国确诊首例新型冠状病毒感染肺炎病例 患者曾到武汉周边旅游</v>
       </c>
       <c r="B327">
-        <v>21946</v>
+        <v>778206</v>
       </c>
       <c r="C327" t="str">
-        <v>2019-12-18 15:17</v>
+        <v>2020-01-22 07:04</v>
       </c>
     </row>
     <row r="328">
       <c r="A328" t="str">
-        <v>四头小黄牛满大街狂奔 警察蜀黍化身斗牛士将其制服</v>
+        <v>江西凌晨发布确诊2例新型肺炎病例  其中一名为重症患者</v>
       </c>
       <c r="B328">
-        <v>12843</v>
+        <v>197831</v>
       </c>
       <c r="C328" t="str">
-        <v>2019-12-18 15:13</v>
+        <v>2020-01-22 03:04</v>
       </c>
     </row>
     <row r="329">
       <c r="A329" t="str">
-        <v>老爸无证驾驶“机智”换座欲“瞒天过海” 萌娃哭着一语道破“天机”</v>
+        <v>四川确诊第2例新型肺炎病例：患者从武汉乘火车返回广安</v>
       </c>
       <c r="B329">
-        <v>11538</v>
+        <v>249664</v>
       </c>
       <c r="C329" t="str">
-        <v>2019-12-18 15:06</v>
+        <v>2020-01-22 02:23</v>
       </c>
     </row>
     <row r="330">
       <c r="A330" t="str">
-        <v>王忠民：近20年全球首富是在数字经济有所创新的人</v>
+        <v>云南昆明确诊首例新型肺炎病例：武汉人到昆明后发热入院</v>
       </c>
       <c r="B330">
-        <v>11098</v>
+        <v>49766</v>
       </c>
       <c r="C330" t="str">
-        <v>2019-12-18 14:50</v>
+        <v>2020-01-22 01:24</v>
       </c>
     </row>
     <row r="331">
       <c r="A331" t="str">
-        <v>钟汉良被爆料自残 律师方：他身心健康 将追责诽谤者</v>
+        <v>长沙首例感染新型肺炎病毒患者系武汉人病情平稳体温恢复正常</v>
       </c>
       <c r="B331">
-        <v>10578</v>
+        <v>83349</v>
       </c>
       <c r="C331" t="str">
-        <v>2019-12-18 14:49</v>
+        <v>2020-01-22 00:36</v>
       </c>
     </row>
     <row r="332">
       <c r="A332" t="str">
-        <v>7个月大的婴儿就任美国名誉市长 口号是“让美国再次友善”</v>
+        <v>特朗普与环保少女达沃斯论坛再相遇 双方话里话外似乎有点微妙</v>
       </c>
       <c r="B332">
-        <v>213578</v>
+        <v>131992</v>
       </c>
       <c r="C332" t="str">
-        <v>2019-12-18 14:49</v>
+        <v>2020-01-22 00:35</v>
       </c>
     </row>
     <row r="333">
       <c r="A333" t="str">
-        <v>下水管道“蛙人”：冬天潜入12米深冰冷污水 摸黑打通地下城市“动脉”</v>
+        <v>北京新增5例新型肺炎病例：3男2女 年龄介于18至56岁</v>
       </c>
       <c r="B333">
-        <v>27223</v>
+        <v>55755</v>
       </c>
       <c r="C333" t="str">
-        <v>2019-12-18 14:40</v>
+        <v>2020-01-22 00:19</v>
       </c>
     </row>
     <row r="334">
       <c r="A334" t="str">
-        <v>男子非法改装车被网友举报 接到交警电话后竟笑出了声</v>
+        <v>陆军军医大学新桥医院李琦教授：吸烟、喝姜汤对新型肺炎无效</v>
       </c>
       <c r="B334">
-        <v>11180</v>
+        <v>175084</v>
       </c>
       <c r="C334" t="str">
-        <v>2019-12-18 14:36</v>
+        <v>2020-01-22 00:16</v>
       </c>
     </row>
     <row r="335">
       <c r="A335" t="str">
-        <v>“操场埋尸案”宣判：主犯杜少平听到死刑时低下头手在颤抖</v>
+        <v>河南确诊一例新型肺炎病例 患者在武汉患病回周口治疗</v>
       </c>
       <c r="B335">
-        <v>3129180</v>
+        <v>437166</v>
       </c>
       <c r="C335" t="str">
-        <v>2019-12-18 14:32</v>
+        <v>2020-01-22 00:11</v>
       </c>
     </row>
     <row r="336">
       <c r="A336" t="str">
-        <v>起诉日本首相“御用记者”性侵 伊藤诗织胜诉获赔330万日元</v>
+        <v>紧急呼叫丨武汉市民自发退票不远游：害怕成为传染源 不想给人添麻烦</v>
       </c>
       <c r="B336">
-        <v>20987</v>
+        <v>1104050</v>
       </c>
       <c r="C336" t="str">
-        <v>2019-12-18 14:18</v>
+        <v>2020-01-22 00:09</v>
       </c>
     </row>
     <row r="337">
       <c r="A337" t="str">
-        <v>特朗普前竞选助手“戴罪立功” 刑期从5年减至45天</v>
+        <v>奥斯威辛集中营解放75周年 幸存者：至今仍生活在恐怖回忆中</v>
       </c>
       <c r="B337">
-        <v>8605</v>
+        <v>14955</v>
       </c>
       <c r="C337" t="str">
-        <v>2019-12-18 14:09</v>
+        <v>2020-01-22 00:01</v>
       </c>
     </row>
     <row r="338">
       <c r="A338" t="str">
-        <v>海南警方端掉“杀猪盘”诈骗团伙 一女性网恋70天被骗26万</v>
+        <v>四川确诊首例新型肺炎病例：武汉某公司职员 10天前被隔离治疗</v>
       </c>
       <c r="B338">
-        <v>16622</v>
+        <v>72001</v>
       </c>
       <c r="C338" t="str">
-        <v>2019-12-18 14:08</v>
+        <v>2020-01-21 23:31</v>
       </c>
     </row>
     <row r="339">
       <c r="A339" t="str">
-        <v>工信部原部长李毅中：全国5G网络覆盖还需要6至7年时间</v>
+        <v>青岛确诊一例新型肺炎患者 山东已成立肺炎疫情处置小组介入</v>
       </c>
       <c r="B339">
-        <v>33782</v>
+        <v>114140</v>
       </c>
       <c r="C339" t="str">
-        <v>2019-12-18 14:07</v>
+        <v>2020-01-21 23:18</v>
       </c>
     </row>
     <row r="340">
       <c r="A340" t="str">
-        <v>兰州生物药厂员工称厂区土壤检出布鲁氏菌 专家：几乎不可能致病</v>
+        <v>广东再增3例新型肺炎散发病例 均有湖北居住或旅行史</v>
       </c>
       <c r="B340">
-        <v>22874</v>
+        <v>534313</v>
       </c>
       <c r="C340" t="str">
-        <v>2019-12-18 14:00</v>
+        <v>2020-01-21 23:08</v>
       </c>
     </row>
     <row r="341">
       <c r="A341" t="str">
-        <v>13名矿工生还细节：巷道未被水淹氧气充足 被困矿工传出求救纸条后获救</v>
+        <v>狗子偷偷离开主人 自己悄咪咪坐了5站火车才被逮住</v>
       </c>
       <c r="B341">
-        <v>36020</v>
+        <v>26632</v>
       </c>
       <c r="C341" t="str">
-        <v>2019-12-18 13:50</v>
+        <v>2020-01-21 22:55</v>
       </c>
     </row>
     <row r="342">
       <c r="A342" t="str">
-        <v>朝阳群众再出手：路遇遮挡号牌的车辆 这名小哥霸气下车一把将纸张撕下</v>
+        <v>乘客投冥币遭司机制止引发口角 贵阳一公交车司机被刀刺伤</v>
       </c>
       <c r="B342">
-        <v>24689</v>
+        <v>7068</v>
       </c>
       <c r="C342" t="str">
-        <v>2019-12-18 13:41</v>
+        <v>2020-01-21 22:51</v>
       </c>
     </row>
     <row r="343">
       <c r="A343" t="str">
-        <v>印度警察暴打大学男生 女生们冲出围起“人盾”保护他</v>
+        <v>上海新增4例新型冠状病毒肺炎患者 其中1例为“人传人”病例</v>
       </c>
       <c r="B343">
-        <v>19980</v>
+        <v>359826</v>
       </c>
       <c r="C343" t="str">
-        <v>2019-12-18 13:34</v>
+        <v>2020-01-21 22:21</v>
       </c>
     </row>
     <row r="344">
       <c r="A344" t="str">
-        <v>贵州安龙矿难遇难者“要挣钱养家”推掉亲戚饭局 不料遇上事故</v>
+        <v>重庆市确诊5例输入性新型肺炎病例：均有武汉逗留史</v>
       </c>
       <c r="B344">
-        <v>34622</v>
+        <v>756421</v>
       </c>
       <c r="C344" t="str">
-        <v>2019-12-18 13:30</v>
+        <v>2020-01-21 22:16</v>
       </c>
     </row>
     <row r="345">
       <c r="A345" t="str">
-        <v>地铁安检员偷拍女子裙底 广州地铁：已锁定该人并报警</v>
+        <v>京天成生物称研制出可测新型冠状病毒抗体 专家：前提是找到高质量配对抗体</v>
       </c>
       <c r="B345">
-        <v>199083</v>
+        <v>817629</v>
       </c>
       <c r="C345" t="str">
-        <v>2019-12-18 13:25</v>
+        <v>2020-01-21 20:29</v>
       </c>
     </row>
     <row r="346">
       <c r="A346" t="str">
-        <v>湖南“操场埋尸案”一审宣判：主犯杜少平被判死刑</v>
+        <v>澳大利亚遭冰雹袭击：工人抱头蹲下 瑟瑟发抖</v>
       </c>
       <c r="B346">
-        <v>232138</v>
+        <v>27324</v>
       </c>
       <c r="C346" t="str">
-        <v>2019-12-18 13:11</v>
+        <v>2020-01-21 20:19</v>
       </c>
     </row>
     <row r="347">
       <c r="A347" t="str">
-        <v>海底发现疑似16世纪沉船铁锚 西班牙舰队或靠它首次征服美洲</v>
+        <v>健身房学员集体练波比跳 狗子在最前排示范“领操”</v>
       </c>
       <c r="B347">
-        <v>9196</v>
+        <v>20881</v>
       </c>
       <c r="C347" t="str">
-        <v>2019-12-18 12:56</v>
+        <v>2020-01-21 19:36</v>
       </c>
     </row>
     <row r="348">
       <c r="A348" t="str">
-        <v>英首相拟立法禁止“脱欧”过渡期再延长 11个月内谈妥全部贸易协议</v>
+        <v>河南宣布全省市场禁售活禽 官方：系防控肺炎疫情的特殊手段</v>
       </c>
       <c r="B348">
-        <v>6591</v>
+        <v>168429</v>
       </c>
       <c r="C348" t="str">
-        <v>2019-12-18 12:51</v>
+        <v>2020-01-21 19:05</v>
       </c>
     </row>
     <row r="349">
       <c r="A349" t="str">
-        <v>四川资中地震已致9人受伤 直击武警官兵在震中抢险排危</v>
+        <v>台湾确诊首例新型冠状病毒肺炎患者：50岁左右女性 曾在武汉工作</v>
       </c>
       <c r="B349">
-        <v>10030</v>
+        <v>780726</v>
       </c>
       <c r="C349" t="str">
-        <v>2019-12-18 12:38</v>
+        <v>2020-01-21 18:56</v>
       </c>
     </row>
     <row r="350">
       <c r="A350" t="str">
-        <v>“碰瓷”首相？女子给鲍里斯看儿子照片：我孩子长得多像你</v>
+        <v>山东奔驰女车主因故障维权被行拘 警方：扰乱秩序 执法无问题</v>
       </c>
       <c r="B350">
-        <v>9703</v>
+        <v>570680</v>
       </c>
       <c r="C350" t="str">
-        <v>2019-12-18 12:36</v>
+        <v>2020-01-21 18:43</v>
       </c>
     </row>
     <row r="351">
       <c r="A351" t="str">
-        <v>艰难抗癌3年后 9岁男孩得知自己癌症治愈喜极而泣</v>
+        <v>浙江省确诊5例新型冠状病毒感染肺炎 均有武汉居住旅行史</v>
       </c>
       <c r="B351">
-        <v>27516</v>
+        <v>116553</v>
       </c>
       <c r="C351" t="str">
-        <v>2019-12-18 12:31</v>
+        <v>2020-01-21 18:43</v>
       </c>
     </row>
     <row r="352">
       <c r="A352" t="str">
-        <v>英国服务员花式摔跤集锦引爆笑 自己吐槽入错行了</v>
+        <v>男子春节回家买不到高铁票 竟冲卡进站扔包入站台</v>
       </c>
       <c r="B352">
-        <v>5202</v>
+        <v>11618</v>
       </c>
       <c r="C352" t="str">
-        <v>2019-12-18 12:23</v>
+        <v>2020-01-21 18:33</v>
       </c>
     </row>
     <row r="353">
       <c r="A353" t="str">
-        <v>东莞一车辆冲破围挡“直钻”施工坑 警方：3人受伤</v>
+        <v>湖南查处浏阳烟花厂重大事故瞒报   29名公职人员被追责问责</v>
       </c>
       <c r="B353">
-        <v>84754</v>
+        <v>13257</v>
       </c>
       <c r="C353" t="str">
-        <v>2019-12-18 12:04</v>
+        <v>2020-01-21 18:29</v>
       </c>
     </row>
     <row r="354">
       <c r="A354" t="str">
-        <v>贵州安龙矿难被困2人遗体运送出井救援结束 共16人遇难</v>
+        <v>被大卡车远光灯晃瞎眼 女司机神反应险被压成“三明治”</v>
       </c>
       <c r="B354">
-        <v>91879</v>
+        <v>18747</v>
       </c>
       <c r="C354" t="str">
-        <v>2019-12-18 12:00</v>
+        <v>2020-01-21 18:27</v>
       </c>
     </row>
     <row r="355">
       <c r="A355" t="str">
-        <v>监拍：内江资中5.2级地震发生时 鱼群疯狂跃出水面</v>
+        <v>160秒梳理武汉新型肺炎爆发全过程 全国又新增77例确诊病例</v>
       </c>
       <c r="B355">
-        <v>441864</v>
+        <v>1345604</v>
       </c>
       <c r="C355" t="str">
-        <v>2019-12-18 11:59</v>
+        <v>2020-01-21 18:17</v>
       </c>
     </row>
     <row r="356">
       <c r="A356" t="str">
-        <v>广西柳州“黑老大”张加爱犯10项罪名 一审被判死刑</v>
+        <v>紧急呼叫丨探访武汉车站医疗点：用玻璃墙间隔 会问是否去过海鲜市场</v>
       </c>
       <c r="B356">
-        <v>77577</v>
+        <v>2723468</v>
       </c>
       <c r="C356" t="str">
-        <v>2019-12-18 11:55</v>
+        <v>2020-01-21 18:17</v>
       </c>
     </row>
     <row r="357">
       <c r="A357" t="str">
-        <v>制止施暴反被拘当事人赵宇获见义勇为先进分子：再遇类似事件会考虑方法</v>
+        <v>菲律宾游船因强风翻覆 造成一名中国游客死亡</v>
       </c>
       <c r="B357">
-        <v>54370</v>
+        <v>16539</v>
       </c>
       <c r="C357" t="str">
-        <v>2019-12-18 11:30</v>
+        <v>2020-01-21 18:11</v>
       </c>
     </row>
     <row r="358">
       <c r="A358" t="str">
-        <v>连线资中地震教科书式自救老师：每学期学校都会组织防震演练</v>
+        <v>探访深圳新型冠状病毒肺炎处置医院：进门诊部要先测体温</v>
       </c>
       <c r="B358">
-        <v>17504</v>
+        <v>3408</v>
       </c>
       <c r="C358" t="str">
-        <v>2019-12-18 11:29</v>
+        <v>2020-01-21 18:08</v>
       </c>
     </row>
     <row r="359">
       <c r="A359" t="str">
-        <v>男子深夜对邻居家纵火 竟只因歧视自闭症患者</v>
+        <v>探访深圳新型冠状病毒肺炎处置医院：进门诊部要先测体温</v>
       </c>
       <c r="B359">
-        <v>6643</v>
+        <v>52003</v>
       </c>
       <c r="C359" t="str">
-        <v>2019-12-18 11:26</v>
+        <v>2020-01-21 17:53</v>
       </c>
     </row>
     <row r="360">
       <c r="A360" t="str">
-        <v>北京市副市长殷勇：已建立300亿规模的科技创新母基金</v>
+        <v>得知孩子无法回家过年 边防民警父母的反应让人泪目</v>
       </c>
       <c r="B360">
-        <v>13352</v>
+        <v>10679</v>
       </c>
       <c r="C360" t="str">
-        <v>2019-12-18 11:02</v>
+        <v>2020-01-21 17:53</v>
       </c>
     </row>
     <row r="361">
       <c r="A361" t="str">
-        <v>7岁河南重病女童肺功能只剩三分之一 体外装人工肺转运北京跨省救治</v>
+        <v>出租房现异样民警一查床底竟藏着个男孩！真相令人大跌眼镜</v>
       </c>
       <c r="B361">
-        <v>9905</v>
+        <v>11625</v>
       </c>
       <c r="C361" t="str">
-        <v>2019-12-18 11:00</v>
+        <v>2020-01-21 17:50</v>
       </c>
     </row>
     <row r="362">
       <c r="A362" t="str">
-        <v>北京人均GDP达到2.1万美元 达到发达经济体的标准</v>
+        <v>ETC收费可以对账了 全国首个ETC对账助手上线</v>
       </c>
       <c r="B362">
-        <v>5258</v>
+        <v>22232</v>
       </c>
       <c r="C362" t="str">
-        <v>2019-12-18 10:48</v>
+        <v>2020-01-21 17:39</v>
       </c>
     </row>
     <row r="363">
       <c r="A363" t="str">
-        <v>疾驰中巴失控撞上路边学生 数十人接连被卷入车下死伤惨重</v>
+        <v>惩罚学生答不出问题 暴躁老师让学生下跪挨棒打</v>
       </c>
       <c r="B363">
-        <v>34232</v>
+        <v>10707</v>
       </c>
       <c r="C363" t="str">
-        <v>2019-12-18 10:42</v>
+        <v>2020-01-21 17:35</v>
       </c>
     </row>
     <row r="364">
       <c r="A364" t="str">
-        <v>居民谈四川资中5.2级地震：等反应过来时 东西都倒下来了</v>
+        <v>“春节电话亭”主题曲《说出爱》上线：小亭子大感动 方寸世界留住铭心瞬间</v>
       </c>
       <c r="B364">
-        <v>164785</v>
+        <v>193634</v>
       </c>
       <c r="C364" t="str">
-        <v>2019-12-18 10:24</v>
+        <v>2020-01-21 17:34</v>
       </c>
     </row>
     <row r="365">
       <c r="A365" t="str">
-        <v>航拍浙江松阳矿山塌方现场 官方：连夜搜寻未发现生命迹象</v>
+        <v>新型肺炎累计确诊病例291例 其中湖北增至270例</v>
       </c>
       <c r="B365">
-        <v>13607</v>
+        <v>144725</v>
       </c>
       <c r="C365" t="str">
-        <v>2019-12-18 10:13</v>
+        <v>2020-01-21 17:23</v>
       </c>
     </row>
     <row r="366">
       <c r="A366" t="str">
-        <v>四川资中5.2级地震已致4人受伤 多监控直击事发瞬间</v>
+        <v>外卖小哥前脚下车后脚外卖就被偷 视频拍下“贼影”让民警哭笑不得</v>
       </c>
       <c r="B366">
-        <v>23756</v>
+        <v>58445</v>
       </c>
       <c r="C366" t="str">
-        <v>2019-12-18 09:51</v>
+        <v>2020-01-21 17:20</v>
       </c>
     </row>
     <row r="367">
       <c r="A367" t="str">
-        <v>上海阿姨魔性谈垃圾分类2019：苍蝇变少生活更规律 扔错了会再捡回来</v>
+        <v>上海确认第二例输入性新型肺炎病例 患者月初曾前往武汉</v>
       </c>
       <c r="B367">
-        <v>259891</v>
+        <v>18056</v>
       </c>
       <c r="C367" t="str">
-        <v>2019-12-18 09:41</v>
+        <v>2020-01-21 17:20</v>
       </c>
     </row>
     <row r="368">
       <c r="A368" t="str">
-        <v>美众议院通过1.4万亿美元预算避免政府关门 特朗普这项需求被拒</v>
+        <v>北大免疫学教授王月丹：口罩尽量避免戴含通气阀的 N95口罩也不能戴太久</v>
       </c>
       <c r="B368">
-        <v>20126</v>
+        <v>6768</v>
       </c>
       <c r="C368" t="str">
-        <v>2019-12-18 09:38</v>
+        <v>2020-01-21 17:18</v>
       </c>
     </row>
     <row r="369">
       <c r="A369" t="str">
-        <v>直击四川资中5.2级地震：一中学班级内学生立即躲到课桌下</v>
+        <v>实拍泰安6辆私家车越线为消防车让行 网友点赞：榜样的力量</v>
       </c>
       <c r="B369">
-        <v>555446</v>
+        <v>13099</v>
       </c>
       <c r="C369" t="str">
-        <v>2019-12-18 09:18</v>
+        <v>2020-01-21 17:17</v>
       </c>
     </row>
     <row r="370">
       <c r="A370" t="str">
-        <v>四川资中5.2级地震：地面和吊灯明显晃动 提前24秒向成都预警</v>
+        <v>鼠年的“鼠”到底是什么鼠？美国驻华使馆为此吵了起来</v>
       </c>
       <c r="B370">
-        <v>47333</v>
+        <v>8490</v>
       </c>
       <c r="C370" t="str">
-        <v>2019-12-18 08:55</v>
+        <v>2020-01-21 17:10</v>
       </c>
     </row>
     <row r="371">
       <c r="A371" t="str">
-        <v>杉木树煤矿13名被困矿工全部生还 110秒回顾紧张救援88小时</v>
+        <v>杭州机场对4个武汉进港航班旅客实施体温检测 共检测人员432人</v>
       </c>
       <c r="B371">
-        <v>106610</v>
+        <v>178556</v>
       </c>
       <c r="C371" t="str">
-        <v>2019-12-18 08:52</v>
+        <v>2020-01-21 17:04</v>
       </c>
     </row>
     <row r="372">
       <c r="A372" t="str">
-        <v>杉木树煤矿透水被困13人全部生还：被困井下86小时 敲管子向外界求救</v>
+        <v>武汉对进出当地人员加强管控 将腾出1200张床位用于患者救治</v>
       </c>
       <c r="B372">
-        <v>124624</v>
+        <v>140220</v>
       </c>
       <c r="C372" t="str">
-        <v>2019-12-18 08:04</v>
+        <v>2020-01-21 16:51</v>
       </c>
     </row>
     <row r="373">
       <c r="A373" t="str">
-        <v>浙江山体塌方土质松软一捏就碎 300余人连夜搜救失联3人</v>
+        <v>北大免疫学教授王月丹：防病毒口服液无依据 蒸醋只是心理安慰</v>
       </c>
       <c r="B373">
-        <v>10556</v>
+        <v>87596</v>
       </c>
       <c r="C373" t="str">
-        <v>2019-12-17 23:18</v>
+        <v>2020-01-21 16:48</v>
       </c>
     </row>
     <row r="374">
       <c r="A374" t="str">
-        <v>巴基斯坦前总统“叫屈”视频曝光：审判不公 我为国家服务了十年</v>
+        <v>“操场埋尸案”邓世平将获工伤认定 家属：清明节前会操办父亲后事</v>
       </c>
       <c r="B374">
-        <v>130919</v>
+        <v>3101727</v>
       </c>
       <c r="C374" t="str">
-        <v>2019-12-17 23:17</v>
+        <v>2020-01-21 16:39</v>
       </c>
     </row>
     <row r="375">
       <c r="A375" t="str">
-        <v>柳传志将退休盘点其妙语录：马云中国妇女界最喜欢</v>
+        <v>海宁“12·3”污水罐体倒塌事故3名嫌犯被批捕 涉工程重大安全事故罪</v>
       </c>
       <c r="B375">
-        <v>29139</v>
+        <v>11614</v>
       </c>
       <c r="C375" t="str">
-        <v>2019-12-17 22:34</v>
+        <v>2020-01-21 16:38</v>
       </c>
     </row>
     <row r="376">
       <c r="A376" t="str">
-        <v>大连官方回应获奖logo涉嫌抄袭：设计者称用的免费字库 正调查核实</v>
+        <v>东西南北兵 一起来拜年！50秒查收来自天安门城楼武警官兵的祝福</v>
       </c>
       <c r="B376">
-        <v>1736411</v>
+        <v>7898</v>
       </c>
       <c r="C376" t="str">
-        <v>2019-12-17 22:29</v>
+        <v>2020-01-21 16:30</v>
       </c>
     </row>
     <row r="377">
       <c r="A377" t="str">
-        <v>厦门一男子抱女童欲跳桥 实拍民警飞身扑救</v>
+        <v>多平台提供免费取消武汉地区订单政策 美团飞猪携程在内</v>
       </c>
       <c r="B377">
-        <v>18404</v>
+        <v>112302</v>
       </c>
       <c r="C377" t="str">
-        <v>2019-12-17 22:12</v>
+        <v>2020-01-21 16:22</v>
       </c>
     </row>
     <row r="378">
       <c r="A378" t="str">
-        <v>紧急呼叫丨男子个人档案被冒领丢失19年 官方：警方纪委都已介入</v>
+        <v>公安部原副部长孟宏伟一审获刑13年半 曾被批特权思想极其严重</v>
       </c>
       <c r="B378">
-        <v>355867</v>
+        <v>2914936</v>
       </c>
       <c r="C378" t="str">
-        <v>2019-12-17 21:42</v>
+        <v>2020-01-21 16:04</v>
       </c>
     </row>
     <row r="379">
       <c r="A379" t="str">
-        <v>重庆警方破获上亿元集资诈骗案 公司为博取信任带老年人泡温泉</v>
+        <v>贵州贵阳发现首例疑似新型冠状病毒感染肺炎病例 已隔离治疗</v>
       </c>
       <c r="B379">
-        <v>13117</v>
+        <v>138108</v>
       </c>
       <c r="C379" t="str">
-        <v>2019-12-17 21:37</v>
+        <v>2020-01-21 16:00</v>
       </c>
     </row>
     <row r="380">
       <c r="A380" t="str">
-        <v>女子因身份证丢失“被”与陌生男子结婚数年 民政局：无法撤销需法院起诉</v>
+        <v>菲律宾严防中国游客参与“赌博诈骗” 或派警察到中国培训</v>
       </c>
       <c r="B380">
-        <v>180641</v>
+        <v>8802</v>
       </c>
       <c r="C380" t="str">
-        <v>2019-12-17 21:24</v>
+        <v>2020-01-21 15:33</v>
       </c>
     </row>
     <row r="381">
       <c r="A381" t="str">
-        <v>联想创始人柳传志将退休 1分半钟盘点事业生涯高光时刻</v>
+        <v>热门一次性口罩缺货 生产商：春节会加班保证供应</v>
       </c>
       <c r="B381">
-        <v>43084</v>
+        <v>83107</v>
       </c>
       <c r="C381" t="str">
-        <v>2019-12-17 21:17</v>
+        <v>2020-01-21 15:33</v>
       </c>
     </row>
     <row r="382">
       <c r="A382" t="str">
-        <v>起底柳传志接班人宁旻 此前主管资本运作及风控</v>
+        <v>湖南八大公山凶杀案嫌疑人落网 武警持枪抓捕现场曝光</v>
       </c>
       <c r="B382">
-        <v>30939</v>
+        <v>251695</v>
       </c>
       <c r="C382" t="str">
-        <v>2019-12-17 21:07</v>
+        <v>2020-01-21 15:32</v>
       </c>
     </row>
     <row r="383">
       <c r="A383" t="str">
-        <v>“操场埋尸案”庭审细节：邓世平被下药后锤杀 凶手清明烧纸忏悔</v>
+        <v>温州一客车站外组客遇检查 司机拿伸缩棍暴力抗法被刑拘</v>
       </c>
       <c r="B383">
-        <v>232772</v>
+        <v>10647</v>
       </c>
       <c r="C383" t="str">
-        <v>2019-12-17 20:58</v>
+        <v>2020-01-21 15:21</v>
       </c>
     </row>
     <row r="384">
       <c r="A384" t="str">
-        <v>为让全民吃上鱼子酱 日本成功让雄鲟鱼“变性”</v>
+        <v>北大免疫学教授王月丹：口罩尽量避免戴含通气阀的 N95口罩也不能戴太久</v>
       </c>
       <c r="B384">
-        <v>5853</v>
+        <v>370013</v>
       </c>
       <c r="C384" t="str">
-        <v>2019-12-17 20:52</v>
+        <v>2020-01-21 15:18</v>
       </c>
     </row>
     <row r="385">
       <c r="A385" t="str">
-        <v>紧急呼叫丨苏银霞谈于欢案：被辱细节不忍回忆  换作我是于欢也受不了</v>
+        <v>武汉加强进出人员管控 直击武汉高铁站：旅客大多戴口罩 现场配测温仪</v>
       </c>
       <c r="B385">
-        <v>169894</v>
+        <v>4157134</v>
       </c>
       <c r="C385" t="str">
-        <v>2019-12-17 20:46</v>
+        <v>2020-01-21 15:13</v>
       </c>
     </row>
     <row r="386">
       <c r="A386" t="str">
-        <v>唐代高僧鉴真带去日本的舍利佛塔 首度亮相上海博物馆</v>
+        <v>上海疾控发布医用外科口罩视频教程 正确佩戴可降低感染风险</v>
       </c>
       <c r="B386">
-        <v>12839</v>
+        <v>2483946</v>
       </c>
       <c r="C386" t="str">
-        <v>2019-12-17 20:42</v>
+        <v>2020-01-21 15:12</v>
       </c>
     </row>
     <row r="387">
       <c r="A387" t="str">
-        <v>福州一村支书酒后KTV失态被停职 自称被人摆拍陷害</v>
+        <v>成都女子大力掰坏底楼门禁 只因懒得下楼开门取快递</v>
       </c>
       <c r="B387">
-        <v>2049218</v>
+        <v>55182</v>
       </c>
       <c r="C387" t="str">
-        <v>2019-12-17 20:24</v>
+        <v>2020-01-21 14:54</v>
       </c>
     </row>
     <row r="388">
       <c r="A388" t="str">
-        <v>首艘国产航母山东舰交付海军 中国进入双航母时代</v>
+        <v>男子出门丢垃圾碰见驼鹿吓破胆 慌忙躲藏疯狂给妻子电话“求救”</v>
       </c>
       <c r="B388">
-        <v>33984</v>
+        <v>13432</v>
       </c>
       <c r="C388" t="str">
-        <v>2019-12-17 20:24</v>
+        <v>2020-01-21 14:50</v>
       </c>
     </row>
     <row r="389">
       <c r="A389" t="str">
-        <v>监拍呼和浩特一男子酒后受伤就医时猥亵女大夫 被行拘15日</v>
+        <v>“医院春晚”：保卫处将伤医事件改编成情景剧 医生看后感到十分暖心</v>
       </c>
       <c r="B389">
-        <v>143083</v>
+        <v>78015</v>
       </c>
       <c r="C389" t="str">
-        <v>2019-12-17 20:15</v>
+        <v>2020-01-21 14:43</v>
       </c>
     </row>
     <row r="390">
       <c r="A390" t="str">
-        <v>20只吉娃娃“合唱”圣诞歌 1分钟齐齐整整谁也不乱蹦</v>
+        <v>流浪狗突然冲上大街向来往车辆狂吠 真相竟然这么暖</v>
       </c>
       <c r="B390">
-        <v>9623</v>
+        <v>5644</v>
       </c>
       <c r="C390" t="str">
-        <v>2019-12-17 20:13</v>
+        <v>2020-01-21 14:39</v>
       </c>
     </row>
     <row r="391">
       <c r="A391" t="str">
-        <v>港铁平安夜、除夕恢复通宵运营 圣诞新年期间增加700班次</v>
+        <v>北大免疫学教授王月丹：此次武汉新型冠状病毒与SARS病毒有相似性</v>
       </c>
       <c r="B391">
-        <v>7604</v>
+        <v>190799</v>
       </c>
       <c r="C391" t="str">
-        <v>2019-12-17 20:08</v>
+        <v>2020-01-21 14:15</v>
       </c>
     </row>
     <row r="392">
       <c r="A392" t="str">
-        <v>香港署理行政长官：纾困津贴将于农历新年前发放 约140万人受惠</v>
+        <v>乌克兰坠机调查报告：客机被两枚短程地空导弹击落 坠毁路线曝光</v>
       </c>
       <c r="B392">
-        <v>8331</v>
+        <v>10573</v>
       </c>
       <c r="C392" t="str">
-        <v>2019-12-17 20:01</v>
+        <v>2020-01-21 13:57</v>
       </c>
     </row>
     <row r="393">
       <c r="A393" t="str">
-        <v>8岁儿子太调皮父亲怒把他扔路上 结果回头找时真不见了</v>
+        <v>实拍：伤人疯牛连中3枪还满院乱窜 民警补了5枪将其击毙</v>
       </c>
       <c r="B393">
-        <v>188835</v>
+        <v>18488</v>
       </c>
       <c r="C393" t="str">
-        <v>2019-12-17 20:01</v>
+        <v>2020-01-21 13:54</v>
       </c>
     </row>
     <row r="394">
       <c r="A394" t="str">
-        <v>回顾柳传志事业生涯战友 有人进监狱后仍受其资助东山再起</v>
+        <v>超1600名留学生“下落不明” 日本一高校受罕见处分</v>
       </c>
       <c r="B394">
-        <v>12680</v>
+        <v>10213</v>
       </c>
       <c r="C394" t="str">
-        <v>2019-12-17 19:55</v>
+        <v>2020-01-21 13:45</v>
       </c>
     </row>
     <row r="395">
       <c r="A395" t="str">
-        <v>豹子与乌龟狭路相逢 乌龟使出这一招让豹子认怂</v>
+        <v>安徽宿州城管曝光穿睡衣上街市民 引质疑后删文并致歉</v>
       </c>
       <c r="B395">
-        <v>46127</v>
+        <v>79804</v>
       </c>
       <c r="C395" t="str">
-        <v>2019-12-17 19:55</v>
+        <v>2020-01-21 13:43</v>
       </c>
     </row>
     <row r="396">
       <c r="A396" t="str">
-        <v>实拍：猪太胖压塌猪圈地面坠粪池 消防员跳入粪水赤膊救猪</v>
+        <v>中国旅游大巴在新西兰高速路侧翻 中领馆：多人受伤无人死亡</v>
       </c>
       <c r="B396">
-        <v>11336</v>
+        <v>29609</v>
       </c>
       <c r="C396" t="str">
-        <v>2019-12-17 19:48</v>
+        <v>2020-01-21 13:03</v>
       </c>
     </row>
     <row r="397">
       <c r="A397" t="str">
-        <v>萌娃主动向交警“举报”亲妈 妈妈崩溃：以前她也这么干</v>
+        <v>消防车出警遭私家车挡路  拉警报喊话均无效导致消防员到场多用1倍时间</v>
       </c>
       <c r="B397">
-        <v>119736</v>
+        <v>1842045</v>
       </c>
       <c r="C397" t="str">
-        <v>2019-12-17 19:37</v>
+        <v>2020-01-21 12:37</v>
       </c>
     </row>
     <row r="398">
       <c r="A398" t="str">
-        <v>华裔男子疑因压力过大杀死全家后自杀 全镇居民震惊：他们是最好的家庭</v>
+        <v>世卫组织回应武汉肺炎疫情：无持续人传人证据 中国已在防控上取得进展</v>
       </c>
       <c r="B398">
-        <v>324999</v>
+        <v>637672</v>
       </c>
       <c r="C398" t="str">
-        <v>2019-12-17 19:20</v>
+        <v>2020-01-21 12:19</v>
       </c>
     </row>
     <row r="399">
       <c r="A399" t="str">
-        <v>直击武警“魔鬼周”：奔袭10公里“解救人质” 狙击练习趴地上几小时不动</v>
+        <v>天津航空：武汉出港发热旅客 可办理免费改期一次或全额退票</v>
       </c>
       <c r="B399">
-        <v>13069</v>
+        <v>43432</v>
       </c>
       <c r="C399" t="str">
-        <v>2019-12-17 19:14</v>
+        <v>2020-01-21 12:08</v>
       </c>
     </row>
     <row r="400">
       <c r="A400" t="str">
-        <v>陈迪说：看懂《爱尔兰人》——黑帮和工会是怎样搞到一起的？</v>
+        <v>乐视网退市成定局喊话贾跃亭对债务负责 贾跃亭方面未回应</v>
       </c>
       <c r="B400">
-        <v>50425</v>
+        <v>14633</v>
       </c>
       <c r="C400" t="str">
-        <v>2019-12-17 18:53</v>
+        <v>2020-01-21 12:00</v>
       </c>
     </row>
     <row r="401">
       <c r="A401" t="str">
-        <v>“萝卜章”开出发票金额13亿元  济南破获两起虚开增值税发票案</v>
+        <v>朱一龙鼓励武汉抗疫医生粉丝 网友接力祝福：医者仁心平安归来</v>
       </c>
       <c r="B401">
-        <v>12573</v>
+        <v>77864</v>
       </c>
       <c r="C401" t="str">
-        <v>2019-12-17 18:36</v>
+        <v>2020-01-21 11:15</v>
       </c>
     </row>
     <row r="402">
       <c r="A402" t="str">
-        <v>苹果微软等多家科技公司遭起诉 被指纵容教唆雇佣童工致死伤</v>
+        <v>香港现106例疑似武汉肺炎 官方：尚无一例确诊</v>
       </c>
       <c r="B402">
-        <v>27340</v>
+        <v>623446</v>
       </c>
       <c r="C402" t="str">
-        <v>2019-12-17 18:31</v>
+        <v>2020-01-21 11:01</v>
       </c>
     </row>
     <row r="403">
       <c r="A403" t="str">
-        <v>大学生手机不见“好心人”称帮其追回还受了伤 本以为是暖男结局惊人反转</v>
+        <v>山东青岛发现1例疑似新型冠状病毒感染的肺炎病例 患者来自武汉</v>
       </c>
       <c r="B403">
-        <v>16250</v>
+        <v>603825</v>
       </c>
       <c r="C403" t="str">
-        <v>2019-12-17 18:21</v>
+        <v>2020-01-21 10:51</v>
       </c>
     </row>
     <row r="404">
       <c r="A404" t="str">
-        <v>《全球性别差距报告》发布：男女经济差距扩大 还要257年才能实现平等</v>
+        <v>武汉卫健委通报肺炎疫情：15名医务人员确诊均已隔离治疗</v>
       </c>
       <c r="B404">
-        <v>23763</v>
+        <v>4884833</v>
       </c>
       <c r="C404" t="str">
-        <v>2019-12-17 18:12</v>
+        <v>2020-01-21 10:44</v>
       </c>
     </row>
     <row r="405">
       <c r="A405" t="str">
-        <v>自行车比赛有“神兽”乱入？一路狂奔比选手还厉害</v>
+        <v>“春节电话亭”家人篇：因没钱奶奶只住一天院 留守女童被欺负哭求妈妈回家</v>
       </c>
       <c r="B405">
-        <v>6083</v>
+        <v>684772</v>
       </c>
       <c r="C405" t="str">
-        <v>2019-12-17 18:09</v>
+        <v>2020-01-21 10:30</v>
       </c>
     </row>
     <row r="406">
       <c r="A406" t="str">
-        <v>遭恋人以结婚为由性侵 印度女子在警局门口自焚</v>
+        <v>上海确认第二例输入性新型肺炎病例 患者月初曾前往武汉</v>
       </c>
       <c r="B406">
-        <v>19693</v>
+        <v>430352</v>
       </c>
       <c r="C406" t="str">
-        <v>2019-12-17 18:00</v>
+        <v>2020-01-21 09:55</v>
       </c>
     </row>
     <row r="407">
       <c r="A407" t="str">
-        <v>河南新乡一防水工程公司突发大火 现场火光冲天浓烟滚滚</v>
+        <v>特朗普上任3周年发推表功：黑人失业率史上最低！</v>
       </c>
       <c r="B407">
-        <v>33559</v>
+        <v>9777</v>
       </c>
       <c r="C407" t="str">
-        <v>2019-12-17 17:57</v>
+        <v>2020-01-21 09:07</v>
       </c>
     </row>
     <row r="408">
       <c r="A408" t="str">
-        <v>城市被野猪包围一片狼藉 居民疯了：仿佛住在森林里</v>
+        <v>3枚火箭弹落在美国驻伊拉克大使馆附近 大使馆楼内警报声大作</v>
       </c>
       <c r="B408">
-        <v>29389</v>
+        <v>38714</v>
       </c>
       <c r="C408" t="str">
-        <v>2019-12-17 17:48</v>
+        <v>2020-01-21 08:03</v>
       </c>
     </row>
     <row r="409">
       <c r="A409" t="str">
-        <v>建大坝要水淹千年古城 土耳其把整个古清真寺拖走</v>
+        <v>故宫院长就女子开车进故宫一事致歉：副院长和保卫处长停职检查</v>
       </c>
       <c r="B409">
-        <v>8082</v>
+        <v>1878375</v>
       </c>
       <c r="C409" t="str">
-        <v>2019-12-17 17:42</v>
+        <v>2020-01-21 01:12</v>
       </c>
     </row>
     <row r="410">
       <c r="A410" t="str">
-        <v>实拍：马儿受惊闹市街头狂奔 交警抓缰绳驾马车画面魔性</v>
+        <v>苏莱曼尼继任者正式接手“圣城旅”：将对美国作出勇猛反击</v>
       </c>
       <c r="B410">
-        <v>29405</v>
+        <v>97138</v>
       </c>
       <c r="C410" t="str">
-        <v>2019-12-17 17:36</v>
+        <v>2020-01-20 23:34</v>
       </c>
     </row>
     <row r="411">
       <c r="A411" t="str">
-        <v>女子商店偷小孩后正准备跑路 眼尖店主一个动作让她计划失败</v>
+        <v>未设评比标准给鸿茅药业颁奖 中药协被民政部处罚没收20万余元</v>
       </c>
       <c r="B411">
-        <v>12640</v>
+        <v>8129</v>
       </c>
       <c r="C411" t="str">
-        <v>2019-12-17 17:32</v>
+        <v>2020-01-20 22:35</v>
       </c>
     </row>
     <row r="412">
       <c r="A412" t="str">
-        <v>等待流星雨太无聊！大学男生吹一段唢呐助兴 整个宿舍楼沸腾了</v>
+        <v>紧急呼叫丨新型肺炎治愈出院患者妻子：起初高烧不退很紧张 后逐渐好转</v>
       </c>
       <c r="B412">
-        <v>68007</v>
+        <v>1894248</v>
       </c>
       <c r="C412" t="str">
-        <v>2019-12-17 17:25</v>
+        <v>2020-01-20 22:33</v>
       </c>
     </row>
     <row r="413">
       <c r="A413" t="str">
-        <v>劳荣枝被江西检方批准逮捕 涉嫌抢劫故意杀人案</v>
+        <v>北京朝阳医院陶勇医生被砍伤 有患者称曾受其恩减免万元治疗费</v>
       </c>
       <c r="B413">
-        <v>126715</v>
+        <v>852706</v>
       </c>
       <c r="C413" t="str">
-        <v>2019-12-17 17:24</v>
+        <v>2020-01-20 22:31</v>
       </c>
     </row>
     <row r="414">
       <c r="A414" t="str">
-        <v>劳荣枝被江西检方批准逮捕 涉嫌抢劫故意杀人案</v>
+        <v>四川61岁老人做心脏手术自愿被插队5次：穿刺血管和麻醉后仍让出手术台</v>
       </c>
       <c r="B414">
-        <v>26582</v>
+        <v>38788</v>
       </c>
       <c r="C414" t="str">
-        <v>2019-12-17 17:16</v>
+        <v>2020-01-20 22:25</v>
       </c>
     </row>
     <row r="415">
       <c r="A415" t="str">
-        <v>广西一老人被撞倒肇事司逃逸 后又遭到两车连撞不幸身亡</v>
+        <v>美团二号人物王慧文“退休”： 曾创立校内网 一手打造外卖帝国</v>
       </c>
       <c r="B415">
-        <v>40895</v>
+        <v>14948</v>
       </c>
       <c r="C415" t="str">
-        <v>2019-12-17 17:12</v>
+        <v>2020-01-20 22:17</v>
       </c>
     </row>
     <row r="416">
       <c r="A416" t="str">
-        <v>浙江一货轮海上遇险进水 沉没前11名船员弃船求救</v>
+        <v>交警截停2000辆飙车党摩托车 驾驶员手动推车2公里挪向警局</v>
       </c>
       <c r="B416">
-        <v>14422</v>
+        <v>6443</v>
       </c>
       <c r="C416" t="str">
-        <v>2019-12-17 17:06</v>
+        <v>2020-01-20 22:01</v>
       </c>
     </row>
     <row r="417">
       <c r="A417" t="str">
-        <v>不法分子听了颤抖的交响乐：别想跑跑不了！公检法机关联合乐团霸气开唱</v>
+        <v>杭州一男子欠债17万想分141年还清 被法院强制执行拘留15日</v>
       </c>
       <c r="B417">
-        <v>10499</v>
+        <v>147130</v>
       </c>
       <c r="C417" t="str">
-        <v>2019-12-17 17:04</v>
+        <v>2020-01-20 21:18</v>
       </c>
     </row>
     <row r="418">
       <c r="A418" t="str">
-        <v>制止施暴反被拘当事人赵宇获福州见义勇为先进个人 将参加年度表彰大会</v>
+        <v>小兴安岭“慢火车”最低票价仅1元 零下30℃在林区间穿行410公里</v>
       </c>
       <c r="B418">
-        <v>26985</v>
+        <v>11746</v>
       </c>
       <c r="C418" t="str">
-        <v>2019-12-17 17:02</v>
+        <v>2020-01-20 21:15</v>
       </c>
     </row>
     <row r="419">
       <c r="A419" t="str">
-        <v>长春暴雪蓝色预警1.4万环卫工连夜上路清雪：10小时刚吃上一口饭</v>
+        <v>飞机刚起飞即发现机翼部分脱落 在空中随风摇摆</v>
       </c>
       <c r="B419">
-        <v>7267</v>
+        <v>14718</v>
       </c>
       <c r="C419" t="str">
-        <v>2019-12-17 16:56</v>
+        <v>2020-01-20 20:55</v>
       </c>
     </row>
     <row r="420">
       <c r="A420" t="str">
-        <v>顾客点餐意外拍到后厨 眼前一幕让人惊掉下巴</v>
+        <v>“操场埋尸案”主犯杜少平被执行死刑 被害人家属代理律师：罪有应得</v>
       </c>
       <c r="B420">
-        <v>56941</v>
+        <v>146509</v>
       </c>
       <c r="C420" t="str">
-        <v>2019-12-17 16:55</v>
+        <v>2020-01-20 20:53</v>
       </c>
     </row>
     <row r="421">
       <c r="A421" t="str">
-        <v>实拍：男子骑摩托被卷进大货车车底 从车轮中间穿过死里逃生</v>
+        <v>上海确认首例输入性新型肺炎病例 患者系武汉籍上周刚抵沪</v>
       </c>
       <c r="B421">
-        <v>5605</v>
+        <v>299290</v>
       </c>
       <c r="C421" t="str">
-        <v>2019-12-17 16:51</v>
+        <v>2020-01-20 20:51</v>
       </c>
     </row>
     <row r="422">
       <c r="A422" t="str">
-        <v>湖南耒阳一处大厦仓库起火 浓烟滚滚如同瀑布</v>
+        <v>2020年日本小姐冠军出炉：3岁开始学芭蕾 未来想当女主播</v>
       </c>
       <c r="B422">
-        <v>21329</v>
+        <v>34227</v>
       </c>
       <c r="C422" t="str">
-        <v>2019-12-17 16:50</v>
+        <v>2020-01-20 20:42</v>
       </c>
     </row>
     <row r="423">
       <c r="A423" t="str">
-        <v>男子偷可乐被反锁店内 反复撞门失败一着急竟出此下策</v>
+        <v>新型肺炎全国确诊病例增至218例 北京上海广东共计20例</v>
       </c>
       <c r="B423">
-        <v>20558</v>
+        <v>2441261</v>
       </c>
       <c r="C423" t="str">
-        <v>2019-12-17 16:48</v>
+        <v>2020-01-20 20:34</v>
       </c>
     </row>
     <row r="424">
       <c r="A424" t="str">
-        <v>巴基斯坦前总统穆沙拉夫因叛国罪被判处死刑 目前人在迪拜</v>
+        <v>网球选手向女球童要香蕉补充体力 下一秒竟提出这样无理要求</v>
       </c>
       <c r="B424">
-        <v>2093115</v>
+        <v>267221</v>
       </c>
       <c r="C424" t="str">
-        <v>2019-12-17 16:27</v>
+        <v>2020-01-20 20:25</v>
       </c>
     </row>
     <row r="425">
       <c r="A425" t="str">
-        <v>女子因教唆中国孕妇赴美生子 被判入狱10个月</v>
+        <v>回到现场丨武汉同济医护人员穿防护服接诊 金银潭医院住院部南楼整体隔离</v>
       </c>
       <c r="B425">
-        <v>6812</v>
+        <v>7656456</v>
       </c>
       <c r="C425" t="str">
-        <v>2019-12-17 16:11</v>
+        <v>2020-01-20 20:13</v>
       </c>
     </row>
     <row r="426">
       <c r="A426" t="str">
-        <v>贵州煤矿事故14人死亡2人被困 多部门救援现场曝光</v>
+        <v>万达电影2019年预亏40亿元左右：受《过春天》等电影票房拖累</v>
       </c>
       <c r="B426">
-        <v>59871</v>
+        <v>19082</v>
       </c>
       <c r="C426" t="str">
-        <v>2019-12-17 16:07</v>
+        <v>2020-01-20 20:06</v>
       </c>
     </row>
     <row r="427">
       <c r="A427" t="str">
-        <v>医院愿对儿科输液器异物事件担责 乐山市卫健委介入调查</v>
+        <v>小伙晚上开车好心搭载陌生人 接下来的一幕吓得他魂飞魄散</v>
       </c>
       <c r="B427">
-        <v>10330</v>
+        <v>131773</v>
       </c>
       <c r="C427" t="str">
-        <v>2019-12-17 16:07</v>
+        <v>2020-01-20 20:00</v>
       </c>
     </row>
     <row r="428">
       <c r="A428" t="str">
-        <v>韩国上万民众呼吁无罪释放前总统朴槿惠 铺开巨幅星条旗</v>
+        <v>女子加油站走失只会说3个字 家人赶来后他们的举动让工作人员泪目</v>
       </c>
       <c r="B428">
-        <v>23728</v>
+        <v>17933</v>
       </c>
       <c r="C428" t="str">
-        <v>2019-12-17 16:00</v>
+        <v>2020-01-20 19:53</v>
       </c>
     </row>
     <row r="429">
       <c r="A429" t="str">
-        <v>直击浙江松阳山体塌方救援现场：厂房被埋 现场已成废墟</v>
+        <v>男子收到女员工被绑架视频 报警后发现绑匪竟是这个人</v>
       </c>
       <c r="B429">
-        <v>11289</v>
+        <v>9226</v>
       </c>
       <c r="C429" t="str">
-        <v>2019-12-17 16:00</v>
+        <v>2020-01-20 19:39</v>
       </c>
     </row>
     <row r="430">
       <c r="A430" t="str">
-        <v>俄今年出口军售达近千亿元 普京：制裁之下仍在增加</v>
+        <v>返乡列车|62岁家政阿姨：还完债务 就跟同学四处旅游</v>
       </c>
       <c r="B430">
-        <v>6046</v>
+        <v>36983</v>
       </c>
       <c r="C430" t="str">
-        <v>2019-12-17 15:58</v>
+        <v>2020-01-20 19:35</v>
       </c>
     </row>
     <row r="431">
       <c r="A431" t="str">
-        <v>柳传志退休众多企业家如何评价他 俞敏洪：他是半神半人高不可攀</v>
+        <v>牙医踩着滑板给患者拔牙还录视频“昭告天下” 不久就悲剧了</v>
       </c>
       <c r="B431">
-        <v>83838</v>
+        <v>16251</v>
       </c>
       <c r="C431" t="str">
-        <v>2019-12-17 15:46</v>
+        <v>2020-01-20 19:22</v>
       </c>
     </row>
     <row r="432">
       <c r="A432" t="str">
-        <v>电影《哪吒》遗憾落选奥斯卡 中国3部影片全部出局</v>
+        <v>漳州海域外籍货轮夜间遇险 直击10名缅甸籍船员被解救上船</v>
       </c>
       <c r="B432">
-        <v>32270</v>
+        <v>17386</v>
       </c>
       <c r="C432" t="str">
-        <v>2019-12-17 15:35</v>
+        <v>2020-01-20 19:17</v>
       </c>
     </row>
     <row r="433">
       <c r="A433" t="str">
-        <v>联想创始人柳传志将退休 盘点35年创业路：曾被骗钱急出病</v>
+        <v>豹子闯进居民家中悠闲晒太阳 为抓住它全村人都拼了</v>
       </c>
       <c r="B433">
-        <v>21737</v>
+        <v>7973</v>
       </c>
       <c r="C433" t="str">
-        <v>2019-12-17 15:21</v>
+        <v>2020-01-20 19:07</v>
       </c>
     </row>
     <row r="434">
       <c r="A434" t="str">
-        <v>四国空军联合空投百余箱物资 群岛2万民众喜迎“圣诞礼物”</v>
+        <v>重庆加州花园火灾损失查明：过火面积970平方米 直接财产损失约374万</v>
       </c>
       <c r="B434">
-        <v>7812</v>
+        <v>64145</v>
       </c>
       <c r="C434" t="str">
-        <v>2019-12-17 15:09</v>
+        <v>2020-01-20 19:03</v>
       </c>
     </row>
     <row r="435">
       <c r="A435" t="str">
-        <v>天津滨海收费站仅供ETC车辆驶入 回应：非ETC车辆只能绕行</v>
+        <v>众泰汽车预亏90亿元 模仿保时捷起家曾被称为“保时泰”</v>
       </c>
       <c r="B435">
-        <v>1043910</v>
+        <v>8457</v>
       </c>
       <c r="C435" t="str">
-        <v>2019-12-17 15:03</v>
+        <v>2020-01-20 19:01</v>
       </c>
     </row>
     <row r="436">
       <c r="A436" t="str">
-        <v>5岁男孩一分钟徒手劈125块瓦片 首次尝试即创下世界纪录</v>
+        <v>上海市长：对新型冠状病毒肺炎可疑病例人员 已经采取防治措施</v>
       </c>
       <c r="B436">
-        <v>9566</v>
+        <v>22854</v>
       </c>
       <c r="C436" t="str">
-        <v>2019-12-17 14:45</v>
+        <v>2020-01-20 18:57</v>
       </c>
     </row>
     <row r="437">
       <c r="A437" t="str">
-        <v>浙江松阳山体塌方3人失联现场画面曝光 官方：天气干燥山体松动引起</v>
+        <v>儿慈会回应吴花燕受捐一事：超龄救助违规 100万捐款全部退回</v>
       </c>
       <c r="B437">
-        <v>47182</v>
+        <v>80817</v>
       </c>
       <c r="C437" t="str">
-        <v>2019-12-17 14:39</v>
+        <v>2020-01-20 18:49</v>
       </c>
     </row>
     <row r="438">
       <c r="A438" t="str">
-        <v>警察抓嫌犯朝酒店房间扫射 女子中枪后爬向警察：为什么要打我</v>
+        <v>男子开店一天卖上万个手工水饺 打拼11年靠包饺子买了一套房</v>
       </c>
       <c r="B438">
-        <v>410220</v>
+        <v>7099</v>
       </c>
       <c r="C438" t="str">
-        <v>2019-12-17 14:20</v>
+        <v>2020-01-20 18:34</v>
       </c>
     </row>
     <row r="439">
       <c r="A439" t="str">
-        <v>安徽警方悬赏20万嫌疑人尸体被发现 发现者获全额奖励</v>
+        <v>潘石屹密集注册境外股东持股公司遭质疑系转移资产 SOHO中国：不作回应</v>
       </c>
       <c r="B439">
-        <v>13433</v>
+        <v>6576</v>
       </c>
       <c r="C439" t="str">
-        <v>2019-12-17 14:12</v>
+        <v>2020-01-20 18:32</v>
       </c>
     </row>
     <row r="440">
       <c r="A440" t="str">
-        <v>津巴布韦副总统妻子涉嫌谋杀亲夫被捕：支开警卫 拔掉丈夫静脉点滴</v>
+        <v>俄军放出侦察机器人在叙利亚工作视频：士兵操作仿佛打电玩</v>
       </c>
       <c r="B440">
-        <v>11916</v>
+        <v>25804</v>
       </c>
       <c r="C440" t="str">
-        <v>2019-12-17 14:09</v>
+        <v>2020-01-20 18:28</v>
       </c>
     </row>
     <row r="441">
       <c r="A441" t="str">
-        <v>白玉兰奖将接受网剧参评 《陈情令》等热播剧得奖难度或较大</v>
+        <v>宁波一轿车春运返乡在高速上起火 民工的积蓄被烧成灰烬</v>
       </c>
       <c r="B441">
-        <v>24100</v>
+        <v>54386</v>
       </c>
       <c r="C441" t="str">
-        <v>2019-12-17 13:22</v>
+        <v>2020-01-20 18:20</v>
       </c>
     </row>
     <row r="442">
       <c r="A442" t="str">
-        <v>女孩佩戴“能量石”3个月常流鼻血 海关发现辐射超标112倍</v>
+        <v>警方通报北京朝阳医院伤医事件：嫌疑人被刑拘 4名伤者暂无生命危险</v>
       </c>
       <c r="B442">
-        <v>18305</v>
+        <v>190749</v>
       </c>
       <c r="C442" t="str">
-        <v>2019-12-17 13:17</v>
+        <v>2020-01-20 18:08</v>
       </c>
     </row>
     <row r="443">
       <c r="A443" t="str">
-        <v>紧急呼叫丨“操场埋尸案”受害人家属：牵涉人数多有些意外 望从严处理凶手</v>
+        <v>官方通报四川民警开枪击毙醉汉细节：对方点燃疑似爆炸物冲向警察</v>
       </c>
       <c r="B443">
-        <v>52403</v>
+        <v>1087488</v>
       </c>
       <c r="C443" t="str">
-        <v>2019-12-17 13:16</v>
+        <v>2020-01-20 18:05</v>
       </c>
     </row>
     <row r="444">
       <c r="A444" t="str">
-        <v>走失萌娃害怕警察哇哇大哭 民警费力哄好却遇路人“神补刀”</v>
+        <v>四川多名城管队员追逐殴打商贩  回复：视频是片段 正调查具体原因</v>
       </c>
       <c r="B444">
-        <v>134812</v>
+        <v>391611</v>
       </c>
       <c r="C444" t="str">
-        <v>2019-12-17 13:12</v>
+        <v>2020-01-20 17:43</v>
       </c>
     </row>
     <row r="445">
       <c r="A445" t="str">
-        <v>缅甸司机向中国走私4件缅甸文物 过境时太紧张被云南边检查获</v>
+        <v>陕西蒲城一汽车与火车相撞：火车偏离轨道 汽车倒扣在田里</v>
       </c>
       <c r="B445">
-        <v>12701</v>
+        <v>34582</v>
       </c>
       <c r="C445" t="str">
-        <v>2019-12-17 13:06</v>
+        <v>2020-01-20 17:41</v>
       </c>
     </row>
     <row r="446">
       <c r="A446" t="str">
-        <v>紧急呼叫｜邓世平之子将提起民事赔偿 如果可以会为父亲申请烈士</v>
+        <v>球赛观众席情侣热吻被转播抓拍 一秒变脸装不熟结果尴尬了</v>
       </c>
       <c r="B446">
-        <v>468425</v>
+        <v>1565279</v>
       </c>
       <c r="C446" t="str">
-        <v>2019-12-17 13:00</v>
+        <v>2020-01-20 17:39</v>
       </c>
     </row>
     <row r="447">
       <c r="A447" t="str">
-        <v>“黑帮教父”德尼罗怒批特朗普家族：卑鄙的人 和黑帮家族一样</v>
+        <v>轿车高速路上演惊险漂移：车头调转划出一长道黑印子 车轮掉落轮毂几乎磨光</v>
       </c>
       <c r="B447">
-        <v>42536</v>
+        <v>263161</v>
       </c>
       <c r="C447" t="str">
-        <v>2019-12-17 12:56</v>
+        <v>2020-01-20 17:39</v>
       </c>
     </row>
     <row r="448">
       <c r="A448" t="str">
-        <v>阿根廷前国脚称到中国踢球是糟糕决定：加盟申花第一天就后悔了</v>
+        <v>昔日桐庐首富朱宝良涉嫌强迫交易被批捕 涉足商贸旅游培训等行业</v>
       </c>
       <c r="B448">
-        <v>63183</v>
+        <v>7852</v>
       </c>
       <c r="C448" t="str">
-        <v>2019-12-17 12:55</v>
+        <v>2020-01-20 17:36</v>
       </c>
     </row>
     <row r="449">
       <c r="A449" t="str">
-        <v>贵州煤矿事故14人死亡2人被困 曾被批逃避监管、通风系统不完善</v>
+        <v>皮特与安妮斯顿同拿美国演员工会奖后台握手重聚 网友：有生之年</v>
       </c>
       <c r="B449">
-        <v>9953</v>
+        <v>16490</v>
       </c>
       <c r="C449" t="str">
-        <v>2019-12-17 12:38</v>
+        <v>2020-01-20 17:35</v>
       </c>
     </row>
     <row r="450">
       <c r="A450" t="str">
-        <v>小区水管往下淌血水现场触目惊心 背后原因让人哭笑不得</v>
+        <v>马来西亚退回150箱塑料垃圾 威胁还要退110箱：不做世界“垃圾场”</v>
       </c>
       <c r="B450">
-        <v>17642</v>
+        <v>8741</v>
       </c>
       <c r="C450" t="str">
-        <v>2019-12-17 12:37</v>
+        <v>2020-01-20 17:34</v>
       </c>
     </row>
     <row r="451">
       <c r="A451" t="str">
-        <v>实拍：女子酒后爬上5楼空调外机不慎踩空 消防员瞬间将其拉住</v>
+        <v>狗子趴主人肩上 认真狂舔秃头“做按摩”</v>
       </c>
       <c r="B451">
-        <v>5032</v>
+        <v>8808</v>
       </c>
       <c r="C451" t="str">
-        <v>2019-12-17 12:34</v>
+        <v>2020-01-20 17:32</v>
       </c>
     </row>
     <row r="452">
       <c r="A452" t="str">
-        <v>民主党议员要“叛变”转投共和党 特朗普：那就太好了</v>
+        <v>实拍：少年坠入冰窟冻得直发抖 消防员冰面匍匐前进惊险救援</v>
       </c>
       <c r="B452">
-        <v>12443</v>
+        <v>7015</v>
       </c>
       <c r="C452" t="str">
-        <v>2019-12-17 12:20</v>
+        <v>2020-01-20 17:31</v>
       </c>
     </row>
     <row r="453">
       <c r="A453" t="str">
-        <v>超级游艇失控撞向岸边控制室 男子惊险逃出躲过一劫</v>
+        <v>还曾有这些成员“退出”王室：王子公主多为爱“脱冠”</v>
       </c>
       <c r="B453">
-        <v>6015</v>
+        <v>62607</v>
       </c>
       <c r="C453" t="str">
-        <v>2019-12-17 12:13</v>
+        <v>2020-01-20 17:30</v>
       </c>
     </row>
     <row r="454">
       <c r="A454" t="str">
-        <v>法国大罢工进入第12天 巴黎大区道路拥堵长达630公里</v>
+        <v>暖心！消防员连续8年没回家过年 指导员悄悄买年货送其家中</v>
       </c>
       <c r="B454">
-        <v>19959</v>
+        <v>8469</v>
       </c>
       <c r="C454" t="str">
-        <v>2019-12-17 12:11</v>
+        <v>2020-01-20 17:30</v>
       </c>
     </row>
     <row r="455">
       <c r="A455" t="str">
-        <v>香港女子遭示威者包围手机被毁 警方：暴徒满口歪理 冤枉无辜</v>
+        <v>公牛狂奔向人群 警察正维持秩序不料当场悲剧了</v>
       </c>
       <c r="B455">
-        <v>105941</v>
+        <v>32727</v>
       </c>
       <c r="C455" t="str">
-        <v>2019-12-17 12:01</v>
+        <v>2020-01-20 17:21</v>
       </c>
     </row>
     <row r="456">
       <c r="A456" t="str">
-        <v>香港一天内31人被捕 学生超一半 警方：利用年轻人太卑劣</v>
+        <v>为绕行收费站20余辆车驶入农田被扎破车胎 村民：我们只在地里下</v>
       </c>
       <c r="B456">
-        <v>37258</v>
+        <v>820492</v>
       </c>
       <c r="C456" t="str">
-        <v>2019-12-17 11:59</v>
+        <v>2020-01-20 17:13</v>
       </c>
     </row>
     <row r="457">
       <c r="A457" t="str">
-        <v>贵州一煤矿发生事故14人死亡2人被困 现场拉警戒线多部门正处置</v>
+        <v>年轻男子在建高楼顶层欲轻生 摇摇欲坠时被警察从身后一把拉回</v>
       </c>
       <c r="B457">
-        <v>89374</v>
+        <v>5844</v>
       </c>
       <c r="C457" t="str">
-        <v>2019-12-17 11:52</v>
+        <v>2020-01-20 16:53</v>
       </c>
     </row>
     <row r="458">
       <c r="A458" t="str">
-        <v>6名中国男子在菲律宾涉嫌绑架强奸被捕 受害人：不给钱就打我</v>
+        <v>湖南新晃“操场埋尸案”主犯杜少平被执行死刑</v>
       </c>
       <c r="B458">
-        <v>933530</v>
+        <v>91074</v>
       </c>
       <c r="C458" t="str">
-        <v>2019-12-17 11:51</v>
+        <v>2020-01-20 16:49</v>
       </c>
     </row>
     <row r="459">
       <c r="A459" t="str">
-        <v>卡车撞着轿车开出数百米 肇事司机一脸无辜：我没看到啊</v>
+        <v>国航一新加坡飞北京航班备降广州 航司：旅客在机上出现过敏反应</v>
       </c>
       <c r="B459">
-        <v>8904</v>
+        <v>30643</v>
       </c>
       <c r="C459" t="str">
-        <v>2019-12-17 11:41</v>
+        <v>2020-01-20 16:34</v>
       </c>
     </row>
     <row r="460">
       <c r="A460" t="str">
-        <v>孙小果出狱后涉黑犯罪二审宣判 维持一审25年有期徒刑判决</v>
+        <v>航拍澳大利亚恐怖沙尘暴 如巨大山脉碾压城镇</v>
       </c>
       <c r="B460">
-        <v>164932</v>
+        <v>19129</v>
       </c>
       <c r="C460" t="str">
-        <v>2019-12-17 11:33</v>
+        <v>2020-01-20 16:25</v>
       </c>
     </row>
     <row r="461">
       <c r="A461" t="str">
-        <v>“分手战线”又拉长？欧盟寻求延长英国“脱欧”过渡期</v>
+        <v>驾驶员疲劳驾驶撞飞一排隔离栏 车身旋转450度停下直冒白烟</v>
       </c>
       <c r="B461">
-        <v>7678</v>
+        <v>7546</v>
       </c>
       <c r="C461" t="str">
-        <v>2019-12-17 11:24</v>
+        <v>2020-01-20 16:13</v>
       </c>
     </row>
     <row r="462">
       <c r="A462" t="str">
-        <v>紧急呼叫丨“操场埋尸案”受害人家属：牵涉人数多有些意外 望从严处理凶手</v>
+        <v>兄弟因敬酒问题争执弟弟当场自残 接风洗尘宴竟变成大乱斗</v>
       </c>
       <c r="B462">
-        <v>431173</v>
+        <v>12594</v>
       </c>
       <c r="C462" t="str">
-        <v>2019-12-17 11:09</v>
+        <v>2020-01-20 16:12</v>
       </c>
     </row>
     <row r="463">
       <c r="A463" t="str">
-        <v>再添“大国重器”！国内首艘1300吨自升自航式风电安装船正式交付</v>
+        <v>全程直击：嫌犯劫持8名人质扬言逐一杀害 武警强攻救人</v>
       </c>
       <c r="B463">
-        <v>17280</v>
+        <v>5818</v>
       </c>
       <c r="C463" t="str">
-        <v>2019-12-17 11:08</v>
+        <v>2020-01-20 16:00</v>
       </c>
     </row>
     <row r="464">
       <c r="A464" t="str">
-        <v>郑州火车站广场无主电梯闲置8年 政府公开道歉：确保月底前运行</v>
+        <v>命运无情！女子12年内两次抗癌成功 现在遭遇第三次</v>
       </c>
       <c r="B464">
-        <v>36241</v>
+        <v>12308</v>
       </c>
       <c r="C464" t="str">
-        <v>2019-12-17 10:56</v>
+        <v>2020-01-20 15:51</v>
       </c>
     </row>
     <row r="465">
       <c r="A465" t="str">
-        <v>持刀捅伤西安民警的在逃涉毒嫌疑人落网 案发时曾抢劫一快递车逃窜</v>
+        <v>消防员坐在消防车里打点滴 警铃一响自己拔掉针头开车就走</v>
       </c>
       <c r="B465">
-        <v>23253</v>
+        <v>4631</v>
       </c>
       <c r="C465" t="str">
-        <v>2019-12-17 10:51</v>
+        <v>2020-01-20 15:34</v>
       </c>
     </row>
     <row r="466">
       <c r="A466" t="str">
-        <v>乐山一幼童输液时家长发现管子里有虫 涉事科室：正在处置</v>
+        <v>青岛地铁下穿56米深海域 国内最长过海地铁隧道顺利贯通</v>
       </c>
       <c r="B466">
-        <v>2184963</v>
+        <v>9662</v>
       </c>
       <c r="C466" t="str">
-        <v>2019-12-17 10:45</v>
+        <v>2020-01-20 15:32</v>
       </c>
     </row>
     <row r="467">
       <c r="A467" t="str">
-        <v>一家四口驾车出行遇车祸3死1伤 肇事司机：让孩子失去家庭 深感懊悔</v>
+        <v>两艘中国远洋测量船同向归国：太平洋上短暂相遇 船员兴奋挥旗问好</v>
       </c>
       <c r="B467">
-        <v>35894</v>
+        <v>3240</v>
       </c>
       <c r="C467" t="str">
-        <v>2019-12-17 10:36</v>
+        <v>2020-01-20 15:28</v>
       </c>
     </row>
     <row r="468">
       <c r="A468" t="str">
-        <v>坐了17年冤狱获160万国家赔偿 花光后他因偷牛又被判5年</v>
+        <v>赵忠祥遗体告别仪式播放《动物世界》旁白 倪萍现场垂泪久久不愿离开</v>
       </c>
       <c r="B468">
-        <v>297146</v>
+        <v>2900402</v>
       </c>
       <c r="C468" t="str">
-        <v>2019-12-17 10:29</v>
+        <v>2020-01-20 15:22</v>
       </c>
     </row>
     <row r="469">
       <c r="A469" t="str">
-        <v>保定满城数十辆车因结冰湿滑连环追尾 目击者：跟碰碰车似的</v>
+        <v>中国境外确诊4例新型冠状病毒肺炎病例 多国机场采取防疫措施</v>
       </c>
       <c r="B469">
-        <v>36004</v>
+        <v>1083293</v>
       </c>
       <c r="C469" t="str">
-        <v>2019-12-17 10:26</v>
+        <v>2020-01-20 15:11</v>
       </c>
     </row>
     <row r="470">
       <c r="A470" t="str">
-        <v>年底复飞无望 波音从明年1月起暂停737 MAX的生产</v>
+        <v>环保组织曝光湘江长沙段被非法填土 官方：现场已清理 正在种草</v>
       </c>
       <c r="B470">
-        <v>6316</v>
+        <v>14489</v>
       </c>
       <c r="C470" t="str">
-        <v>2019-12-17 10:05</v>
+        <v>2020-01-20 14:58</v>
       </c>
     </row>
     <row r="471">
       <c r="A471" t="str">
-        <v>美联航客机出故障紧急迫降 乘客拍下惊险一幕：引擎不停冒火光</v>
+        <v>新加坡飞北京的国航CA976航班备降广州 客服：有旅客生病</v>
       </c>
       <c r="B471">
-        <v>6312</v>
+        <v>61005</v>
       </c>
       <c r="C471" t="str">
-        <v>2019-12-17 01:11</v>
+        <v>2020-01-20 14:30</v>
       </c>
     </row>
     <row r="472">
       <c r="A472" t="str">
-        <v>紧急呼叫丨专访于欢母亲苏银霞：出租名下厂房还贷 盼望丈夫儿女出狱</v>
+        <v>福建毕业生应聘上工作却被取消录用 企业：战略调整不招了</v>
       </c>
       <c r="B472">
-        <v>399507</v>
+        <v>8804</v>
       </c>
       <c r="C472" t="str">
-        <v>2019-12-17 01:04</v>
+        <v>2020-01-20 14:22</v>
       </c>
     </row>
     <row r="473">
       <c r="A473" t="str">
-        <v>韩国青瓦台：高级幕僚名下只留一套房 其余房产出售配合楼市调控</v>
+        <v>杭州一小区百位业主已自发捐款11年 给保安发上万年终奖</v>
       </c>
       <c r="B473">
-        <v>9227</v>
+        <v>14451</v>
       </c>
       <c r="C473" t="str">
-        <v>2019-12-16 23:44</v>
+        <v>2020-01-20 14:19</v>
       </c>
     </row>
     <row r="474">
       <c r="A474" t="str">
-        <v>紧急呼叫丨学生花2万学高铁乘务却当保安 老师：已安排就业 真是忘恩负义</v>
+        <v>新疆阿图什发生6次三级以上余震 致1人身亡救援还在进行中</v>
       </c>
       <c r="B474">
-        <v>380238</v>
+        <v>8585</v>
       </c>
       <c r="C474" t="str">
-        <v>2019-12-16 22:48</v>
+        <v>2020-01-20 14:17</v>
       </c>
     </row>
     <row r="475">
       <c r="A475" t="str">
-        <v>广东潮州一女乘客错过下车 殴打驾驶中的公交司机遭刑拘</v>
+        <v>宝宝对着监控给老爸隔空献吻 砰一声撞上镜头还忍痛说“爱你”</v>
       </c>
       <c r="B475">
-        <v>36134</v>
+        <v>7317</v>
       </c>
       <c r="C475" t="str">
-        <v>2019-12-16 22:41</v>
+        <v>2020-01-20 14:15</v>
       </c>
     </row>
     <row r="476">
       <c r="A476" t="str">
-        <v>女子买“廉价”面膜差点毁容：脸上像涂了502胶水怎么撕都没用</v>
+        <v>至少75名囚犯挖地道越狱 监狱官员受贿赂故意放行</v>
       </c>
       <c r="B476">
-        <v>17479</v>
+        <v>6003</v>
       </c>
       <c r="C476" t="str">
-        <v>2019-12-16 22:01</v>
+        <v>2020-01-20 14:10</v>
       </c>
     </row>
     <row r="477">
       <c r="A477" t="str">
-        <v>广州市卫斯理化工厂起火  4人疑因吸入浓烟送医</v>
+        <v>A股医药生物板块大涨 莱茵生物：若磷酸奥司他韦对武汉肺炎有效 有益销售</v>
       </c>
       <c r="B477">
-        <v>19388</v>
+        <v>41558</v>
       </c>
       <c r="C477" t="str">
-        <v>2019-12-16 21:56</v>
+        <v>2020-01-20 14:08</v>
       </c>
     </row>
     <row r="478">
       <c r="A478" t="str">
-        <v>派出所所长接到骗子电话还邀其来所里“做客” 接下来的安排简直完美</v>
+        <v>全程直击：嫌犯劫持8名人质扬言逐一杀害 武警强攻救人</v>
       </c>
       <c r="B478">
-        <v>1173218</v>
+        <v>12716</v>
       </c>
       <c r="C478" t="str">
-        <v>2019-12-16 21:29</v>
+        <v>2020-01-20 14:04</v>
       </c>
     </row>
     <row r="479">
       <c r="A479" t="str">
-        <v>安徽男子逃亡一月后尸体在蒿草丛中被发现 曾致3死被悬赏20万</v>
+        <v>猫眼娱乐因虚假宣传被罚20万 回应：合作机构合约到期所致</v>
       </c>
       <c r="B479">
-        <v>185429</v>
+        <v>4233</v>
       </c>
       <c r="C479" t="str">
-        <v>2019-12-16 21:21</v>
+        <v>2020-01-20 13:06</v>
       </c>
     </row>
     <row r="480">
       <c r="A480" t="str">
-        <v>司机被查向交警求情 稍加思索后给出的理由竟是“我们都是中国人”</v>
+        <v>韩国称出现首例武汉肺炎确诊病例 患者系35岁中国女子</v>
       </c>
       <c r="B480">
-        <v>58661</v>
+        <v>575155</v>
       </c>
       <c r="C480" t="str">
-        <v>2019-12-16 21:20</v>
+        <v>2020-01-20 13:06</v>
       </c>
     </row>
     <row r="481">
       <c r="A481" t="str">
-        <v>紧急呼叫丨湖南二胎妈妈在医院坠亡前曾报警 称院方弄错血型让自己压力很大</v>
+        <v>武汉飞澳门航班落地后乘客挨个测体温 乘客：测完才能下飞机</v>
       </c>
       <c r="B481">
-        <v>583545</v>
+        <v>8583437</v>
       </c>
       <c r="C481" t="str">
-        <v>2019-12-16 21:06</v>
+        <v>2020-01-20 12:56</v>
       </c>
     </row>
     <row r="482">
       <c r="A482" t="str">
-        <v>嚣张盗贼偷包裹还留“挑衅”纸条 失主看完目瞪口呆</v>
+        <v>哈里夫妇“引退”后女王首露面心情不错 首相：全英国都祝福他们</v>
       </c>
       <c r="B482">
-        <v>30166</v>
+        <v>9741</v>
       </c>
       <c r="C482" t="str">
-        <v>2019-12-16 20:55</v>
+        <v>2020-01-20 12:43</v>
       </c>
     </row>
     <row r="483">
       <c r="A483" t="str">
-        <v>广州一工厂起火  瞬间形成巨大火球照亮四周</v>
+        <v>居民区爆发密集枪声宛如枪战 真相令人哭笑不得</v>
       </c>
       <c r="B483">
-        <v>94523</v>
+        <v>6655</v>
       </c>
       <c r="C483" t="str">
-        <v>2019-12-16 20:53</v>
+        <v>2020-01-20 12:41</v>
       </c>
     </row>
     <row r="484">
       <c r="A484" t="str">
-        <v>重庆籍华为员工于摩洛哥失踪26日 父亲：相信儿子还活着</v>
+        <v>奔驰司机酒后驾驶连撞多车 家属：他身体不舒服</v>
       </c>
       <c r="B484">
-        <v>194889</v>
+        <v>51733</v>
       </c>
       <c r="C484" t="str">
-        <v>2019-12-16 20:41</v>
+        <v>2020-01-20 12:16</v>
       </c>
     </row>
     <row r="485">
       <c r="A485" t="str">
-        <v>女子刚拿驾照到交警队大院练车 结果悲剧了</v>
+        <v>东城区区长金晖：进一步完善文物保护机制 加强文物活化利用与安全管理</v>
       </c>
       <c r="B485">
-        <v>55647</v>
+        <v>4410</v>
       </c>
       <c r="C485" t="str">
-        <v>2019-12-16 20:18</v>
+        <v>2020-01-20 12:11</v>
       </c>
     </row>
     <row r="486">
       <c r="A486" t="str">
-        <v>我国一箭双星发射北斗导航卫星 北斗三号全球系统核心星座部署完成</v>
+        <v>北京市东城区区长：王府井周边7条胡同不停车 周边楼宇共享车位解决难题</v>
       </c>
       <c r="B486">
-        <v>27167</v>
+        <v>4090</v>
       </c>
       <c r="C486" t="str">
-        <v>2019-12-16 20:11</v>
+        <v>2020-01-20 12:04</v>
       </c>
     </row>
     <row r="487">
       <c r="A487" t="str">
-        <v>北京大雪过后 积水潭医院急诊来了11位摔伤患者</v>
+        <v>大货车高速上违规倒车：后车惨烈追尾解体燃烧 司机竟毫发无伤钻出来灭火</v>
       </c>
       <c r="B487">
-        <v>7069</v>
+        <v>75667</v>
       </c>
       <c r="C487" t="str">
-        <v>2019-12-16 19:50</v>
+        <v>2020-01-20 12:02</v>
       </c>
     </row>
     <row r="488">
       <c r="A488" t="str">
-        <v>男子恋上“傻丫头”每日被嘘寒问暖 转账45万元后对方突然失踪</v>
+        <v>主持人董浩挥泪回忆赵忠祥： 去世前一个月录节目时摔在现场仍在坚持</v>
       </c>
       <c r="B488">
-        <v>6187</v>
+        <v>72164</v>
       </c>
       <c r="C488" t="str">
-        <v>2019-12-16 19:48</v>
+        <v>2020-01-20 11:49</v>
       </c>
     </row>
     <row r="489">
       <c r="A489" t="str">
-        <v>紧急呼叫丨于欢母亲苏银霞出狱后将白发染黑：重新振作再把工厂开起来</v>
+        <v>浙江发现5例武汉来浙发热呼吸道症状患者 均已隔离治疗</v>
       </c>
       <c r="B489">
-        <v>693043</v>
+        <v>33068</v>
       </c>
       <c r="C489" t="str">
-        <v>2019-12-16 19:36</v>
+        <v>2020-01-20 11:38</v>
       </c>
     </row>
     <row r="490">
       <c r="A490" t="str">
-        <v>恶佣虐婴画面曝光：倒拎14个月大女婴甩来甩去</v>
+        <v>演员王刚悼念现场忆赵忠祥：他是我们行业里的宗师</v>
       </c>
       <c r="B490">
-        <v>26816</v>
+        <v>55936</v>
       </c>
       <c r="C490" t="str">
-        <v>2019-12-16 19:33</v>
+        <v>2020-01-20 11:35</v>
       </c>
     </row>
     <row r="491">
       <c r="A491" t="str">
-        <v>45岁男子照顾86岁痴呆母亲：这个年纪能被妈妈打 是很幸福的事情</v>
+        <v>惊险一瞬！轿车在交警面前拐了个弯 突然甩出来个孩子</v>
       </c>
       <c r="B491">
-        <v>1794321</v>
+        <v>4811</v>
       </c>
       <c r="C491" t="str">
-        <v>2019-12-16 19:26</v>
+        <v>2020-01-20 11:33</v>
       </c>
     </row>
     <row r="492">
       <c r="A492" t="str">
-        <v>印度洋葱贵如金 新人结婚竟互戴洋葱花环“炫富”</v>
+        <v>深圳另有8例“武汉病毒”观察病在隔离治疗 火车站等地已启体温监测工作</v>
       </c>
       <c r="B492">
-        <v>24026</v>
+        <v>375756</v>
       </c>
       <c r="C492" t="str">
-        <v>2019-12-16 19:25</v>
+        <v>2020-01-20 11:28</v>
       </c>
     </row>
     <row r="493">
       <c r="A493" t="str">
-        <v>河南连霍高速发生多起交通事故 5人翻越护栏逃生意外坠桥死亡</v>
+        <v>“考上公务员，媳妇任你挑选”标语被指低俗 官方：正在核实</v>
       </c>
       <c r="B493">
-        <v>231081</v>
+        <v>69279</v>
       </c>
       <c r="C493" t="str">
-        <v>2019-12-16 19:23</v>
+        <v>2020-01-20 11:20</v>
       </c>
     </row>
     <row r="494">
       <c r="A494" t="str">
-        <v>演员黄璐发文宣布与范玮离婚：我们始终相信爱情</v>
+        <v>两中国公民在马德里街头相继遇害 中使馆敦促西班牙警方缉拿凶手</v>
       </c>
       <c r="B494">
-        <v>23934</v>
+        <v>189666</v>
       </c>
       <c r="C494" t="str">
-        <v>2019-12-16 19:16</v>
+        <v>2020-01-20 10:54</v>
       </c>
     </row>
     <row r="495">
       <c r="A495" t="str">
-        <v>宜兴街头一蓝色宝马旋转漂移 警方：已介入调查</v>
+        <v>乌航坠机中150名遇难者遗体已交还家属 伊朗否认将“黑匣子”给乌克兰</v>
       </c>
       <c r="B495">
-        <v>40</v>
+        <v>5331</v>
       </c>
       <c r="C495" t="str">
-        <v>2019-12-16 19:10</v>
+        <v>2020-01-20 10:53</v>
       </c>
     </row>
     <row r="496">
       <c r="A496" t="str">
-        <v>暴躁警员多次把中学生抱起“砸”在地上 视频曝光后引众怒</v>
+        <v>赵忠祥遗体告别式用《动物世界》做配乐 倪萍、白岩松等现身八宝山</v>
       </c>
       <c r="B496">
-        <v>177874</v>
+        <v>5954631</v>
       </c>
       <c r="C496" t="str">
-        <v>2019-12-16 19:08</v>
+        <v>2020-01-20 10:53</v>
       </c>
     </row>
     <row r="497">
       <c r="A497" t="str">
-        <v>民警加班至凌晨回家 怕打扰家人睡在门外椅子上</v>
+        <v>新疆6.4级地震来袭站都站不稳 值班员立即电话喊停特快列车</v>
       </c>
       <c r="B497">
-        <v>8500</v>
+        <v>25223</v>
       </c>
       <c r="C497" t="str">
-        <v>2019-12-16 18:45</v>
+        <v>2020-01-20 10:50</v>
       </c>
     </row>
     <row r="498">
       <c r="A498" t="str">
-        <v>总有群星在天上 5分钟盘点2019去世名人</v>
+        <v>歌唱家殷秀梅回忆前辈赵忠祥：他做的贡献我们永远不会忘记</v>
       </c>
       <c r="B498">
-        <v>60</v>
+        <v>56747</v>
       </c>
       <c r="C498" t="str">
-        <v>2019-12-16 18:40</v>
+        <v>2020-01-20 10:47</v>
       </c>
     </row>
     <row r="499">
       <c r="A499" t="str">
-        <v>胡歌被指“特别流氓”？经纪公司：恶意诽谤如不删除依法追责</v>
+        <v>只能说真话的“魔力电话亭”：兵哥哥亭里狂撒狗粮 上演超浪漫“电波求婚”</v>
       </c>
       <c r="B499">
-        <v>8794</v>
+        <v>883161</v>
       </c>
       <c r="C499" t="str">
-        <v>2019-12-16 18:35</v>
+        <v>2020-01-20 10:42</v>
       </c>
     </row>
     <row r="500">
       <c r="A500" t="str">
-        <v>俄司机深夜绕巨大圣诞树玩漂移 下一秒悲剧了</v>
+        <v>河北鸡泽一村过年出新规拜年不磕头 村支书：小辈膝盖磕到肿</v>
       </c>
       <c r="B500">
-        <v>28052</v>
+        <v>111084</v>
       </c>
       <c r="C500" t="str">
-        <v>2019-12-16 18:34</v>
+        <v>2020-01-20 10:27</v>
       </c>
     </row>
     <row r="501">
       <c r="A501" t="str">
-        <v>货车头被撞烂门都没了 司机淡定开上路看呆交警</v>
+        <v>春节电话亭“武警篇”：父子相隔20年参加大阅兵 长大后我真的成了你</v>
       </c>
       <c r="B501">
-        <v>30336</v>
+        <v>1025050</v>
       </c>
       <c r="C501" t="str">
-        <v>2019-12-16 18:32</v>
+        <v>2020-01-20 10:23</v>
       </c>
     </row>
     <row r="502">
       <c r="A502" t="str">
-        <v>湖南“操场埋尸案”将于12月17日开庭 嫌疑人杜少平被控六宗罪</v>
+        <v>黄渤谈《夺冠》最大困难：假教练指导真运动员 演陈忠和我心虚</v>
       </c>
       <c r="B502">
-        <v>247376</v>
+        <v>11377</v>
       </c>
       <c r="C502" t="str">
-        <v>2019-12-16 18:14</v>
+        <v>2020-01-20 09:42</v>
       </c>
     </row>
     <row r="503">
       <c r="A503" t="str">
-        <v>河南一精神病患者持刀追砍父亲 副所长趁其讨要香烟空手夺刀</v>
+        <v>哈里王子首次回应“退出”王室：我没有其他选择</v>
       </c>
       <c r="B503">
-        <v>14883</v>
+        <v>116911</v>
       </c>
       <c r="C503" t="str">
-        <v>2019-12-16 18:08</v>
+        <v>2020-01-20 09:40</v>
       </c>
     </row>
     <row r="504">
       <c r="A504" t="str">
-        <v>中国武警官方微博上线首日晒出震撼内容 网友：终于等到你</v>
+        <v>北京深圳确诊3名“武汉肺炎”患者 武汉2日新增136例确诊患者</v>
       </c>
       <c r="B504">
-        <v>12305</v>
+        <v>478896</v>
       </c>
       <c r="C504" t="str">
-        <v>2019-12-16 17:46</v>
+        <v>2020-01-20 09:22</v>
       </c>
     </row>
     <row r="505">
       <c r="A505" t="str">
-        <v>肾疼！法国工人抗议活动中 1000台苹果手机被碾碎</v>
+        <v>新疆喀什6.4级地震有围墙倒塌 已致1人重伤多人轻伤</v>
       </c>
       <c r="B505">
-        <v>6232</v>
+        <v>8337</v>
       </c>
       <c r="C505" t="str">
-        <v>2019-12-16 17:43</v>
-      </c>
-    </row>
-    <row r="506">
-      <c r="A506" t="str">
-        <v>再次登月！NASA载人登月火箭建造完成 将送首位女宇航员上月球</v>
-      </c>
-      <c r="B506">
-        <v>103147</v>
-      </c>
-      <c r="C506" t="str">
-        <v>2019-12-16 17:29</v>
-      </c>
-    </row>
-    <row r="507">
-      <c r="A507" t="str">
-        <v>日本发生离奇命案：88岁母亲疑似杀死70岁女儿后自杀</v>
-      </c>
-      <c r="B507">
-        <v>41660</v>
-      </c>
-      <c r="C507" t="str">
-        <v>2019-12-16 17:24</v>
-      </c>
-    </row>
-    <row r="508">
-      <c r="A508" t="str">
-        <v>过ETC通道账户余额竟有2000多万？ 交通部门：是个虚拟数字</v>
-      </c>
-      <c r="B508">
-        <v>40564</v>
-      </c>
-      <c r="C508" t="str">
-        <v>2019-12-16 17:12</v>
-      </c>
-    </row>
-    <row r="509">
-      <c r="A509" t="str">
-        <v>男子高速上演“速度与激情” 车跑着跑着解体留下一路“闪电”</v>
-      </c>
-      <c r="B509">
-        <v>123327</v>
-      </c>
-      <c r="C509" t="str">
-        <v>2019-12-16 16:58</v>
-      </c>
-    </row>
-    <row r="510">
-      <c r="A510" t="str">
-        <v>徐盐铁路今日正式通车 高铁加速苏北融入长三角一体化</v>
-      </c>
-      <c r="B510">
-        <v>33386</v>
-      </c>
-      <c r="C510" t="str">
-        <v>2019-12-16 16:40</v>
-      </c>
-    </row>
-    <row r="511">
-      <c r="A511" t="str">
-        <v>“熊”出新高度！孩子翻墙进工厂上演无敌破坏 喷十几个灭火器还拆了电脑</v>
-      </c>
-      <c r="B511">
-        <v>5988</v>
-      </c>
-      <c r="C511" t="str">
-        <v>2019-12-16 16:31</v>
-      </c>
-    </row>
-    <row r="512">
-      <c r="A512" t="str">
-        <v>笨贼偷包裹一路跑一路掉 忙着捡赃物裤子掉一半都没空提</v>
-      </c>
-      <c r="B512">
-        <v>27324</v>
-      </c>
-      <c r="C512" t="str">
-        <v>2019-12-16 16:31</v>
-      </c>
-    </row>
-    <row r="513">
-      <c r="A513" t="str">
-        <v>权健公司及束昱辉等涉嫌组织传销活动案一审开庭：被告人当庭认罪</v>
-      </c>
-      <c r="B513">
-        <v>71877</v>
-      </c>
-      <c r="C513" t="str">
-        <v>2019-12-16 16:30</v>
-      </c>
-    </row>
-    <row r="514">
-      <c r="A514" t="str">
-        <v>美国警察在警车内连遭十枪身亡 警局公开监控怒斥罪行令人发指</v>
-      </c>
-      <c r="B514">
-        <v>318846</v>
-      </c>
-      <c r="C514" t="str">
-        <v>2019-12-16 16:30</v>
-      </c>
-    </row>
-    <row r="515">
-      <c r="A515" t="str">
-        <v>宜宾煤矿透水事故逃生者讲述：8名矿工死死抱住立柱没被洪水冲走</v>
-      </c>
-      <c r="B515">
-        <v>111045</v>
-      </c>
-      <c r="C515" t="str">
-        <v>2019-12-16 16:30</v>
-      </c>
-    </row>
-    <row r="516">
-      <c r="A516" t="str">
-        <v>桂林3名学生报复围殴一同学 4人均被公安警告处罚</v>
-      </c>
-      <c r="B516">
-        <v>22264</v>
-      </c>
-      <c r="C516" t="str">
-        <v>2019-12-16 16:06</v>
-      </c>
-    </row>
-    <row r="517">
-      <c r="A517" t="str">
-        <v>监拍：男子凌晨溜进派出所偷车 还没出门就被按倒在地</v>
-      </c>
-      <c r="B517">
-        <v>17143</v>
-      </c>
-      <c r="C517" t="str">
-        <v>2019-12-16 15:52</v>
-      </c>
-    </row>
-    <row r="518">
-      <c r="A518" t="str">
-        <v>云南彝良为2名老师举行遗体告别仪式 系家访途中发生车祸身亡</v>
-      </c>
-      <c r="B518">
-        <v>23725</v>
-      </c>
-      <c r="C518" t="str">
-        <v>2019-12-16 15:52</v>
-      </c>
-    </row>
-    <row r="519">
-      <c r="A519" t="str">
-        <v>女子报警称屋内有歹徒挟持其朋友 民警破门后蒙了</v>
-      </c>
-      <c r="B519">
-        <v>6616</v>
-      </c>
-      <c r="C519" t="str">
-        <v>2019-12-16 15:50</v>
-      </c>
-    </row>
-    <row r="520">
-      <c r="A520" t="str">
-        <v>银行职员“监守自盗”顺走金库现金 网上高调炫富晒赃款后被捕</v>
-      </c>
-      <c r="B520">
-        <v>9135</v>
-      </c>
-      <c r="C520" t="str">
-        <v>2019-12-16 15:50</v>
-      </c>
-    </row>
-    <row r="521">
-      <c r="A521" t="str">
-        <v>冰火两重天！冬泳爱好者零下20℃冬泳后 聚在雪地里吃火锅</v>
-      </c>
-      <c r="B521">
-        <v>62079</v>
-      </c>
-      <c r="C521" t="str">
-        <v>2019-12-16 15:49</v>
-      </c>
-    </row>
-    <row r="522">
-      <c r="A522" t="str">
-        <v>道德高尚才能移民美国？美国出新规对移民申请者道德水平提要求</v>
-      </c>
-      <c r="B522">
-        <v>16477</v>
-      </c>
-      <c r="C522" t="str">
-        <v>2019-12-16 15:45</v>
-      </c>
-    </row>
-    <row r="523">
-      <c r="A523" t="str">
-        <v>温州一女子因情感纠纷被丈夫和公公侮辱围殴 警方：已立案侦查</v>
-      </c>
-      <c r="B523">
-        <v>6139970</v>
-      </c>
-      <c r="C523" t="str">
-        <v>2019-12-16 15:27</v>
-      </c>
-    </row>
-    <row r="524">
-      <c r="A524" t="str">
-        <v>直击云南跨境运输毒品案查获现场：114.72公斤毒品混杂于香蕉中</v>
-      </c>
-      <c r="B524">
-        <v>49836</v>
-      </c>
-      <c r="C524" t="str">
-        <v>2019-12-16 15:22</v>
-      </c>
-    </row>
-    <row r="525">
-      <c r="A525" t="str">
-        <v>特朗普一天内狂发123条推特破纪录 白宫挽尊：少批评多鼓励</v>
-      </c>
-      <c r="B525">
-        <v>79054</v>
-      </c>
-      <c r="C525" t="str">
-        <v>2019-12-16 15:18</v>
-      </c>
-    </row>
-    <row r="526">
-      <c r="A526" t="str">
-        <v>江苏茅山上空现罕见美景：云海翻腾 如梦似幻胜“仙宫”</v>
-      </c>
-      <c r="B526">
-        <v>6224</v>
-      </c>
-      <c r="C526" t="str">
-        <v>2019-12-16 14:51</v>
-      </c>
-    </row>
-    <row r="527">
-      <c r="A527" t="str">
-        <v>为悼念火山喷发遇难者 新西兰全国默哀一分钟</v>
-      </c>
-      <c r="B527">
-        <v>5446</v>
-      </c>
-      <c r="C527" t="str">
-        <v>2019-12-16 14:44</v>
-      </c>
-    </row>
-    <row r="528">
-      <c r="A528" t="str">
-        <v>疑因拍摄黑衣人暴行 香港市民遭包围及毁坏手机</v>
-      </c>
-      <c r="B528">
-        <v>7829</v>
-      </c>
-      <c r="C528" t="str">
-        <v>2019-12-16 14:39</v>
-      </c>
-    </row>
-    <row r="529">
-      <c r="A529" t="str">
-        <v>杭州救人牺牲小伙追悼会在郓城举行 救护车载来母亲见儿最后一面</v>
-      </c>
-      <c r="B529">
-        <v>77002</v>
-      </c>
-      <c r="C529" t="str">
-        <v>2019-12-16 14:39</v>
-      </c>
-    </row>
-    <row r="530">
-      <c r="A530" t="str">
-        <v>航拍成贵高铁云雾中穿梭：飞跃468座桥梁 穿过183座隧道</v>
-      </c>
-      <c r="B530">
-        <v>242334</v>
-      </c>
-      <c r="C530" t="str">
-        <v>2019-12-16 14:29</v>
-      </c>
-    </row>
-    <row r="531">
-      <c r="A531" t="str">
-        <v>沈阳棋盘山大火肇事者被判6年 造成直接经济损失2460.5万元</v>
-      </c>
-      <c r="B531">
-        <v>12112</v>
-      </c>
-      <c r="C531" t="str">
-        <v>2019-12-16 14:24</v>
-      </c>
-    </row>
-    <row r="532">
-      <c r="A532" t="str">
-        <v>香港添马公园举行反暴力集会：警民一心 止暴制乱</v>
-      </c>
-      <c r="B532">
-        <v>30937</v>
-      </c>
-      <c r="C532" t="str">
-        <v>2019-12-16 14:12</v>
-      </c>
-    </row>
-    <row r="533">
-      <c r="A533" t="str">
-        <v>肥棕熊冲上马路矫健爬上汽车 下一秒就现场翻车</v>
-      </c>
-      <c r="B533">
-        <v>9735</v>
-      </c>
-      <c r="C533" t="str">
-        <v>2019-12-16 14:11</v>
-      </c>
-    </row>
-    <row r="534">
-      <c r="A534" t="str">
-        <v>女生在宿舍内吃火锅被“顺网线”抓到 监督人员到时人锅俱全</v>
-      </c>
-      <c r="B534">
-        <v>17897</v>
-      </c>
-      <c r="C534" t="str">
-        <v>2019-12-16 13:58</v>
-      </c>
-    </row>
-    <row r="535">
-      <c r="A535" t="str">
-        <v>贵州铜仁蓝天救援队两只搜救犬被毒死 曾多次协助执行救援任务</v>
-      </c>
-      <c r="B535">
-        <v>109176</v>
-      </c>
-      <c r="C535" t="str">
-        <v>2019-12-16 13:48</v>
-      </c>
-    </row>
-    <row r="536">
-      <c r="A536" t="str">
-        <v>海南海口一只一米多长的鳄鱼惊现路面 直击众人协力将其控制</v>
-      </c>
-      <c r="B536">
-        <v>4626</v>
-      </c>
-      <c r="C536" t="str">
-        <v>2019-12-16 13:45</v>
-      </c>
-    </row>
-    <row r="537">
-      <c r="A537" t="str">
-        <v>黑客黑进房屋监控系统 还与屋主嚣张对话：我什么都看得到</v>
-      </c>
-      <c r="B537">
-        <v>27683</v>
-      </c>
-      <c r="C537" t="str">
-        <v>2019-12-16 13:37</v>
-      </c>
-    </row>
-    <row r="538">
-      <c r="A538" t="str">
-        <v>史上耗时最长联合国气候大会：延期2天仍无成果</v>
-      </c>
-      <c r="B538">
-        <v>5853</v>
-      </c>
-      <c r="C538" t="str">
-        <v>2019-12-16 13:32</v>
-      </c>
-    </row>
-    <row r="539">
-      <c r="A539" t="str">
-        <v>西藏日喀则出现暴雪天气 学生在半米深雪道中穿行</v>
-      </c>
-      <c r="B539">
-        <v>6625</v>
-      </c>
-      <c r="C539" t="str">
-        <v>2019-12-16 12:58</v>
-      </c>
-    </row>
-    <row r="540">
-      <c r="A540" t="str">
-        <v>紧急呼叫丨郑州火车站电梯闲置8年 城管：没有一个单位承认建设和养护电梯</v>
-      </c>
-      <c r="B540">
-        <v>2019</v>
-      </c>
-      <c r="C540" t="str">
-        <v>2019-12-16 12:45</v>
-      </c>
-    </row>
-    <row r="541">
-      <c r="A541" t="str">
-        <v>全国百大打车难地点出炉 天津济南成入榜数量最多城市</v>
-      </c>
-      <c r="B541">
-        <v>18017</v>
-      </c>
-      <c r="C541" t="str">
-        <v>2019-12-16 12:34</v>
-      </c>
-    </row>
-    <row r="542">
-      <c r="A542" t="str">
-        <v>紧急呼叫丨郑州火车站电梯闲置8年 城管：没有一个单位承认建设和养护电梯</v>
-      </c>
-      <c r="B542">
-        <v>90807</v>
-      </c>
-      <c r="C542" t="str">
-        <v>2019-12-16 12:32</v>
-      </c>
-    </row>
-    <row r="543">
-      <c r="A543" t="str">
-        <v>连日暴雨河水卷起千层“垃圾浪” 成吨塑料瓶被巨浪冲向岸边</v>
-      </c>
-      <c r="B543">
-        <v>35548</v>
-      </c>
-      <c r="C543" t="str">
-        <v>2019-12-16 12:25</v>
-      </c>
-    </row>
-    <row r="544">
-      <c r="A544" t="str">
-        <v>宜兴街头一蓝色宝马旋转漂移 警方：已介入调查</v>
-      </c>
-      <c r="B544">
-        <v>7380</v>
-      </c>
-      <c r="C544" t="str">
-        <v>2019-12-16 12:24</v>
-      </c>
-    </row>
-    <row r="545">
-      <c r="A545" t="str">
-        <v>著名配音演员陆建艺去世 曾为《罗马假日》格里高利·派克配音</v>
-      </c>
-      <c r="B545">
-        <v>25029</v>
-      </c>
-      <c r="C545" t="str">
-        <v>2019-12-16 12:24</v>
-      </c>
-    </row>
-    <row r="546">
-      <c r="A546" t="str">
-        <v>撒贝宁升级当爸爸 加拿大籍妻子李白产下龙凤胎</v>
-      </c>
-      <c r="B546">
-        <v>319088</v>
-      </c>
-      <c r="C546" t="str">
-        <v>2019-12-16 12:16</v>
-      </c>
-    </row>
-    <row r="547">
-      <c r="A547" t="str">
-        <v>直击闭馆中的故宫雪景：银装素裹白瓦红墙 美到让人感觉“穿越”</v>
-      </c>
-      <c r="B547">
-        <v>42759</v>
-      </c>
-      <c r="C547" t="str">
-        <v>2019-12-16 12:06</v>
-      </c>
-    </row>
-    <row r="548">
-      <c r="A548" t="str">
-        <v>奇观！成千上万只鸟儿结队南下 密集如织网令人惊叹</v>
-      </c>
-      <c r="B548">
-        <v>14294</v>
-      </c>
-      <c r="C548" t="str">
-        <v>2019-12-16 12:03</v>
-      </c>
-    </row>
-    <row r="549">
-      <c r="A549" t="str">
-        <v>直击闭馆中的故宫雪景：银装素裹白瓦红墙 美到让人感觉“穿越”</v>
-      </c>
-      <c r="B549">
-        <v>66655</v>
-      </c>
-      <c r="C549" t="str">
-        <v>2019-12-16 11:42</v>
-      </c>
-    </row>
-    <row r="550">
-      <c r="A550" t="str">
-        <v>男子四处炫耀包里有1亿现金 被人盯上尾随入室遭抢劫杀害</v>
-      </c>
-      <c r="B550">
-        <v>318996</v>
-      </c>
-      <c r="C550" t="str">
-        <v>2019-12-16 11:33</v>
-      </c>
-    </row>
-    <row r="551">
-      <c r="A551" t="str">
-        <v>“锡剧皇后”叶兆言之母姚澄逝世 留下最美的“姚派”唱腔</v>
-      </c>
-      <c r="B551">
-        <v>5622</v>
-      </c>
-      <c r="C551" t="str">
-        <v>2019-12-16 11:29</v>
-      </c>
-    </row>
-    <row r="552">
-      <c r="A552" t="str">
-        <v>厦门塌陷事故原因查明：临时格构立柱承重超负荷 局部顶板瞬间坍塌</v>
-      </c>
-      <c r="B552">
-        <v>516141</v>
-      </c>
-      <c r="C552" t="str">
-        <v>2019-12-16 11:04</v>
-      </c>
-    </row>
-    <row r="553">
-      <c r="A553" t="str">
-        <v>警方陆续公布新西兰火山喷发遇难者名单 背后故事令人心碎</v>
-      </c>
-      <c r="B553">
-        <v>31390</v>
-      </c>
-      <c r="C553" t="str">
-        <v>2019-12-16 11:03</v>
-      </c>
-    </row>
-    <row r="554">
-      <c r="A554" t="str">
-        <v>北京大雪：游人冒雪看天安门升旗仪式 上景山看故宫雪景</v>
-      </c>
-      <c r="B554">
-        <v>24986</v>
-      </c>
-      <c r="C554" t="str">
-        <v>2019-12-16 10:50</v>
-      </c>
-    </row>
-    <row r="555">
-      <c r="A555" t="str">
-        <v>澳洲海滩近百人将头埋入沙中场景奇特 背后原因令人深思</v>
-      </c>
-      <c r="B555">
-        <v>7206</v>
-      </c>
-      <c r="C555" t="str">
-        <v>2019-12-16 10:48</v>
-      </c>
-    </row>
-    <row r="556">
-      <c r="A556" t="str">
-        <v>受降雪和大雾影响 北京周边高速数十条封闭</v>
-      </c>
-      <c r="B556">
-        <v>8822</v>
-      </c>
-      <c r="C556" t="str">
-        <v>2019-12-16 10:43</v>
-      </c>
-    </row>
-    <row r="557">
-      <c r="A557" t="str">
-        <v>特朗普或将三分之一美军撤出阿富汗 美媒：对塔利班单方面让步</v>
-      </c>
-      <c r="B557">
-        <v>22818</v>
-      </c>
-      <c r="C557" t="str">
-        <v>2019-12-16 10:04</v>
-      </c>
-    </row>
-    <row r="558">
-      <c r="A558" t="str">
-        <v>安倍晋三出席奥运主场馆竣工仪式：向世界展现日本力量</v>
-      </c>
-      <c r="B558">
-        <v>15683</v>
-      </c>
-      <c r="C558" t="str">
-        <v>2019-12-16 09:55</v>
-      </c>
-    </row>
-    <row r="559">
-      <c r="A559" t="str">
-        <v>澳门巴黎人上演《梁祝》快闪 演绎浪漫献礼澳门回归20周年</v>
-      </c>
-      <c r="B559">
-        <v>93855</v>
-      </c>
-      <c r="C559" t="str">
-        <v>2019-12-16 09:07</v>
-      </c>
-    </row>
-    <row r="560">
-      <c r="A560" t="str">
-        <v>北京迎来大雪大部分地区积雪深度不超过2厘米 网友：希望下一整天</v>
-      </c>
-      <c r="B560">
-        <v>78495</v>
-      </c>
-      <c r="C560" t="str">
-        <v>2019-12-16 09:02</v>
-      </c>
-    </row>
-    <row r="561">
-      <c r="A561" t="str">
-        <v>湖南男子为捡无人机坠下百米山崖 救援人员用3小时将他抬上山脊</v>
-      </c>
-      <c r="B561">
-        <v>13281</v>
-      </c>
-      <c r="C561" t="str">
-        <v>2019-12-16 08:37</v>
+        <v>2020-01-20 09:20</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:C561"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:C505"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/harvest/tencent/新京报-阅读量数据统计.xlsx
+++ b/harvest/tencent/新京报-阅读量数据统计.xlsx
@@ -375,7 +375,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C505"/>
+  <dimension ref="A1:C632"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -393,5551 +393,6948 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>青岛地铁回应“肺炎患者确诊前坐遍地铁”事件：他是为了回家 排除故意嫌疑</v>
+        <v>热点丨吉林女子疫情期间抓伤警察被判8个月 法院从受理到宣判用时3小时</v>
       </c>
       <c r="B2">
-        <v>70277</v>
+        <v>270387</v>
       </c>
       <c r="C2" t="str">
-        <v>2020-01-26 23:53</v>
+        <v>2020-02-16 23:21</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>妻子做护士丈夫建医院齐上阵抗击疫情 每天在微信群互相加油</v>
+        <v>紧急呼叫丨法医刘良：3人完成2例病理解剖 病理报告最快需10日</v>
       </c>
       <c r="B3">
-        <v>13046</v>
+        <v>10044601</v>
       </c>
       <c r="C3" t="str">
-        <v>2020-01-26 23:50</v>
+        <v>2020-02-16 23:18</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>各地防疫条幅大赛河南获胜 网友：像泥石流般无情且迅速</v>
+        <v>热点丨武汉病房的约定：护士和患者互邀去趵突泉和看樱花</v>
       </c>
       <c r="B4">
-        <v>2008769</v>
+        <v>55233</v>
       </c>
       <c r="C4" t="str">
-        <v>2020-01-26 23:35</v>
+        <v>2020-02-16 22:50</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>强行带疑似感染新冠病毒的孩子离境 武汉父母在马来西亚被捕</v>
+        <v>有料丨4人因太闲打牌三次被抓 “将功补过”拉上大音响秒变宣传员画风搞笑</v>
       </c>
       <c r="B5">
-        <v>7785068</v>
+        <v>3745524</v>
       </c>
       <c r="C5" t="str">
-        <v>2020-01-26 22:38</v>
+        <v>2020-02-16 21:53</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>山东多地村庄用石头封住村道 交通运输部回应：应急通道不能断</v>
+        <v>热点丨江西首例涉疫情寻衅滋事案宣判：男子驾车多次冲撞宣传车被判11个月</v>
       </c>
       <c r="B6">
-        <v>453537</v>
+        <v>758320</v>
       </c>
       <c r="C6" t="str">
-        <v>2020-01-26 22:36</v>
+        <v>2020-02-16 20:59</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v>火神山医院深夜铺设HDPE防渗膜 2.5万平米地块穿上“防护衣”</v>
+        <v>有料丨“Tony老师”组团上门给民警理发：“生意”火爆已排期到10天后</v>
       </c>
       <c r="B7">
-        <v>40730</v>
+        <v>174259</v>
       </c>
       <c r="C7" t="str">
-        <v>2020-01-26 21:28</v>
+        <v>2020-02-16 20:54</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v>为避免人员聚集感染病毒 社区书记带音响喊话麻将馆：打完这一把 马上散！</v>
+        <v>钟南山称峰值应在二月中下旬 交通行业连续推出通勤防疫举措</v>
       </c>
       <c r="B8">
-        <v>1358620</v>
+        <v>587556</v>
       </c>
       <c r="C8" t="str">
-        <v>2020-01-26 21:10</v>
+        <v>2020-02-16 20:19</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="str">
-        <v>“赞美师娘”论文处理结果公布：主编被停职 期刊停刊整顿</v>
+        <v>热点丨超密切接触！日本举办万人裸祭引发疫情担忧</v>
       </c>
       <c r="B9">
-        <v>9009</v>
+        <v>17744860</v>
       </c>
       <c r="C9" t="str">
-        <v>2020-01-26 21:06</v>
+        <v>2020-02-16 19:58</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="str">
-        <v>安徽淮北贵州都匀同日发布通告：禁止湖北牌照车辆入境</v>
+        <v>有料丨工地停工男子身无分文蜗居破工棚 民警买票送回家：疫情完了带老乡来</v>
       </c>
       <c r="B10">
-        <v>19725</v>
+        <v>38984</v>
       </c>
       <c r="C10" t="str">
-        <v>2020-01-26 20:52</v>
+        <v>2020-02-16 19:17</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="str">
-        <v>故意隐瞒4名家属从武汉返乡 浙江一村支书经群众举报被撤职</v>
+        <v>热点 | 奋战4天4夜武汉又建一所方舱医院：负责人风雪中流泪向工人致谢</v>
       </c>
       <c r="B11">
-        <v>101724</v>
+        <v>68911</v>
       </c>
       <c r="C11" t="str">
-        <v>2020-01-26 20:52</v>
+        <v>2020-02-16 19:04</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="str">
-        <v>实探隔离眼罩生产厂：日产最高八千套 可防飞溅液体</v>
+        <v>热点丨沈阳大风吹倒巨型广告牌两车被砸 目击者：有老人从空隙中爬出</v>
       </c>
       <c r="B12">
-        <v>15771</v>
+        <v>77251</v>
       </c>
       <c r="C12" t="str">
-        <v>2020-01-26 20:33</v>
+        <v>2020-02-16 18:34</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="str">
-        <v>湖北籍游客入住宾馆遭拒？云南指定专门宾馆统一接待</v>
+        <v>热点 | 武汉方舱医院贴出“信心树”：有人想回家 有人想吃烤全羊</v>
       </c>
       <c r="B13">
-        <v>13692</v>
+        <v>18685</v>
       </c>
       <c r="C13" t="str">
-        <v>2020-01-26 20:31</v>
+        <v>2020-02-16 18:29</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="str">
-        <v>专家谈新冠肺炎治疗：部分抗艾滋病药物及中药对治疗有效</v>
+        <v>热点丨晋江男子参加宴席致3710人被隔离 已有3697人解除隔离</v>
       </c>
       <c r="B14">
-        <v>202877</v>
+        <v>278389</v>
       </c>
       <c r="C14" t="str">
-        <v>2020-01-26 20:18</v>
+        <v>2020-02-16 17:40</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="str">
-        <v>白岩松回应网传“将对话钟南山”：哪舍得再去打扰他 过几天吧</v>
+        <v>热点丨上海高院：因疫情防控不能履行合同 可认定为不可抗力</v>
       </c>
       <c r="B15">
-        <v>130700</v>
+        <v>13022</v>
       </c>
       <c r="C15" t="str">
-        <v>2020-01-26 20:11</v>
+        <v>2020-02-16 17:37</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="str">
-        <v>央视节目白岩松将再次连线钟南山？ 记者证实为假消息</v>
+        <v>热点丨蚌埠民警工作48小时累倒在抗疫一线：等忙完了再去好好做个检查</v>
       </c>
       <c r="B16">
-        <v>815727</v>
+        <v>16112</v>
       </c>
       <c r="C16" t="str">
-        <v>2020-01-26 19:44</v>
+        <v>2020-02-16 17:35</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="str">
-        <v>国家卫健委：新型冠状病毒潜伏期具有传染性 尚未发现病毒变异证据</v>
+        <v>热点丨新冠肺炎患者逼近400人 日本多地数十万人参加马拉松</v>
       </c>
       <c r="B17">
-        <v>18556</v>
+        <v>65639</v>
       </c>
       <c r="C17" t="str">
-        <v>2020-01-26 19:42</v>
+        <v>2020-02-16 17:16</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="str">
-        <v>成都宜昌等22城市要求商品房售楼处关门 以应对新冠肺炎疫情</v>
+        <v>热点丨上海高院：因疫情引发隐私权名誉权纠纷 把握好公共利益和人格权平衡</v>
       </c>
       <c r="B18">
-        <v>10545</v>
+        <v>7926</v>
       </c>
       <c r="C18" t="str">
-        <v>2020-01-26 19:21</v>
+        <v>2020-02-16 16:41</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="str">
-        <v>湖南一药店口罩卖到40元一个被投诉 店铺：每个进价就要30元</v>
+        <v>热点丨上海高院：医护人员在疫情防控中因履职而感染定为工伤</v>
       </c>
       <c r="B19">
-        <v>1417761</v>
+        <v>33197</v>
       </c>
       <c r="C19" t="str">
-        <v>2020-01-26 19:19</v>
+        <v>2020-02-16 16:31</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="str">
-        <v>上海宣布停运所有省际班车 违反者将被处理</v>
+        <v>热点丨 四川男子硬闯小区脚踹防疫员“好威风” 妻子当场一顿“家法”管教</v>
       </c>
       <c r="B20">
-        <v>66894</v>
+        <v>4410619</v>
       </c>
       <c r="C20" t="str">
-        <v>2020-01-26 19:12</v>
+        <v>2020-02-16 16:23</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="str">
-        <v>吉林市首批援鄂医疗队整装待发 护士长：儿子说妈妈你放心去吧</v>
+        <v>热点丨山西一男子网上谎称有口罩卖 买家付3万元收到3包卫生纸</v>
       </c>
       <c r="B21">
-        <v>25454</v>
+        <v>78929</v>
       </c>
       <c r="C21" t="str">
-        <v>2020-01-26 18:38</v>
+        <v>2020-02-16 16:13</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="str">
-        <v>河南一退伍老兵除夕挖蔬菜 驱车400公里送到火神山医院工地</v>
+        <v>热点丨回家走捷径用指甲钳剪断隔离网 黑龙江新婚小夫妻被行拘5日</v>
       </c>
       <c r="B22">
-        <v>205240</v>
+        <v>31381</v>
       </c>
       <c r="C22" t="str">
-        <v>2020-01-26 18:29</v>
+        <v>2020-02-16 15:58</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="str">
-        <v>又有数百趟列车因疫情停运  涉我国华中华东西南西北多地</v>
+        <v>热点丨湖南乡村防疫点阻拦其他村民做核酸检测 两人被警方拘留</v>
       </c>
       <c r="B23">
-        <v>14800</v>
+        <v>56009</v>
       </c>
       <c r="C23" t="str">
-        <v>2020-01-26 18:29</v>
+        <v>2020-02-16 15:53</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="str">
-        <v>安倍紧急召开发布会：日本计划包机从武汉撤侨</v>
+        <v>热点丨上海鼓励律所为受疫情影响严重的中小企业提供免费法律顾问服务</v>
       </c>
       <c r="B24">
-        <v>60535</v>
+        <v>12819</v>
       </c>
       <c r="C24" t="str">
-        <v>2020-01-26 18:24</v>
+        <v>2020-02-16 15:51</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="str">
-        <v>卫健委副主任回答是否存在瞒报新冠肺炎感染人数：所有信息都有公示</v>
+        <v>热点丨别人隔离养膘她在“减肥”  护士长进隔离病房20天瘦了9斤</v>
       </c>
       <c r="B25">
-        <v>832250</v>
+        <v>63075</v>
       </c>
       <c r="C25" t="str">
-        <v>2020-01-26 18:15</v>
+        <v>2020-02-16 15:47</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="str">
-        <v>紧急呼叫 | 武汉火神山医院工人每天10小时赶工 瞒着母亲：在家待着呢</v>
+        <v>热点丨武汉病毒研究所：黄燕玲未感染新冠肺炎 零号病人传闻不实</v>
       </c>
       <c r="B26">
-        <v>2179237</v>
+        <v>4043588</v>
       </c>
       <c r="C26" t="str">
-        <v>2020-01-26 17:41</v>
+        <v>2020-02-16 15:47</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="str">
-        <v>全国多地要求公共场合必须戴口罩 广东：违者将被处罚</v>
+        <v>热点｜福州一网友微信群高价卖“协和医院”口罩 院方：无该款口罩 已报警</v>
       </c>
       <c r="B27">
-        <v>666766</v>
+        <v>27437</v>
       </c>
       <c r="C27" t="str">
-        <v>2020-01-26 17:02</v>
+        <v>2020-02-16 15:38</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="str">
-        <v>工信部副部长：湖北每天需求10万件医用防护服 国内产能供不应求</v>
+        <v>热点丨上海卫健委：开通专线为武汉一线医务人员提供心理援助服务</v>
       </c>
       <c r="B28">
-        <v>74655</v>
+        <v>8320</v>
       </c>
       <c r="C28" t="str">
-        <v>2020-01-26 16:54</v>
+        <v>2020-02-16 15:31</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="str">
-        <v>豫鄂交界！河南唐河60小时检查9000辆车 全县商超酒店均停业</v>
+        <v>热点丨专家呼吁别再过度消杀 无人机消毒屋马路喷洒都不靠谱</v>
       </c>
       <c r="B29">
-        <v>527649</v>
+        <v>159672</v>
       </c>
       <c r="C29" t="str">
-        <v>2020-01-26 16:45</v>
+        <v>2020-02-16 14:48</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="str">
-        <v>河南首批医疗队驰援武汉 男子送别亲属现场痛哭大喊“我爱你”</v>
+        <v>有料｜担心女友被查 男子将女友藏后备箱上演大变活人</v>
       </c>
       <c r="B30">
-        <v>2413795</v>
+        <v>13916</v>
       </c>
       <c r="C30" t="str">
-        <v>2020-01-26 16:27</v>
+        <v>2020-02-16 14:38</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="str">
-        <v>防范新型冠状病毒肺炎 天津长春西安三亚等多地暂停省际交通恢复时间待定</v>
+        <v>热点丨三大美国航空运营商决定延期恢复运营波音737 MAX</v>
       </c>
       <c r="B31">
-        <v>61038</v>
+        <v>8100</v>
       </c>
       <c r="C31" t="str">
-        <v>2020-01-26 16:02</v>
+        <v>2020-02-16 14:28</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="str">
-        <v>陆军军医大学医疗队到武汉后先培训再上岗 2次考核不合格退回原单位</v>
+        <v>热点丨石狮一中一女生遭数人殴打 大喊：打到我心脏了 好痛</v>
       </c>
       <c r="B32">
-        <v>203272</v>
+        <v>46254</v>
       </c>
       <c r="C32" t="str">
-        <v>2020-01-26 15:59</v>
+        <v>2020-02-16 13:58</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="str">
-        <v>史上最冷清春节旅游季：曾经热门景区人山人海 如今合唱“凉凉”</v>
+        <v>热点丨宁都一轿车追尾货车遭拖行3公里 其他司机猛摁喇叭提醒</v>
       </c>
       <c r="B33">
-        <v>31018</v>
+        <v>58816</v>
       </c>
       <c r="C33" t="str">
-        <v>2020-01-26 15:57</v>
+        <v>2020-02-16 13:57</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="str">
-        <v>航拍武汉雷神山医院施工现场：停车场上建医院 比火神山医院更大</v>
+        <v>有料｜大雪封路牧民被困 民警迎风骑马奔走45公里送食物</v>
       </c>
       <c r="B34">
-        <v>226249</v>
+        <v>8118</v>
       </c>
       <c r="C34" t="str">
-        <v>2020-01-26 15:54</v>
+        <v>2020-02-16 13:32</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="str">
-        <v>汕头交通管制通告发布两小时后撤回 不再限制车辆人员进出</v>
+        <v>热点｜华中科技大学段正澄院士病逝 曾研发国际首台全身伽马刀惠及百万人</v>
       </c>
       <c r="B35">
-        <v>421499</v>
+        <v>2019072</v>
       </c>
       <c r="C35" t="str">
-        <v>2020-01-26 15:54</v>
+        <v>2020-02-16 12:44</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="str">
-        <v>林郑月娥致函国务院：希望内地协助供应口罩</v>
+        <v>热点丨“钻石公主”号确诊病例增至355人 香港将包机接回船上香港居民</v>
       </c>
       <c r="B36">
-        <v>155264</v>
+        <v>25830</v>
       </c>
       <c r="C36" t="str">
-        <v>2020-01-26 15:44</v>
+        <v>2020-02-16 11:55</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="str">
-        <v>北京6家医院组建国家援鄂抗疫医疗队 121人飞赴武汉</v>
+        <v>热点丨“威士特丹”号邮轮现首例新冠肺炎！83岁美籍乘客入境大马后确诊</v>
       </c>
       <c r="B37">
-        <v>15356</v>
+        <v>314745</v>
       </c>
       <c r="C37" t="str">
-        <v>2020-01-26 15:43</v>
+        <v>2020-02-16 10:52</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="str">
-        <v>河南信阳设卡劝返湖北车辆和人员 有男子编造“封城”谣言被行拘</v>
+        <v>热点丨伊拉克首都绿区再遭炮击：多枚火箭弹落在美国使馆附近</v>
       </c>
       <c r="B38">
-        <v>168841</v>
+        <v>46055</v>
       </c>
       <c r="C38" t="str">
-        <v>2020-01-26 15:22</v>
+        <v>2020-02-16 10:11</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="str">
-        <v>中南医院专家桂希恩受访：预计正月十五前疫情可能现“拐点”</v>
+        <v>紧急呼叫丨揭秘河南硬核抗疫广播：喊话的“老村长”其实是个年轻人</v>
       </c>
       <c r="B39">
-        <v>51510</v>
+        <v>1398279</v>
       </c>
       <c r="C39" t="str">
-        <v>2020-01-26 15:18</v>
+        <v>2020-02-16 00:40</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="str">
-        <v>海南多人抢购大米有店主加价出售 官方：货源充足</v>
+        <v>紧急呼叫丨病理专家刘良：尽快对新冠肺炎死者做病理解剖 早做可多救人</v>
       </c>
       <c r="B40">
-        <v>47877</v>
+        <v>2698273</v>
       </c>
       <c r="C40" t="str">
-        <v>2020-01-26 15:15</v>
+        <v>2020-02-16 00:21</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="str">
-        <v>实探武汉雷神山医院建设现场：施工队凌晨进场 挖掘机集结待命</v>
+        <v>热点 | 疫情下的环卫工人：擦果皮箱痰迹时很挣扎 但那是我的责任</v>
       </c>
       <c r="B41">
-        <v>2168463</v>
+        <v>245072</v>
       </c>
       <c r="C41" t="str">
-        <v>2020-01-26 14:59</v>
+        <v>2020-02-15 23:04</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="str">
-        <v>三部门下发禁止野生动物交易公告 违法者将移送公安机关</v>
+        <v>热点丨“钻石公主”号再添67例确诊 日政府开展新一轮筛查致乘客下船推迟</v>
       </c>
       <c r="B42">
-        <v>797963</v>
+        <v>138341</v>
       </c>
       <c r="C42" t="str">
-        <v>2020-01-26 14:58</v>
+        <v>2020-02-15 22:51</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="str">
-        <v>济南岳阳两地干部因防控新冠肺炎不力 被当地通报批评</v>
+        <v>有料丨大学生跟随父亲参与雷神山医院建设 被奖励1万元想全部捐出</v>
       </c>
       <c r="B43">
-        <v>29093</v>
+        <v>59225</v>
       </c>
       <c r="C43" t="str">
-        <v>2020-01-26 14:46</v>
+        <v>2020-02-15 22:16</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="str">
-        <v>陕西首批137人援鄂医疗队出征 医生家属：我们应该早点去</v>
+        <v>热点 | 火神山医院漏雨还被风吹走了？辟谣：非内部场景医院运作正常</v>
       </c>
       <c r="B44">
-        <v>773058</v>
+        <v>2794961</v>
       </c>
       <c r="C44" t="str">
-        <v>2020-01-26 14:38</v>
+        <v>2020-02-15 22:13</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="str">
-        <v>香港医院接诊新型肺炎患者时出失误 至少12人需隔离观察</v>
+        <v>热点丨男子阻碍疫情排查发朋友圈称“警察照样打” 被抓后：我太天真太单纯</v>
       </c>
       <c r="B45">
-        <v>38613</v>
+        <v>48468</v>
       </c>
       <c r="C45" t="str">
-        <v>2020-01-26 14:08</v>
+        <v>2020-02-15 22:10</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="str">
-        <v>直击火神山医院排污建设提前进场施工：废水处理将全封闭运行</v>
+        <v>热点丨学生因信号差在山上帐篷里上网课 官方：已协调到信号好的地方学习</v>
       </c>
       <c r="B46">
-        <v>62950</v>
+        <v>21048</v>
       </c>
       <c r="C46" t="str">
-        <v>2020-01-26 13:48</v>
+        <v>2020-02-15 21:06</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="str">
-        <v>直击东航全货机海外急运300多万只口罩抵达武汉 机长：时刻和武汉同在</v>
+        <v>热点丨98岁全国最高龄新冠肺炎患者治愈 医生：提高营养和免疫力很重要</v>
       </c>
       <c r="B47">
-        <v>1496414</v>
+        <v>34615</v>
       </c>
       <c r="C47" t="str">
-        <v>2020-01-26 13:36</v>
+        <v>2020-02-15 20:35</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="str">
-        <v>紧急呼叫丨黄冈一医疗中心改造成“小汤山”医院 计划5月投用因疫情被征用</v>
+        <v>紧急呼叫丨湖北一退休副厅长确诊后拒送医隔离 省纪委：绝不会放任不管</v>
       </c>
       <c r="B48">
-        <v>766038</v>
+        <v>14197281</v>
       </c>
       <c r="C48" t="str">
-        <v>2020-01-26 13:27</v>
+        <v>2020-02-15 19:26</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="str">
-        <v>四川138人医疗救援队抵达武汉 驰援护士剪掉多年及腰长发</v>
+        <v>热点丨上海：9家医疗机构参与硫酸羟氯喹片抗新冠病毒临床实验</v>
       </c>
       <c r="B49">
-        <v>22254</v>
+        <v>24480</v>
       </c>
       <c r="C49" t="str">
-        <v>2020-01-26 13:09</v>
+        <v>2020-02-15 19:25</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="str">
-        <v>新型肺炎疫情仍然严峻 韩法美三国公布从武汉撤侨计划</v>
+        <v>热点 | 武汉遇寒潮气温跌至0度 方舱医院下发军大衣和厚棉被御寒</v>
       </c>
       <c r="B50">
-        <v>10836</v>
+        <v>1740263</v>
       </c>
       <c r="C50" t="str">
-        <v>2020-01-26 13:08</v>
+        <v>2020-02-15 19:11</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="str">
-        <v>马鞍山警方回应商铺售卖二手口罩：口罩系收购而来 不是二手口罩</v>
+        <v>热点丨法国出现1例新冠肺炎死亡病例 系亚洲外首例死亡病例</v>
       </c>
       <c r="B51">
-        <v>122357</v>
+        <v>3529277</v>
       </c>
       <c r="C51" t="str">
-        <v>2020-01-26 12:53</v>
+        <v>2020-02-15 19:10</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="str">
-        <v>义乌有作坊疑生产问题口罩自称“和气生财” 相关物品已被扣押</v>
+        <v>热点丨海南一新冠肺炎患者刚出院就被抓 曾吐口水致2名医护人员被感染</v>
       </c>
       <c r="B52">
-        <v>130117</v>
+        <v>4486448</v>
       </c>
       <c r="C52" t="str">
-        <v>2020-01-26 12:46</v>
+        <v>2020-02-15 18:26</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="str">
-        <v>新型肺炎疫情仍然严峻 韩法美三国公布从武汉撤侨计划</v>
+        <v>有料丨女警通宵执勤晕倒在离家500米处让人心疼 次日发视频感谢好心人</v>
       </c>
       <c r="B53">
-        <v>184014</v>
+        <v>643076</v>
       </c>
       <c r="C53" t="str">
-        <v>2020-01-26 12:44</v>
+        <v>2020-02-15 18:26</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="str">
-        <v>武汉火神山医院建设第3天：大部分土地已平整 正进行防渗铺设</v>
+        <v>热点丨郑州一女子确诊新冠肺炎 自述确诊前十余天仅购买双黄连时外出过</v>
       </c>
       <c r="B54">
-        <v>415857</v>
+        <v>1999117</v>
       </c>
       <c r="C54" t="str">
-        <v>2020-01-26 12:34</v>
+        <v>2020-02-15 17:41</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="str">
-        <v>加拿大通报首例新型冠状病毒感染病例 患者从武汉经广州到多伦多</v>
+        <v>热点丨多部门受理春运退票手续：民航局办理两千万张退票 票面金额超百亿</v>
       </c>
       <c r="B55">
-        <v>124948</v>
+        <v>12734</v>
       </c>
       <c r="C55" t="str">
-        <v>2020-01-26 12:02</v>
+        <v>2020-02-15 17:35</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="str">
-        <v>担心亲友感染新冠肺炎 湖南夫妻主动延期办婚宴</v>
+        <v>热点丨交通运输部：春节节后发送旅客2.83亿人次 仅为往年六分之一</v>
       </c>
       <c r="B56">
-        <v>6202</v>
+        <v>23242</v>
       </c>
       <c r="C56" t="str">
-        <v>2020-01-26 11:47</v>
+        <v>2020-02-15 17:22</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="str">
-        <v>美女手语老师录制新型病毒防控指南手语版 网友：太谢谢你了</v>
+        <v>热点丨日本一天内6地发现新冠肺炎病例 日政府：不排除疫情扩散可能</v>
       </c>
       <c r="B57">
-        <v>6202761</v>
+        <v>38336</v>
       </c>
       <c r="C57" t="str">
-        <v>2020-01-26 10:24</v>
+        <v>2020-02-15 16:57</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="str">
-        <v>紧急呼叫丨湖北孝感医院防护品缺口大：物资紧张时医生戴外科口罩上一线</v>
+        <v>热点丨百色男子凌晨玩漂移惊扰居民 被抓后辩称车辆失控</v>
       </c>
       <c r="B58">
-        <v>29603</v>
+        <v>14228</v>
       </c>
       <c r="C58" t="str">
-        <v>2020-01-26 09:26</v>
+        <v>2020-02-15 16:56</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="str">
-        <v>湖北孝感医院防护品缺口大：物资紧张时医生戴外科口罩上一线</v>
+        <v>热点丨科技部：恢复期患者血浆和干细胞技术可用于重症患者治疗</v>
       </c>
       <c r="B59">
-        <v>6066079</v>
+        <v>14385</v>
       </c>
       <c r="C59" t="str">
-        <v>2020-01-26 00:32</v>
+        <v>2020-02-15 16:51</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="str">
-        <v>2架载有数名武汉乘客国际航班飞抵杭州 机场：按防控规范处理</v>
+        <v>热点丨穿山甲是新冠病毒中间宿主吗？科技部：正组织论证</v>
       </c>
       <c r="B60">
-        <v>128596</v>
+        <v>13288</v>
       </c>
       <c r="C60" t="str">
-        <v>2020-01-26 00:26</v>
+        <v>2020-02-15 16:51</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="str">
-        <v>山东138名医护人员出征武汉抗击新冠肺炎 丈夫和妻子深情相拥告别</v>
+        <v>热点丨贵州“小汤山”将军山医院一期项目建成投用 263名医务人员已入驻</v>
       </c>
       <c r="B61">
-        <v>93385</v>
+        <v>10870</v>
       </c>
       <c r="C61" t="str">
-        <v>2020-01-26 00:12</v>
+        <v>2020-02-15 16:43</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="str">
-        <v>菲律宾停飞往返武汉航班 包机送返近500名武汉游客</v>
+        <v>热点丨湖北有癫痫患儿缺药 上海志愿者网上寻药送药</v>
       </c>
       <c r="B62">
-        <v>81188</v>
+        <v>48358</v>
       </c>
       <c r="C62" t="str">
-        <v>2020-01-25 23:55</v>
+        <v>2020-02-15 16:39</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="str">
-        <v>紧急呼叫丨旅客讲述与116名武汉旅客同乘飞机：观察半个月 不敢见父母</v>
+        <v>热点丨苏丹前总统将被移送审判 系首个被国际刑事法庭起诉的国家元首</v>
       </c>
       <c r="B63">
-        <v>4599578</v>
+        <v>5197</v>
       </c>
       <c r="C63" t="str">
-        <v>2020-01-25 23:50</v>
+        <v>2020-02-15 15:48</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="str">
-        <v>全国30个省份启动一级应急响应 涵盖总人口超13亿</v>
+        <v>热点丨全国最小年龄治愈患者出院：确诊时仅1月龄 曾接触发烧亲属</v>
       </c>
       <c r="B64">
-        <v>1711051</v>
+        <v>78212</v>
       </c>
       <c r="C64" t="str">
-        <v>2020-01-25 23:30</v>
+        <v>2020-02-15 15:26</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="str">
-        <v>广西河南两地紧急排查多名乘坐高铁返乡乘客 已确诊有人感染新型肺炎</v>
+        <v>热点丨武汉启动低温雨雪冰冻灾害Ⅱ级应急响应 确保重点区域交通畅通</v>
       </c>
       <c r="B65">
-        <v>531795</v>
+        <v>17843</v>
       </c>
       <c r="C65" t="str">
-        <v>2020-01-25 23:14</v>
+        <v>2020-02-15 15:15</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="str">
-        <v>武汉协和医院一清洁工选择在家自我隔离：要避免交叉感染</v>
+        <v>热点丨石家庄一“洋媳妇”当起了抗疫志愿者：相信疫情一定会过去</v>
       </c>
       <c r="B66">
-        <v>128019</v>
+        <v>34483</v>
       </c>
       <c r="C66" t="str">
-        <v>2020-01-25 22:34</v>
+        <v>2020-02-15 14:38</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="str">
-        <v>湖北省公安厅：全力保障应急物资和医护人员运输 三类车辆免费高速通行</v>
+        <v>有料丨小伙在派出所丢下箱子就跑 小黄鸭式“逃跑”姿势笑翻网友</v>
       </c>
       <c r="B67">
-        <v>68191</v>
+        <v>106034</v>
       </c>
       <c r="C67" t="str">
-        <v>2020-01-25 22:31</v>
+        <v>2020-02-15 14:18</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="str">
-        <v>北京所有省际公路客运宣布全部停运 恢复时间尚未明确</v>
+        <v>热点丨新冠病毒显微镜彩照首度公布：与MERS和SARS相似</v>
       </c>
       <c r="B68">
-        <v>58506</v>
+        <v>111472</v>
       </c>
       <c r="C68" t="str">
-        <v>2020-01-25 22:29</v>
+        <v>2020-02-15 12:50</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="str">
-        <v>天津赴日本大邮轮上17人出现发热症状 卫健委：排除新型病毒肺炎</v>
+        <v>热点丨如何保障现金不传播病毒？央行：供应新钞并封存医院等地回笼现金</v>
       </c>
       <c r="B69">
-        <v>410952</v>
+        <v>45403</v>
       </c>
       <c r="C69" t="str">
-        <v>2020-01-25 22:19</v>
+        <v>2020-02-15 12:48</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="str">
-        <v>故乡里的中国｜“卫嘴子”的执念：就爱和煎饼馃子较劲</v>
+        <v>热点丨央行：银行收到现金必须消毒处理后才能投放客户</v>
       </c>
       <c r="B70">
-        <v>18970</v>
+        <v>6260</v>
       </c>
       <c r="C70" t="str">
-        <v>2020-01-25 21:59</v>
+        <v>2020-02-15 12:03</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="str">
-        <v>北京所有省际客运宣布全部停运 恢复时间尚未明确</v>
+        <v>热点丨男子称官员父亲派车接回荆州最新进展：其父系商务局科长已被停职</v>
       </c>
       <c r="B71">
-        <v>298927</v>
+        <v>2081970</v>
       </c>
       <c r="C71" t="str">
-        <v>2020-01-25 21:16</v>
+        <v>2020-02-15 11:53</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="str">
-        <v>湖北省民政厅：已接受口罩等捐赠超3000万元 医疗物资仍十分紧张</v>
+        <v>热点丨抗疫夫妻档：护士妻子赴武汉 在京老公社区巡查每天上万步</v>
       </c>
       <c r="B72">
-        <v>25081</v>
+        <v>258667</v>
       </c>
       <c r="C72" t="str">
-        <v>2020-01-25 21:14</v>
+        <v>2020-02-15 11:36</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="str">
-        <v>民警遇即将到武汉支援的医护人员求助 将其送到医院后送上贴心嘱咐</v>
+        <v>热点丨湖北地区一半以上新冠肺炎确诊病例使用中医药治疗</v>
       </c>
       <c r="B73">
-        <v>39649</v>
+        <v>288765</v>
       </c>
       <c r="C73" t="str">
-        <v>2020-01-25 20:39</v>
+        <v>2020-02-15 10:50</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="str">
-        <v>广州一城管局副局长疑染新冠肺炎被隔离观察 曾带病到花市视察</v>
+        <v>热点丨武汉市金银潭医院出院率达到30%-39%</v>
       </c>
       <c r="B74">
-        <v>1004717</v>
+        <v>135843</v>
       </c>
       <c r="C74" t="str">
-        <v>2020-01-25 20:25</v>
+        <v>2020-02-15 10:38</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="str">
-        <v>紧急呼叫丨探访上海新型冠状病毒检测盒生产实验室 采样测定仅需60分钟</v>
+        <v>热点丨国新办发布会：湖北疫情防控到最吃紧时刻 有地区病例数上升速度较快</v>
       </c>
       <c r="B75">
-        <v>7186043</v>
+        <v>276066</v>
       </c>
       <c r="C75" t="str">
-        <v>2020-01-25 20:06</v>
+        <v>2020-02-15 10:18</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="str">
-        <v>担心亲友感染新冠肺炎 湖南夫妻主动延期办婚宴</v>
+        <v>热点丨“网友”假卖口罩骗善款40余万 归案后称十多万已赌光</v>
       </c>
       <c r="B76">
-        <v>63139</v>
+        <v>129076</v>
       </c>
       <c r="C76" t="str">
-        <v>2020-01-25 19:02</v>
+        <v>2020-02-15 10:15</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="str">
-        <v>香港应变级别提升至“紧急” 将无期限暂停来往武汉航班高铁</v>
+        <v>热点丨217支医疗队2万余名医疗队员驰援湖北 超汶川地震调动规模</v>
       </c>
       <c r="B77">
-        <v>64613</v>
+        <v>53585</v>
       </c>
       <c r="C77" t="str">
-        <v>2020-01-25 18:58</v>
+        <v>2020-02-15 09:53</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="str">
-        <v>青海省确诊1例新型肺炎病例：自武汉到西宁探亲</v>
+        <v>热点丨武汉新冠肺炎康复者捐献血浆：盼自身抗体救回病危父亲</v>
       </c>
       <c r="B78">
-        <v>68994</v>
+        <v>851431</v>
       </c>
       <c r="C78" t="str">
-        <v>2020-01-25 18:47</v>
+        <v>2020-02-15 09:39</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="str">
-        <v>紧急呼叫丨武汉新冠肺炎重症护理护士：患者病情整体向好 日常工作强度很大</v>
+        <v>热点丨非洲出现首例新冠肺炎确诊病例 系在埃及的外国人</v>
       </c>
       <c r="B79">
-        <v>3653148</v>
+        <v>1348752</v>
       </c>
       <c r="C79" t="str">
-        <v>2020-01-25 18:40</v>
+        <v>2020-02-15 09:34</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="str">
-        <v>浙江首批135名医护人员前往武汉支援 母亲含泪告别女儿：妈妈会回来</v>
+        <v>紧急呼叫丨湖北一药店口罩卖1元被罚4万 店主承认抬高价格 当地重启调查</v>
       </c>
       <c r="B80">
-        <v>1828287</v>
+        <v>504988</v>
       </c>
       <c r="C80" t="str">
-        <v>2020-01-25 18:19</v>
+        <v>2020-02-15 09:29</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="str">
-        <v>武汉火神山医院施工第2日：施工位置微调 排污方案正制定</v>
+        <v>热点丨陪护男子不配合防疫核查辱骂医务人员 行拘10日罚款500元</v>
       </c>
       <c r="B81">
-        <v>3753127</v>
+        <v>25990</v>
       </c>
       <c r="C81" t="str">
-        <v>2020-01-25 17:52</v>
+        <v>2020-02-15 09:25</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="str">
-        <v>疾控专家：轻微感冒最好居家隔离 涌入医院恐加大感染风险</v>
+        <v>热点丨男子称官员父亲派车将其从天门接回荆州已道歉 相关部门介入调查</v>
       </c>
       <c r="B82">
-        <v>48248</v>
+        <v>1908266</v>
       </c>
       <c r="C82" t="str">
-        <v>2020-01-25 16:51</v>
+        <v>2020-02-15 09:10</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="str">
-        <v>河南长垣医疗器械厂家：加班生产仍供不应求 产品被人转手十倍倒卖</v>
+        <v>热点丨村民不戴口罩辱骂防疫员遭传唤 其父护犊心切挥拳打民警</v>
       </c>
       <c r="B83">
-        <v>823861</v>
+        <v>275196</v>
       </c>
       <c r="C83" t="str">
-        <v>2020-01-25 16:48</v>
+        <v>2020-02-15 00:43</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="str">
-        <v>威海急寻K1068次列车接触新型肺炎乘客 疾控：多名同车乘客已登记</v>
+        <v>热点丨东京马拉松：恳请居住中国的选手自愿退赛 参赛资格顺延至明年</v>
       </c>
       <c r="B84">
-        <v>152559</v>
+        <v>85233</v>
       </c>
       <c r="C84" t="str">
-        <v>2020-01-25 15:56</v>
+        <v>2020-02-14 23:55</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="str">
-        <v>上海取消2月2日结婚登记 民政局：只要感情深厚 每一天都是好日子</v>
+        <v>紧急呼叫丨李兰娟回应两款新冠荐药数据遭质疑：仅为实验数据 未作成果发布</v>
       </c>
       <c r="B85">
-        <v>71234</v>
+        <v>1906526</v>
       </c>
       <c r="C85" t="str">
-        <v>2020-01-25 15:50</v>
+        <v>2020-02-14 23:43</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="str">
-        <v>广西2岁新冠肺炎病例打破染病年龄下限 曾跟着家人去过武汉</v>
+        <v>热点丨抗疫时期的快递分拣员：通宵分拣近2万件 遇口罩等医疗物资加速办理</v>
       </c>
       <c r="B86">
-        <v>1101785</v>
+        <v>104231</v>
       </c>
       <c r="C86" t="str">
-        <v>2020-01-25 13:56</v>
+        <v>2020-02-14 23:17</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="str">
-        <v>武汉医生大年初一向姐姐视频拜年 哽咽询问“爸爸妈妈好不好”</v>
+        <v>热点丨乘务员夫妻结婚16年第一次一起过情人节：饮料干杯做更美“逆行者”</v>
       </c>
       <c r="B87">
-        <v>2529902</v>
+        <v>17612</v>
       </c>
       <c r="C87" t="str">
-        <v>2020-01-25 13:52</v>
+        <v>2020-02-14 23:14</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="str">
-        <v>紧急呼叫丨湖北多地医院求援防护物资：日需万个口罩 部分重点科室告急</v>
+        <v>热点丨狗狗讨零食遭拒秒变脸 委屈表情笑翻主人</v>
       </c>
       <c r="B88">
-        <v>6097199</v>
+        <v>110901</v>
       </c>
       <c r="C88" t="str">
-        <v>2020-01-25 13:33</v>
+        <v>2020-02-14 23:10</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="str">
-        <v>马来西亚确诊3例新型肺炎病例 均为新加坡首名确诊男子亲属</v>
+        <v>有料丨厨房开着火孩子独自在家 母亲敲门半小时快急哭破门后却哭笑不得</v>
       </c>
       <c r="B89">
-        <v>87278</v>
+        <v>15970</v>
       </c>
       <c r="C89" t="str">
-        <v>2020-01-25 13:19</v>
+        <v>2020-02-14 23:04</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="str">
-        <v>载335人新加坡至杭航班发现武汉发烧人员 新加坡：拒绝入境消息不实</v>
+        <v>热点丨北京上海多地疫情下的爱情故事：情侣戴口罩领证 拍下特殊时期的爱情</v>
       </c>
       <c r="B90">
-        <v>5997255</v>
+        <v>20648</v>
       </c>
       <c r="C90" t="str">
-        <v>2020-01-25 12:38</v>
+        <v>2020-02-14 22:38</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="str">
-        <v>澳大利亚确认首例新型冠状病毒病例 患者为中国公民曾去过武汉</v>
+        <v>热点丨最“扎”心的情人节礼物 援助湖北护士夫妻“互赠”胸腺肽针</v>
       </c>
       <c r="B91">
-        <v>90078</v>
+        <v>140255</v>
       </c>
       <c r="C91" t="str">
-        <v>2020-01-25 11:37</v>
+        <v>2020-02-14 22:37</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="str">
-        <v>尼泊尔确认首例新型冠状病毒病例 患者曾在武汉留学</v>
+        <v>热点丨山西警方防疫期间抓获5名在逃涉黑组织成员 团伙有多项违法行为</v>
       </c>
       <c r="B92">
-        <v>6942</v>
+        <v>51123</v>
       </c>
       <c r="C92" t="str">
-        <v>2020-01-25 11:24</v>
+        <v>2020-02-14 22:34</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="str">
-        <v>西藏昌都发生5.1级地震 消防集结暂未发现人员伤亡</v>
+        <v>热点丨新冠肺炎确诊患者治愈出院   收到医护特殊情人节“表白”</v>
       </c>
       <c r="B93">
-        <v>150710</v>
+        <v>103534</v>
       </c>
       <c r="C93" t="str">
-        <v>2020-01-25 11:18</v>
+        <v>2020-02-14 22:29</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="str">
-        <v>尼泊尔确认首例新型冠状病毒病例 患者曾在武汉留学</v>
+        <v>热点丨探访疫情防控下的养老院 93岁老人：在这更踏实 不给儿女添麻烦</v>
       </c>
       <c r="B94">
-        <v>394254</v>
+        <v>50792</v>
       </c>
       <c r="C94" t="str">
-        <v>2020-01-25 10:24</v>
+        <v>2020-02-14 22:27</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="str">
-        <v>湖北中西医结合医院一医生疑因感染新冠肺炎离世 院方：已退休数年</v>
+        <v>热点丨张家界市疾控中心一科长临阵脱逃携家人到泰国躲避疫情 被撤职</v>
       </c>
       <c r="B95">
-        <v>154339</v>
+        <v>108494</v>
       </c>
       <c r="C95" t="str">
-        <v>2020-01-25 10:19</v>
+        <v>2020-02-14 22:23</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="str">
-        <v>欧洲首例！法国确诊3例新型冠状病毒病例 其中两人为亲属</v>
+        <v>热点丨日本邮轮检疫官被感染细节：重复使用口罩 擦汗后未充分消毒手部</v>
       </c>
       <c r="B96">
-        <v>542186</v>
+        <v>1275270</v>
       </c>
       <c r="C96" t="str">
-        <v>2020-01-25 09:57</v>
+        <v>2020-02-14 22:22</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="str">
-        <v>国家卫健委：全国新冠肺炎确诊1287例 已致41例死亡</v>
+        <v>热点｜监控：莆田一社区书记防疫巡逻 高空掉落一块砖头将其砸倒</v>
       </c>
       <c r="B97">
-        <v>68477</v>
+        <v>97844</v>
       </c>
       <c r="C97" t="str">
-        <v>2020-01-25 09:43</v>
+        <v>2020-02-14 22:20</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="str">
-        <v>除夕夜重庆135名医生奔赴武汉 怒吼：一个都不能少 平安归来</v>
+        <v>热点丨北京一小区设置露天蔬菜摊  居民：挺便民的 空气流通不传染</v>
       </c>
       <c r="B98">
-        <v>557554</v>
+        <v>36672</v>
       </c>
       <c r="C98" t="str">
-        <v>2020-01-25 00:58</v>
+        <v>2020-02-14 22:18</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="str">
-        <v>大连第六医院隔离区里 护士隔门写下祝福：我们会一起安全回家</v>
+        <v>有料｜山东硬核宠爱！两男子把车堵到交警队门口 搬下40箱方便面转身就走</v>
       </c>
       <c r="B99">
-        <v>99267</v>
+        <v>265493</v>
       </c>
       <c r="C99" t="str">
-        <v>2020-01-24 23:49</v>
+        <v>2020-02-14 22:11</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="str">
-        <v>广东128名医务人员奔赴武汉支援 有人抛下丈夫的生日午饭响应征召</v>
+        <v>热点丨男子发现酒杯里有壁虎“溺死” 竟用人工呼吸“救活”它</v>
       </c>
       <c r="B100">
-        <v>1345020</v>
+        <v>46608</v>
       </c>
       <c r="C100" t="str">
-        <v>2020-01-24 23:41</v>
+        <v>2020-02-14 22:05</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="str">
-        <v>武汉各医院仍急需物资 京东捐赠100万只口罩及6万件医疗物资</v>
+        <v>热点丨江西宣布撤销高速收费站检疫卡点  南昌已率先撤除各类卡点85个</v>
       </c>
       <c r="B101">
-        <v>110843</v>
+        <v>74863</v>
       </c>
       <c r="C101" t="str">
-        <v>2020-01-24 22:55</v>
+        <v>2020-02-14 21:47</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="str">
-        <v>放下年夜饭筷子出发！除夕夜上海医疗队“逆行”出发驰援武汉</v>
+        <v>有料丨嫌疑人被审讯时突然不停干咳发抖 带去医院一检查结果尴尬</v>
       </c>
       <c r="B102">
-        <v>3722279</v>
+        <v>427927</v>
       </c>
       <c r="C102" t="str">
-        <v>2020-01-24 22:46</v>
+        <v>2020-02-14 21:47</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="str">
-        <v>武汉“夫妻档”医护人员除夕夜和孩子视频 9岁儿子：在心里想爸爸</v>
+        <v>有料丨油开尽钱用完男子遇防疫被劝返崩溃大哭 被帮助后激动下跪让人泪奔</v>
       </c>
       <c r="B103">
-        <v>134121</v>
+        <v>3672447</v>
       </c>
       <c r="C103" t="str">
-        <v>2020-01-24 22:30</v>
+        <v>2020-02-14 21:39</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="str">
-        <v>武汉火神山医院选址有误白挖了？知情人：谣言！正在昼夜赶工</v>
+        <v>有料丨小伙刚刑满释放就违规偷翻小区门 落地后当场傻眼</v>
       </c>
       <c r="B104">
-        <v>508771</v>
+        <v>101099</v>
       </c>
       <c r="C104" t="str">
-        <v>2020-01-24 22:28</v>
+        <v>2020-02-14 21:38</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="str">
-        <v>马鞍山有人当街出售废旧口罩？ 目击者：摸上去很软 钢丝都弯了</v>
+        <v>热点丨进京旅客须填报电子健康表 提示：搜索“京心相助”小程序填报</v>
       </c>
       <c r="B105">
-        <v>329892</v>
+        <v>37971</v>
       </c>
       <c r="C105" t="str">
-        <v>2020-01-24 22:24</v>
+        <v>2020-02-14 21:19</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="str">
-        <v>故乡里的中国｜故乡过年的北漂山东人 后备箱里满满亲情</v>
+        <v>热点丨“钻石公主”号邮轮首批11名乘客下船 将送至一所大学继续隔离</v>
       </c>
       <c r="B106">
-        <v>25134</v>
+        <v>12874</v>
       </c>
       <c r="C106" t="str">
-        <v>2020-01-24 21:33</v>
+        <v>2020-02-14 21:08</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="str">
-        <v>武汉医院医务工作者除夕依然坚守 隔离病房中向家人拜年</v>
+        <v>热点丨台湾23人隔离期偷跑被罚25万元 台当局：将监控隔离者手机定位</v>
       </c>
       <c r="B107">
-        <v>2873526</v>
+        <v>18422</v>
       </c>
       <c r="C107" t="str">
-        <v>2020-01-24 21:15</v>
+        <v>2020-02-14 21:01</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="str">
-        <v>除夕夜武汉火神山医院施工现场：工人连夜赶工 排队站路边吃“年夜饭”</v>
+        <v>热点丨专家呼吁康复患者捐献血浆 血浆捐献者需满足3个标准</v>
       </c>
       <c r="B108">
-        <v>4203996</v>
+        <v>51271</v>
       </c>
       <c r="C108" t="str">
-        <v>2020-01-24 21:13</v>
+        <v>2020-02-14 20:55</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="str">
-        <v>山东一医院千名医护人员请战抗击新型肺炎 按手印写下“请战书”</v>
+        <v>热点丨台湾男子拒戴口罩进医院被拦 现场怒喊：关你什么事</v>
       </c>
       <c r="B109">
-        <v>137489</v>
+        <v>93210</v>
       </c>
       <c r="C109" t="str">
-        <v>2020-01-24 21:08</v>
+        <v>2020-02-14 20:24</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="str">
-        <v>紧急呼叫丨武汉三甲医院医生：医院收治压力大 希望加大预防信息科普力度</v>
+        <v>热点丨邮寄上门！新学期3.2万个教材包裹马上就到 网友：孩子哭晕在厕所</v>
       </c>
       <c r="B110">
-        <v>2719091</v>
+        <v>35829</v>
       </c>
       <c r="C110" t="str">
-        <v>2020-01-24 21:07</v>
+        <v>2020-02-14 20:22</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="str">
-        <v>山东德州一消毒剂企业召回百名工人 日产万瓶保障疫情需求</v>
+        <v>热点丨上海情人节领证数比去年减半 新人隔着口罩接吻留影</v>
       </c>
       <c r="B111">
-        <v>20653</v>
+        <v>0</v>
       </c>
       <c r="C111" t="str">
-        <v>2020-01-24 20:57</v>
+        <v>2020-02-14 20:10</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="str">
-        <v>湖北卫健委：发热病人就诊增加 新型肺炎进入第二波流行上升期</v>
+        <v>热点丨美餐厅员工厨房水槽内搓澡 视频曝光后网友炮轰</v>
       </c>
       <c r="B112">
-        <v>43158</v>
+        <v>6129</v>
       </c>
       <c r="C112" t="str">
-        <v>2020-01-24 19:37</v>
+        <v>2020-02-14 20:08</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="str">
-        <v>上海一口罩厂除夕加班赶制订单平价出售 董事长：我已经两天两夜没睡觉了</v>
+        <v>有料丨武汉公交司机情人节给全车军医送礼物 女军医接礼物后用手抹泪</v>
       </c>
       <c r="B113">
-        <v>61781</v>
+        <v>33132</v>
       </c>
       <c r="C113" t="str">
-        <v>2020-01-24 18:48</v>
+        <v>2020-02-14 20:04</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="str">
-        <v>武汉“小汤山”开建劳务公司招工电话被打爆 多人报名要做免费义工</v>
+        <v>热点丨对话“钻石公主”号隔离乘客：起初发烧没人管 退烧了就不能做筛检</v>
       </c>
       <c r="B114">
-        <v>172142</v>
+        <v>118113</v>
       </c>
       <c r="C114" t="str">
-        <v>2020-01-24 18:45</v>
+        <v>2020-02-14 20:04</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="str">
-        <v>世卫组织：中国已上报武汉第四代病例 建议继续分享相关信息</v>
+        <v>热点丨广东重庆多地下冰雹：有人穿拖鞋玩冰撒欢 有人家遭砸直呼“我的天”</v>
       </c>
       <c r="B115">
-        <v>53527</v>
+        <v>62980</v>
       </c>
       <c r="C115" t="str">
-        <v>2020-01-24 17:23</v>
+        <v>2020-02-14 20:03</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="str">
-        <v>海外华人积极捐助物资助力武汉：航空公司减免运费帮助运输</v>
+        <v>热点丨美国再现监控丑闻 中情局被曝窃取多国加密文件数十年</v>
       </c>
       <c r="B116">
-        <v>405404</v>
+        <v>9175</v>
       </c>
       <c r="C116" t="str">
-        <v>2020-01-24 16:58</v>
+        <v>2020-02-14 19:43</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="str">
-        <v>欧盟领导人正式签署英国“脱欧”协议：希望双方作为伙伴开始新篇章</v>
+        <v>热点丨香港一家11口邮轮上隔离 老爸机智安抚5个孩子：外面有个隐形怪物</v>
       </c>
       <c r="B117">
-        <v>52220</v>
+        <v>13015</v>
       </c>
       <c r="C117" t="str">
-        <v>2020-01-24 16:35</v>
+        <v>2020-02-14 19:22</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="str">
-        <v>英男子讲述疑似感染新型肺炎经历：与医生一起隔离 写字条传递信息</v>
+        <v>热点｜福建援鄂医生自制vlog视频记录抗疫日常：希望让大家消除恐惧</v>
       </c>
       <c r="B118">
-        <v>25169</v>
+        <v>367188</v>
       </c>
       <c r="C118" t="str">
-        <v>2020-01-24 16:08</v>
+        <v>2020-02-14 19:19</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="str">
-        <v>紧急呼叫丨上海公共卫生临床中心：一种抗艾滋病药物对新型肺炎治疗有效</v>
+        <v>热点丨“钻石公主”号检疫官采样过程曝光：不到1分钟 阳性结果3天内通知</v>
       </c>
       <c r="B119">
-        <v>24865697</v>
+        <v>37230</v>
       </c>
       <c r="C119" t="str">
-        <v>2020-01-24 15:46</v>
+        <v>2020-02-14 19:14</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="str">
-        <v>医护人员全副武装穿成一个样互不认识 就在背后写上名字方便辨认</v>
+        <v>热点｜村民防疫期外出打工2天返乡门被焊死 村支书：村里供应生活用品</v>
       </c>
       <c r="B120">
-        <v>13384438</v>
+        <v>356681</v>
       </c>
       <c r="C120" t="str">
-        <v>2020-01-24 15:24</v>
+        <v>2020-02-14 19:11</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="str">
-        <v>天津新型肺炎病例聚集性发病：动车客运段乘务车间3职工确诊</v>
+        <v>热点丨山西新冠肺炎康复者捐献血浆：希望武汉渡过难关 还想看武汉樱花</v>
       </c>
       <c r="B121">
-        <v>244651</v>
+        <v>61761</v>
       </c>
       <c r="C121" t="str">
-        <v>2020-01-24 14:30</v>
+        <v>2020-02-14 19:08</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="str">
-        <v>印度称印度护士在沙特感染新型肺炎 沙特方予以否认</v>
+        <v>有料丨深夜广告牌内伸出一只脚？知道真相后网友笑出了声</v>
       </c>
       <c r="B122">
-        <v>82415</v>
+        <v>69228</v>
       </c>
       <c r="C122" t="str">
-        <v>2020-01-24 13:46</v>
+        <v>2020-02-14 19:08</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="str">
-        <v>武汉“小汤山”医院正昼夜抢建 将提供千个床位预期2月3日投用</v>
+        <v>热点丨特朗普为修边境墙 把美洲原住民祖坟炸了</v>
       </c>
       <c r="B123">
-        <v>409422</v>
+        <v>17172</v>
       </c>
       <c r="C123" t="str">
-        <v>2020-01-24 13:10</v>
+        <v>2020-02-14 18:57</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="str">
-        <v>雍和宫国博闭馆鸡鸣寺取消除夕敲钟 全国多地公共场所宣布关闭</v>
+        <v>热点丨抗“疫”前线的特别生日：工作服上画蛋糕庆生</v>
       </c>
       <c r="B124">
-        <v>84878</v>
+        <v>36987</v>
       </c>
       <c r="C124" t="str">
-        <v>2020-01-24 13:02</v>
+        <v>2020-02-14 18:47</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="str">
-        <v>内蒙古确诊1例新增2例疑似新型冠状肺炎病例：均来自武汉</v>
+        <v>热点丨神助攻！男子用购物车“截胡”小偷 警方发视频感谢</v>
       </c>
       <c r="B125">
-        <v>76636</v>
+        <v>203093</v>
       </c>
       <c r="C125" t="str">
-        <v>2020-01-24 13:02</v>
+        <v>2020-02-14 18:41</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="str">
-        <v>19名院士学者联名呼吁：杜绝野生动物非法食用和交易</v>
+        <v>钉钉被喷下架？应用商店：从未下架</v>
       </c>
       <c r="B126">
-        <v>75600</v>
+        <v>29504</v>
       </c>
       <c r="C126" t="str">
-        <v>2020-01-24 12:08</v>
+        <v>2020-02-14 18:30</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="str">
-        <v>受新型肺炎疫情影响 湖北武汉咸宁等8地区实行公共交通管制</v>
+        <v>热点丨沈阳双胞胎护士姐妹花双双推迟婚期 情人节当天奔赴湖北抗疫</v>
       </c>
       <c r="B127">
-        <v>22745</v>
+        <v>872566</v>
       </c>
       <c r="C127" t="str">
-        <v>2020-01-24 11:17</v>
+        <v>2020-02-14 18:25</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="str">
-        <v>世卫组织谈防控肺炎疫情：最大挑战是“未知” 尚未掌握传播方式</v>
+        <v>有料丨塑料“司乘”情：担心量体温耽误时间 司机中途甩客让其步行走高速</v>
       </c>
       <c r="B128">
-        <v>152031</v>
+        <v>52357</v>
       </c>
       <c r="C128" t="str">
-        <v>2020-01-24 05:16</v>
+        <v>2020-02-14 18:20</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="str">
-        <v>世卫组织：中国有权采取封城等措施 已决定将为病毒命名</v>
+        <v>热点丨加拿大护士：非典期间心态崩溃 呼吁新冠肺炎患者保持理性</v>
       </c>
       <c r="B129">
-        <v>340120</v>
+        <v>15488</v>
       </c>
       <c r="C129" t="str">
-        <v>2020-01-24 05:05</v>
+        <v>2020-02-14 18:18</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="str">
-        <v>世卫组织：新型肺炎不构成国际关注突发公共卫生事件</v>
+        <v>热点丨马云钟南山团队合作 马云方面提供资金和AI算力支持</v>
       </c>
       <c r="B130">
-        <v>1053189</v>
+        <v>514128</v>
       </c>
       <c r="C130" t="str">
-        <v>2020-01-24 03:49</v>
+        <v>2020-02-14 18:17</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="str">
-        <v>湖北省市场监管局：存在超市抢购和蔬菜短缺现象 农产品价格基本平稳</v>
+        <v>热点丨国家卫健委：歧视、孤立一线医务人员及其家属者 可依法处理</v>
       </c>
       <c r="B131">
-        <v>29798</v>
+        <v>16198</v>
       </c>
       <c r="C131" t="str">
-        <v>2020-01-24 00:33</v>
+        <v>2020-02-14 18:09</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="str">
-        <v>湖北省救治组专家：体温和呼吸道症状好转是解除隔离的重要标准</v>
+        <v>热点丨情人节婚姻登记流程缩短至5分钟 情侣为领证设置8个闹钟</v>
       </c>
       <c r="B132">
-        <v>146457</v>
+        <v>13130</v>
       </c>
       <c r="C132" t="str">
-        <v>2020-01-24 00:17</v>
+        <v>2020-02-14 18:07</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="str">
-        <v>通过了！“脱欧”协议获得女王批准 英国距离“脱欧”又近一步</v>
+        <v>热点丨卫健委：临床诊断病例项目非确诊标准 可使患者早诊早治</v>
       </c>
       <c r="B133">
-        <v>19621</v>
+        <v>12269</v>
       </c>
       <c r="C133" t="str">
-        <v>2020-01-24 00:17</v>
+        <v>2020-02-14 18:02</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="str">
-        <v>湖北省救治组专家：大多数病人临床表现以发热、乏力、干咳为主</v>
+        <v>热点丨俄大兵硬核求婚：战友们神助攻开16辆坦克排成爱你的形状</v>
       </c>
       <c r="B134">
-        <v>53134</v>
+        <v>15549</v>
       </c>
       <c r="C134" t="str">
-        <v>2020-01-24 00:10</v>
+        <v>2020-02-14 18:00</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="str">
-        <v>湖北省市场监管局：已约谈各大药企 口罩等医用物品目前价格稳定</v>
+        <v>有料丨女护士情人节当天驰援湖北 男友现场单膝跪地求婚：等她回来就去登记</v>
       </c>
       <c r="B135">
-        <v>24235</v>
+        <v>19858</v>
       </c>
       <c r="C135" t="str">
-        <v>2020-01-24 00:10</v>
+        <v>2020-02-14 17:53</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="str">
-        <v>多项体育赛事受新型肺炎疫情影响宣布取消 超级杯或将暂缓进行</v>
+        <v>热点丨实拍四川农民工返岗：证明14天连续健康才放行 途中发热车上隔离</v>
       </c>
       <c r="B136">
-        <v>111081</v>
+        <v>19907</v>
       </c>
       <c r="C136" t="str">
-        <v>2020-01-24 00:09</v>
+        <v>2020-02-14 17:47</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="str">
-        <v>越南确认2例新型肺炎病例：两人系父子关系 曾辗转多城</v>
+        <v>热点丨国家卫健委：无症状感染者不需对外公布 对外排出病毒可能性小</v>
       </c>
       <c r="B137">
-        <v>27648</v>
+        <v>43893</v>
       </c>
       <c r="C137" t="str">
-        <v>2020-01-24 00:00</v>
+        <v>2020-02-14 17:22</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="str">
-        <v>故乡里的中国｜两代海岛舞者的“快”“慢”舞步</v>
+        <v>热点丨 情人节恰逢北京大雪纷飞 景山上有情侣合影留念</v>
       </c>
       <c r="B138">
-        <v>13659</v>
+        <v>7142</v>
       </c>
       <c r="C138" t="str">
-        <v>2020-01-23 23:57</v>
+        <v>2020-02-14 17:21</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="str">
-        <v>甘肃确认2例新型肺炎病例 其中一人有武汉农贸市场活动史</v>
+        <v>热点丨日政府紧急拨款103亿日元：补贴工厂生产口罩 援助受疫情影响企业</v>
       </c>
       <c r="B139">
-        <v>339616</v>
+        <v>44217</v>
       </c>
       <c r="C139" t="str">
-        <v>2020-01-23 23:24</v>
+        <v>2020-02-14 17:17</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="str">
-        <v>武汉多家超市菜价上涨？湖北省市场监管局：哄抬物价将从重处罚</v>
+        <v>热点丨国家卫健委：1716名医护人员感染新冠肺炎 6人不幸逝世</v>
       </c>
       <c r="B140">
-        <v>123236</v>
+        <v>24866</v>
       </c>
       <c r="C140" t="str">
-        <v>2020-01-23 23:18</v>
+        <v>2020-02-14 17:15</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="str">
-        <v>武汉86岁老专家开电动轮椅去门诊部上班：一辈子我不就是为了病人嘛</v>
+        <v>热点｜央行：对受疫情影响大行业应灵活还款安排 不盲目抽贷压贷断贷</v>
       </c>
       <c r="B141">
-        <v>163084</v>
+        <v>8282</v>
       </c>
       <c r="C141" t="str">
-        <v>2020-01-23 23:12</v>
+        <v>2020-02-14 17:14</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="str">
-        <v>武汉一母亲给自我隔离的医生儿子含泪送饭 称支持他战斗到最后</v>
+        <v>热点｜银保监会：确保小微企业贷款不受疫情冲击 出现困难要应贷尽贷</v>
       </c>
       <c r="B142">
-        <v>430379</v>
+        <v>5763</v>
       </c>
       <c r="C142" t="str">
-        <v>2020-01-23 22:52</v>
+        <v>2020-02-14 17:14</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="str">
-        <v>武汉将于郊区建“小汤山模式”医院 计划6天内建成</v>
+        <v>热点｜财政部：支出805.5亿元应对疫情 确保不因资金影响防控</v>
       </c>
       <c r="B143">
-        <v>717548</v>
+        <v>5824</v>
       </c>
       <c r="C143" t="str">
-        <v>2020-01-23 22:48</v>
+        <v>2020-02-14 17:14</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="str">
-        <v>新加坡确认首例新型肺炎病例：66岁武汉男性 20日乘飞机抵达</v>
+        <v>热点丨靖边县委书记回应留观酒店高收费：此举不妥已协调酒店减半</v>
       </c>
       <c r="B144">
-        <v>47135</v>
+        <v>584114</v>
       </c>
       <c r="C144" t="str">
-        <v>2020-01-23 22:23</v>
+        <v>2020-02-14 17:12</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="str">
-        <v>湖北一女子抢救无效去世 多名家属狂殴医生致颅脑损伤</v>
+        <v>热点｜专家：病人不应戴呼吸阀口罩 会将病毒排出</v>
       </c>
       <c r="B145">
-        <v>3312105</v>
+        <v>431306</v>
       </c>
       <c r="C145" t="str">
-        <v>2020-01-23 22:20</v>
+        <v>2020-02-14 17:11</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="str">
-        <v>故宫因新型肺炎疫情自正月初一起闭馆 开放时间暂未定</v>
+        <v>热点丨拒不履行居家隔离义务等要负法律责任 上海已追究40余人</v>
       </c>
       <c r="B146">
-        <v>929213</v>
+        <v>10148</v>
       </c>
       <c r="C146" t="str">
-        <v>2020-01-23 22:19</v>
+        <v>2020-02-14 17:09</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="str">
-        <v>G488次高铁经停武汉站 4岁女孩写下：中国加油！武汉加油！</v>
+        <v>热点｜专家：手机是高频接触物 外出归来要对其消毒</v>
       </c>
       <c r="B147">
-        <v>1153084</v>
+        <v>97268</v>
       </c>
       <c r="C147" t="str">
-        <v>2020-01-23 22:03</v>
+        <v>2020-02-14 17:09</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="str">
-        <v>上海重启“小汤山模式”集中收治肺炎患者 涉武汉列车进行预防性消杀</v>
+        <v>热点丨天津市发布关于禁止食用野生动物决定 违法信息将纳入失信名单</v>
       </c>
       <c r="B148">
-        <v>1060659</v>
+        <v>107695</v>
       </c>
       <c r="C148" t="str">
-        <v>2020-01-23 21:47</v>
+        <v>2020-02-14 17:06</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="str">
-        <v>武汉多家医院发公告急需防护物资捐赠 交管局称可开设绿色通道</v>
+        <v>热点丨为免居民频繁出门 北京一小区物业用小推车挨户送快递和外卖</v>
       </c>
       <c r="B149">
-        <v>45745</v>
+        <v>10395</v>
       </c>
       <c r="C149" t="str">
-        <v>2020-01-23 21:34</v>
+        <v>2020-02-14 16:55</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="str">
-        <v>湖北赤壁宣布24日起公共汽车客运全暂停 全市取消各类大型文化活动</v>
+        <v>热点丨量刑减轻！韩“亲信干政案”崔顺实重审判决获刑18年</v>
       </c>
       <c r="B150">
-        <v>23097</v>
+        <v>35269</v>
       </c>
       <c r="C150" t="str">
-        <v>2020-01-23 21:32</v>
+        <v>2020-02-14 16:54</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="str">
-        <v>好莱坞大亨与维密模特对话曝光：和我一起找乐子 否则失去大好机会</v>
+        <v>热点丨房东免租但租金照收？杭州房管发文制止长租公寓发“国难财”</v>
       </c>
       <c r="B151">
-        <v>22472</v>
+        <v>17333</v>
       </c>
       <c r="C151" t="str">
-        <v>2020-01-23 21:30</v>
+        <v>2020-02-14 16:52</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="str">
-        <v>铁路免收退票费扩至全国 自1月24日0时起执行</v>
+        <v>紧急呼叫｜专家谈用康复者血浆治疗新冠：抗SARS时用过 能中和体内病毒</v>
       </c>
       <c r="B152">
-        <v>33717</v>
+        <v>3734782</v>
       </c>
       <c r="C152" t="str">
-        <v>2020-01-23 21:29</v>
+        <v>2020-02-14 16:50</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="str">
-        <v>防控新冠状病毒肺炎疫情 北京市取消包括庙会在内的大型活动</v>
+        <v>热点丨外国人到上海是否需隔离观察？上海卫健委：标准和国人一样</v>
       </c>
       <c r="B153">
-        <v>32003</v>
+        <v>27092</v>
       </c>
       <c r="C153" t="str">
-        <v>2020-01-23 20:55</v>
+        <v>2020-02-14 16:41</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="str">
-        <v>湖北省教育厅：中小学春季开学确定延期</v>
+        <v>热点丨老夫妇获准离开却坚持留在“病毒邮轮”上 背后原因竟是这样</v>
       </c>
       <c r="B154">
-        <v>818917</v>
+        <v>10386</v>
       </c>
       <c r="C154" t="str">
-        <v>2020-01-23 20:43</v>
+        <v>2020-02-14 16:33</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="str">
-        <v>雅思和托福取消近期的武汉考试 将给予考生全额退费</v>
+        <v>热点丨福建男子情人节前夕远程订花送一线抗疫妻子：我把老婆借给宜昌了</v>
       </c>
       <c r="B155">
-        <v>50913</v>
+        <v>25914</v>
       </c>
       <c r="C155" t="str">
-        <v>2020-01-23 20:37</v>
+        <v>2020-02-14 16:21</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="str">
-        <v>澳籍华人取消回武汉探亲：父母原本正期待见到第一个孙子</v>
+        <v>热点丨“民航总医院杀医案”二审维持原判 被告人孙文斌获死刑</v>
       </c>
       <c r="B156">
-        <v>26411</v>
+        <v>12628</v>
       </c>
       <c r="C156" t="str">
-        <v>2020-01-23 20:30</v>
+        <v>2020-02-14 16:14</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="str">
-        <v>湖南高速公路应对武汉肺炎疫情：收费员必戴口罩 对司乘人员测体温</v>
+        <v>有料丨无视疫情10余人聚赌身旁挤大量围观者 屋内还能实时监控周围情况</v>
       </c>
       <c r="B157">
-        <v>241944</v>
+        <v>104074</v>
       </c>
       <c r="C157" t="str">
-        <v>2020-01-23 20:28</v>
+        <v>2020-02-14 16:07</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="str">
-        <v>东京奥运会武汉站资格赛相继取消：因新型肺炎病例剧增</v>
+        <v>热点丨上海一患者隐瞒行程后确诊致55人隔离 出院后被刑拘</v>
       </c>
       <c r="B158">
-        <v>20718</v>
+        <v>26943</v>
       </c>
       <c r="C158" t="str">
-        <v>2020-01-23 20:16</v>
+        <v>2020-02-14 16:04</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="str">
-        <v>成都免费发口罩企业回应争议：希望质疑我们做宣传的 拿出口罩来</v>
+        <v>热点丨“钻石公主”号有14名中国人感染新冠肺炎 船上共有311名中国人</v>
       </c>
       <c r="B159">
-        <v>40121</v>
+        <v>251211</v>
       </c>
       <c r="C159" t="str">
-        <v>2020-01-23 20:14</v>
+        <v>2020-02-14 16:04</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="str">
-        <v>世卫组织驻华代表：封锁千万级人口大城在科学上是史无前例的</v>
+        <v>有料丨小学生到民警跟前深鞠一躬 随后他的举动让民警感动不已</v>
       </c>
       <c r="B160">
-        <v>2289422</v>
+        <v>327857</v>
       </c>
       <c r="C160" t="str">
-        <v>2020-01-23 19:59</v>
+        <v>2020-02-14 15:55</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="str">
-        <v>拉美3国出现新型肺炎疑似病例 患者均从中国出发</v>
+        <v>有料丨新冠肺炎重症患者出院 援助湖北医生激动到失眠：这是最高奖励</v>
       </c>
       <c r="B161">
-        <v>105335</v>
+        <v>14944</v>
       </c>
       <c r="C161" t="str">
-        <v>2020-01-23 19:53</v>
+        <v>2020-02-14 15:55</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="str">
-        <v>北京新增8例新型肺炎病例 累计确诊22例均有湖北接触史</v>
+        <v>热点丨日本旗袍女孩街头鞠躬为武汉筹款50万日元 获中国驻日大使接见</v>
       </c>
       <c r="B162">
-        <v>87664</v>
+        <v>27359</v>
       </c>
       <c r="C162" t="str">
-        <v>2020-01-23 19:30</v>
+        <v>2020-02-14 15:49</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="str">
-        <v>交通部：暂停进入武汉的道路水路客运班线 途经班线应立即绕行</v>
+        <v>热点丨多省要求因疫情耽误课时要用暑假补齐 学生留言：借来的迟早要还</v>
       </c>
       <c r="B163">
-        <v>486124</v>
+        <v>33512</v>
       </c>
       <c r="C163" t="str">
-        <v>2020-01-23 19:29</v>
+        <v>2020-02-14 15:47</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="str">
-        <v>陕西首次确诊3例新型肺炎病例 一人曾与武汉发热病人同室开会</v>
+        <v>紧急呼叫丨疫情中的北京婚登处：10分钟办完 戴口罩拍留念照</v>
       </c>
       <c r="B164">
-        <v>335897</v>
+        <v>667602</v>
       </c>
       <c r="C164" t="str">
-        <v>2020-01-23 19:28</v>
+        <v>2020-02-14 15:27</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="str">
-        <v>世卫组织：新型肺炎感染症状不一 武汉“封城”举措或降低传播风险</v>
+        <v>热点丨男子因赌博欠债网上虚假售卖口罩 被抓后忏悔：开始真是想卖口罩的</v>
       </c>
       <c r="B165">
-        <v>85555</v>
+        <v>86180</v>
       </c>
       <c r="C165" t="str">
-        <v>2020-01-23 19:28</v>
+        <v>2020-02-14 15:17</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="str">
-        <v>新疆首次确认2例新型肺炎确诊病例 也是武汉来的</v>
+        <v>热点丨李显龙情人节给医护人员写卡片致谢：超越了职责的要求保卫我们</v>
       </c>
       <c r="B166">
-        <v>159985</v>
+        <v>10738</v>
       </c>
       <c r="C166" t="str">
-        <v>2020-01-23 19:26</v>
+        <v>2020-02-14 15:13</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="str">
-        <v>探访武汉发热患者诊疗定点医院：患者排长龙就诊 医院正抓紧腾出病房</v>
+        <v>热点丨内蒙古统计局一干部驾车出小区 拒防疫登记还殴打工作人员被刑拘</v>
       </c>
       <c r="B167">
-        <v>1938592</v>
+        <v>53578</v>
       </c>
       <c r="C167" t="str">
-        <v>2020-01-23 19:18</v>
+        <v>2020-02-14 14:50</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="str">
-        <v>香港确认2例新型冠状病毒病例 患者均曾前往武汉</v>
+        <v>热点丨9个月大女婴出院！随父母从武汉来京旅游被确诊新冠肺炎</v>
       </c>
       <c r="B168">
-        <v>102790</v>
+        <v>19987</v>
       </c>
       <c r="C168" t="str">
-        <v>2020-01-23 19:15</v>
+        <v>2020-02-14 14:45</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="str">
-        <v>波音737起飞后舱内浓烟弥漫：乘客在警报声中绝望哭泣</v>
+        <v>热点丨防疫期间聚众赌博 民警端窝点时意外发现居然还有网逃人员</v>
       </c>
       <c r="B169">
-        <v>138822</v>
+        <v>181197</v>
       </c>
       <c r="C169" t="str">
-        <v>2020-01-23 19:15</v>
+        <v>2020-02-14 14:39</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="str">
-        <v>河南首例新型冠状病毒感染者退烧：身体正在恢复 一顿能吃一个馒头</v>
+        <v>热点丨内蒙古统计局一干部驾车出小区 拒防疫登记还殴打工作人员被刑拘</v>
       </c>
       <c r="B170">
-        <v>812047</v>
+        <v>409973</v>
       </c>
       <c r="C170" t="str">
-        <v>2020-01-23 19:14</v>
+        <v>2020-02-14 14:36</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="str">
-        <v>武汉多区电影院已暂停营业 官方：影院十分配合 正处理退票事宜</v>
+        <v>热点丨澳门推经济援助措施：疫情后每人发放3000澳门元消费券</v>
       </c>
       <c r="B171">
-        <v>53689</v>
+        <v>9570</v>
       </c>
       <c r="C171" t="str">
-        <v>2020-01-23 18:48</v>
+        <v>2020-02-14 14:30</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="str">
-        <v>湖北黄冈宣布公共交通23日24时关闭 疫情指挥部：保证物资充足</v>
+        <v>热点丨特斯拉召回3000余辆Model X系列汽车：存在安全隐患</v>
       </c>
       <c r="B172">
-        <v>19983</v>
+        <v>14287</v>
       </c>
       <c r="C172" t="str">
-        <v>2020-01-23 18:32</v>
+        <v>2020-02-14 14:16:54</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="str">
-        <v>抗击新型肺炎一线医护人员：有人为方便穿防护服剪掉长发 有人主动推迟婚期</v>
+        <v>热点丨9个月大女婴出院！随父母从武汉来京旅游被确诊新冠肺炎</v>
       </c>
       <c r="B173">
-        <v>1804669</v>
+        <v>19914</v>
       </c>
       <c r="C173" t="str">
-        <v>2020-01-23 18:31</v>
+        <v>2020-02-14 14:03</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="str">
-        <v>武汉市所有旅游团队取消 文博场馆闭馆至元宵节</v>
+        <v>热点丨情人节一个人怎么办？伦敦餐厅邀你对着镜子和自己约会</v>
       </c>
       <c r="B174">
-        <v>28895</v>
+        <v>4163</v>
       </c>
       <c r="C174" t="str">
-        <v>2020-01-23 17:38</v>
+        <v>2020-02-14 13:55</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="str">
-        <v>武汉开通24小时接收社会捐赠热线 护目镜防护服等医用物资供应短缺</v>
+        <v>有料丨爱情的模样！妻子出征湖北抗疫 临行前警察丈夫郑重向她敬礼</v>
       </c>
       <c r="B175">
-        <v>450262</v>
+        <v>30104</v>
       </c>
       <c r="C175" t="str">
-        <v>2020-01-23 17:30</v>
+        <v>2020-02-14 13:51</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="str">
-        <v>清华北大24日起暂停校园参观：为配合防控新型冠状病毒肺炎疫情</v>
+        <v>热点丨世卫组织支持湖北采纳临床诊断结果：有利于病人及时得到治疗</v>
       </c>
       <c r="B176">
-        <v>102544</v>
+        <v>6449</v>
       </c>
       <c r="C176" t="str">
-        <v>2020-01-23 17:20</v>
+        <v>2020-02-14 13:45</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="str">
-        <v>美国罕见寒流来袭 天降“鬣蜥雨”惊呆路人</v>
+        <v>热点丨实拍广西男子未佩戴口罩还殴打劝阻协警 检察院迅速批捕</v>
       </c>
       <c r="B177">
-        <v>65543</v>
+        <v>432408</v>
       </c>
       <c r="C177" t="str">
-        <v>2020-01-23 16:53</v>
+        <v>2020-02-14 13:17</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="str">
-        <v>中国邮政将对武汉进出口邮件二次消毒 客服：服务人员会戴口罩</v>
+        <v>热点丨江苏徐州民警在疫情防控工作中牺牲 生前曾手写请战书要求上一线</v>
       </c>
       <c r="B178">
-        <v>51889</v>
+        <v>24536</v>
       </c>
       <c r="C178" t="str">
-        <v>2020-01-23 16:51</v>
+        <v>2020-02-14 13:12</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="str">
-        <v>福建长乐机场发现1名疑似肺炎患者 用隔离箱运上救护车</v>
+        <v>热点｜上海又有28例新冠肺炎患者康复出院 共有90例患者出院</v>
       </c>
       <c r="B179">
-        <v>6006009</v>
+        <v>49776</v>
       </c>
       <c r="C179" t="str">
-        <v>2020-01-23 16:50</v>
+        <v>2020-02-14 13:05</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="str">
-        <v>紧急呼叫丨武汉封城下的外卖骑手：药品和蔬菜订单多 和顾客不交流送达就走</v>
+        <v>热点丨河北省原副省长李谦被决定逮捕 通报其甘于被“围猎”搞钱色交易</v>
       </c>
       <c r="B180">
-        <v>718396</v>
+        <v>496406</v>
       </c>
       <c r="C180" t="str">
-        <v>2020-01-23 16:39</v>
+        <v>2020-02-14 13:01</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="str">
-        <v>湖北鄂州全市铁路车站暂时关闭 疫情指挥部：物资储备充足</v>
+        <v>有料丨女儿写给新冠肺炎重症妈妈的信 护士病床前念完哽咽落泪</v>
       </c>
       <c r="B181">
-        <v>253018</v>
+        <v>38860</v>
       </c>
       <c r="C181" t="str">
-        <v>2020-01-23 16:36</v>
+        <v>2020-02-14 13:00</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="str">
-        <v>官方通报退伍军人被顶替工作23年：4人涉嫌犯罪被移交司法机关</v>
+        <v>紧急呼叫丨武汉协和改造病房致肿瘤患者就医难？回应：病情危重者仍可住院</v>
       </c>
       <c r="B182">
-        <v>24800</v>
+        <v>1942212</v>
       </c>
       <c r="C182" t="str">
-        <v>2020-01-23 16:33</v>
+        <v>2020-02-14 12:44</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="str">
-        <v>因接触网设备故障 京九铁路多趟列车晚点</v>
+        <v>热点｜“钻石公主”号80岁以上老人最快14号下船 岸上住所配有单人浴室</v>
       </c>
       <c r="B183">
-        <v>8825</v>
+        <v>111089</v>
       </c>
       <c r="C183" t="str">
-        <v>2020-01-23 16:20</v>
+        <v>2020-02-14 12:38</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="str">
-        <v>大象在酒店内闲庭信步惊呆房客 酒店回应令人吃惊</v>
+        <v>热点丨澳山火重灾区新州已得到控制 肆虐数月的大火终于熄灭</v>
       </c>
       <c r="B184">
-        <v>11552</v>
+        <v>20658</v>
       </c>
       <c r="C184" t="str">
-        <v>2020-01-23 16:09</v>
+        <v>2020-02-14 12:33</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="str">
-        <v>探访“封城”武汉城区：市民排长队买蔬菜 路上无公交营运空荡荡</v>
+        <v>热点｜南极首次气温超过20摄氏度 创下有记录以来最高温</v>
       </c>
       <c r="B185">
-        <v>561542</v>
+        <v>6211</v>
       </c>
       <c r="C185" t="str">
-        <v>2020-01-23 15:14</v>
+        <v>2020-02-14 12:30</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="str">
-        <v>浙江新型肺炎确诊27例 首例46岁男性患者已基本痊愈</v>
+        <v>热点丨苹果北京零售店情人节恢复营业 采取特殊营业时间段</v>
       </c>
       <c r="B186">
-        <v>25042</v>
+        <v>38430</v>
       </c>
       <c r="C186" t="str">
-        <v>2020-01-23 15:08</v>
+        <v>2020-02-14 12:25</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="str">
-        <v>“电影为小生命为大”春节档电影全部宣布撤档 网友回应：择日再见</v>
+        <v>热点丨内蒙古统计局一干部驾车出小区不配合防疫登记 被单位党内严重警告</v>
       </c>
       <c r="B187">
-        <v>87672</v>
+        <v>27681</v>
       </c>
       <c r="C187" t="str">
-        <v>2020-01-23 15:00</v>
+        <v>2020-02-14 12:19</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="str">
-        <v>弹劾审判首日：特朗普连发132条推特破两项纪录</v>
+        <v>热点｜男子被无症状患者间接感染 确诊7天后康复出院：愿捐献血浆救人</v>
       </c>
       <c r="B188">
-        <v>72139</v>
+        <v>359303</v>
       </c>
       <c r="C188" t="str">
-        <v>2020-01-23 14:39</v>
+        <v>2020-02-14 12:12</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="str">
-        <v>美国首例肺炎病例治疗过程曝光：由机器人治疗 状况令人满意</v>
+        <v>热点丨北京受降雪影响多条高速路段临时封闭 发布道路结冰黄色预警</v>
       </c>
       <c r="B189">
-        <v>451814</v>
+        <v>102671</v>
       </c>
       <c r="C189" t="str">
-        <v>2020-01-23 14:14</v>
+        <v>2020-02-14 12:11</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="str">
-        <v>直击武汉“封城”后现状：机场、火车站、地铁人流稀少  轮渡停航后消毒</v>
+        <v>热点丨韩国海关截获70万只非法出口医用口罩 价值14亿韩元</v>
       </c>
       <c r="B190">
-        <v>1498090</v>
+        <v>70059</v>
       </c>
       <c r="C190" t="str">
-        <v>2020-01-23 13:45</v>
+        <v>2020-02-14 11:58</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="str">
-        <v>吉林省确认1例输入性新型肺炎病例 42岁女性武汉工作返乡后发热</v>
+        <v>热点丨北京理发师戴口罩复工：避免交叉感染 每次店内只接待1个人</v>
       </c>
       <c r="B191">
-        <v>36109</v>
+        <v>36334</v>
       </c>
       <c r="C191" t="str">
-        <v>2020-01-23 13:18</v>
+        <v>2020-02-14 11:56</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="str">
-        <v>紧急呼叫丨探访“封城”后武汉菜市：多人排队有商品卖光 价格无明显变化</v>
+        <v>热点丨美司法部长指责特朗普频繁发文评论案件：没法好好工作了</v>
       </c>
       <c r="B192">
-        <v>3798758</v>
+        <v>6454</v>
       </c>
       <c r="C192" t="str">
-        <v>2020-01-23 13:13</v>
+        <v>2020-02-14 11:55</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="str">
-        <v>不回武汉的上海白领：疫情转变非常突然 希望外界减少对武汉的偏见</v>
+        <v>热点｜“威士特丹”号海上漂流12日后靠岸柬埔寨 洪森为下船乘客献花</v>
       </c>
       <c r="B193">
-        <v>5436206</v>
+        <v>57988</v>
       </c>
       <c r="C193" t="str">
-        <v>2020-01-23 13:04</v>
+        <v>2020-02-14 11:43</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="str">
-        <v>西班牙受强风暴袭击 齐腰高泡沫“侵袭”城镇民众艰难行走</v>
+        <v>热点｜乐华练习生黄智博涉嫌口罩诈骗28万被解约 网友：监狱c位出道</v>
       </c>
       <c r="B194">
-        <v>24842</v>
+        <v>1479317</v>
       </c>
       <c r="C194" t="str">
-        <v>2020-01-23 12:27</v>
+        <v>2020-02-14 11:18</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="str">
-        <v>口罩生产商3至5倍补偿请工人返厂加班：有经销商和供货商愿意分摊成本</v>
+        <v>热点｜上海已准备开展血浆疗法 有新冠肺炎治愈患者主动捐献血浆</v>
       </c>
       <c r="B195">
-        <v>221783</v>
+        <v>3968090</v>
       </c>
       <c r="C195" t="str">
-        <v>2020-01-23 12:20</v>
+        <v>2020-02-14 11:17</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="str">
-        <v>黑龙江确认首例新型肺炎病例：现年69岁 武汉回来后就开始发热</v>
+        <v>热点｜北京春雪清晨降临：鹅毛雪片漫天飞舞 街头行人瞬间“白头”</v>
       </c>
       <c r="B196">
-        <v>8349</v>
+        <v>13364</v>
       </c>
       <c r="C196" t="str">
-        <v>2020-01-23 12:17</v>
+        <v>2020-02-14 10:44</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="str">
-        <v>希腊首位女总统诞生：唯一总统候选人 曾在最高行政法院工作40年</v>
+        <v>热点｜越南一公社出现多例新冠肺炎病例 逾万人被隔离</v>
       </c>
       <c r="B197">
-        <v>11517</v>
+        <v>222717</v>
       </c>
       <c r="C197" t="str">
-        <v>2020-01-23 12:11</v>
+        <v>2020-02-14 10:19</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="str">
-        <v>法国总统当场发飙视频曝光 怒斥警卫：你给我滚</v>
+        <v>澳门博彩业组团向湖北捐口罩：第一批12万只已运到 还想继续采购捐赠</v>
       </c>
       <c r="B198">
-        <v>15993</v>
+        <v>14837</v>
       </c>
       <c r="C198" t="str">
-        <v>2020-01-23 11:56</v>
+        <v>2020-02-14 09:44</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="str">
-        <v>现场：西雅图街头发生枪击致1死5伤 枪手在逃</v>
+        <v>热点丨两次新冠病毒检测均呈阴性 日本男子隔离12天后第三次化验中招</v>
       </c>
       <c r="B199">
-        <v>6826</v>
+        <v>38727</v>
       </c>
       <c r="C199" t="str">
-        <v>2020-01-23 11:54</v>
+        <v>2020-02-13 23:47</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="str">
-        <v>伊朗总统鲁哈尼：无论有无核协议 伊朗永远不会寻求核武器</v>
+        <v>热点丨印度男子感冒却以为自己患上新冠肺炎 无视家人劝说自杀身亡</v>
       </c>
       <c r="B200">
-        <v>52270</v>
+        <v>370820</v>
       </c>
       <c r="C200" t="str">
-        <v>2020-01-23 11:47</v>
+        <v>2020-02-13 23:40</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="str">
-        <v>湖北经视主持人戴口罩播新闻？回应：是在教大家正确佩戴口罩</v>
+        <v>热点丨日物资箱上古诗词走红 组织者：中国人写的 不应与“武汉加油”对立</v>
       </c>
       <c r="B201">
-        <v>14434</v>
+        <v>7051080</v>
       </c>
       <c r="C201" t="str">
-        <v>2020-01-23 11:25</v>
+        <v>2020-02-13 23:33</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="str">
-        <v>印度推出女太空机器人 能说能动还会“模仿秀”</v>
+        <v>热点丨方舱医院有重患临时处理区 体温两天大于38.5度可转定点医院</v>
       </c>
       <c r="B202">
-        <v>6732</v>
+        <v>59885</v>
       </c>
       <c r="C202" t="str">
-        <v>2020-01-23 11:21</v>
+        <v>2020-02-13 23:31</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="str">
-        <v>澳门旅游局宣布取消春节庆祝活动 已确诊2例新型冠状病毒病例</v>
+        <v>热点丨广州一镇政府给复工企业送口罩：符合条件的每人每天一个</v>
       </c>
       <c r="B203">
-        <v>107519</v>
+        <v>65614</v>
       </c>
       <c r="C203" t="str">
-        <v>2020-01-23 11:14</v>
+        <v>2020-02-13 22:51</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="str">
-        <v>联合国秘书长谈人类面临四大威胁：核威胁增加 地球在“燃烧”</v>
+        <v>热点丨4个太平洋岛国一周内纷纷限制日本人入境 日本当局表示理解</v>
       </c>
       <c r="B204">
-        <v>8299</v>
+        <v>48980</v>
       </c>
       <c r="C204" t="str">
-        <v>2020-01-23 11:04</v>
+        <v>2020-02-13 22:51</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="str">
-        <v>美加澳等国强化防疫措施 在机场加紧筛查武汉肺炎疫区旅客</v>
+        <v>热点丨桂林阳朔发生岩石崩塌 过路面包车被砸中一人死亡</v>
       </c>
       <c r="B205">
-        <v>305900</v>
+        <v>28115</v>
       </c>
       <c r="C205" t="str">
-        <v>2020-01-23 10:27</v>
+        <v>2020-02-13 22:24</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="str">
-        <v>湖北经视主持人戴口罩播新闻？回应：是在教大家正确佩戴口罩</v>
+        <v>有料丨因疫情藏匿地点经常被查 逃亡5年窃贼主动自首：成天心惊胆战</v>
       </c>
       <c r="B206">
-        <v>1402555</v>
+        <v>120748</v>
       </c>
       <c r="C206" t="str">
-        <v>2020-01-23 10:18</v>
+        <v>2020-02-13 22:10</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="str">
-        <v>武汉女子自称吃退烧药后进法国 中使馆：已要求她通知急救部门</v>
+        <v>有料｜直击确诊病例社区防疫人员日常：每天工作12小时 手洗上百次致发白</v>
       </c>
       <c r="B207">
-        <v>475143</v>
+        <v>261835</v>
       </c>
       <c r="C207" t="str">
-        <v>2020-01-23 10:01</v>
+        <v>2020-02-13 21:59</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="str">
-        <v>新型肺炎已致17人死亡：均来自湖北省 最大89岁最小48岁</v>
+        <v>热点丨五菱首批口罩已下线 包装口号：人民需要什么就造什么</v>
       </c>
       <c r="B208">
-        <v>370410</v>
+        <v>703298</v>
       </c>
       <c r="C208" t="str">
-        <v>2020-01-23 09:43</v>
+        <v>2020-02-13 21:59</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="str">
-        <v>武汉凌晨发布离汉通道关闭消息 部分旅客选择连夜出城列车上全员戴口罩</v>
+        <v>热点｜北京朝阳医院副院长：新冠肺炎患者呼吸衰竭比非典更快</v>
       </c>
       <c r="B209">
-        <v>4750337</v>
+        <v>45738</v>
       </c>
       <c r="C209" t="str">
-        <v>2020-01-23 09:29</v>
+        <v>2020-02-13 21:55</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="str">
-        <v>世卫组织推迟决定肺炎疫情是否构成国际关注突发公共卫生事件：仍需更多信息</v>
+        <v>热点丨郑州街头持弹弓打鸟男子已到案  警方：他想带回家食用</v>
       </c>
       <c r="B210">
-        <v>867561</v>
+        <v>32323</v>
       </c>
       <c r="C210" t="str">
-        <v>2020-01-23 09:09</v>
+        <v>2020-02-13 21:50</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="str">
-        <v>直击武汉多家医院大量医护人员抗疫画面 举拳齐喊：武汉必胜</v>
+        <v>热点丨日本出现首例新冠肺炎死亡病例：80多岁女性死亡后被确诊感染</v>
       </c>
       <c r="B211">
-        <v>11757</v>
+        <v>149559</v>
       </c>
       <c r="C211" t="str">
-        <v>2020-01-23 08:22</v>
+        <v>2020-02-13 21:45</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="str">
-        <v>超长“脱欧”终至尾声 英首相“脱欧”协议获议会批准</v>
+        <v>热点丨山东一女子街头倒地 过路医生不顾疫情摘口罩做人工呼吸</v>
       </c>
       <c r="B212">
-        <v>7366</v>
+        <v>130157</v>
       </c>
       <c r="C212" t="str">
-        <v>2020-01-23 07:43</v>
+        <v>2020-02-13 21:39</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="str">
-        <v>武汉宣布机场火车站离汉通道关闭 要求市民无特殊原因不要离城</v>
+        <v>热点丨武汉患新冠肺炎的医护人员出院 北京医生手写赠言“风雨同舟迎彩虹”</v>
       </c>
       <c r="B213">
-        <v>829789</v>
+        <v>19885</v>
       </c>
       <c r="C213" t="str">
-        <v>2020-01-23 07:31</v>
+        <v>2020-02-13 21:36</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="str">
-        <v>江苏确诊首例新型肺炎病例 患者从武汉返回当天即“中招”</v>
+        <v>有料丨泪目！护士在防护服上留言：你想逃离的家 是我想回却回不去的地方</v>
       </c>
       <c r="B214">
-        <v>57490</v>
+        <v>22602</v>
       </c>
       <c r="C214" t="str">
-        <v>2020-01-23 03:14</v>
+        <v>2020-02-13 21:21</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="str">
-        <v>武汉宣布机场火车站离汉通道关闭 要求市民无特殊原因不要离城</v>
+        <v>热点丨香港市民自创歌曲走红 为武汉“逆行者”加油</v>
       </c>
       <c r="B215">
-        <v>52878</v>
+        <v>15732</v>
       </c>
       <c r="C215" t="str">
-        <v>2020-01-23 02:47</v>
+        <v>2020-02-13 21:02</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="str">
-        <v>北京新增4例新型冠状病毒肺炎病例：行程上均和武汉有密切关联</v>
+        <v>热点 | 青海气象部门连发16条大风预警 西宁8级阵风吹垮板房</v>
       </c>
       <c r="B216">
-        <v>27471</v>
+        <v>7069</v>
       </c>
       <c r="C216" t="str">
-        <v>2020-01-23 02:16</v>
+        <v>2020-02-13 21:01</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="str">
-        <v>紧急呼叫丨春节不回家的武汉北漂：我妹开玩笑说我们都被当“丧尸”看了</v>
+        <v>打滴滴打到“安全舱”走红：车内加装防护隔离膜 已在多地试行</v>
       </c>
       <c r="B217">
-        <v>955073</v>
+        <v>143111</v>
       </c>
       <c r="C217" t="str">
-        <v>2020-01-23 02:14</v>
+        <v>2020-02-13 20:56</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="str">
-        <v>黑龙江确认首例新型肺炎病例：现年69岁 武汉回来后就开始发热</v>
+        <v>热点丨日本检疫官登“钻石公主”号邮轮感染 当局回应：未穿防护服</v>
       </c>
       <c r="B218">
-        <v>57557</v>
+        <v>4963</v>
       </c>
       <c r="C218" t="str">
-        <v>2020-01-23 02:14</v>
+        <v>2020-02-13 20:51</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="str">
-        <v>紧急呼叫丨春节不回家的武汉“厦漂”：担忧故乡亲人 反感网友地域调侃</v>
+        <v>热点丨因遭施压才赞扬中国？世卫组织否认：我们说的本就是事实</v>
       </c>
       <c r="B219">
-        <v>561175</v>
+        <v>307593</v>
       </c>
       <c r="C219" t="str">
-        <v>2020-01-23 01:55</v>
+        <v>2020-02-13 20:39</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="str">
-        <v>李宗盛蔡依林湖北演唱会宣布延期 Jolin粉丝：不会因此退票</v>
+        <v>热点｜福建一村庄发生聚集性疫情确诊24例新冠肺炎 全村436人被隔离</v>
       </c>
       <c r="B220">
-        <v>41278</v>
+        <v>646882</v>
       </c>
       <c r="C220" t="str">
-        <v>2020-01-23 01:52</v>
+        <v>2020-02-13 20:34</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="str">
-        <v>多名航司安全员主动申请执飞涉鄂航班 有人孩子才两岁有人刚领证</v>
+        <v>热点丨探访北京花卉市场 买花人：在家憋坏了 买花点缀心情</v>
       </c>
       <c r="B221">
-        <v>130121</v>
+        <v>17426</v>
       </c>
       <c r="C221" t="str">
-        <v>2020-01-23 01:08</v>
+        <v>2020-02-13 20:24</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="str">
-        <v>紧急呼叫丨男子回忆感染新型肺炎离世的老伴：一开始像感冒很快就站不稳</v>
+        <v>热点丨郑州宠物诊所闯入一只野鸡 救助站：或因疫情防控严密被放生</v>
       </c>
       <c r="B222">
-        <v>8117482</v>
+        <v>10311</v>
       </c>
       <c r="C222" t="str">
-        <v>2020-01-23 01:00</v>
+        <v>2020-02-13 20:10</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="str">
-        <v>回到现场丨一线医护人员穿的防护服啥样？记者亲测：连体密封 材质轻薄光滑</v>
+        <v>热点｜对谈江苏援黄石医疗队总指挥：“散装江苏”是误解 关键看仗打得怎样</v>
       </c>
       <c r="B223">
-        <v>1489142</v>
+        <v>26226</v>
       </c>
       <c r="C223" t="str">
-        <v>2020-01-23 01:00</v>
+        <v>2020-02-13 20:07</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="str">
-        <v>回到现场丨直击武汉新型肺炎隔离病房：护士着防护服12小时 未喝过一口水</v>
+        <v>热点丨瓜伊多访美回国 遭民众层层包围大骂“叛徒”</v>
       </c>
       <c r="B224">
-        <v>58016</v>
+        <v>37813</v>
       </c>
       <c r="C224" t="str">
-        <v>2020-01-23 00:30</v>
+        <v>2020-02-13 20:02</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="str">
-        <v>深圳一国企年会喝16万元茅台董事长被双开 纪委通报处分12人</v>
+        <v>热点丨山东24小时建成一家医用防护服厂 生产设备从各地空运</v>
       </c>
       <c r="B225">
-        <v>66804</v>
+        <v>9214</v>
       </c>
       <c r="C225" t="str">
-        <v>2020-01-23 00:22</v>
+        <v>2020-02-13 19:39</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="str">
-        <v>武汉市副市长：安排7家医院腾出3400张床位专门收治发热患者</v>
+        <v>有料｜货车肆意变道小车被撞转体一圈碎片飞溅 惊险瞬间曝光</v>
       </c>
       <c r="B226">
-        <v>59995</v>
+        <v>1540744</v>
       </c>
       <c r="C226" t="str">
-        <v>2020-01-22 23:58</v>
+        <v>2020-02-13 19:35</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="str">
-        <v>紧急呼叫丨新型肺炎患者儿子：爸！你要看到我结婚生子有家庭</v>
+        <v>热点丨重庆首次发现2例四代感染病例 卫健委：传播链条越长 防控难度越大</v>
       </c>
       <c r="B227">
-        <v>2616384</v>
+        <v>987703</v>
       </c>
       <c r="C227" t="str">
-        <v>2020-01-22 23:57</v>
+        <v>2020-02-13 19:21</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="str">
-        <v>河北确诊首例输入性新型肺炎病例：患者从武汉到石家庄探亲</v>
+        <v>热点丨雷军戴口罩现身线上发布会：我们绝不能被疫情击败</v>
       </c>
       <c r="B228">
-        <v>85758</v>
+        <v>44908</v>
       </c>
       <c r="C228" t="str">
-        <v>2020-01-22 23:46</v>
+        <v>2020-02-13 19:16</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="str">
-        <v>上海各行业启动新型冠状病毒肺炎防控 活禽交易被叫停</v>
+        <v>热点丨南京一网约车司机确诊新冠肺炎 滴滴：行程信息已对接防疫部门</v>
       </c>
       <c r="B229">
-        <v>26805</v>
+        <v>381263</v>
       </c>
       <c r="C229" t="str">
-        <v>2020-01-22 23:40</v>
+        <v>2020-02-13 19:12</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="str">
-        <v>回到现场丨探访武汉隔离病房伙食：四菜一饭准点送达 护士安慰“国家管饭”</v>
+        <v>热点丨俄女子从隔离医院出逃还口述逃跑过程 结果悲剧了</v>
       </c>
       <c r="B230">
-        <v>1384816</v>
+        <v>54730</v>
       </c>
       <c r="C230" t="str">
-        <v>2020-01-22 23:22</v>
+        <v>2020-02-13 19:08</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="str">
-        <v>湖北省新型冠状病毒感染肺炎确诊病例444例 已致17人死亡</v>
+        <v>热点丨泪目！发口罩的卫生院长拒绝给老母亲留口罩 挂完电话就哭了</v>
       </c>
       <c r="B231">
-        <v>2724815</v>
+        <v>151828</v>
       </c>
       <c r="C231" t="str">
-        <v>2020-01-22 23:07</v>
+        <v>2020-02-13 19:02</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="str">
-        <v>回到现场丨隔离病房的医护人员：12小时滴水未进 隔离面罩往下直滴水</v>
+        <v>热点丨武汉方舱医院医护人员带领患者做呼吸操：锻炼呼吸功能</v>
       </c>
       <c r="B232">
-        <v>1166445</v>
+        <v>13312</v>
       </c>
       <c r="C232" t="str">
-        <v>2020-01-22 22:59</v>
+        <v>2020-02-13 18:56</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="str">
-        <v>武汉市副市长：减少公众聚集取消归元寺祈福黄鹤楼夜游</v>
+        <v>有料丨一口气买260斤草莓！运草莓货车被困高速 民警接下来举动让人暖心</v>
       </c>
       <c r="B233">
-        <v>51543</v>
+        <v>12079</v>
       </c>
       <c r="C233" t="str">
-        <v>2020-01-22 22:54</v>
+        <v>2020-02-13 18:56</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="str">
-        <v>回到现场丨武汉被隔离肺炎患者：昏迷时听到儿子说“你一定要看到我结婚”</v>
+        <v>热点丨山火中小考拉获救 一脸享受让工作人员挠痒痒</v>
       </c>
       <c r="B234">
-        <v>1508404</v>
+        <v>6027</v>
       </c>
       <c r="C234" t="str">
-        <v>2020-01-22 22:36</v>
+        <v>2020-02-13 18:52</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="str">
-        <v>直击武汉多家医院大量医护人员抗疫画面 举拳齐喊：武汉必胜</v>
+        <v>有料｜心疼！女警通宵执勤后一头栽倒在路中央 离家只剩不到500米</v>
       </c>
       <c r="B235">
-        <v>5114666</v>
+        <v>394342</v>
       </c>
       <c r="C235" t="str">
-        <v>2020-01-22 22:28</v>
+        <v>2020-02-13 18:46</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="str">
-        <v>福州一中医馆称自制茶饮可防控肺炎病毒 涉虚假广告将被立案调查</v>
+        <v>有料丨男子谎称可从海外运回口罩诈骗16万 民警怒斥：你是不是中国人！</v>
       </c>
       <c r="B236">
-        <v>65822</v>
+        <v>199220</v>
       </c>
       <c r="C236" t="str">
-        <v>2020-01-22 22:19</v>
+        <v>2020-02-13 18:45</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="str">
-        <v>冲浪者挑战18米高巨浪 被瞬间吞没场面超惊险</v>
+        <v>热点丨为买口罩不惜重返日本 一名潜逃中国男子被捕</v>
       </c>
       <c r="B237">
-        <v>46010</v>
+        <v>48674</v>
       </c>
       <c r="C237" t="str">
-        <v>2020-01-22 22:00</v>
+        <v>2020-02-13 18:33</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="str">
-        <v>回到现场丨直击武汉新型肺炎隔离病房：护士着防护服12小时 未喝过一口水</v>
+        <v>热点丨郑州港区一副处长疫情期间违规聚众饮酒、打伤门卫被双开并拘留</v>
       </c>
       <c r="B238">
-        <v>3550369</v>
+        <v>36414</v>
       </c>
       <c r="C238" t="str">
-        <v>2020-01-22 21:54</v>
+        <v>2020-02-13 18:12</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="str">
-        <v>全国新型冠状病毒肺炎已确诊473例 其中湖北375例死亡9例</v>
+        <v>热点丨四川援助武汉医疗队的硬核保障：随队配营养厨师 给队员加菜专用</v>
       </c>
       <c r="B239">
-        <v>450369</v>
+        <v>34950</v>
       </c>
       <c r="C239" t="str">
-        <v>2020-01-22 21:37</v>
+        <v>2020-02-13 18:02</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="str">
-        <v>香港发现首宗高度怀疑新型冠状病毒肺炎个案：搭高铁从武汉赴港旅游</v>
+        <v>热点｜四川阿坝4000亩草原过火燃烧 700余人在浓烟中奋力扑救</v>
       </c>
       <c r="B240">
-        <v>188664</v>
+        <v>15889</v>
       </c>
       <c r="C240" t="str">
-        <v>2020-01-22 21:35</v>
+        <v>2020-02-13 17:55</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="str">
-        <v>武汉文旅局：全市旅行社暂停组团收客 景区停办一切大型活动</v>
+        <v>有料丨小学生“戏精”式宣传防疫 一人分饰三角引网友爆笑</v>
       </c>
       <c r="B241">
-        <v>151608</v>
+        <v>42105</v>
       </c>
       <c r="C241" t="str">
-        <v>2020-01-22 21:16</v>
+        <v>2020-02-13 17:55</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="str">
-        <v>跟拍总统却遭遇大浪 多名记者翻船落水</v>
+        <v>热点｜澳总理宣布延长对中国大陆旅行禁令 警方上门严查自我隔离者</v>
       </c>
       <c r="B242">
-        <v>190849</v>
+        <v>19363</v>
       </c>
       <c r="C242" t="str">
-        <v>2020-01-22 21:15</v>
+        <v>2020-02-13 17:49</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="str">
-        <v>广西确诊2例新型肺炎病例 有人接触过武汉来者后感染</v>
+        <v>热点丨作家被困邮轮目睹病患撤离 曾写邮轮惊悚小说《盒子里的女孩》</v>
       </c>
       <c r="B243">
-        <v>8560</v>
+        <v>11481</v>
       </c>
       <c r="C243" t="str">
-        <v>2020-01-22 20:53</v>
+        <v>2020-02-13 17:48</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="str">
-        <v>黑龙江呼兰河同一处冰面 五天3辆车掉进冰窟窿</v>
+        <v>有料｜可爱又辛酸！辅警凌晨2点打军体拳暖身 每天通宵执勤12小时</v>
       </c>
       <c r="B244">
-        <v>15578</v>
+        <v>7281</v>
       </c>
       <c r="C244" t="str">
-        <v>2020-01-22 20:49</v>
+        <v>2020-02-13 17:38</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="str">
-        <v>獐子岛2019年预亏约4亿元 自称受扇贝去年跑路影响就亏了3亿</v>
+        <v>热点｜抗疫“父子兵”：厦航武汉籍乘务员参与物资运输 致敬一线医生父亲</v>
       </c>
       <c r="B245">
-        <v>53134</v>
+        <v>28931</v>
       </c>
       <c r="C245" t="str">
-        <v>2020-01-22 20:44</v>
+        <v>2020-02-13 17:21</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="str">
-        <v>宁夏确诊首例新型肺炎病例：是一名在武汉工作的90后</v>
+        <v>热点丨日本检疫官登“钻石公主”号邮轮感染 当局回应：未穿防护服</v>
       </c>
       <c r="B246">
-        <v>54472</v>
+        <v>41300</v>
       </c>
       <c r="C246" t="str">
-        <v>2020-01-22 20:07</v>
+        <v>2020-02-13 17:21</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="str">
-        <v>直击春运多地交通枢纽：乘客九成佩戴口罩 工作人员多未做防护</v>
+        <v>热点丨官方回应“云南抗疫情”扫码系统：只采手机号 疫情结束销毁数据</v>
       </c>
       <c r="B247">
-        <v>658035</v>
+        <v>8771</v>
       </c>
       <c r="C247" t="str">
-        <v>2020-01-22 20:00</v>
+        <v>2020-02-13 17:20</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="str">
-        <v>可怜袋鼠被男子狂殴打趴下 同伴在一旁大笑拍视频遭炮轰</v>
+        <v>有料丨“多才多艺”的无人机：除了喊话让居民戴口罩 还能远程测体温</v>
       </c>
       <c r="B248">
-        <v>7416</v>
+        <v>227051</v>
       </c>
       <c r="C248" t="str">
-        <v>2020-01-22 20:00</v>
+        <v>2020-02-13 17:13</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="str">
-        <v>妻子提出离婚惨遭囚禁铁笼中 6个月后机智获救</v>
+        <v>有料｜8岁双胞胎防疫期在家憋坏 偷偷溜出门拦车准备回老家</v>
       </c>
       <c r="B249">
-        <v>39021</v>
+        <v>79019</v>
       </c>
       <c r="C249" t="str">
-        <v>2020-01-22 19:53</v>
+        <v>2020-02-13 17:07</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="str">
-        <v>宝马车舱装满垃圾引路人报警 车主：我捡的明明是黄金</v>
+        <v>紧急呼叫丨十堰张湾区全域实施“战时管制” 居民：是对大家更负责</v>
       </c>
       <c r="B250">
-        <v>40094</v>
+        <v>795411</v>
       </c>
       <c r="C250" t="str">
-        <v>2020-01-22 19:50</v>
+        <v>2020-02-13 17:03</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="str">
-        <v>老死不相往来的邻居握手言和 这个派出所“警司联调”究竟做了啥？</v>
+        <v>热点丨国开行原党委书记胡怀邦被决定逮捕：纵容家人敛财 大搞权钱交易</v>
       </c>
       <c r="B251">
-        <v>11246</v>
+        <v>114261</v>
       </c>
       <c r="C251" t="str">
-        <v>2020-01-22 19:47</v>
+        <v>2020-02-13 17:01</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="str">
-        <v>山西省确诊首例新型肺炎病例：曾在武汉旅游 回程时路过石家庄</v>
+        <v>热点丨解除隔离后欢呼雀跃成网红 男子回应：没憋坏 我本就是个快乐的人</v>
       </c>
       <c r="B252">
-        <v>171985</v>
+        <v>281640</v>
       </c>
       <c r="C252" t="str">
-        <v>2020-01-22 19:35</v>
+        <v>2020-02-13 16:52</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="str">
-        <v>贵州省确诊首例新型肺炎病例 患者发病前一周在武汉住过</v>
+        <v>热点丨疫情防控下的北京西站：为免频繁出行 客运员工作24小时休72小时</v>
       </c>
       <c r="B253">
-        <v>17548</v>
+        <v>22486</v>
       </c>
       <c r="C253" t="str">
-        <v>2020-01-22 19:32</v>
+        <v>2020-02-13 16:50</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="str">
-        <v>5岁女孩随千人移民大军走丢 母女重逢后相拥而泣</v>
+        <v>热点丨专家谈喷洒环保酵素：不但不能消毒反而为病毒提供生存载体</v>
       </c>
       <c r="B254">
-        <v>9697</v>
+        <v>18241</v>
       </c>
       <c r="C254" t="str">
-        <v>2020-01-22 19:06</v>
+        <v>2020-02-13 16:49</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="str">
-        <v>多平台暂停武汉疫区外卖服务 美团饿了么：餐箱会进行消毒</v>
+        <v>有料丨15名在押人员自发为疫区捐款：我们犯过错 但要向好的一面学习</v>
       </c>
       <c r="B255">
-        <v>23950</v>
+        <v>13606</v>
       </c>
       <c r="C255" t="str">
-        <v>2020-01-22 19:05</v>
+        <v>2020-02-13 16:45</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="str">
-        <v>新型肺炎疫情隔离区画面曝光 武汉大学人民医院数百名医务人员一线奋战</v>
+        <v>热点丨世卫组织：刚果（金）埃博拉疫情仍是国际关注的突发公共卫生事件</v>
       </c>
       <c r="B256">
-        <v>623048</v>
+        <v>7030</v>
       </c>
       <c r="C256" t="str">
-        <v>2020-01-22 18:59</v>
+        <v>2020-02-13 16:44</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="str">
-        <v>福建确认首例新型肺炎病例：70岁男子从武汉回乡后第四天入院隔离</v>
+        <v>热点丨中科院院士陈凯先：上海已成功分离4株新冠病毒毒株</v>
       </c>
       <c r="B257">
-        <v>91809</v>
+        <v>9249</v>
       </c>
       <c r="C257" t="str">
-        <v>2020-01-22 18:48</v>
+        <v>2020-02-13 16:36</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="str">
-        <v>湖北各地出现口罩防护服等防疫物资短缺 拟请求国家支援</v>
+        <v>热点｜探访疫情防控下的北京社区：154名工作人员从除夕到现在没休假</v>
       </c>
       <c r="B258">
-        <v>77480</v>
+        <v>12519</v>
       </c>
       <c r="C258" t="str">
-        <v>2020-01-22 18:32</v>
+        <v>2020-02-13 16:27</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="str">
-        <v>堵路30秒还刹车2次！司机与消防车斗气被扣200元罚3分 网友：罚轻了</v>
+        <v>热点丨英国遭风暴袭击 巨浪滔天形成“波浪炸弹”</v>
       </c>
       <c r="B259">
-        <v>15337</v>
+        <v>8992</v>
       </c>
       <c r="C259" t="str">
-        <v>2020-01-22 18:30</v>
+        <v>2020-02-13 16:19</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="str">
-        <v>安徽省确认首例新型肺炎确诊病例</v>
+        <v>有料｜男子想去上海打工碰上封路 走了20多个小时到了火车站发现火车停了</v>
       </c>
       <c r="B260">
-        <v>30257</v>
+        <v>792688</v>
       </c>
       <c r="C260" t="str">
-        <v>2020-01-22 18:20</v>
+        <v>2020-02-13 16:16</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="str">
-        <v>成都防控新型肺炎现场 双流机场对武汉进港人员挨个测体温</v>
+        <v>热点丨兴凯湖大量浮冰涌上湖岸 专家：升温加大风致冰凌上岸</v>
       </c>
       <c r="B261">
-        <v>94740</v>
+        <v>19739</v>
       </c>
       <c r="C261" t="str">
-        <v>2020-01-22 18:20</v>
+        <v>2020-02-13 16:13</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="str">
-        <v>回到现场丨直击武汉华南海鲜市场退租：商户戴口罩排长队 可领万元补贴</v>
+        <v>热点丨疫苗新进展！上海科委：mRNA候选疫苗小样已开展药效实验</v>
       </c>
       <c r="B262">
-        <v>3633722</v>
+        <v>88325</v>
       </c>
       <c r="C262" t="str">
-        <v>2020-01-22 18:12</v>
+        <v>2020-02-13 16:02</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" t="str">
-        <v>卫健委高级别专家李兰娟：新型冠状病毒56摄氏度环境下30分钟死亡</v>
+        <v>热点丨印度女校光天化日下遭大批男子强闯 多名女学生被趁乱猥亵</v>
       </c>
       <c r="B263">
-        <v>648175</v>
+        <v>1093</v>
       </c>
       <c r="C263" t="str">
-        <v>2020-01-22 18:07</v>
+        <v>2020-02-13 16:01</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" t="str">
-        <v>辽宁确认2例输入性新型肺炎病例 分别在湖北武汉和仙桃工作</v>
+        <v>热点丨情人节硬核玩法：帮蟑螂取前任名字 还能看它被吃掉</v>
       </c>
       <c r="B264">
-        <v>169200</v>
+        <v>6217</v>
       </c>
       <c r="C264" t="str">
-        <v>2020-01-22 18:04</v>
+        <v>2020-02-13 15:59</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" t="str">
-        <v>海南确诊4例新型肺炎病例：患者均从武汉抵达海南</v>
+        <v>热点｜世卫组织总干事：邮轮被多国拒绝进港未基于有证据的风险评估</v>
       </c>
       <c r="B265">
-        <v>39864</v>
+        <v>13184</v>
       </c>
       <c r="C265" t="str">
-        <v>2020-01-22 18:02</v>
+        <v>2020-02-13 15:32</v>
       </c>
     </row>
     <row r="266">
       <c r="A266" t="str">
-        <v>电脑落在疾驰车辆引擎盖上 摩托车手一个动作惊险“救回”</v>
+        <v>热点丨和传销组织高层合影？安倍晋三回应：不认识这个人</v>
       </c>
       <c r="B266">
-        <v>11245</v>
+        <v>9560</v>
       </c>
       <c r="C266" t="str">
-        <v>2020-01-22 17:54</v>
+        <v>2020-02-13 15:26</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" t="str">
-        <v>武汉打车平台联合启动疫情应急措施</v>
+        <v>紧急呼叫丨专家详解新冠临床诊断病例纳入确诊病例：不会再延误患者就诊</v>
       </c>
       <c r="B267">
-        <v>32646</v>
+        <v>272930</v>
       </c>
       <c r="C267" t="str">
-        <v>2020-01-22 17:49</v>
+        <v>2020-02-13 15:24</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" t="str">
-        <v>武汉中南医院宣布用ECMO技术成功救治一位新型冠状病毒患者</v>
+        <v>热点丨中科院院士陈凯先：羟氯喹治疗新冠肺炎临床试验已启动</v>
       </c>
       <c r="B268">
-        <v>18890</v>
+        <v>11099</v>
       </c>
       <c r="C268" t="str">
-        <v>2020-01-22 17:46</v>
+        <v>2020-02-13 15:22</v>
       </c>
     </row>
     <row r="269">
       <c r="A269" t="str">
-        <v>武汉女子乘火车探亲途中发热 扬州卫健委：已掌握同车旅客情况</v>
+        <v>热点丨“打倒病魔”台州危重病人脱离呼吸机 第一句话感动所有人</v>
       </c>
       <c r="B269">
-        <v>1268951</v>
+        <v>117348</v>
       </c>
       <c r="C269" t="str">
-        <v>2020-01-22 17:33</v>
+        <v>2020-02-13 15:22</v>
       </c>
     </row>
     <row r="270">
       <c r="A270" t="str">
-        <v>萌娃独自在家用哭泣小奶音报警：想妈妈想爸爸 我害怕</v>
+        <v>热点丨厦航包机给福建医疗队送生活保障物资 澳籍机长：武汉人民需要帮助</v>
       </c>
       <c r="B270">
-        <v>41012</v>
+        <v>118405</v>
       </c>
       <c r="C270" t="str">
-        <v>2020-01-22 17:31</v>
+        <v>2020-02-13 15:18</v>
       </c>
     </row>
     <row r="271">
       <c r="A271" t="str">
-        <v>武汉中南医院宣布用ECMO技术成功救治一位新型冠状病毒患者</v>
+        <v>有料丨夫妻坚守岗位近20天没见 丈夫到妻子医院门口隔空过结婚纪念日</v>
       </c>
       <c r="B271">
-        <v>963999</v>
+        <v>53306</v>
       </c>
       <c r="C271" t="str">
-        <v>2020-01-22 17:30</v>
+        <v>2020-02-13 15:15</v>
       </c>
     </row>
     <row r="272">
       <c r="A272" t="str">
-        <v>900斤“绿巨人”为爱征婚 因女方不够重拒绝300多人</v>
+        <v>热点｜兰州一牛肉馆复工营业 市民蜿蜒排队自觉2米间隔</v>
       </c>
       <c r="B272">
-        <v>43781</v>
+        <v>157085</v>
       </c>
       <c r="C272" t="str">
-        <v>2020-01-22 17:30</v>
+        <v>2020-02-13 15:13</v>
       </c>
     </row>
     <row r="273">
       <c r="A273" t="str">
-        <v>变异小山羊长出人脸 被村民众星拱月视若神明膜拜</v>
+        <v>热点丨“钻石公主”号乘客称每人仅有3个口罩 为能赶快筛检甚至期待发烧</v>
       </c>
       <c r="B273">
-        <v>39987</v>
+        <v>7988</v>
       </c>
       <c r="C273" t="str">
-        <v>2020-01-22 17:24</v>
+        <v>2020-02-13 15:00</v>
       </c>
     </row>
     <row r="274">
       <c r="A274" t="str">
-        <v>广州疾控专家称半天可完成病例快速检测：已筛查100多份病例样本</v>
+        <v>热点丨超大鲸鱼“撞上”小游船 主动为游客喷水“表演”</v>
       </c>
       <c r="B274">
-        <v>61550</v>
+        <v>6634</v>
       </c>
       <c r="C274" t="str">
-        <v>2020-01-22 17:18</v>
+        <v>2020-02-13 14:53</v>
       </c>
     </row>
     <row r="275">
       <c r="A275" t="str">
-        <v>朝阳医院伤医事件2人阻拦暴徒被砍伤 民政局：认定是见义勇为</v>
+        <v>热点丨华人学生讲述因新冠病毒受到歧视：在图书馆刚坐下 对面的人就走了</v>
       </c>
       <c r="B275">
-        <v>294400</v>
+        <v>59963</v>
       </c>
       <c r="C275" t="str">
-        <v>2020-01-22 17:18</v>
+        <v>2020-02-13 14:25</v>
       </c>
     </row>
     <row r="276">
       <c r="A276" t="str">
-        <v>特朗普或再推旅行禁令 这次新增白俄罗斯等7个国家</v>
+        <v>热点丨“小花奶奶”鲁园去世 剧中爷爷扮演者数日前刚过世</v>
       </c>
       <c r="B276">
-        <v>7901</v>
+        <v>987037</v>
       </c>
       <c r="C276" t="str">
-        <v>2020-01-22 17:12</v>
+        <v>2020-02-13 14:10</v>
       </c>
     </row>
     <row r="277">
       <c r="A277" t="str">
-        <v>实拍：澳洲海岸惊现夜光藻 海面发出幽蓝荧光如仙境</v>
+        <v>热点丨伊朗北部遭遇严重雪灾雪崩 已致7死85伤</v>
       </c>
       <c r="B277">
-        <v>8445</v>
+        <v>28866</v>
       </c>
       <c r="C277" t="str">
-        <v>2020-01-22 17:09</v>
+        <v>2020-02-13 14:10</v>
       </c>
     </row>
     <row r="278">
       <c r="A278" t="str">
-        <v>新型肺炎疫情隔离区画面曝光 武汉大学人民医院数百名医务人员一线奋战</v>
+        <v>热点丨石家庄一社区防疫期间开设无人售菜点 居民扫码付款就能带走菜</v>
       </c>
       <c r="B278">
-        <v>2799326</v>
+        <v>26013</v>
       </c>
       <c r="C278" t="str">
-        <v>2020-01-22 17:04</v>
+        <v>2020-02-13 13:53</v>
       </c>
     </row>
     <row r="279">
       <c r="A279" t="str">
-        <v>朝阳医院暴力伤医者涉嫌故意杀人被批捕</v>
+        <v>热点丨世卫组织：湖北以外传播势头减缓 预测结束仍为时过早</v>
       </c>
       <c r="B279">
-        <v>11367</v>
+        <v>767637</v>
       </c>
       <c r="C279" t="str">
-        <v>2020-01-22 16:56</v>
+        <v>2020-02-13 13:44</v>
       </c>
     </row>
     <row r="280">
       <c r="A280" t="str">
-        <v>四川理县发生4.5级地震 消防部门暂未接到求救报警</v>
+        <v>热点丨日本邮轮上确诊新冠肺炎女子哭诉：求助澳大利亚政府却无回音</v>
       </c>
       <c r="B280">
-        <v>597115</v>
+        <v>28229</v>
       </c>
       <c r="C280" t="str">
-        <v>2020-01-22 16:42</v>
+        <v>2020-02-13 13:25</v>
       </c>
     </row>
     <row r="281">
       <c r="A281" t="str">
-        <v>特朗普弹劾审判首日落下帷幕：共和党“大获全胜”实现“11杀”</v>
+        <v>热点丨温州一男子接受卡点检查恶意扯下工作人员口罩 还向头部来了一拳</v>
       </c>
       <c r="B281">
-        <v>1235116</v>
+        <v>215016</v>
       </c>
       <c r="C281" t="str">
-        <v>2020-01-22 16:31</v>
+        <v>2020-02-13 13:21</v>
       </c>
     </row>
     <row r="282">
       <c r="A282" t="str">
-        <v>武汉女医生瞒丈夫请战上防疫前线  医院：她去的是最累最危险的地方</v>
+        <v>热点丨安徽一男子不配合防疫检查殴打辱骂辅警 身穿防护服出庭受审</v>
       </c>
       <c r="B282">
-        <v>224129</v>
+        <v>15308</v>
       </c>
       <c r="C282" t="str">
-        <v>2020-01-22 16:06</v>
+        <v>2020-02-13 13:20</v>
       </c>
     </row>
     <row r="283">
       <c r="A283" t="str">
-        <v>医药零售商回应口罩限购：为确保供应 防有人低价买高价倒卖</v>
+        <v>热点丨贪吃大象在卡车上等红灯 看到隔壁车的甘蔗伸出了鼻子</v>
       </c>
       <c r="B283">
-        <v>57520</v>
+        <v>303374</v>
       </c>
       <c r="C283" t="str">
-        <v>2020-01-22 16:01</v>
+        <v>2020-02-13 13:07</v>
       </c>
     </row>
     <row r="284">
       <c r="A284" t="str">
-        <v>武汉卫健委副主任被感染上海探亲拒绝就诊？官方辟谣：严重不实</v>
+        <v>热点丨爱彼迎被曝9个月亏损超3亿美元 或因成本上升导致</v>
       </c>
       <c r="B284">
-        <v>119268</v>
+        <v>10356</v>
       </c>
       <c r="C284" t="str">
-        <v>2020-01-22 15:55</v>
+        <v>2020-02-13 13:02</v>
       </c>
     </row>
     <row r="285">
       <c r="A285" t="str">
-        <v>武威美女副市长姜保红因受贿被判12年 曾为谋求晋升搞权色交易</v>
+        <v>热点丨世卫组织赞新加坡防疫为典范：防控新冠病毒时全面排查呼吸疾病</v>
       </c>
       <c r="B285">
-        <v>2465567</v>
+        <v>6211</v>
       </c>
       <c r="C285" t="str">
-        <v>2020-01-22 15:51</v>
+        <v>2020-02-13 12:51</v>
       </c>
     </row>
     <row r="286">
       <c r="A286" t="str">
-        <v>疫情是否存在瞒报？国家卫健委回应：高度重视信息公开</v>
+        <v>热点丨“钻石公主”号再增44例新冠肺炎病例 累计确诊218人</v>
       </c>
       <c r="B286">
-        <v>29322</v>
+        <v>56120</v>
       </c>
       <c r="C286" t="str">
-        <v>2020-01-22 15:33</v>
+        <v>2020-02-13 12:47</v>
       </c>
     </row>
     <row r="287">
       <c r="A287" t="str">
-        <v>紧急呼叫丨武汉华南海鲜市场附近小区一六旬老人去世 家属称系感染新型肺炎</v>
+        <v>热点丨实拍聚众打牌者“上岗宣誓”成为志愿者：要为国家做贡献</v>
       </c>
       <c r="B287">
-        <v>1596174</v>
+        <v>37310</v>
       </c>
       <c r="C287" t="str">
-        <v>2020-01-22 15:22</v>
+        <v>2020-02-13 12:37</v>
       </c>
     </row>
     <row r="288">
       <c r="A288" t="str">
-        <v>紧急呼叫丨专访9958负责人回应吴花燕风波：违规只因想救人 文案有夸大</v>
+        <v>热点丨“钻石公主”号船员发热后被隔离：现在只想平安回家</v>
       </c>
       <c r="B288">
-        <v>509678</v>
+        <v>72655</v>
       </c>
       <c r="C288" t="str">
-        <v>2020-01-22 15:18</v>
+        <v>2020-02-13 12:36</v>
       </c>
     </row>
     <row r="289">
       <c r="A289" t="str">
-        <v>84岁老人推轮椅买站票连夜去看老伴背后故事： 女儿称父亲瞒着他们先出发</v>
+        <v>热点丨吉林一男子假称有N95口罩骗钱被判6个月 法院受理隔天就宣判</v>
       </c>
       <c r="B289">
-        <v>34831</v>
+        <v>43001</v>
       </c>
       <c r="C289" t="str">
-        <v>2020-01-22 15:15</v>
+        <v>2020-02-13 12:35</v>
       </c>
     </row>
     <row r="290">
       <c r="A290" t="str">
-        <v>河南失踪少女被一对父子性侵生3孩  主犯被判强奸罪获刑15年</v>
+        <v>热点丨印度女校光天化日下遭大批男子强闯 多名女学生被趁乱猥亵</v>
       </c>
       <c r="B290">
-        <v>401387</v>
+        <v>105356</v>
       </c>
       <c r="C290" t="str">
-        <v>2020-01-22 15:05</v>
+        <v>2020-02-13 12:26</v>
       </c>
     </row>
     <row r="291">
       <c r="A291" t="str">
-        <v>斯里兰卡要打破双胞胎同场世界纪录！1.2万人同场挤爆体育馆</v>
+        <v>热点丨济南市委书记王忠林调任武汉市委书记 两天前刚暗访当地疫情防控工作</v>
       </c>
       <c r="B291">
-        <v>14005</v>
+        <v>176057</v>
       </c>
       <c r="C291" t="str">
-        <v>2020-01-22 14:57</v>
+        <v>2020-02-13 12:13</v>
       </c>
     </row>
     <row r="292">
       <c r="A292" t="str">
-        <v>国家卫健委：武汉禁止活禽销售 严禁野生动物和活禽进入</v>
+        <v>紧急呼叫丨湖北单日新增确诊破万 曾光：临床诊断病例要当成确诊病例管起来</v>
       </c>
       <c r="B292">
-        <v>482634</v>
+        <v>1167472</v>
       </c>
       <c r="C292" t="str">
-        <v>2020-01-22 14:55</v>
+        <v>2020-02-13 12:05</v>
       </c>
     </row>
     <row r="293">
       <c r="A293" t="str">
-        <v>腾格里沙漠12万平米污染物转运完成 运往固废填埋场处置</v>
+        <v>热点丨英女王长外孙结束12年婚姻：妻子受哈里出走影响提出离婚</v>
       </c>
       <c r="B293">
-        <v>4294</v>
+        <v>15496</v>
       </c>
       <c r="C293" t="str">
-        <v>2020-01-22 14:53</v>
+        <v>2020-02-13 11:58</v>
       </c>
     </row>
     <row r="294">
       <c r="A294" t="str">
-        <v>主人为患癌爱犬举办告别会 意外吸引数百人携小狗为它加油打气</v>
+        <v>热点丨香港新冠肺炎患者首次康复出院 医管局：不太会有SARS类似后遗症</v>
       </c>
       <c r="B294">
-        <v>8140</v>
+        <v>12402</v>
       </c>
       <c r="C294" t="str">
-        <v>2020-01-22 14:48</v>
+        <v>2020-02-13 11:43</v>
       </c>
     </row>
     <row r="295">
       <c r="A295" t="str">
-        <v>四川一大爷骑自行车上高速准备到广州过年 大爷一张嘴民警乐了</v>
+        <v>热点丨上海市长应勇调任湖北省委书记 蒋超良不再担任</v>
       </c>
       <c r="B295">
-        <v>439915</v>
+        <v>1103644</v>
       </c>
       <c r="C295" t="str">
-        <v>2020-01-22 14:43</v>
+        <v>2020-02-13 11:42</v>
       </c>
     </row>
     <row r="296">
       <c r="A296" t="str">
-        <v>四川暂停发往武汉的客运车 登记近期途经武汉客运车司乘信息</v>
+        <v>热点丨秘鲁雨林地区登革热疫情致12死 三省进入卫生紧急状态</v>
       </c>
       <c r="B296">
-        <v>24098</v>
+        <v>15721</v>
       </c>
       <c r="C296" t="str">
-        <v>2020-01-22 14:36</v>
+        <v>2020-02-13 11:25</v>
       </c>
     </row>
     <row r="297">
       <c r="A297" t="str">
-        <v>广东新增9例新型肺炎确诊病例 广州佛山韶关三地首次确诊</v>
+        <v>热点丨北京确诊患者小区保洁阿姨：干起活来就不害怕了</v>
       </c>
       <c r="B297">
-        <v>13280</v>
+        <v>22509</v>
       </c>
       <c r="C297" t="str">
-        <v>2020-01-22 14:33</v>
+        <v>2020-02-13 11:24</v>
       </c>
     </row>
     <row r="298">
       <c r="A298" t="str">
-        <v>安徽高院原院长张坚被“双开” 曾帮涉黑涉恶罪犯减刑假释改判</v>
+        <v>热点丨安徽一男子不配合防疫检查殴打辱骂辅警 身穿防护服出庭受审</v>
       </c>
       <c r="B298">
-        <v>11056</v>
+        <v>981534</v>
       </c>
       <c r="C298" t="str">
-        <v>2020-01-22 14:32</v>
+        <v>2020-02-13 11:11</v>
       </c>
     </row>
     <row r="299">
       <c r="A299" t="str">
-        <v>泰国确认4例新型冠状病毒肺炎病例  73岁泰国患者曾到武汉旅游</v>
+        <v>热点丨支援湖北护士想听岳云鹏相声获邀请：心情激动 救治患者更有劲</v>
       </c>
       <c r="B299">
-        <v>120511</v>
+        <v>1736938</v>
       </c>
       <c r="C299" t="str">
-        <v>2020-01-22 14:10</v>
+        <v>2020-02-13 10:36</v>
       </c>
     </row>
     <row r="300">
       <c r="A300" t="str">
-        <v>河北副省长李谦被双开：丧失理想信念 生活腐化搞钱色交易</v>
+        <v>热点丨“威士特丹”号邮轮获准停靠柬埔寨 船员乘客跳舞共庆漂泊结束</v>
       </c>
       <c r="B300">
-        <v>148004</v>
+        <v>252251</v>
       </c>
       <c r="C300" t="str">
-        <v>2020-01-22 13:48</v>
+        <v>2020-02-13 10:31</v>
       </c>
     </row>
     <row r="301">
       <c r="A301" t="str">
-        <v>狗子头卡在笼子里苦苦哀嚎 然而主人早已看穿一切</v>
+        <v>热点丨中日友好医院：正开展瑞德西韦临床试验 从北京运千万元设备支援武汉</v>
       </c>
       <c r="B301">
-        <v>17943</v>
+        <v>94475</v>
       </c>
       <c r="C301" t="str">
-        <v>2020-01-22 13:30</v>
+        <v>2020-02-13 10:15</v>
       </c>
     </row>
     <row r="302">
       <c r="A302" t="str">
-        <v>浙江新增确诊新型冠状病毒感染肺炎5例 宁波3例温州2例</v>
+        <v>热点丨抗疫医生的特殊生日：同事围着假蛋糕唱生日歌 送上祝福</v>
       </c>
       <c r="B302">
-        <v>59510</v>
+        <v>30792</v>
       </c>
       <c r="C302" t="str">
-        <v>2020-01-22 13:30</v>
+        <v>2020-02-13 09:26</v>
       </c>
     </row>
     <row r="303">
       <c r="A303" t="str">
-        <v>航拍直击鸡鸣三省大桥通车：车辆在云雾中穿梭 乌蒙山区打通“交通死角”</v>
+        <v>热点丨美国两名华人遭残忍枪杀 警方通过血脚印抓到20岁嫌犯</v>
       </c>
       <c r="B303">
-        <v>20789</v>
+        <v>158233</v>
       </c>
       <c r="C303" t="str">
-        <v>2020-01-22 13:29</v>
+        <v>2020-02-13 00:36</v>
       </c>
     </row>
     <row r="304">
       <c r="A304" t="str">
-        <v>返乡列车丨往返北京和四川的57岁农民工：等我干不动了 就换儿子出去</v>
+        <v>有料丨医护人员带领方舱患者练八段锦 有专门微信群供“技术”交流</v>
       </c>
       <c r="B304">
-        <v>17740</v>
+        <v>21807</v>
       </c>
       <c r="C304" t="str">
-        <v>2020-01-22 13:26</v>
+        <v>2020-02-12 23:55</v>
       </c>
     </row>
     <row r="305">
       <c r="A305" t="str">
-        <v>国新办新闻发布会要点：武汉肺炎疫情病毒疑来源野生动物 已致9人死亡</v>
+        <v>热点丨中日友好医院党委书记：医护人员面部被防护镜硌出压疮</v>
       </c>
       <c r="B305">
-        <v>5064675</v>
+        <v>11333</v>
       </c>
       <c r="C305" t="str">
-        <v>2020-01-22 13:25</v>
+        <v>2020-02-12 23:51</v>
       </c>
     </row>
     <row r="306">
       <c r="A306" t="str">
-        <v>伊朗议员公开宣布悬赏300万美元刺杀特朗普 美方：荒谬</v>
+        <v>有料｜医学生创作武汉方言rap：我是武汉伢 想感谢全国朋友们支援和祝福</v>
       </c>
       <c r="B306">
-        <v>39651</v>
+        <v>23844</v>
       </c>
       <c r="C306" t="str">
-        <v>2020-01-22 13:20</v>
+        <v>2020-02-12 23:49</v>
       </c>
     </row>
     <row r="307">
       <c r="A307" t="str">
-        <v>福建“协助父亲自杀案”一审宣判 被告人被判刑三年缓刑五年</v>
+        <v>有料丨医疗队员穿防护服跳新疆舞 胖乎乎像大白舞姿超可爱</v>
       </c>
       <c r="B307">
-        <v>33229</v>
+        <v>3336861</v>
       </c>
       <c r="C307" t="str">
-        <v>2020-01-22 13:16</v>
+        <v>2020-02-12 23:47</v>
       </c>
     </row>
     <row r="308">
       <c r="A308" t="str">
-        <v>波音737MAX复飞之路困难重重：机上软件问题仍在修复 工厂已停产</v>
+        <v>热点丨快来瞧瞧别人家的隔离生活 武警小哥自拍酷炫“隔离日记”vlog</v>
       </c>
       <c r="B308">
-        <v>17190</v>
+        <v>198629</v>
       </c>
       <c r="C308" t="str">
-        <v>2020-01-22 13:10</v>
+        <v>2020-02-12 23:47</v>
       </c>
     </row>
     <row r="309">
       <c r="A309" t="str">
-        <v>国家卫健委：建议武汉外的人不去武汉 武汉的市民不出武汉</v>
+        <v>热点丨探访北京新发地农产品市场：菜价平稳 八成商户复工</v>
       </c>
       <c r="B309">
-        <v>5534</v>
+        <v>14515</v>
       </c>
       <c r="C309" t="str">
-        <v>2020-01-22 13:06</v>
+        <v>2020-02-12 23:39</v>
       </c>
     </row>
     <row r="310">
       <c r="A310" t="str">
-        <v>女子前晚停车后忘记关窗 第二天车内这一幕令她当场后悔</v>
+        <v>热点丨黄冈“小汤山”首例妊娠合并新冠肺炎女士出院 医生用中西医诊疗取胜</v>
       </c>
       <c r="B310">
-        <v>27604</v>
+        <v>12015</v>
       </c>
       <c r="C310" t="str">
-        <v>2020-01-22 13:01</v>
+        <v>2020-02-12 23:12</v>
       </c>
     </row>
     <row r="311">
       <c r="A311" t="str">
-        <v>国家卫健委：医务人员感染为“人传人”提供了证据</v>
+        <v>热点丨女子表演时从4.5米高空坠落 现场一阵惊呼</v>
       </c>
       <c r="B311">
-        <v>39275</v>
+        <v>6818</v>
       </c>
       <c r="C311" t="str">
-        <v>2020-01-22 12:41</v>
+        <v>2020-02-12 23:11</v>
       </c>
     </row>
     <row r="312">
       <c r="A312" t="str">
-        <v>国家卫健委：建议大家不去人员密集场所 提倡“口罩文明”</v>
+        <v>热点丨支援湖北医疗队员怕弄脏浪费防护服 呕吐物到嘴边又强忍咽回</v>
       </c>
       <c r="B312">
-        <v>84017</v>
+        <v>3522684</v>
       </c>
       <c r="C312" t="str">
-        <v>2020-01-22 12:41</v>
+        <v>2020-02-12 23:01</v>
       </c>
     </row>
     <row r="313">
       <c r="A313" t="str">
-        <v>澳门确诊首例新型冠状病毒感染肺炎病例 患者为旅澳的武汉旅客</v>
+        <v>热点丨福州一的哥坚持十几天接送湖北籍乘客去隔离：有客人哭我就安慰他</v>
       </c>
       <c r="B313">
-        <v>10920</v>
+        <v>40024</v>
       </c>
       <c r="C313" t="str">
-        <v>2020-01-22 12:12</v>
+        <v>2020-02-12 22:39</v>
       </c>
     </row>
     <row r="314">
       <c r="A314" t="str">
-        <v>回到现场丨武汉市第七医院暂停接诊：正在整改病房 专收新型肺炎相关患者</v>
+        <v>热点丨在澳华人讲述圣诞岛隔离生活：衣食住行都不错 仍孤独想家</v>
       </c>
       <c r="B314">
-        <v>1171827</v>
+        <v>169092</v>
       </c>
       <c r="C314" t="str">
-        <v>2020-01-22 12:10</v>
+        <v>2020-02-12 22:39</v>
       </c>
     </row>
     <row r="315">
       <c r="A315" t="str">
-        <v>国家疾控中心：新型冠状病毒的来源是野生动物 儿童不易感</v>
+        <v>紧急呼叫丨对话“钻石公主”号乘客：一切都难以掌握 只能让自己“忙起来”</v>
       </c>
       <c r="B315">
-        <v>986858</v>
+        <v>648049</v>
       </c>
       <c r="C315" t="str">
-        <v>2020-01-22 11:51</v>
+        <v>2020-02-12 22:31</v>
       </c>
     </row>
     <row r="316">
       <c r="A316" t="str">
-        <v>澳大利亚疑患新型冠状病毒肺炎男子临床症状消失 目前状况良好</v>
+        <v>热点丨医护人员严密防护为何还会被感染？ 蒋荣猛：或因清洁区被污染</v>
       </c>
       <c r="B316">
-        <v>9732</v>
+        <v>9660</v>
       </c>
       <c r="C316" t="str">
-        <v>2020-01-22 11:39</v>
+        <v>2020-02-12 22:31</v>
       </c>
     </row>
     <row r="317">
       <c r="A317" t="str">
-        <v>哈里飞抵加拿大与妻儿相会 下飞机时露出轻松笑容</v>
+        <v>热点丨国家卫健委新冠专家组成员蒋荣猛：粪口传播也是通过手传播</v>
       </c>
       <c r="B317">
-        <v>88391</v>
+        <v>5813</v>
       </c>
       <c r="C317" t="str">
-        <v>2020-01-22 11:31</v>
+        <v>2020-02-12 22:06</v>
       </c>
     </row>
     <row r="318">
       <c r="A318" t="str">
-        <v>特朗普弹劾案审判拉开帷幕 这些“真相”你要知道</v>
+        <v>热点丨吉林一退休官员不戴口罩强带外人进小区 被降低退休待遇行拘15日</v>
       </c>
       <c r="B318">
-        <v>20496</v>
+        <v>1828124</v>
       </c>
       <c r="C318" t="str">
-        <v>2020-01-22 11:04</v>
+        <v>2020-02-12 21:34</v>
       </c>
     </row>
     <row r="319">
       <c r="A319" t="str">
-        <v>国家卫健委：病例数量变化大与诊断试剂下发有关</v>
+        <v>热点丨护士组织方舱患者接龙喊武汉加油 曾隐瞒家人赴鄂支援</v>
       </c>
       <c r="B319">
-        <v>1046298</v>
+        <v>34770</v>
       </c>
       <c r="C319" t="str">
-        <v>2020-01-22 10:51</v>
+        <v>2020-02-12 21:04</v>
       </c>
     </row>
     <row r="320">
       <c r="A320" t="str">
-        <v>新加坡卫生部：7例新型肺炎疑似病例全为阴性 春节将加强防范</v>
+        <v>热点｜兰大二院医护卸下“全副武装” 网友泪目 护士：我们不敢照镜子</v>
       </c>
       <c r="B320">
-        <v>14046</v>
+        <v>163981</v>
       </c>
       <c r="C320" t="str">
-        <v>2020-01-22 10:49</v>
+        <v>2020-02-12 20:59</v>
       </c>
     </row>
     <row r="321">
       <c r="A321" t="str">
-        <v>专家称武汉新型肺炎存在变异可能 重症病例“一人一案”</v>
+        <v>热点丨俄罗斯确诊男子治愈出院：刚确诊时很恐慌 陌生网友一直鼓励我</v>
       </c>
       <c r="B321">
-        <v>35610</v>
+        <v>21648</v>
       </c>
       <c r="C321" t="str">
-        <v>2020-01-22 10:20</v>
+        <v>2020-02-12 20:51</v>
       </c>
     </row>
     <row r="322">
       <c r="A322" t="str">
-        <v>紧急呼叫丨武汉医护人员：有男护士刚成奶爸就前往增援 会紧张但这是责任</v>
+        <v>热点丨福建一六旬老人离家出走 儿子：担心患新冠肺炎传染家人</v>
       </c>
       <c r="B322">
-        <v>1337712</v>
+        <v>307302</v>
       </c>
       <c r="C322" t="str">
-        <v>2020-01-22 09:59</v>
+        <v>2020-02-12 20:21</v>
       </c>
     </row>
     <row r="323">
       <c r="A323" t="str">
-        <v>上海确认首例输入性新型肺炎病例 患者系武汉籍上周刚抵沪</v>
+        <v>热点丨金像奖首次取消实体颁奖礼 易烊千玺周冬雨将角逐影帝影后</v>
       </c>
       <c r="B323">
-        <v>6747</v>
+        <v>19827</v>
       </c>
       <c r="C323" t="str">
-        <v>2020-01-22 09:43</v>
+        <v>2020-02-12 20:20</v>
       </c>
     </row>
     <row r="324">
       <c r="A324" t="str">
-        <v>“春节电话亭”年夜饭篇：南北方年夜饭大赏 这个地方饺子即王者</v>
+        <v>热点丨旅客被困邮轮崩溃痛哭：看新闻才知道要隔离 担心确诊患者住隔壁</v>
       </c>
       <c r="B324">
-        <v>950173</v>
+        <v>45111</v>
       </c>
       <c r="C324" t="str">
-        <v>2020-01-22 09:34</v>
+        <v>2020-02-12 20:15</v>
       </c>
     </row>
     <row r="325">
       <c r="A325" t="str">
-        <v>全国确诊新型肺炎324例 湖北启动突发公共卫生事件二级应急响应</v>
+        <v>有料｜61座大巴乘客一下车体温可瞬间测出！实拍人流密集处无人机秒测温</v>
       </c>
       <c r="B325">
-        <v>434637</v>
+        <v>59319</v>
       </c>
       <c r="C325" t="str">
-        <v>2020-01-22 08:40</v>
+        <v>2020-02-12 20:09</v>
       </c>
     </row>
     <row r="326">
       <c r="A326" t="str">
-        <v>美国确诊首例新型冠状病毒感染肺炎病例 患者曾到武汉周边旅游</v>
+        <v>有料丨产妇送医途中在车上开始分娩 开道民辅警用手机打光照亮“临时产房”</v>
       </c>
       <c r="B326">
-        <v>8022</v>
+        <v>12136</v>
       </c>
       <c r="C326" t="str">
-        <v>2020-01-22 07:36</v>
+        <v>2020-02-12 20:08</v>
       </c>
     </row>
     <row r="327">
       <c r="A327" t="str">
-        <v>美国确诊首例新型冠状病毒感染肺炎病例 患者曾到武汉周边旅游</v>
+        <v>热点丨北京新冠肺炎疫情发布手语翻译：戴透明口罩 遇生涩词要查手语词典</v>
       </c>
       <c r="B327">
-        <v>778206</v>
+        <v>70896</v>
       </c>
       <c r="C327" t="str">
-        <v>2020-01-22 07:04</v>
+        <v>2020-02-12 19:54</v>
       </c>
     </row>
     <row r="328">
       <c r="A328" t="str">
-        <v>江西凌晨发布确诊2例新型肺炎病例  其中一名为重症患者</v>
+        <v>热点丨城会玩！河道涨潮后年轻人这样玩惊呆围观群众</v>
       </c>
       <c r="B328">
-        <v>197831</v>
+        <v>5202</v>
       </c>
       <c r="C328" t="str">
-        <v>2020-01-22 03:04</v>
+        <v>2020-02-12 19:54</v>
       </c>
     </row>
     <row r="329">
       <c r="A329" t="str">
-        <v>四川确诊第2例新型肺炎病例：患者从武汉乘火车返回广安</v>
+        <v>热点丨一杀人逃犯潜逃14年在警方防疫排查中落网</v>
       </c>
       <c r="B329">
-        <v>249664</v>
+        <v>31623</v>
       </c>
       <c r="C329" t="str">
-        <v>2020-01-22 02:23</v>
+        <v>2020-02-12 19:45</v>
       </c>
     </row>
     <row r="330">
       <c r="A330" t="str">
-        <v>云南昆明确诊首例新型肺炎病例：武汉人到昆明后发热入院</v>
+        <v>热点丨葫芦岛一烯草酮车间爆炸致5死10伤 官方：周边未检出甲苯</v>
       </c>
       <c r="B330">
-        <v>49766</v>
+        <v>94306</v>
       </c>
       <c r="C330" t="str">
-        <v>2020-01-22 01:24</v>
+        <v>2020-02-12 19:27</v>
       </c>
     </row>
     <row r="331">
       <c r="A331" t="str">
-        <v>长沙首例感染新型肺炎病毒患者系武汉人病情平稳体温恢复正常</v>
+        <v>热点丨浙江推行“健康码”： 一人一码 分绿黄红三色管理</v>
       </c>
       <c r="B331">
-        <v>83349</v>
+        <v>12273</v>
       </c>
       <c r="C331" t="str">
-        <v>2020-01-22 00:36</v>
+        <v>2020-02-12 19:15</v>
       </c>
     </row>
     <row r="332">
       <c r="A332" t="str">
-        <v>特朗普与环保少女达沃斯论坛再相遇 双方话里话外似乎有点微妙</v>
+        <v>热点丨北京文化第一大股东或变更 投资《流浪地球》仍亏损超19亿</v>
       </c>
       <c r="B332">
-        <v>131992</v>
+        <v>10627</v>
       </c>
       <c r="C332" t="str">
-        <v>2020-01-22 00:35</v>
+        <v>2020-02-12 19:13</v>
       </c>
     </row>
     <row r="333">
       <c r="A333" t="str">
-        <v>北京新增5例新型肺炎病例：3男2女 年龄介于18至56岁</v>
+        <v>有料丨医学生原创rap向白衣天使“表白” 网友刷屏后感动落泪</v>
       </c>
       <c r="B333">
-        <v>55755</v>
+        <v>107282</v>
       </c>
       <c r="C333" t="str">
-        <v>2020-01-22 00:19</v>
+        <v>2020-02-12 19:07</v>
       </c>
     </row>
     <row r="334">
       <c r="A334" t="str">
-        <v>陆军军医大学新桥医院李琦教授：吸烟、喝姜汤对新型肺炎无效</v>
+        <v>热点丨探访疫情防控下的北京快递员：一天两次量体温 出站前消毒</v>
       </c>
       <c r="B334">
-        <v>175084</v>
+        <v>12446</v>
       </c>
       <c r="C334" t="str">
-        <v>2020-01-22 00:16</v>
+        <v>2020-02-12 19:01</v>
       </c>
     </row>
     <row r="335">
       <c r="A335" t="str">
-        <v>河南确诊一例新型肺炎病例 患者在武汉患病回周口治疗</v>
+        <v>热点丨北京市民“全副武装”超市选购： 有人一周逛一次 每次囤货千元</v>
       </c>
       <c r="B335">
-        <v>437166</v>
+        <v>8609</v>
       </c>
       <c r="C335" t="str">
-        <v>2020-01-22 00:11</v>
+        <v>2020-02-12 18:59</v>
       </c>
     </row>
     <row r="336">
       <c r="A336" t="str">
-        <v>紧急呼叫丨武汉市民自发退票不远游：害怕成为传染源 不想给人添麻烦</v>
+        <v>热点丨伊朗民众庆祝伊斯兰革命胜利日 伊外长：美国该放弃幻想了</v>
       </c>
       <c r="B336">
-        <v>1104050</v>
+        <v>6254</v>
       </c>
       <c r="C336" t="str">
-        <v>2020-01-22 00:09</v>
+        <v>2020-02-12 18:50</v>
       </c>
     </row>
     <row r="337">
       <c r="A337" t="str">
-        <v>奥斯威辛集中营解放75周年 幸存者：至今仍生活在恐怖回忆中</v>
+        <v>热点丨工作楼层出现新冠肺炎确诊病例 新加坡DBS银行疏散300名员工</v>
       </c>
       <c r="B337">
-        <v>14955</v>
+        <v>10908</v>
       </c>
       <c r="C337" t="str">
-        <v>2020-01-22 00:01</v>
+        <v>2020-02-12 18:43</v>
       </c>
     </row>
     <row r="338">
       <c r="A338" t="str">
-        <v>四川确诊首例新型肺炎病例：武汉某公司职员 10天前被隔离治疗</v>
+        <v>热点丨探访复工后的北京地铁：人流增加 有乘客穿雨衣戴手套</v>
       </c>
       <c r="B338">
-        <v>72001</v>
+        <v>29410</v>
       </c>
       <c r="C338" t="str">
-        <v>2020-01-21 23:31</v>
+        <v>2020-02-12 18:32</v>
       </c>
     </row>
     <row r="339">
       <c r="A339" t="str">
-        <v>青岛确诊一例新型肺炎患者 山东已成立肺炎疫情处置小组介入</v>
+        <v>热点丨八旬老人颤抖双手递5万元存折捐疫区 民警：感动但不能收</v>
       </c>
       <c r="B339">
-        <v>114140</v>
+        <v>157141</v>
       </c>
       <c r="C339" t="str">
-        <v>2020-01-21 23:18</v>
+        <v>2020-02-12 18:29</v>
       </c>
     </row>
     <row r="340">
       <c r="A340" t="str">
-        <v>广东再增3例新型肺炎散发病例 均有湖北居住或旅行史</v>
+        <v>热点丨“东齐鲁 西华西”两大医疗天团合体：在同一医院探讨治疗手段</v>
       </c>
       <c r="B340">
-        <v>534313</v>
+        <v>56490</v>
       </c>
       <c r="C340" t="str">
-        <v>2020-01-21 23:08</v>
+        <v>2020-02-12 18:20</v>
       </c>
     </row>
     <row r="341">
       <c r="A341" t="str">
-        <v>狗子偷偷离开主人 自己悄咪咪坐了5站火车才被逮住</v>
+        <v>热点丨惊险瞬间：飞机空中被闪电击中 继续飞行后安全落地</v>
       </c>
       <c r="B341">
-        <v>26632</v>
+        <v>26209</v>
       </c>
       <c r="C341" t="str">
-        <v>2020-01-21 22:55</v>
+        <v>2020-02-12 18:18</v>
       </c>
     </row>
     <row r="342">
       <c r="A342" t="str">
-        <v>乘客投冥币遭司机制止引发口角 贵阳一公交车司机被刀刺伤</v>
+        <v>热点丨许昌一女孩参加哥哥婚宴后确诊  父亲隐瞒嘉宾名单被立案侦查</v>
       </c>
       <c r="B342">
-        <v>7068</v>
+        <v>44254</v>
       </c>
       <c r="C342" t="str">
-        <v>2020-01-21 22:51</v>
+        <v>2020-02-12 18:13</v>
       </c>
     </row>
     <row r="343">
       <c r="A343" t="str">
-        <v>上海新增4例新型冠状病毒肺炎患者 其中1例为“人传人”病例</v>
+        <v>紧急呼叫丨武汉慈善总会27亿善款上缴财政？回应：是误解 专款专用于防疫</v>
       </c>
       <c r="B343">
-        <v>359826</v>
+        <v>2379165</v>
       </c>
       <c r="C343" t="str">
-        <v>2020-01-21 22:21</v>
+        <v>2020-02-12 18:06</v>
       </c>
     </row>
     <row r="344">
       <c r="A344" t="str">
-        <v>重庆市确诊5例输入性新型肺炎病例：均有武汉逗留史</v>
+        <v>热点丨韩国演员高秀贞去世曾出演《鬼怪》 网友：这次人生辛苦了</v>
       </c>
       <c r="B344">
-        <v>756421</v>
+        <v>73768</v>
       </c>
       <c r="C344" t="str">
-        <v>2020-01-21 22:16</v>
+        <v>2020-02-12 18:06</v>
       </c>
     </row>
     <row r="345">
       <c r="A345" t="str">
-        <v>京天成生物称研制出可测新型冠状病毒抗体 专家：前提是找到高质量配对抗体</v>
+        <v>有料丨两男子疫情期趁火打劫作案16起金额达20万 连棒棒糖也一根不留</v>
       </c>
       <c r="B345">
-        <v>817629</v>
+        <v>123089</v>
       </c>
       <c r="C345" t="str">
-        <v>2020-01-21 20:29</v>
+        <v>2020-02-12 18:04</v>
       </c>
     </row>
     <row r="346">
       <c r="A346" t="str">
-        <v>澳大利亚遭冰雹袭击：工人抱头蹲下 瑟瑟发抖</v>
+        <v>有料｜防疫民警获赠3万斤 “应援” 瓜 “流水线式”运瓜到天黑堆满屋</v>
       </c>
       <c r="B346">
-        <v>27324</v>
+        <v>17144</v>
       </c>
       <c r="C346" t="str">
-        <v>2020-01-21 20:19</v>
+        <v>2020-02-12 18:00</v>
       </c>
     </row>
     <row r="347">
       <c r="A347" t="str">
-        <v>健身房学员集体练波比跳 狗子在最前排示范“领操”</v>
+        <v>热点丨上海：电商订单同比增长50% 每天销售蔬菜约500吨</v>
       </c>
       <c r="B347">
-        <v>20881</v>
+        <v>13910</v>
       </c>
       <c r="C347" t="str">
-        <v>2020-01-21 19:36</v>
+        <v>2020-02-12 17:49</v>
       </c>
     </row>
     <row r="348">
       <c r="A348" t="str">
-        <v>河南宣布全省市场禁售活禽 官方：系防控肺炎疫情的特殊手段</v>
+        <v>热点丨孩子出生那天他去了抗疫一线 给女儿留言：宝宝，你叫凯旋吧</v>
       </c>
       <c r="B348">
-        <v>168429</v>
+        <v>1944</v>
       </c>
       <c r="C348" t="str">
-        <v>2020-01-21 19:05</v>
+        <v>2020-02-12 17:35</v>
       </c>
     </row>
     <row r="349">
       <c r="A349" t="str">
-        <v>台湾确诊首例新型冠状病毒肺炎患者：50岁左右女性 曾在武汉工作</v>
+        <v>热点丨IT男穿雨衣返京复工：为企业做贡献</v>
       </c>
       <c r="B349">
-        <v>780726</v>
+        <v>7608</v>
       </c>
       <c r="C349" t="str">
-        <v>2020-01-21 18:56</v>
+        <v>2020-02-12 17:30</v>
       </c>
     </row>
     <row r="350">
       <c r="A350" t="str">
-        <v>山东奔驰女车主因故障维权被行拘 警方：扰乱秩序 执法无问题</v>
+        <v>热点丨甘薇回应对贾跃亭离婚索偿40亿：请把心思花在疫情上</v>
       </c>
       <c r="B350">
-        <v>570680</v>
+        <v>1715536</v>
       </c>
       <c r="C350" t="str">
-        <v>2020-01-21 18:43</v>
+        <v>2020-02-12 17:23</v>
       </c>
     </row>
     <row r="351">
       <c r="A351" t="str">
-        <v>浙江省确诊5例新型冠状病毒感染肺炎 均有武汉居住旅行史</v>
+        <v>有料｜新疆社区人员拉大音响唱歌解闷 楼上居民打灯吹口哨堪比演唱会</v>
       </c>
       <c r="B351">
-        <v>116553</v>
+        <v>361478</v>
       </c>
       <c r="C351" t="str">
-        <v>2020-01-21 18:43</v>
+        <v>2020-02-12 17:18</v>
       </c>
     </row>
     <row r="352">
       <c r="A352" t="str">
-        <v>男子春节回家买不到高铁票 竟冲卡进站扔包入站台</v>
+        <v>有料丨80后夫妻“非典”相识如今携手抗“新冠” 谈到儿子妻子瞬间泪崩</v>
       </c>
       <c r="B352">
-        <v>11618</v>
+        <v>953071</v>
       </c>
       <c r="C352" t="str">
-        <v>2020-01-21 18:33</v>
+        <v>2020-02-12 17:07</v>
       </c>
     </row>
     <row r="353">
       <c r="A353" t="str">
-        <v>湖南查处浏阳烟花厂重大事故瞒报   29名公职人员被追责问责</v>
+        <v>热点丨北京市民“全副武装”超市选购： 有人一周逛一次 每次囤货千元</v>
       </c>
       <c r="B353">
-        <v>13257</v>
+        <v>72877</v>
       </c>
       <c r="C353" t="str">
-        <v>2020-01-21 18:29</v>
+        <v>2020-02-12 17:06</v>
       </c>
     </row>
     <row r="354">
       <c r="A354" t="str">
-        <v>被大卡车远光灯晃瞎眼 女司机神反应险被压成“三明治”</v>
+        <v>热点丨男子未戴口罩还打人获刑10个月 系山东首例涉疫情妨害公务案</v>
       </c>
       <c r="B354">
-        <v>18747</v>
+        <v>9644</v>
       </c>
       <c r="C354" t="str">
-        <v>2020-01-21 18:27</v>
+        <v>2020-02-12 17:05</v>
       </c>
     </row>
     <row r="355">
       <c r="A355" t="str">
-        <v>160秒梳理武汉新型肺炎爆发全过程 全国又新增77例确诊病例</v>
+        <v>热点丨监控曝光：校车与轿车猛烈相撞 学生腾空而起撞向车顶</v>
       </c>
       <c r="B355">
-        <v>1345604</v>
+        <v>35024</v>
       </c>
       <c r="C355" t="str">
-        <v>2020-01-21 18:17</v>
+        <v>2020-02-12 17:04</v>
       </c>
     </row>
     <row r="356">
       <c r="A356" t="str">
-        <v>紧急呼叫丨探访武汉车站医疗点：用玻璃墙间隔 会问是否去过海鲜市场</v>
+        <v>热点丨温州小伙闷家12天后开启一场“阳台演唱会”：整个小区灯都亮了</v>
       </c>
       <c r="B356">
-        <v>2723468</v>
+        <v>148017</v>
       </c>
       <c r="C356" t="str">
-        <v>2020-01-21 18:17</v>
+        <v>2020-02-12 16:56</v>
       </c>
     </row>
     <row r="357">
       <c r="A357" t="str">
-        <v>菲律宾游船因强风翻覆 造成一名中国游客死亡</v>
+        <v>热点丨上海重型、危重型病例占6.62% 近八成是60岁以上老人</v>
       </c>
       <c r="B357">
-        <v>16539</v>
+        <v>17261</v>
       </c>
       <c r="C357" t="str">
-        <v>2020-01-21 18:11</v>
+        <v>2020-02-12 16:53</v>
       </c>
     </row>
     <row r="358">
       <c r="A358" t="str">
-        <v>探访深圳新型冠状病毒肺炎处置医院：进门诊部要先测体温</v>
+        <v>热点丨日本邮轮上新西兰夫妇求助政府 新西兰总理：不会撤离船上公民</v>
       </c>
       <c r="B358">
-        <v>3408</v>
+        <v>17834</v>
       </c>
       <c r="C358" t="str">
-        <v>2020-01-21 18:08</v>
+        <v>2020-02-12 16:51</v>
       </c>
     </row>
     <row r="359">
       <c r="A359" t="str">
-        <v>探访深圳新型冠状病毒肺炎处置医院：进门诊部要先测体温</v>
+        <v>热点丨四川防疫员的帐篷婚礼：互道“我愿意” 交换完戒指又回一线</v>
       </c>
       <c r="B359">
-        <v>52003</v>
+        <v>50485</v>
       </c>
       <c r="C359" t="str">
-        <v>2020-01-21 17:53</v>
+        <v>2020-02-12 16:47</v>
       </c>
     </row>
     <row r="360">
       <c r="A360" t="str">
-        <v>得知孩子无法回家过年 边防民警父母的反应让人泪目</v>
+        <v>热点丨上海：所有外地入沪邮件快件都要消毒 正常的不用拒收</v>
       </c>
       <c r="B360">
-        <v>10679</v>
+        <v>10085</v>
       </c>
       <c r="C360" t="str">
-        <v>2020-01-21 17:53</v>
+        <v>2020-02-12 16:45</v>
       </c>
     </row>
     <row r="361">
       <c r="A361" t="str">
-        <v>出租房现异样民警一查床底竟藏着个男孩！真相令人大跌眼镜</v>
+        <v>热点 | 北京购买治疗发热咳嗽类药品需实名登记 用于疫情防控监测</v>
       </c>
       <c r="B361">
-        <v>11625</v>
+        <v>8780</v>
       </c>
       <c r="C361" t="str">
-        <v>2020-01-21 17:50</v>
+        <v>2020-02-12 16:39</v>
       </c>
     </row>
     <row r="362">
       <c r="A362" t="str">
-        <v>ETC收费可以对账了 全国首个ETC对账助手上线</v>
+        <v>回到现场丨疫情防控下的北京晚高峰：复工人员增多 乘客自觉保持半米距离</v>
       </c>
       <c r="B362">
-        <v>22232</v>
+        <v>2574404</v>
       </c>
       <c r="C362" t="str">
-        <v>2020-01-21 17:39</v>
+        <v>2020-02-12 16:35</v>
       </c>
     </row>
     <row r="363">
       <c r="A363" t="str">
-        <v>惩罚学生答不出问题 暴躁老师让学生下跪挨棒打</v>
+        <v>热点丨孩子出生那天他去了抗疫一线 给女儿留言：宝宝，你叫凯旋吧</v>
       </c>
       <c r="B363">
-        <v>10707</v>
+        <v>14061</v>
       </c>
       <c r="C363" t="str">
-        <v>2020-01-21 17:35</v>
+        <v>2020-02-12 16:17</v>
       </c>
     </row>
     <row r="364">
       <c r="A364" t="str">
-        <v>“春节电话亭”主题曲《说出爱》上线：小亭子大感动 方寸世界留住铭心瞬间</v>
+        <v>热点 | 退休老人棋牌室感染新冠肺炎 含1岁孙女在内家人相继中招</v>
       </c>
       <c r="B364">
-        <v>193634</v>
+        <v>81779</v>
       </c>
       <c r="C364" t="str">
-        <v>2020-01-21 17:34</v>
+        <v>2020-02-12 16:14</v>
       </c>
     </row>
     <row r="365">
       <c r="A365" t="str">
-        <v>新型肺炎累计确诊病例291例 其中湖北增至270例</v>
+        <v>热点丨广州一女子没戴口罩被防疫点阻拦后跳河？辟谣：桥外是绿化带</v>
       </c>
       <c r="B365">
-        <v>144725</v>
+        <v>1872498</v>
       </c>
       <c r="C365" t="str">
-        <v>2020-01-21 17:23</v>
+        <v>2020-02-12 16:11</v>
       </c>
     </row>
     <row r="366">
       <c r="A366" t="str">
-        <v>外卖小哥前脚下车后脚外卖就被偷 视频拍下“贼影”让民警哭笑不得</v>
+        <v>热点丨雷神山医院建设者回家后自愿在车内隔离 家人每天远望他陪他吃饭</v>
       </c>
       <c r="B366">
-        <v>58445</v>
+        <v>107522</v>
       </c>
       <c r="C366" t="str">
-        <v>2020-01-21 17:20</v>
+        <v>2020-02-12 16:07</v>
       </c>
     </row>
     <row r="367">
       <c r="A367" t="str">
-        <v>上海确认第二例输入性新型肺炎病例 患者月初曾前往武汉</v>
+        <v>有料丨哥哥聚众赌博被抓 弟弟死心不改藏鸡圈聚赌结果悲剧了</v>
       </c>
       <c r="B367">
-        <v>18056</v>
+        <v>118846</v>
       </c>
       <c r="C367" t="str">
-        <v>2020-01-21 17:20</v>
+        <v>2020-02-12 16:07</v>
       </c>
     </row>
     <row r="368">
       <c r="A368" t="str">
-        <v>北大免疫学教授王月丹：口罩尽量避免戴含通气阀的 N95口罩也不能戴太久</v>
+        <v>热点丨英国货车藏尸案初步调查结果：39人死于缺氧和体温过高</v>
       </c>
       <c r="B368">
-        <v>6768</v>
+        <v>32752</v>
       </c>
       <c r="C368" t="str">
-        <v>2020-01-21 17:18</v>
+        <v>2020-02-12 16:05</v>
       </c>
     </row>
     <row r="369">
       <c r="A369" t="str">
-        <v>实拍泰安6辆私家车越线为消防车让行 网友点赞：榜样的力量</v>
+        <v>热点丨世界梦号佛山旅客信息遭泄露 一女子随手将图转聊天群被公安处罚</v>
       </c>
       <c r="B369">
-        <v>13099</v>
+        <v>2089</v>
       </c>
       <c r="C369" t="str">
-        <v>2020-01-21 17:17</v>
+        <v>2020-02-12 15:45</v>
       </c>
     </row>
     <row r="370">
       <c r="A370" t="str">
-        <v>鼠年的“鼠”到底是什么鼠？美国驻华使馆为此吵了起来</v>
+        <v>热点丨战“疫”期法庭还可这样操作：原被告在云端隔屏幕辩论</v>
       </c>
       <c r="B370">
-        <v>8490</v>
+        <v>8475</v>
       </c>
       <c r="C370" t="str">
-        <v>2020-01-21 17:10</v>
+        <v>2020-02-12 15:42</v>
       </c>
     </row>
     <row r="371">
       <c r="A371" t="str">
-        <v>杭州机场对4个武汉进港航班旅客实施体温检测 共检测人员432人</v>
+        <v>热点丨叙政府军直升机被击落瞬间曝光 机身起火空中解体</v>
       </c>
       <c r="B371">
-        <v>178556</v>
+        <v>72584</v>
       </c>
       <c r="C371" t="str">
-        <v>2020-01-21 17:04</v>
+        <v>2020-02-12 15:37</v>
       </c>
     </row>
     <row r="372">
       <c r="A372" t="str">
-        <v>武汉对进出当地人员加强管控 将腾出1200张床位用于患者救治</v>
+        <v>热点丨“病毒邮轮”上的爱情：老夫妇每天一起铺床做家务 担心因感染被分离</v>
       </c>
       <c r="B372">
-        <v>140220</v>
+        <v>13321</v>
       </c>
       <c r="C372" t="str">
-        <v>2020-01-21 16:51</v>
+        <v>2020-02-12 15:37</v>
       </c>
     </row>
     <row r="373">
       <c r="A373" t="str">
-        <v>北大免疫学教授王月丹：防病毒口服液无依据 蒸醋只是心理安慰</v>
+        <v>热点丨多地影协呼吁减免电影院租金 全年票房损失或达百亿元</v>
       </c>
       <c r="B373">
-        <v>87596</v>
+        <v>11300</v>
       </c>
       <c r="C373" t="str">
-        <v>2020-01-21 16:48</v>
+        <v>2020-02-12 15:34</v>
       </c>
     </row>
     <row r="374">
       <c r="A374" t="str">
-        <v>“操场埋尸案”邓世平将获工伤认定 家属：清明节前会操办父亲后事</v>
+        <v>热点丨西藏唯一一例确诊患者康复出院 直击其在医院ICU隔离病房画面</v>
       </c>
       <c r="B374">
-        <v>3101727</v>
+        <v>66522</v>
       </c>
       <c r="C374" t="str">
-        <v>2020-01-21 16:39</v>
+        <v>2020-02-12 15:23</v>
       </c>
     </row>
     <row r="375">
       <c r="A375" t="str">
-        <v>海宁“12·3”污水罐体倒塌事故3名嫌犯被批捕 涉工程重大安全事故罪</v>
+        <v>有料丨儿子十几天不回家吃饭 父母凌晨做3大箱饭菜“硬核投喂”</v>
       </c>
       <c r="B375">
-        <v>11614</v>
+        <v>15994</v>
       </c>
       <c r="C375" t="str">
-        <v>2020-01-21 16:38</v>
+        <v>2020-02-12 14:56</v>
       </c>
     </row>
     <row r="376">
       <c r="A376" t="str">
-        <v>东西南北兵 一起来拜年！50秒查收来自天安门城楼武警官兵的祝福</v>
+        <v>热点丨公主邮轮副总裁：无证据表明病毒可通过空气处理系统传播</v>
       </c>
       <c r="B376">
-        <v>7898</v>
+        <v>97534</v>
       </c>
       <c r="C376" t="str">
-        <v>2020-01-21 16:30</v>
+        <v>2020-02-12 14:54</v>
       </c>
     </row>
     <row r="377">
       <c r="A377" t="str">
-        <v>多平台提供免费取消武汉地区订单政策 美团飞猪携程在内</v>
+        <v>有料丨“上阵父子兵”！疫情期间民警坚守一线 儿子帮警察理发并在村口站岗</v>
       </c>
       <c r="B377">
-        <v>112302</v>
+        <v>16183</v>
       </c>
       <c r="C377" t="str">
-        <v>2020-01-21 16:22</v>
+        <v>2020-02-12 14:51</v>
       </c>
     </row>
     <row r="378">
       <c r="A378" t="str">
-        <v>公安部原副部长孟宏伟一审获刑13年半 曾被批特权思想极其严重</v>
+        <v>热点丨歇业厨师转型超市分拣员：最难是找不到商品一天要走2000步冤枉道</v>
       </c>
       <c r="B378">
-        <v>2914936</v>
+        <v>7646</v>
       </c>
       <c r="C378" t="str">
-        <v>2020-01-21 16:04</v>
+        <v>2020-02-12 14:49</v>
       </c>
     </row>
     <row r="379">
       <c r="A379" t="str">
-        <v>贵州贵阳发现首例疑似新型冠状病毒感染肺炎病例 已隔离治疗</v>
+        <v>热点丨江苏一法院视频连线审理男子发布虚假口罩信息诈骗案</v>
       </c>
       <c r="B379">
-        <v>138108</v>
+        <v>7549</v>
       </c>
       <c r="C379" t="str">
-        <v>2020-01-21 16:00</v>
+        <v>2020-02-12 14:47</v>
       </c>
     </row>
     <row r="380">
       <c r="A380" t="str">
-        <v>菲律宾严防中国游客参与“赌博诈骗” 或派警察到中国培训</v>
+        <v>热点丨日本扩大拒绝入境范围：到过浙江的外国人将被拒</v>
       </c>
       <c r="B380">
-        <v>8802</v>
+        <v>54867</v>
       </c>
       <c r="C380" t="str">
-        <v>2020-01-21 15:33</v>
+        <v>2020-02-12 14:40</v>
       </c>
     </row>
     <row r="381">
       <c r="A381" t="str">
-        <v>热门一次性口罩缺货 生产商：春节会加班保证供应</v>
+        <v>热点丨将冰块扔进137米深洞中会发生什么？噼里啪啦仿佛在打枪</v>
       </c>
       <c r="B381">
-        <v>83107</v>
+        <v>56856</v>
       </c>
       <c r="C381" t="str">
-        <v>2020-01-21 15:33</v>
+        <v>2020-02-12 14:38</v>
       </c>
     </row>
     <row r="382">
       <c r="A382" t="str">
-        <v>湖南八大公山凶杀案嫌疑人落网 武警持枪抓捕现场曝光</v>
+        <v>热点丨神秘电波再现！人类首次发现稳定周期性快速射电暴</v>
       </c>
       <c r="B382">
-        <v>251695</v>
+        <v>87456</v>
       </c>
       <c r="C382" t="str">
-        <v>2020-01-21 15:32</v>
+        <v>2020-02-12 14:31</v>
       </c>
     </row>
     <row r="383">
       <c r="A383" t="str">
-        <v>温州一客车站外组客遇检查 司机拿伸缩棍暴力抗法被刑拘</v>
+        <v>有料丨因防疫期家中食物耗尽 武汉一传销团伙主动自首</v>
       </c>
       <c r="B383">
-        <v>10647</v>
+        <v>13464023</v>
       </c>
       <c r="C383" t="str">
-        <v>2020-01-21 15:21</v>
+        <v>2020-02-12 14:13</v>
       </c>
     </row>
     <row r="384">
       <c r="A384" t="str">
-        <v>北大免疫学教授王月丹：口罩尽量避免戴含通气阀的 N95口罩也不能戴太久</v>
+        <v>热点丨美国华裔总统候选人退出大选：我擅长数学 数字告诉我赢不了</v>
       </c>
       <c r="B384">
-        <v>370013</v>
+        <v>8366</v>
       </c>
       <c r="C384" t="str">
-        <v>2020-01-21 15:18</v>
+        <v>2020-02-12 13:44</v>
       </c>
     </row>
     <row r="385">
       <c r="A385" t="str">
-        <v>武汉加强进出人员管控 直击武汉高铁站：旅客大多戴口罩 现场配测温仪</v>
+        <v>热点丨“大叔”我有一万个理由陪你们！浙江对口支援荆门医疗队长出征信亮了</v>
       </c>
       <c r="B385">
-        <v>4157134</v>
+        <v>18905</v>
       </c>
       <c r="C385" t="str">
-        <v>2020-01-21 15:13</v>
+        <v>2020-02-12 13:29</v>
       </c>
     </row>
     <row r="386">
       <c r="A386" t="str">
-        <v>上海疾控发布医用外科口罩视频教程 正确佩戴可降低感染风险</v>
+        <v>热点丨博瑞医药暴涨超20% 曾宣布成功仿制瑞德西韦原料药</v>
       </c>
       <c r="B386">
-        <v>2483946</v>
+        <v>18656</v>
       </c>
       <c r="C386" t="str">
-        <v>2020-01-21 15:12</v>
+        <v>2020-02-12 13:18</v>
       </c>
     </row>
     <row r="387">
       <c r="A387" t="str">
-        <v>成都女子大力掰坏底楼门禁 只因懒得下楼开门取快递</v>
+        <v>热点丨“钻石公主号”确诊新冠肺炎患者：没有任何治疗</v>
       </c>
       <c r="B387">
-        <v>55182</v>
+        <v>208828</v>
       </c>
       <c r="C387" t="str">
-        <v>2020-01-21 14:54</v>
+        <v>2020-02-12 13:04</v>
       </c>
     </row>
     <row r="388">
       <c r="A388" t="str">
-        <v>男子出门丢垃圾碰见驼鹿吓破胆 慌忙躲藏疯狂给妻子电话“求救”</v>
+        <v>热点丨澳大利亚山火或造成超10亿动物死亡 113种动物需紧急帮助</v>
       </c>
       <c r="B388">
-        <v>13432</v>
+        <v>21230</v>
       </c>
       <c r="C388" t="str">
-        <v>2020-01-21 14:50</v>
+        <v>2020-02-12 13:01</v>
       </c>
     </row>
     <row r="389">
       <c r="A389" t="str">
-        <v>“医院春晚”：保卫处将伤医事件改编成情景剧 医生看后感到十分暖心</v>
+        <v>热点丨广州市疾控中心干部售卖口罩被查处：降级并收缴其违规所得</v>
       </c>
       <c r="B389">
-        <v>78015</v>
+        <v>39955</v>
       </c>
       <c r="C389" t="str">
-        <v>2020-01-21 14:43</v>
+        <v>2020-02-12 12:55</v>
       </c>
     </row>
     <row r="390">
       <c r="A390" t="str">
-        <v>流浪狗突然冲上大街向来往车辆狂吠 真相竟然这么暖</v>
+        <v>热点丨教育部规范上“网课”：小学低年级自愿选择 幼儿园禁办</v>
       </c>
       <c r="B390">
-        <v>5644</v>
+        <v>6540</v>
       </c>
       <c r="C390" t="str">
-        <v>2020-01-21 14:39</v>
+        <v>2020-02-12 12:49</v>
       </c>
     </row>
     <row r="391">
       <c r="A391" t="str">
-        <v>北大免疫学教授王月丹：此次武汉新型冠状病毒与SARS病毒有相似性</v>
+        <v>热点丨安徽泾县杀医案罪犯卫敏被执行死刑 冲突时持刀刺破医生心脏</v>
       </c>
       <c r="B391">
-        <v>190799</v>
+        <v>533636</v>
       </c>
       <c r="C391" t="str">
-        <v>2020-01-21 14:15</v>
+        <v>2020-02-12 12:38</v>
       </c>
     </row>
     <row r="392">
       <c r="A392" t="str">
-        <v>乌克兰坠机调查报告：客机被两枚短程地空导弹击落 坠毁路线曝光</v>
+        <v>热点丨儿童读物称“果子狸肉可吃”被网友吐槽 出版社宣布将其下架</v>
       </c>
       <c r="B392">
-        <v>10573</v>
+        <v>54294</v>
       </c>
       <c r="C392" t="str">
-        <v>2020-01-21 13:57</v>
+        <v>2020-02-12 12:36</v>
       </c>
     </row>
     <row r="393">
       <c r="A393" t="str">
-        <v>实拍：伤人疯牛连中3枪还满院乱窜 民警补了5枪将其击毙</v>
+        <v>热点丨“钻石公主”号邮轮人力物资匮乏：发烧才能被筛检 残障老人写信求助</v>
       </c>
       <c r="B393">
-        <v>18488</v>
+        <v>571036</v>
       </c>
       <c r="C393" t="str">
-        <v>2020-01-21 13:54</v>
+        <v>2020-02-12 12:14</v>
       </c>
     </row>
     <row r="394">
       <c r="A394" t="str">
-        <v>超1600名留学生“下落不明” 日本一高校受罕见处分</v>
+        <v>热点丨世界梦号佛山旅客信息遭泄露 一女子随手将图转聊天群被公安处罚</v>
       </c>
       <c r="B394">
-        <v>10213</v>
+        <v>30413</v>
       </c>
       <c r="C394" t="str">
-        <v>2020-01-21 13:45</v>
+        <v>2020-02-12 12:14</v>
       </c>
     </row>
     <row r="395">
       <c r="A395" t="str">
-        <v>安徽宿州城管曝光穿睡衣上街市民 引质疑后删文并致歉</v>
+        <v>热点丨军人枪击案致30人亡 泰皇家军队总司令含泪致歉：要怪就怪我</v>
       </c>
       <c r="B395">
-        <v>79804</v>
+        <v>7904</v>
       </c>
       <c r="C395" t="str">
-        <v>2020-01-21 13:43</v>
+        <v>2020-02-12 12:05</v>
       </c>
     </row>
     <row r="396">
       <c r="A396" t="str">
-        <v>中国旅游大巴在新西兰高速路侧翻 中领馆：多人受伤无人死亡</v>
+        <v>热点丨“钻石公主”号乘客担心待船上早晚感染 专家：空间狭小 感染风险大</v>
       </c>
       <c r="B396">
-        <v>29609</v>
+        <v>55982</v>
       </c>
       <c r="C396" t="str">
-        <v>2020-01-21 13:03</v>
+        <v>2020-02-12 12:02</v>
       </c>
     </row>
     <row r="397">
       <c r="A397" t="str">
-        <v>消防车出警遭私家车挡路  拉警报喊话均无效导致消防员到场多用1倍时间</v>
+        <v>热点丨春节后全国迁徙指数比去年下降7成 深圳开始出现人口密集热力点</v>
       </c>
       <c r="B397">
-        <v>1842045</v>
+        <v>10372</v>
       </c>
       <c r="C397" t="str">
-        <v>2020-01-21 12:37</v>
+        <v>2020-02-12 11:43</v>
       </c>
     </row>
     <row r="398">
       <c r="A398" t="str">
-        <v>世卫组织回应武汉肺炎疫情：无持续人传人证据 中国已在防控上取得进展</v>
+        <v>热点丨世卫组织：病毒造成的后果比恐怖行动更严重 应将其视为头号公敌</v>
       </c>
       <c r="B398">
-        <v>637672</v>
+        <v>14396</v>
       </c>
       <c r="C398" t="str">
-        <v>2020-01-21 12:19</v>
+        <v>2020-02-12 11:22</v>
       </c>
     </row>
     <row r="399">
       <c r="A399" t="str">
-        <v>天津航空：武汉出港发热旅客 可办理免费改期一次或全额退票</v>
+        <v>热点丨四川一护士踉跄走出隔离区视频走红 本人回应：防护镜起雾走不稳</v>
       </c>
       <c r="B399">
-        <v>43432</v>
+        <v>8679</v>
       </c>
       <c r="C399" t="str">
-        <v>2020-01-21 12:08</v>
+        <v>2020-02-12 11:15</v>
       </c>
     </row>
     <row r="400">
       <c r="A400" t="str">
-        <v>乐视网退市成定局喊话贾跃亭对债务负责 贾跃亭方面未回应</v>
+        <v>热点丨不满美司法部修改量刑建议 特朗普前竞选顾问案4名检察官辞职</v>
       </c>
       <c r="B400">
-        <v>14633</v>
+        <v>8246</v>
       </c>
       <c r="C400" t="str">
-        <v>2020-01-21 12:00</v>
+        <v>2020-02-12 11:19:43</v>
       </c>
     </row>
     <row r="401">
       <c r="A401" t="str">
-        <v>朱一龙鼓励武汉抗疫医生粉丝 网友接力祝福：医者仁心平安归来</v>
+        <v>热点丨疾控中心忙中出错 美国医院误将新冠病毒阳性患者送回隔离点</v>
       </c>
       <c r="B401">
-        <v>77864</v>
+        <v>8091</v>
       </c>
       <c r="C401" t="str">
-        <v>2020-01-21 11:15</v>
+        <v>2020-02-12 11:03</v>
       </c>
     </row>
     <row r="402">
       <c r="A402" t="str">
-        <v>香港现106例疑似武汉肺炎 官方：尚无一例确诊</v>
+        <v>热点丨四川一护士踉跄走出隔离区视频走红 本人回应：防护镜起雾走不稳</v>
       </c>
       <c r="B402">
-        <v>623446</v>
+        <v>628111</v>
       </c>
       <c r="C402" t="str">
-        <v>2020-01-21 11:01</v>
+        <v>2020-02-12 10:53</v>
       </c>
     </row>
     <row r="403">
       <c r="A403" t="str">
-        <v>山东青岛发现1例疑似新型冠状病毒感染的肺炎病例 患者来自武汉</v>
+        <v>热点丨新冠病毒和相关疾病命名正式公布！世卫组织：不涉及动物和人群</v>
       </c>
       <c r="B403">
-        <v>603825</v>
+        <v>16210</v>
       </c>
       <c r="C403" t="str">
-        <v>2020-01-21 10:51</v>
+        <v>2020-02-12 10:37</v>
       </c>
     </row>
     <row r="404">
       <c r="A404" t="str">
-        <v>武汉卫健委通报肺炎疫情：15名医务人员确诊均已隔离治疗</v>
+        <v>热点丨福建援助湖北宜昌医疗队出征 宜昌籍空姐家乡话哽咽致谢</v>
       </c>
       <c r="B404">
-        <v>4884833</v>
+        <v>396634</v>
       </c>
       <c r="C404" t="str">
-        <v>2020-01-21 10:44</v>
+        <v>2020-02-12 09:53</v>
       </c>
     </row>
     <row r="405">
       <c r="A405" t="str">
-        <v>“春节电话亭”家人篇：因没钱奶奶只住一天院 留守女童被欺负哭求妈妈回家</v>
+        <v>热点丨受疫情影响漂泊近两周 “威士特丹”号邮轮靠岸遭遇五连拒</v>
       </c>
       <c r="B405">
-        <v>684772</v>
+        <v>55142</v>
       </c>
       <c r="C405" t="str">
-        <v>2020-01-21 10:30</v>
+        <v>2020-02-12 09:41</v>
       </c>
     </row>
     <row r="406">
       <c r="A406" t="str">
-        <v>上海确认第二例输入性新型肺炎病例 患者月初曾前往武汉</v>
+        <v>热点丨“钻石公主”号再增39例新冠病毒确诊 一名检疫官也被感染</v>
       </c>
       <c r="B406">
-        <v>430352</v>
+        <v>61332</v>
       </c>
       <c r="C406" t="str">
-        <v>2020-01-21 09:55</v>
+        <v>2020-02-12 09:11</v>
       </c>
     </row>
     <row r="407">
       <c r="A407" t="str">
-        <v>特朗普上任3周年发推表功：黑人失业率史上最低！</v>
+        <v>热点丨世卫组织：遏制疫情挽救生命比发论文申专利更重要</v>
       </c>
       <c r="B407">
-        <v>9777</v>
+        <v>456942</v>
       </c>
       <c r="C407" t="str">
-        <v>2020-01-21 09:07</v>
+        <v>2020-02-12 01:16</v>
       </c>
     </row>
     <row r="408">
       <c r="A408" t="str">
-        <v>3枚火箭弹落在美国驻伊拉克大使馆附近 大使馆楼内警报声大作</v>
+        <v>热点丨探访北京安华里社区：防疫摸排工作包户到人 社工每天打数百个电话</v>
       </c>
       <c r="B408">
-        <v>38714</v>
+        <v>24852</v>
       </c>
       <c r="C408" t="str">
-        <v>2020-01-21 08:03</v>
+        <v>2020-02-12 00:27</v>
       </c>
     </row>
     <row r="409">
       <c r="A409" t="str">
-        <v>故宫院长就女子开车进故宫一事致歉：副院长和保卫处长停职检查</v>
+        <v>热点丨山东“搬家式支援”湖北 网友：湖北需要医护 山东派出一座医院</v>
       </c>
       <c r="B409">
-        <v>1878375</v>
+        <v>250857</v>
       </c>
       <c r="C409" t="str">
-        <v>2020-01-21 01:12</v>
+        <v>2020-02-12 00:23</v>
       </c>
     </row>
     <row r="410">
       <c r="A410" t="str">
-        <v>苏莱曼尼继任者正式接手“圣城旅”：将对美国作出勇猛反击</v>
+        <v>热点丨葫芦岛一公司烯草酮车间爆炸致2死6伤3人失联</v>
       </c>
       <c r="B410">
-        <v>97138</v>
+        <v>311679</v>
       </c>
       <c r="C410" t="str">
-        <v>2020-01-20 23:34</v>
+        <v>2020-02-12 00:21</v>
       </c>
     </row>
     <row r="411">
       <c r="A411" t="str">
-        <v>未设评比标准给鸿茅药业颁奖 中药协被民政部处罚没收20万余元</v>
+        <v>热点丨世卫组织揭晓新冠病毒正式命名 称疫苗或在18个月内研发</v>
       </c>
       <c r="B411">
-        <v>8129</v>
+        <v>1999713</v>
       </c>
       <c r="C411" t="str">
-        <v>2020-01-20 22:35</v>
+        <v>2020-02-12 00:15</v>
       </c>
     </row>
     <row r="412">
       <c r="A412" t="str">
-        <v>紧急呼叫丨新型肺炎治愈出院患者妻子：起初高烧不退很紧张 后逐渐好转</v>
+        <v>热点丨进价0.4元翻12倍出售 湖南查扣120余万只“三无”口罩</v>
       </c>
       <c r="B412">
-        <v>1894248</v>
+        <v>82921</v>
       </c>
       <c r="C412" t="str">
-        <v>2020-01-20 22:33</v>
+        <v>2020-02-12 00:10</v>
       </c>
     </row>
     <row r="413">
       <c r="A413" t="str">
-        <v>北京朝阳医院陶勇医生被砍伤 有患者称曾受其恩减免万元治疗费</v>
+        <v>有料｜NASA立扫把挑战被网友玩坏 除了扫把他们还立拖把袜子大葱和自己</v>
       </c>
       <c r="B413">
-        <v>852706</v>
+        <v>2248964</v>
       </c>
       <c r="C413" t="str">
-        <v>2020-01-20 22:31</v>
+        <v>2020-02-11 23:24</v>
       </c>
     </row>
     <row r="414">
       <c r="A414" t="str">
-        <v>四川61岁老人做心脏手术自愿被插队5次：穿刺血管和麻醉后仍让出手术台</v>
+        <v>热点丨扬言传播新冠病毒？新加坡男子这一举动惹怒众网友</v>
       </c>
       <c r="B414">
-        <v>38788</v>
+        <v>320832</v>
       </c>
       <c r="C414" t="str">
-        <v>2020-01-20 22:25</v>
+        <v>2020-02-11 22:54</v>
       </c>
     </row>
     <row r="415">
       <c r="A415" t="str">
-        <v>美团二号人物王慧文“退休”： 曾创立校内网 一手打造外卖帝国</v>
+        <v>热点丨湖南一家医院派多名男护士援助湖北：体力好，能抗压</v>
       </c>
       <c r="B415">
-        <v>14948</v>
+        <v>32311</v>
       </c>
       <c r="C415" t="str">
-        <v>2020-01-20 22:17</v>
+        <v>2020-02-11 22:37</v>
       </c>
     </row>
     <row r="416">
       <c r="A416" t="str">
-        <v>交警截停2000辆飙车党摩托车 驾驶员手动推车2公里挪向警局</v>
+        <v>热点丨鸡西市一副区长和区卫健局长被免职 41条防控通报该区占21条</v>
       </c>
       <c r="B416">
-        <v>6443</v>
+        <v>19205</v>
       </c>
       <c r="C416" t="str">
-        <v>2020-01-20 22:01</v>
+        <v>2020-02-11 22:34</v>
       </c>
     </row>
     <row r="417">
       <c r="A417" t="str">
-        <v>杭州一男子欠债17万想分141年还清 被法院强制执行拘留15日</v>
+        <v>热点丨长春11日起公共交通出行需实名制登记 便于疫情防控人员追溯</v>
       </c>
       <c r="B417">
-        <v>147130</v>
+        <v>18822</v>
       </c>
       <c r="C417" t="str">
-        <v>2020-01-20 21:18</v>
+        <v>2020-02-11 22:32</v>
       </c>
     </row>
     <row r="418">
       <c r="A418" t="str">
-        <v>小兴安岭“慢火车”最低票价仅1元 零下30℃在林区间穿行410公里</v>
+        <v>热点丨疫情防控期间郑州一男子持弹弓打鸟  警方立案已锁定嫌疑人</v>
       </c>
       <c r="B418">
-        <v>11746</v>
+        <v>65800</v>
       </c>
       <c r="C418" t="str">
-        <v>2020-01-20 21:15</v>
+        <v>2020-02-11 21:57</v>
       </c>
     </row>
     <row r="419">
       <c r="A419" t="str">
-        <v>飞机刚起飞即发现机翼部分脱落 在空中随风摇摆</v>
+        <v>热点丨对话方舱医院广场舞倡议人：为调节患者心情 仍在试验阶段</v>
       </c>
       <c r="B419">
-        <v>14718</v>
+        <v>137647</v>
       </c>
       <c r="C419" t="str">
-        <v>2020-01-20 20:55</v>
+        <v>2020-02-11 21:55</v>
       </c>
     </row>
     <row r="420">
       <c r="A420" t="str">
-        <v>“操场埋尸案”主犯杜少平被执行死刑 被害人家属代理律师：罪有应得</v>
+        <v>热点丨实拍无人机消杀深圳一工业园：该公司生产口罩和防护服</v>
       </c>
       <c r="B420">
-        <v>146509</v>
+        <v>50932</v>
       </c>
       <c r="C420" t="str">
-        <v>2020-01-20 20:53</v>
+        <v>2020-02-11 21:42</v>
       </c>
     </row>
     <row r="421">
       <c r="A421" t="str">
-        <v>上海确认首例输入性新型肺炎病例 患者系武汉籍上周刚抵沪</v>
+        <v>有料丨民警连日奔波后就医时膝盖积液嘀嗒流 网友直呼心疼</v>
       </c>
       <c r="B421">
-        <v>299290</v>
+        <v>11709</v>
       </c>
       <c r="C421" t="str">
-        <v>2020-01-20 20:51</v>
+        <v>2020-02-11 21:38</v>
       </c>
     </row>
     <row r="422">
       <c r="A422" t="str">
-        <v>2020年日本小姐冠军出炉：3岁开始学芭蕾 未来想当女主播</v>
+        <v>热点丨四川首例妨害疫情防控案“隔空”宣判：男子殴打防控人员判拘役4个月</v>
       </c>
       <c r="B422">
-        <v>34227</v>
+        <v>22431</v>
       </c>
       <c r="C422" t="str">
-        <v>2020-01-20 20:42</v>
+        <v>2020-02-11 21:38</v>
       </c>
     </row>
     <row r="423">
       <c r="A423" t="str">
-        <v>新型肺炎全国确诊病例增至218例 北京上海广东共计20例</v>
+        <v>热点丨探访北京因确诊病例封闭小区：蔬果提前打包送入分散领取</v>
       </c>
       <c r="B423">
-        <v>2441261</v>
+        <v>31024</v>
       </c>
       <c r="C423" t="str">
-        <v>2020-01-20 20:34</v>
+        <v>2020-02-11 21:37</v>
       </c>
     </row>
     <row r="424">
       <c r="A424" t="str">
-        <v>网球选手向女球童要香蕉补充体力 下一秒竟提出这样无理要求</v>
+        <v>热点丨一家人从疫区返乡未被发现致114人隔离 山西平陆7人被问责</v>
       </c>
       <c r="B424">
-        <v>267221</v>
+        <v>35691</v>
       </c>
       <c r="C424" t="str">
-        <v>2020-01-20 20:25</v>
+        <v>2020-02-11 21:34</v>
       </c>
     </row>
     <row r="425">
       <c r="A425" t="str">
-        <v>回到现场丨武汉同济医护人员穿防护服接诊 金银潭医院住院部南楼整体隔离</v>
+        <v>热点丨两周内疑感染3国11人 英国现新冠肺炎“超级传播者”</v>
       </c>
       <c r="B425">
-        <v>7656456</v>
+        <v>114469</v>
       </c>
       <c r="C425" t="str">
-        <v>2020-01-20 20:13</v>
+        <v>2020-02-11 21:31</v>
       </c>
     </row>
     <row r="426">
       <c r="A426" t="str">
-        <v>万达电影2019年预亏40亿元左右：受《过春天》等电影票房拖累</v>
+        <v>热点丨中南医院一重症患者心态乐观常刷手机 医护称其为“淡定哥”</v>
       </c>
       <c r="B426">
-        <v>19082</v>
+        <v>32240</v>
       </c>
       <c r="C426" t="str">
-        <v>2020-01-20 20:06</v>
+        <v>2020-02-11 21:26</v>
       </c>
     </row>
     <row r="427">
       <c r="A427" t="str">
-        <v>小伙晚上开车好心搭载陌生人 接下来的一幕吓得他魂飞魄散</v>
+        <v>热点丨横店回应2月13日开始复工：横店六千人已过观察期且无病例</v>
       </c>
       <c r="B427">
-        <v>131773</v>
+        <v>260419</v>
       </c>
       <c r="C427" t="str">
-        <v>2020-01-20 20:00</v>
+        <v>2020-02-11 21:22</v>
       </c>
     </row>
     <row r="428">
       <c r="A428" t="str">
-        <v>女子加油站走失只会说3个字 家人赶来后他们的举动让工作人员泪目</v>
+        <v>有料｜七位爸爸对孩子隔空喊话“等我回来就带你出去玩”：雷神山建设者故事</v>
       </c>
       <c r="B428">
-        <v>17933</v>
+        <v>7698</v>
       </c>
       <c r="C428" t="str">
-        <v>2020-01-20 19:53</v>
+        <v>2020-02-11 20:55</v>
       </c>
     </row>
     <row r="429">
       <c r="A429" t="str">
-        <v>男子收到女员工被绑架视频 报警后发现绑匪竟是这个人</v>
+        <v>热点丨武汉武昌方舱医院首批28位患者出院 回家后仍需进行14天隔离观察</v>
       </c>
       <c r="B429">
-        <v>9226</v>
+        <v>172482</v>
       </c>
       <c r="C429" t="str">
-        <v>2020-01-20 19:39</v>
+        <v>2020-02-11 20:27</v>
       </c>
     </row>
     <row r="430">
       <c r="A430" t="str">
-        <v>返乡列车|62岁家政阿姨：还完债务 就跟同学四处旅游</v>
+        <v>热点丨奥斯卡拿《猫》开玩笑遭视效协会抗议：视效不背锅</v>
       </c>
       <c r="B430">
-        <v>36983</v>
+        <v>12352</v>
       </c>
       <c r="C430" t="str">
-        <v>2020-01-20 19:35</v>
+        <v>2020-02-11 20:14</v>
       </c>
     </row>
     <row r="431">
       <c r="A431" t="str">
-        <v>牙医踩着滑板给患者拔牙还录视频“昭告天下” 不久就悲剧了</v>
+        <v>热点 | 新疆首批3例新冠肺炎确诊患者治愈出院 其中1人由重症转危为安</v>
       </c>
       <c r="B431">
-        <v>16251</v>
+        <v>23192</v>
       </c>
       <c r="C431" t="str">
-        <v>2020-01-20 19:22</v>
+        <v>2020-02-11 20:03</v>
       </c>
     </row>
     <row r="432">
       <c r="A432" t="str">
-        <v>漳州海域外籍货轮夜间遇险 直击10名缅甸籍船员被解救上船</v>
+        <v>有料丨居民阳台飘进一张湖北加油站发票 民警调查发现惊人秘密</v>
       </c>
       <c r="B432">
-        <v>17386</v>
+        <v>10394865</v>
       </c>
       <c r="C432" t="str">
-        <v>2020-01-20 19:17</v>
+        <v>2020-02-11 19:59</v>
       </c>
     </row>
     <row r="433">
       <c r="A433" t="str">
-        <v>豹子闯进居民家中悠闲晒太阳 为抓住它全村人都拼了</v>
+        <v>热点丨贵阳男子后备箱藏一女子欲进小区 物业：女子系月嫂因控疫暂禁入</v>
       </c>
       <c r="B433">
-        <v>7973</v>
+        <v>35508</v>
       </c>
       <c r="C433" t="str">
-        <v>2020-01-20 19:07</v>
+        <v>2020-02-11 19:54</v>
       </c>
     </row>
     <row r="434">
       <c r="A434" t="str">
-        <v>重庆加州花园火灾损失查明：过火面积970平方米 直接财产损失约374万</v>
+        <v>有料 | 因疫情村里封路孩子“断粮” 消防员开车30公里完成奶粉接力</v>
       </c>
       <c r="B434">
-        <v>64145</v>
+        <v>67066</v>
       </c>
       <c r="C434" t="str">
-        <v>2020-01-20 19:03</v>
+        <v>2020-02-11 19:35</v>
       </c>
     </row>
     <row r="435">
       <c r="A435" t="str">
-        <v>众泰汽车预亏90亿元 模仿保时捷起家曾被称为“保时泰”</v>
+        <v>热点丨山东一干部隐瞒儿子武汉返乡被处分：留党察看 政务撤职</v>
       </c>
       <c r="B435">
-        <v>8457</v>
+        <v>29998</v>
       </c>
       <c r="C435" t="str">
-        <v>2020-01-20 19:01</v>
+        <v>2020-02-11 19:32</v>
       </c>
     </row>
     <row r="436">
       <c r="A436" t="str">
-        <v>上海市长：对新型冠状病毒肺炎可疑病例人员 已经采取防治措施</v>
+        <v>热点丨四川达州8人违规聚集打麻将受处理：朋友圈发视频检讨集赞20个</v>
       </c>
       <c r="B436">
-        <v>22854</v>
+        <v>34525</v>
       </c>
       <c r="C436" t="str">
-        <v>2020-01-20 18:57</v>
+        <v>2020-02-11 19:17</v>
       </c>
     </row>
     <row r="437">
       <c r="A437" t="str">
-        <v>儿慈会回应吴花燕受捐一事：超龄救助违规 100万捐款全部退回</v>
+        <v>热点丨新乡男子感染新冠肺炎砍伤亲属三人？ 警方辟谣：家庭琐事与疫情无关</v>
       </c>
       <c r="B437">
-        <v>80817</v>
+        <v>76259</v>
       </c>
       <c r="C437" t="str">
-        <v>2020-01-20 18:49</v>
+        <v>2020-02-11 19:09</v>
       </c>
     </row>
     <row r="438">
       <c r="A438" t="str">
-        <v>男子开店一天卖上万个手工水饺 打拼11年靠包饺子买了一套房</v>
+        <v>热点丨日本卫生部门：资源有限 不可能为每位邮轮乘客进行新冠病毒检测</v>
       </c>
       <c r="B438">
-        <v>7099</v>
+        <v>42705</v>
       </c>
       <c r="C438" t="str">
-        <v>2020-01-20 18:34</v>
+        <v>2020-02-11 19:04</v>
       </c>
     </row>
     <row r="439">
       <c r="A439" t="str">
-        <v>潘石屹密集注册境外股东持股公司遭质疑系转移资产 SOHO中国：不作回应</v>
+        <v>热点丨特朗普4.8万亿美元的预算草案：砍公民福利 增国防开支</v>
       </c>
       <c r="B439">
-        <v>6576</v>
+        <v>9484</v>
       </c>
       <c r="C439" t="str">
-        <v>2020-01-20 18:32</v>
+        <v>2020-02-11 19:04</v>
       </c>
     </row>
     <row r="440">
       <c r="A440" t="str">
-        <v>俄军放出侦察机器人在叙利亚工作视频：士兵操作仿佛打电玩</v>
+        <v>热点丨参加公司年会感染新冠肺炎的患者痊愈出院：莫名恐慌不必要</v>
       </c>
       <c r="B440">
-        <v>25804</v>
+        <v>18192</v>
       </c>
       <c r="C440" t="str">
-        <v>2020-01-20 18:28</v>
+        <v>2020-02-11 18:56</v>
       </c>
     </row>
     <row r="441">
       <c r="A441" t="str">
-        <v>宁波一轿车春运返乡在高速上起火 民工的积蓄被烧成灰烬</v>
+        <v>热点丨擅自传播不实疫情防控信息 南宁市卫健委一干部被给予政务撤职处分</v>
       </c>
       <c r="B441">
-        <v>54386</v>
+        <v>21518</v>
       </c>
       <c r="C441" t="str">
-        <v>2020-01-20 18:20</v>
+        <v>2020-02-11 18:53</v>
       </c>
     </row>
     <row r="442">
       <c r="A442" t="str">
-        <v>警方通报北京朝阳医院伤医事件：嫌疑人被刑拘 4名伤者暂无生命危险</v>
+        <v>紧急呼叫丨企业家吴海为小企业发声：建议疫情结束前免收停业企业社保</v>
       </c>
       <c r="B442">
-        <v>190749</v>
+        <v>98589</v>
       </c>
       <c r="C442" t="str">
-        <v>2020-01-20 18:08</v>
+        <v>2020-02-11 18:24</v>
       </c>
     </row>
     <row r="443">
       <c r="A443" t="str">
-        <v>官方通报四川民警开枪击毙醉汉细节：对方点燃疑似爆炸物冲向警察</v>
+        <v>热点丨贵阳男子后备箱藏一女子欲进小区 物业：女子系月嫂因控疫暂禁入</v>
       </c>
       <c r="B443">
-        <v>1087488</v>
+        <v>4802494</v>
       </c>
       <c r="C443" t="str">
-        <v>2020-01-20 18:05</v>
+        <v>2020-02-11 18:15</v>
       </c>
     </row>
     <row r="444">
       <c r="A444" t="str">
-        <v>四川多名城管队员追逐殴打商贩  回复：视频是片段 正调查具体原因</v>
+        <v>热点丨上海养老机构暂停家属探望 儿童福利院全面实行封闭管理</v>
       </c>
       <c r="B444">
-        <v>391611</v>
+        <v>15724</v>
       </c>
       <c r="C444" t="str">
-        <v>2020-01-20 17:43</v>
+        <v>2020-02-11 18:09</v>
       </c>
     </row>
     <row r="445">
       <c r="A445" t="str">
-        <v>陕西蒲城一汽车与火车相撞：火车偏离轨道 汽车倒扣在田里</v>
+        <v>热点丨济南一女子不戴口罩训孩子被指责 家人拿扳手向拍摄者讨说法</v>
       </c>
       <c r="B445">
-        <v>34582</v>
+        <v>14700</v>
       </c>
       <c r="C445" t="str">
-        <v>2020-01-20 17:41</v>
+        <v>2020-02-11 17:59</v>
       </c>
     </row>
     <row r="446">
       <c r="A446" t="str">
-        <v>球赛观众席情侣热吻被转播抓拍 一秒变脸装不熟结果尴尬了</v>
+        <v>热点丨德国政坛地震！默克尔接班人临阵“撂挑子” 宣布辞职不再竞选总理</v>
       </c>
       <c r="B446">
-        <v>1565279</v>
+        <v>19888</v>
       </c>
       <c r="C446" t="str">
-        <v>2020-01-20 17:39</v>
+        <v>2020-02-11 17:49</v>
       </c>
     </row>
     <row r="447">
       <c r="A447" t="str">
-        <v>轿车高速路上演惊险漂移：车头调转划出一长道黑印子 车轮掉落轮毂几乎磨光</v>
+        <v>热点丨航拍西安版“小汤山”医院：8天建成办公生活区通过验收</v>
       </c>
       <c r="B447">
-        <v>263161</v>
+        <v>41514</v>
       </c>
       <c r="C447" t="str">
-        <v>2020-01-20 17:39</v>
+        <v>2020-02-11 17:44</v>
       </c>
     </row>
     <row r="448">
       <c r="A448" t="str">
-        <v>昔日桐庐首富朱宝良涉嫌强迫交易被批捕 涉足商贸旅游培训等行业</v>
+        <v>热点丨俄男子地铁上装新冠肺炎病人倒地 吓跑乘客后自己也悲剧了</v>
       </c>
       <c r="B448">
-        <v>7852</v>
+        <v>65314</v>
       </c>
       <c r="C448" t="str">
-        <v>2020-01-20 17:36</v>
+        <v>2020-02-11 17:43</v>
       </c>
     </row>
     <row r="449">
       <c r="A449" t="str">
-        <v>皮特与安妮斯顿同拿美国演员工会奖后台握手重聚 网友：有生之年</v>
+        <v>热点丨《小妇人》中国内地撤档 还有哪些奥斯卡热门将引进内地？</v>
       </c>
       <c r="B449">
-        <v>16490</v>
+        <v>8691</v>
       </c>
       <c r="C449" t="str">
-        <v>2020-01-20 17:35</v>
+        <v>2020-02-11 17:43</v>
       </c>
     </row>
     <row r="450">
       <c r="A450" t="str">
-        <v>马来西亚退回150箱塑料垃圾 威胁还要退110箱：不做世界“垃圾场”</v>
+        <v>热点丨山西中学生派出所留下爱心包裹迅速离开：除口罩现金 还有4包QQ糖</v>
       </c>
       <c r="B450">
-        <v>8741</v>
+        <v>22403</v>
       </c>
       <c r="C450" t="str">
-        <v>2020-01-20 17:34</v>
+        <v>2020-02-11 17:42</v>
       </c>
     </row>
     <row r="451">
       <c r="A451" t="str">
-        <v>狗子趴主人肩上 认真狂舔秃头“做按摩”</v>
+        <v>热点丨河南建筑工人援建火神山医院归来睡路边？官方回应：已安排好吃住</v>
       </c>
       <c r="B451">
-        <v>8808</v>
+        <v>370611</v>
       </c>
       <c r="C451" t="str">
-        <v>2020-01-20 17:32</v>
+        <v>2020-02-11 17:37</v>
       </c>
     </row>
     <row r="452">
       <c r="A452" t="str">
-        <v>实拍：少年坠入冰窟冻得直发抖 消防员冰面匍匐前进惊险救援</v>
+        <v>热点丨方舱患者朋友圈晒“日食记”：有鱼有肉找到了不减肥的理由</v>
       </c>
       <c r="B452">
-        <v>7015</v>
+        <v>244577</v>
       </c>
       <c r="C452" t="str">
-        <v>2020-01-20 17:31</v>
+        <v>2020-02-11 17:36</v>
       </c>
     </row>
     <row r="453">
       <c r="A453" t="str">
-        <v>还曾有这些成员“退出”王室：王子公主多为爱“脱冠”</v>
+        <v>有料丨心疼！儿子笑着为抗疫十几天的特警爸爸打气 转身瞬间泣不成声</v>
       </c>
       <c r="B453">
-        <v>62607</v>
+        <v>5112826</v>
       </c>
       <c r="C453" t="str">
-        <v>2020-01-20 17:30</v>
+        <v>2020-02-11 17:31</v>
       </c>
     </row>
     <row r="454">
       <c r="A454" t="str">
-        <v>暖心！消防员连续8年没回家过年 指导员悄悄买年货送其家中</v>
+        <v>热点丨上海查获首起藏匿轿车后备箱逃避检查事件 已被强制隔离观察</v>
       </c>
       <c r="B454">
-        <v>8469</v>
+        <v>54498</v>
       </c>
       <c r="C454" t="str">
-        <v>2020-01-20 17:30</v>
+        <v>2020-02-11 17:19</v>
       </c>
     </row>
     <row r="455">
       <c r="A455" t="str">
-        <v>公牛狂奔向人群 警察正维持秩序不料当场悲剧了</v>
+        <v>热点丨北京一采摘园消费满百元可送货至京津冀地区 多种蔬菜水果供选择</v>
       </c>
       <c r="B455">
-        <v>32727</v>
+        <v>7860</v>
       </c>
       <c r="C455" t="str">
-        <v>2020-01-20 17:21</v>
+        <v>2020-02-11 17:19</v>
       </c>
     </row>
     <row r="456">
       <c r="A456" t="str">
-        <v>为绕行收费站20余辆车驶入农田被扎破车胎 村民：我们只在地里下</v>
+        <v>热点丨单位的中央空调能不能开？上海：符合条件的才可使用</v>
       </c>
       <c r="B456">
-        <v>820492</v>
+        <v>15831</v>
       </c>
       <c r="C456" t="str">
-        <v>2020-01-20 17:13</v>
+        <v>2020-02-11 17:18</v>
       </c>
     </row>
     <row r="457">
       <c r="A457" t="str">
-        <v>年轻男子在建高楼顶层欲轻生 摇摇欲坠时被警察从身后一把拉回</v>
+        <v>热点丨特朗普预测新冠病毒4月会消失：中国很专业 一切尽在掌握之中</v>
       </c>
       <c r="B457">
-        <v>5844</v>
+        <v>77963</v>
       </c>
       <c r="C457" t="str">
-        <v>2020-01-20 16:53</v>
+        <v>2020-02-11 17:11</v>
       </c>
     </row>
     <row r="458">
       <c r="A458" t="str">
-        <v>湖南新晃“操场埋尸案”主犯杜少平被执行死刑</v>
+        <v>热点丨上海卫健委：援鄂不影响上海疫情防控和医疗服务</v>
       </c>
       <c r="B458">
-        <v>91074</v>
+        <v>8132</v>
       </c>
       <c r="C458" t="str">
-        <v>2020-01-20 16:49</v>
+        <v>2020-02-11 17:05</v>
       </c>
     </row>
     <row r="459">
       <c r="A459" t="str">
-        <v>国航一新加坡飞北京航班备降广州 航司：旅客在机上出现过敏反应</v>
+        <v>有料｜登记啥我都烦！夫妻递给民警一万元转身就跑 称要捐给武汉</v>
       </c>
       <c r="B459">
-        <v>30643</v>
+        <v>9284</v>
       </c>
       <c r="C459" t="str">
-        <v>2020-01-20 16:34</v>
+        <v>2020-02-11 17:04</v>
       </c>
     </row>
     <row r="460">
       <c r="A460" t="str">
-        <v>航拍澳大利亚恐怖沙尘暴 如巨大山脉碾压城镇</v>
+        <v>热点丨武汉患者抓住河北医生的手真情流露：恩人，感谢你们！</v>
       </c>
       <c r="B460">
-        <v>19129</v>
+        <v>26283</v>
       </c>
       <c r="C460" t="str">
-        <v>2020-01-20 16:25</v>
+        <v>2020-02-11 16:59</v>
       </c>
     </row>
     <row r="461">
       <c r="A461" t="str">
-        <v>驾驶员疲劳驾驶撞飞一排隔离栏 车身旋转450度停下直冒白烟</v>
+        <v>有料丨居家消毒酒精意外燃烧该如何扑灭？消防员用它“一招制敌”</v>
       </c>
       <c r="B461">
-        <v>7546</v>
+        <v>8557</v>
       </c>
       <c r="C461" t="str">
-        <v>2020-01-20 16:13</v>
+        <v>2020-02-11 16:50</v>
       </c>
     </row>
     <row r="462">
       <c r="A462" t="str">
-        <v>兄弟因敬酒问题争执弟弟当场自残 接风洗尘宴竟变成大乱斗</v>
+        <v>有料丨男子见车被开“罚单”冲上前理论 看到“罚单”内容后却竖起大拇指</v>
       </c>
       <c r="B462">
-        <v>12594</v>
+        <v>16350</v>
       </c>
       <c r="C462" t="str">
-        <v>2020-01-20 16:12</v>
+        <v>2020-02-11 16:38</v>
       </c>
     </row>
     <row r="463">
       <c r="A463" t="str">
-        <v>全程直击：嫌犯劫持8名人质扬言逐一杀害 武警强攻救人</v>
+        <v>有料丨95后护师抗击新冠肺炎疫情 医患双方隔离病房“切磋”太极功夫</v>
       </c>
       <c r="B463">
-        <v>5818</v>
+        <v>12780</v>
       </c>
       <c r="C463" t="str">
-        <v>2020-01-20 16:00</v>
+        <v>2020-02-11 16:37</v>
       </c>
     </row>
     <row r="464">
       <c r="A464" t="str">
-        <v>命运无情！女子12年内两次抗癌成功 现在遭遇第三次</v>
+        <v>热点丨“钻石公主”号邮轮确诊135例 老人及慢性病乘客或将被允许下船</v>
       </c>
       <c r="B464">
-        <v>12308</v>
+        <v>119490</v>
       </c>
       <c r="C464" t="str">
-        <v>2020-01-20 15:51</v>
+        <v>2020-02-11 16:27</v>
       </c>
     </row>
     <row r="465">
       <c r="A465" t="str">
-        <v>消防员坐在消防车里打点滴 警铃一响自己拔掉针头开车就走</v>
+        <v>热点丨深圳复工第一天实录：在家憋不住了 上班到回家一共测了9次体温</v>
       </c>
       <c r="B465">
-        <v>4631</v>
+        <v>363552</v>
       </c>
       <c r="C465" t="str">
-        <v>2020-01-20 15:34</v>
+        <v>2020-02-11 16:23</v>
       </c>
     </row>
     <row r="466">
       <c r="A466" t="str">
-        <v>青岛地铁下穿56米深海域 国内最长过海地铁隧道顺利贯通</v>
+        <v>热点丨民航局：学生旅客3月31日前机票可免费退改签 不得收取任何费用</v>
       </c>
       <c r="B466">
-        <v>9662</v>
+        <v>12360</v>
       </c>
       <c r="C466" t="str">
-        <v>2020-01-20 15:32</v>
+        <v>2020-02-11 16:22</v>
       </c>
     </row>
     <row r="467">
       <c r="A467" t="str">
-        <v>两艘中国远洋测量船同向归国：太平洋上短暂相遇 船员兴奋挥旗问好</v>
+        <v>热点丨上海卫健委回应质疑：外地来沪确诊患者一直纳入上海统计范围</v>
       </c>
       <c r="B467">
-        <v>3240</v>
+        <v>18732</v>
       </c>
       <c r="C467" t="str">
-        <v>2020-01-20 15:28</v>
+        <v>2020-02-11 15:44</v>
       </c>
     </row>
     <row r="468">
       <c r="A468" t="str">
-        <v>赵忠祥遗体告别仪式播放《动物世界》旁白 倪萍现场垂泪久久不愿离开</v>
+        <v>热点丨陕西首例新冠肺炎确诊孕妇产下女婴 初检结果为阴性</v>
       </c>
       <c r="B468">
-        <v>2900402</v>
+        <v>5614</v>
       </c>
       <c r="C468" t="str">
-        <v>2020-01-20 15:22</v>
+        <v>2020-02-11 15:44</v>
       </c>
     </row>
     <row r="469">
       <c r="A469" t="str">
-        <v>中国境外确诊4例新型冠状病毒肺炎病例 多国机场采取防疫措施</v>
+        <v>热点丨92届奥斯卡收视率创历史新低 无主持模式被吐槽空洞杂乱</v>
       </c>
       <c r="B469">
-        <v>1083293</v>
+        <v>5453</v>
       </c>
       <c r="C469" t="str">
-        <v>2020-01-20 15:11</v>
+        <v>2020-02-11 15:42</v>
       </c>
     </row>
     <row r="470">
       <c r="A470" t="str">
-        <v>环保组织曝光湘江长沙段被非法填土 官方：现场已清理 正在种草</v>
+        <v>热点丨河北一物业公司为抗疫护士减免3年物业费：能帮就帮忙分担一些</v>
       </c>
       <c r="B470">
-        <v>14489</v>
+        <v>18765</v>
       </c>
       <c r="C470" t="str">
-        <v>2020-01-20 14:58</v>
+        <v>2020-02-11 15:26</v>
       </c>
     </row>
     <row r="471">
       <c r="A471" t="str">
-        <v>新加坡飞北京的国航CA976航班备降广州 客服：有旅客生病</v>
+        <v>热点丨澳洲夫妇被困“病毒邮轮”六天：每两三天去甲板透气一小时</v>
       </c>
       <c r="B471">
-        <v>61005</v>
+        <v>31013</v>
       </c>
       <c r="C471" t="str">
-        <v>2020-01-20 14:30</v>
+        <v>2020-02-11 15:20</v>
       </c>
     </row>
     <row r="472">
       <c r="A472" t="str">
-        <v>福建毕业生应聘上工作却被取消录用 企业：战略调整不招了</v>
+        <v>热点丨武汉方舱医院患者跳广场舞 专家：再忍忍恢复期不宜剧烈运动</v>
       </c>
       <c r="B472">
-        <v>8804</v>
+        <v>51181</v>
       </c>
       <c r="C472" t="str">
-        <v>2020-01-20 14:22</v>
+        <v>2020-02-11 15:17</v>
       </c>
     </row>
     <row r="473">
       <c r="A473" t="str">
-        <v>杭州一小区百位业主已自发捐款11年 给保安发上万年终奖</v>
+        <v>热点丨陕西首例新冠肺炎确诊孕妇产下女婴 初检结果为阴性</v>
       </c>
       <c r="B473">
-        <v>14451</v>
+        <v>90026</v>
       </c>
       <c r="C473" t="str">
-        <v>2020-01-20 14:19</v>
+        <v>2020-02-11 15:09</v>
       </c>
     </row>
     <row r="474">
       <c r="A474" t="str">
-        <v>新疆阿图什发生6次三级以上余震 致1人身亡救援还在进行中</v>
+        <v>热点丨春运结束前预计仍有1.6亿人返程 长途班车客座率不得超50%</v>
       </c>
       <c r="B474">
-        <v>8585</v>
+        <v>5967</v>
       </c>
       <c r="C474" t="str">
-        <v>2020-01-20 14:17</v>
+        <v>2020-02-11 15:08</v>
       </c>
     </row>
     <row r="475">
       <c r="A475" t="str">
-        <v>宝宝对着监控给老爸隔空献吻 砰一声撞上镜头还忍痛说“爱你”</v>
+        <v>热点丨武汉武昌方舱医院医患合唱《歌唱祖国》 为武汉加油！</v>
       </c>
       <c r="B475">
-        <v>7317</v>
+        <v>162086</v>
       </c>
       <c r="C475" t="str">
-        <v>2020-01-20 14:15</v>
+        <v>2020-02-11 15:02</v>
       </c>
     </row>
     <row r="476">
       <c r="A476" t="str">
-        <v>至少75名囚犯挖地道越狱 监狱官员受贿赂故意放行</v>
+        <v>热点丨降雨量创37年来纪录 巴西最大城市变成一片汪洋</v>
       </c>
       <c r="B476">
-        <v>6003</v>
+        <v>16988</v>
       </c>
       <c r="C476" t="str">
-        <v>2020-01-20 14:10</v>
+        <v>2020-02-11 15:01</v>
       </c>
     </row>
     <row r="477">
       <c r="A477" t="str">
-        <v>A股医药生物板块大涨 莱茵生物：若磷酸奥司他韦对武汉肺炎有效 有益销售</v>
+        <v>热点丨山东抗疫夫妻医生隔玻璃写字互诉衷肠：咱不减肥了 好好吃饭</v>
       </c>
       <c r="B477">
-        <v>41558</v>
+        <v>14633</v>
       </c>
       <c r="C477" t="str">
-        <v>2020-01-20 14:08</v>
+        <v>2020-02-11 14:58</v>
       </c>
     </row>
     <row r="478">
       <c r="A478" t="str">
-        <v>全程直击：嫌犯劫持8名人质扬言逐一杀害 武警强攻救人</v>
+        <v>热点丨交通运输部：各地严禁擅自封堵道路 坚决撤销违规检测点</v>
       </c>
       <c r="B478">
-        <v>12716</v>
+        <v>380252</v>
       </c>
       <c r="C478" t="str">
-        <v>2020-01-20 14:04</v>
+        <v>2020-02-11 14:54</v>
       </c>
     </row>
     <row r="479">
       <c r="A479" t="str">
-        <v>猫眼娱乐因虚假宣传被罚20万 回应：合作机构合约到期所致</v>
+        <v>热点丨日本执政党国会议员每人向中国捐款5000日元：邻居有困难当然要帮</v>
       </c>
       <c r="B479">
-        <v>4233</v>
+        <v>2154414</v>
       </c>
       <c r="C479" t="str">
-        <v>2020-01-20 13:06</v>
+        <v>2020-02-11 14:49</v>
       </c>
     </row>
     <row r="480">
       <c r="A480" t="str">
-        <v>韩国称出现首例武汉肺炎确诊病例 患者系35岁中国女子</v>
+        <v>热点丨江苏一男子拒测体温 驾车顶着工作人员开行被拘十日</v>
       </c>
       <c r="B480">
-        <v>575155</v>
+        <v>267622</v>
       </c>
       <c r="C480" t="str">
-        <v>2020-01-20 13:06</v>
+        <v>2020-02-11 14:38</v>
       </c>
     </row>
     <row r="481">
       <c r="A481" t="str">
-        <v>武汉飞澳门航班落地后乘客挨个测体温 乘客：测完才能下飞机</v>
+        <v>热点丨国家发改委：因地制宜施策 疫情防控和复工复产需两手抓</v>
       </c>
       <c r="B481">
-        <v>8583437</v>
+        <v>10280</v>
       </c>
       <c r="C481" t="str">
-        <v>2020-01-20 12:56</v>
+        <v>2020-02-11 14:33</v>
       </c>
     </row>
     <row r="482">
       <c r="A482" t="str">
-        <v>哈里夫妇“引退”后女王首露面心情不错 首相：全英国都祝福他们</v>
+        <v>热点丨一毛五的三无口罩网上兜售3元 贵阳警方破案时已经卖了2.8万个</v>
       </c>
       <c r="B482">
-        <v>9741</v>
+        <v>8614</v>
       </c>
       <c r="C482" t="str">
-        <v>2020-01-20 12:43</v>
+        <v>2020-02-11 14:32</v>
       </c>
     </row>
     <row r="483">
       <c r="A483" t="str">
-        <v>居民区爆发密集枪声宛如枪战 真相令人哭笑不得</v>
+        <v>热点丨 武汉1766户曾无一人感染的“最牛小区”确诊一例新冠肺炎</v>
       </c>
       <c r="B483">
-        <v>6655</v>
+        <v>49407</v>
       </c>
       <c r="C483" t="str">
-        <v>2020-01-20 12:41</v>
+        <v>2020-02-11 14:31</v>
       </c>
     </row>
     <row r="484">
       <c r="A484" t="str">
-        <v>奔驰司机酒后驾驶连撞多车 家属：他身体不舒服</v>
+        <v>热点丨“钻石公主”号感染人数激增 印度船员录视频公开求政府救援</v>
       </c>
       <c r="B484">
-        <v>51733</v>
+        <v>1203377</v>
       </c>
       <c r="C484" t="str">
-        <v>2020-01-20 12:16</v>
+        <v>2020-02-11 14:24</v>
       </c>
     </row>
     <row r="485">
       <c r="A485" t="str">
-        <v>东城区区长金晖：进一步完善文物保护机制 加强文物活化利用与安全管理</v>
+        <v>有料｜四川一男子电梯内擦鼻涕将废纸塞回 还对监控竖大拇指挑衅</v>
       </c>
       <c r="B485">
-        <v>4410</v>
+        <v>645967</v>
       </c>
       <c r="C485" t="str">
-        <v>2020-01-20 12:11</v>
+        <v>2020-02-11 14:19</v>
       </c>
     </row>
     <row r="486">
       <c r="A486" t="str">
-        <v>北京市东城区区长：王府井周边7条胡同不停车 周边楼宇共享车位解决难题</v>
+        <v>有料丨西安出租车防疫出新招：用塑料膜拉起“防护舱”</v>
       </c>
       <c r="B486">
-        <v>4090</v>
+        <v>21335</v>
       </c>
       <c r="C486" t="str">
-        <v>2020-01-20 12:04</v>
+        <v>2020-02-11 14:13</v>
       </c>
     </row>
     <row r="487">
       <c r="A487" t="str">
-        <v>大货车高速上违规倒车：后车惨烈追尾解体燃烧 司机竟毫发无伤钻出来灭火</v>
+        <v>有料｜理发师妈妈跑到派出所给儿子理发 结果顺手把全所男同志的发都理了</v>
       </c>
       <c r="B487">
-        <v>75667</v>
+        <v>57977</v>
       </c>
       <c r="C487" t="str">
-        <v>2020-01-20 12:02</v>
+        <v>2020-02-11 14:08</v>
       </c>
     </row>
     <row r="488">
       <c r="A488" t="str">
-        <v>主持人董浩挥泪回忆赵忠祥： 去世前一个月录节目时摔在现场仍在坚持</v>
+        <v>热点丨海南第一例新冠肺炎确诊幼儿出院：仅3月龄 武汉到海口次日出现症状</v>
       </c>
       <c r="B488">
-        <v>72164</v>
+        <v>40739</v>
       </c>
       <c r="C488" t="str">
-        <v>2020-01-20 11:49</v>
+        <v>2020-02-11 14:06</v>
       </c>
     </row>
     <row r="489">
       <c r="A489" t="str">
-        <v>浙江发现5例武汉来浙发热呼吸道症状患者 均已隔离治疗</v>
+        <v>热点丨世卫组织牵头国际专家组先遣队抵达中国：我们并非在黑暗中航行</v>
       </c>
       <c r="B489">
-        <v>33068</v>
+        <v>163952</v>
       </c>
       <c r="C489" t="str">
-        <v>2020-01-20 11:38</v>
+        <v>2020-02-11 14:01</v>
       </c>
     </row>
     <row r="490">
       <c r="A490" t="str">
-        <v>演员王刚悼念现场忆赵忠祥：他是我们行业里的宗师</v>
+        <v>热点丨钉钉否认在线直播老师可打开学生摄像头：已报警追责</v>
       </c>
       <c r="B490">
-        <v>55936</v>
+        <v>20437</v>
       </c>
       <c r="C490" t="str">
-        <v>2020-01-20 11:35</v>
+        <v>2020-02-11 13:56</v>
       </c>
     </row>
     <row r="491">
       <c r="A491" t="str">
-        <v>惊险一瞬！轿车在交警面前拐了个弯 突然甩出来个孩子</v>
+        <v>热点丨复工后企业人员确诊怎么办？卫健委：及时采取措施 企业无需关闭</v>
       </c>
       <c r="B491">
-        <v>4811</v>
+        <v>11708</v>
       </c>
       <c r="C491" t="str">
-        <v>2020-01-20 11:33</v>
+        <v>2020-02-11 13:54</v>
       </c>
     </row>
     <row r="492">
       <c r="A492" t="str">
-        <v>深圳另有8例“武汉病毒”观察病在隔离治疗 火车站等地已启体温监测工作</v>
+        <v>热点丨因全家人染病厌世从27楼往下撒钱？警方辟谣：小孩把钱当纸片乱撒</v>
       </c>
       <c r="B492">
-        <v>375756</v>
+        <v>375994</v>
       </c>
       <c r="C492" t="str">
-        <v>2020-01-20 11:28</v>
+        <v>2020-02-11 13:43</v>
       </c>
     </row>
     <row r="493">
       <c r="A493" t="str">
-        <v>“考上公务员，媳妇任你挑选”标语被指低俗 官方：正在核实</v>
+        <v>热点丨河南安阳一城管局协管大闹防疫卡点被辞退 现场叫嚣“别逼我动手”</v>
       </c>
       <c r="B493">
-        <v>69279</v>
+        <v>68936</v>
       </c>
       <c r="C493" t="str">
-        <v>2020-01-20 11:20</v>
+        <v>2020-02-11 13:40</v>
       </c>
     </row>
     <row r="494">
       <c r="A494" t="str">
-        <v>两中国公民在马德里街头相继遇害 中使馆敦促西班牙警方缉拿凶手</v>
+        <v>吃货3天解救100万斤哈密瓜 原本烂在地里甚至用来喂猪</v>
       </c>
       <c r="B494">
-        <v>189666</v>
+        <v>35681</v>
       </c>
       <c r="C494" t="str">
-        <v>2020-01-20 10:54</v>
+        <v>2020-02-11 13:36</v>
       </c>
     </row>
     <row r="495">
       <c r="A495" t="str">
-        <v>乌航坠机中150名遇难者遗体已交还家属 伊朗否认将“黑匣子”给乌克兰</v>
+        <v>热点丨国家发改委：口罩企业复工率已超76% 各行业全面复工面临多项难题</v>
       </c>
       <c r="B495">
-        <v>5331</v>
+        <v>175376</v>
       </c>
       <c r="C495" t="str">
-        <v>2020-01-20 10:53</v>
+        <v>2020-02-11 13:31</v>
       </c>
     </row>
     <row r="496">
       <c r="A496" t="str">
-        <v>赵忠祥遗体告别式用《动物世界》做配乐 倪萍、白岩松等现身八宝山</v>
+        <v>热点丨广东浙江河南疫情或恶化？卫健委：全国疫情形势总体呈下降趋势</v>
       </c>
       <c r="B496">
-        <v>5954631</v>
+        <v>16147</v>
       </c>
       <c r="C496" t="str">
-        <v>2020-01-20 10:53</v>
+        <v>2020-02-11 13:24</v>
       </c>
     </row>
     <row r="497">
       <c r="A497" t="str">
-        <v>新疆6.4级地震来袭站都站不稳 值班员立即电话喊停特快列车</v>
+        <v>紧急呼叫丨李文亮去世致医院遭迁怒缺物资?医护人员：关系不大但确缺物资</v>
       </c>
       <c r="B497">
-        <v>25223</v>
+        <v>2265719</v>
       </c>
       <c r="C497" t="str">
-        <v>2020-01-20 10:50</v>
+        <v>2020-02-11 13:23</v>
       </c>
     </row>
     <row r="498">
       <c r="A498" t="str">
-        <v>歌唱家殷秀梅回忆前辈赵忠祥：他做的贡献我们永远不会忘记</v>
+        <v>热点丨新加坡国际会议致多人染新冠肺炎 世卫组织：尚不能称为超级传播事件</v>
       </c>
       <c r="B498">
-        <v>56747</v>
+        <v>117139</v>
       </c>
       <c r="C498" t="str">
-        <v>2020-01-20 10:47</v>
+        <v>2020-02-11 13:19</v>
       </c>
     </row>
     <row r="499">
       <c r="A499" t="str">
-        <v>只能说真话的“魔力电话亭”：兵哥哥亭里狂撒狗粮 上演超浪漫“电波求婚”</v>
+        <v>热点丨石家庄市长邓沛然路过环卫工被撞现场停车救人：挺住！坚强起来</v>
       </c>
       <c r="B499">
-        <v>883161</v>
+        <v>446213</v>
       </c>
       <c r="C499" t="str">
-        <v>2020-01-20 10:42</v>
+        <v>2020-02-11 13:16</v>
       </c>
     </row>
     <row r="500">
       <c r="A500" t="str">
-        <v>河北鸡泽一村过年出新规拜年不磕头 村支书：小辈膝盖磕到肿</v>
+        <v>热点丨联合国呼吁关注蝗灾：蝗虫数增长6400万倍 或在多地引发粮食危机</v>
       </c>
       <c r="B500">
-        <v>111084</v>
+        <v>1108978</v>
       </c>
       <c r="C500" t="str">
-        <v>2020-01-20 10:27</v>
+        <v>2020-02-11 13:12</v>
       </c>
     </row>
     <row r="501">
       <c r="A501" t="str">
-        <v>春节电话亭“武警篇”：父子相隔20年参加大阅兵 长大后我真的成了你</v>
+        <v>热点丨学校推迟开学 江西一体育老师用大米当健身器材直播授课</v>
       </c>
       <c r="B501">
-        <v>1025050</v>
+        <v>46949</v>
       </c>
       <c r="C501" t="str">
-        <v>2020-01-20 10:23</v>
+        <v>2020-02-11 13:12</v>
       </c>
     </row>
     <row r="502">
       <c r="A502" t="str">
-        <v>黄渤谈《夺冠》最大困难：假教练指导真运动员 演陈忠和我心虚</v>
+        <v>热点丨体温检测起争执驾车堵门撞警察 上海青浦一男子被刑拘</v>
       </c>
       <c r="B502">
-        <v>11377</v>
+        <v>84000</v>
       </c>
       <c r="C502" t="str">
-        <v>2020-01-20 09:42</v>
+        <v>2020-02-11 13:03</v>
       </c>
     </row>
     <row r="503">
       <c r="A503" t="str">
-        <v>哈里王子首次回应“退出”王室：我没有其他选择</v>
+        <v>热点丨甘肃一牛肉面馆复业每桌都搭个小棚子 顾客：吃出了科考的感觉</v>
       </c>
       <c r="B503">
-        <v>116911</v>
+        <v>50205</v>
       </c>
       <c r="C503" t="str">
-        <v>2020-01-20 09:40</v>
+        <v>2020-02-11 13:02</v>
       </c>
     </row>
     <row r="504">
       <c r="A504" t="str">
-        <v>北京深圳确诊3名“武汉肺炎”患者 武汉2日新增136例确诊患者</v>
+        <v>热点丨借新冠肺炎嘲笑亚洲人引公愤 英超球星面临足总惩罚删博道歉</v>
       </c>
       <c r="B504">
-        <v>478896</v>
+        <v>160585</v>
       </c>
       <c r="C504" t="str">
-        <v>2020-01-20 09:22</v>
+        <v>2020-02-11 13:00</v>
       </c>
     </row>
     <row r="505">
       <c r="A505" t="str">
-        <v>新疆喀什6.4级地震有围墙倒塌 已致1人重伤多人轻伤</v>
+        <v>热点丨女子从武汉回山西42天后确诊新冠肺炎 官方：系1月下旬被家人传染</v>
       </c>
       <c r="B505">
-        <v>8337</v>
+        <v>880854</v>
       </c>
       <c r="C505" t="str">
-        <v>2020-01-20 09:20</v>
+        <v>2020-02-11 12:59</v>
+      </c>
+    </row>
+    <row r="506">
+      <c r="A506" t="str">
+        <v>有料丨Tony老师为52名民辅警免费理发 负责人：来的都是总监以上的</v>
+      </c>
+      <c r="B506">
+        <v>37805</v>
+      </c>
+      <c r="C506" t="str">
+        <v>2020-02-11 12:53</v>
+      </c>
+    </row>
+    <row r="507">
+      <c r="A507" t="str">
+        <v>热点丨华人妈妈因持中国护照被拒邮轮旅行：已多年未回中国</v>
+      </c>
+      <c r="B507">
+        <v>29093</v>
+      </c>
+      <c r="C507" t="str">
+        <v>2020-02-11 12:50</v>
+      </c>
+    </row>
+    <row r="508">
+      <c r="A508" t="str">
+        <v>热点丨日本成立对策总部撤离“钻石公主”号患者 并协调转移至各地医院</v>
+      </c>
+      <c r="B508">
+        <v>45107</v>
+      </c>
+      <c r="C508" t="str">
+        <v>2020-02-11 12:44</v>
+      </c>
+    </row>
+    <row r="509">
+      <c r="A509" t="str">
+        <v>有料丨河南援鄂医疗队4名女护士 为方便工作剪成光头：觉得我们太帅了</v>
+      </c>
+      <c r="B509">
+        <v>245702</v>
+      </c>
+      <c r="C509" t="str">
+        <v>2020-02-11 12:30</v>
+      </c>
+    </row>
+    <row r="510">
+      <c r="A510" t="str">
+        <v>热点丨辽宁绥中全城喷洒消毒剂 网友：街道上一群“腾云驾雾”的英雄</v>
+      </c>
+      <c r="B510">
+        <v>24146</v>
+      </c>
+      <c r="C510" t="str">
+        <v>2020-02-11 12:14</v>
+      </c>
+    </row>
+    <row r="511">
+      <c r="A511" t="str">
+        <v>热点丨长春的哥自制车内“隔离舱”：几十块钱简单易学想让大伙都知道</v>
+      </c>
+      <c r="B511">
+        <v>28705</v>
+      </c>
+      <c r="C511" t="str">
+        <v>2020-02-11 12:10</v>
+      </c>
+    </row>
+    <row r="512">
+      <c r="A512" t="str">
+        <v>热点丨北京一馒头店设置滑板卖馒头 顾客：非常时期非常措施嘛 对大家都好</v>
+      </c>
+      <c r="B512">
+        <v>83242</v>
+      </c>
+      <c r="C512" t="str">
+        <v>2020-02-11 11:59</v>
+      </c>
+    </row>
+    <row r="513">
+      <c r="A513" t="str">
+        <v>热点丨同一单元楼确诊多例新冠肺炎 香港逾百名住户连夜疏散隔离</v>
+      </c>
+      <c r="B513">
+        <v>40987</v>
+      </c>
+      <c r="C513" t="str">
+        <v>2020-02-11 11:56</v>
+      </c>
+    </row>
+    <row r="514">
+      <c r="A514" t="str">
+        <v>热点丨高铁保洁员感染新冠肺炎 确诊前连续13天服务20趟车</v>
+      </c>
+      <c r="B514">
+        <v>34648</v>
+      </c>
+      <c r="C514" t="str">
+        <v>2020-02-11 11:51</v>
+      </c>
+    </row>
+    <row r="515">
+      <c r="A515" t="str">
+        <v>热点丨澳大利亚暴雨引发洪灾 民众手动挖渠泄洪</v>
+      </c>
+      <c r="B515">
+        <v>6145</v>
+      </c>
+      <c r="C515" t="str">
+        <v>2020-02-11 11:47</v>
+      </c>
+    </row>
+    <row r="516">
+      <c r="A516" t="str">
+        <v>热点丨印度首例新冠肺炎患者检测转阴 将再次检测确定是否痊愈</v>
+      </c>
+      <c r="B516">
+        <v>37157</v>
+      </c>
+      <c r="C516" t="str">
+        <v>2020-02-11 11:41</v>
+      </c>
+    </row>
+    <row r="517">
+      <c r="A517" t="str">
+        <v>热点丨世卫组织总干事：新冠肺炎在中国以外疫情只发现了“冰山一角”</v>
+      </c>
+      <c r="B517">
+        <v>617265</v>
+      </c>
+      <c r="C517" t="str">
+        <v>2020-02-11 10:35</v>
+      </c>
+    </row>
+    <row r="518">
+      <c r="A518" t="str">
+        <v>热点丨福州一农场主给支援武汉的医生家属送农产品：让他们安心战斗</v>
+      </c>
+      <c r="B518">
+        <v>24826</v>
+      </c>
+      <c r="C518" t="str">
+        <v>2020-02-11 10:32</v>
+      </c>
+    </row>
+    <row r="519">
+      <c r="A519" t="str">
+        <v>热点丨湖北省卫健委党组书记、主任双双被免职 两职务由新到任的王贺胜兼任</v>
+      </c>
+      <c r="B519">
+        <v>68959</v>
+      </c>
+      <c r="C519" t="str">
+        <v>2020-02-11 10:24</v>
+      </c>
+    </row>
+    <row r="520">
+      <c r="A520" t="str">
+        <v>热点丨尼日利亚逾百人感染不明病症 15名患者两日内死亡</v>
+      </c>
+      <c r="B520">
+        <v>3922662</v>
+      </c>
+      <c r="C520" t="str">
+        <v>2020-02-11 09:47</v>
+      </c>
+    </row>
+    <row r="521">
+      <c r="A521" t="str">
+        <v>热点丨武汉同济医院教授林正斌感染新冠肺炎去世</v>
+      </c>
+      <c r="B521">
+        <v>483116</v>
+      </c>
+      <c r="C521" t="str">
+        <v>2020-02-10 23:51</v>
+      </c>
+    </row>
+    <row r="522">
+      <c r="A522" t="str">
+        <v>热点丨男子拒戴口罩竟持匕首袭警 实拍围捕全过程</v>
+      </c>
+      <c r="B522">
+        <v>3252416</v>
+      </c>
+      <c r="C522" t="str">
+        <v>2020-02-10 23:51</v>
+      </c>
+    </row>
+    <row r="523">
+      <c r="A523" t="str">
+        <v>热点丨辽宁朝阳一地下室出现蝙蝠 消防员：躲进洞里被我们“一招制敌”</v>
+      </c>
+      <c r="B523">
+        <v>147259</v>
+      </c>
+      <c r="C523" t="str">
+        <v>2020-02-10 23:21</v>
+      </c>
+    </row>
+    <row r="524">
+      <c r="A524" t="str">
+        <v>热点丨安徽男子未戴口罩强行乘地铁 辅警阻拦遭其连续拳击</v>
+      </c>
+      <c r="B524">
+        <v>1453391</v>
+      </c>
+      <c r="C524" t="str">
+        <v>2020-02-10 23:20</v>
+      </c>
+    </row>
+    <row r="525">
+      <c r="A525" t="str">
+        <v>热点丨擅自外出还袭击民警 浙江首例涉疫情违反隔离规定者判刑9个月</v>
+      </c>
+      <c r="B525">
+        <v>101940</v>
+      </c>
+      <c r="C525" t="str">
+        <v>2020-02-10 23:00</v>
+      </c>
+    </row>
+    <row r="526">
+      <c r="A526" t="str">
+        <v>热点丨山西岚县一男子借停车消毒之名强收高额停车费 警方：拘留10日</v>
+      </c>
+      <c r="B526">
+        <v>87717</v>
+      </c>
+      <c r="C526" t="str">
+        <v>2020-02-10 22:33</v>
+      </c>
+    </row>
+    <row r="527">
+      <c r="A527" t="str">
+        <v>热点丨抗疫版鹊桥会：泉州新人大桥上举行订婚礼捐出喜糖钱</v>
+      </c>
+      <c r="B527">
+        <v>22860</v>
+      </c>
+      <c r="C527" t="str">
+        <v>2020-02-10 22:32</v>
+      </c>
+    </row>
+    <row r="528">
+      <c r="A528" t="str">
+        <v>热点丨济南一老人跑到派出所捐出1万现金 信封写着：阻击疫情 人人有责</v>
+      </c>
+      <c r="B528">
+        <v>15445</v>
+      </c>
+      <c r="C528" t="str">
+        <v>2020-02-10 22:25</v>
+      </c>
+    </row>
+    <row r="529">
+      <c r="A529" t="str">
+        <v>热点丨成都一新冠肺炎患者遭立案侦查：隐瞒发热多次外出 居住楼栋已封闭</v>
+      </c>
+      <c r="B529">
+        <v>29766</v>
+      </c>
+      <c r="C529" t="str">
+        <v>2020-02-10 22:20</v>
+      </c>
+    </row>
+    <row r="530">
+      <c r="A530" t="str">
+        <v>有料｜“神秘”超市夜晚大门紧闭却传出嘈杂声 民警冲进去看到惊人一幕</v>
+      </c>
+      <c r="B530">
+        <v>350187</v>
+      </c>
+      <c r="C530" t="str">
+        <v>2020-02-10 22:06</v>
+      </c>
+    </row>
+    <row r="531">
+      <c r="A531" t="str">
+        <v>热点丨湖南一公司研发新冠病毒核酸检测试剂盒 已用于临床诊断</v>
+      </c>
+      <c r="B531">
+        <v>16293</v>
+      </c>
+      <c r="C531" t="str">
+        <v>2020-02-10 22:00</v>
+      </c>
+    </row>
+    <row r="532">
+      <c r="A532" t="str">
+        <v>热点丨河北医疗队第五批支援湖北 鄂籍机长请缨执飞用广播替乡亲致谢</v>
+      </c>
+      <c r="B532">
+        <v>40127</v>
+      </c>
+      <c r="C532" t="str">
+        <v>2020-02-10 21:27</v>
+      </c>
+    </row>
+    <row r="533">
+      <c r="A533" t="str">
+        <v>有料｜小区失火民警消防联手接力救援 辅警从楼外爬上四楼外徒手砸窗救人</v>
+      </c>
+      <c r="B533">
+        <v>18348</v>
+      </c>
+      <c r="C533" t="str">
+        <v>2020-02-10 21:23</v>
+      </c>
+    </row>
+    <row r="534">
+      <c r="A534" t="str">
+        <v>热点丨贵州一男子声称杀头也不戴口罩强闯卡点 被行拘9日</v>
+      </c>
+      <c r="B534">
+        <v>83486</v>
+      </c>
+      <c r="C534" t="str">
+        <v>2020-02-10 21:20</v>
+      </c>
+    </row>
+    <row r="535">
+      <c r="A535" t="str">
+        <v>紧急呼叫丨山东医疗队编写武汉方言手册 总策划：怕听不懂方言影响治疗</v>
+      </c>
+      <c r="B535">
+        <v>3728877</v>
+      </c>
+      <c r="C535" t="str">
+        <v>2020-02-10 21:18</v>
+      </c>
+    </row>
+    <row r="536">
+      <c r="A536" t="str">
+        <v>热点丨中国传媒大学原副校长蔡翔被逮捕 曾被通报对抗组织调查</v>
+      </c>
+      <c r="B536">
+        <v>16691</v>
+      </c>
+      <c r="C536" t="str">
+        <v>2020-02-10 21:17</v>
+      </c>
+    </row>
+    <row r="537">
+      <c r="A537" t="str">
+        <v>热点丨重庆一女子朝电梯按键猛吐口水发泄不满 已被刑事拘留</v>
+      </c>
+      <c r="B537">
+        <v>146367</v>
+      </c>
+      <c r="C537" t="str">
+        <v>2020-02-10 21:11</v>
+      </c>
+    </row>
+    <row r="538">
+      <c r="A538" t="str">
+        <v>热点丨成都一社区要求市外返蓉租户进小区先交50万保证金 社区致歉并更正</v>
+      </c>
+      <c r="B538">
+        <v>5309</v>
+      </c>
+      <c r="C538" t="str">
+        <v>2020-02-10 21:08</v>
+      </c>
+    </row>
+    <row r="539">
+      <c r="A539" t="str">
+        <v>热点丨河北爱心人士网购口罩被骗21万 民警拍桌怒斥嫌疑人：丧尽天良</v>
+      </c>
+      <c r="B539">
+        <v>2671845</v>
+      </c>
+      <c r="C539" t="str">
+        <v>2020-02-10 21:03</v>
+      </c>
+    </row>
+    <row r="540">
+      <c r="A540" t="str">
+        <v>热点丨重庆学生在线上课被要求控制量：每天不得超4学时 严禁增加负担</v>
+      </c>
+      <c r="B540">
+        <v>35546</v>
+      </c>
+      <c r="C540" t="str">
+        <v>2020-02-10 21:02</v>
+      </c>
+    </row>
+    <row r="541">
+      <c r="A541" t="str">
+        <v>热点丨被疫情隔离的母爱：长沙一客运员每天与孩子隔窗相见</v>
+      </c>
+      <c r="B541">
+        <v>523189</v>
+      </c>
+      <c r="C541" t="str">
+        <v>2020-02-10 20:50</v>
+      </c>
+    </row>
+    <row r="542">
+      <c r="A542" t="str">
+        <v>热点丨济南叫停风靡全国的小区“自制消毒神器”：没用</v>
+      </c>
+      <c r="B542">
+        <v>62142</v>
+      </c>
+      <c r="C542" t="str">
+        <v>2020-02-10 20:24</v>
+      </c>
+    </row>
+    <row r="543">
+      <c r="A543" t="str">
+        <v>有料丨女子到派出所报假警 结局却暖心反转</v>
+      </c>
+      <c r="B543">
+        <v>32866</v>
+      </c>
+      <c r="C543" t="str">
+        <v>2020-02-10 20:03</v>
+      </c>
+    </row>
+    <row r="544">
+      <c r="A544" t="str">
+        <v>有料｜路人深夜独自走在黑暗小路上 惊觉身后总有道光跟着回头一看太暖心</v>
+      </c>
+      <c r="B544">
+        <v>169691</v>
+      </c>
+      <c r="C544" t="str">
+        <v>2020-02-10 20:00</v>
+      </c>
+    </row>
+    <row r="545">
+      <c r="A545" t="str">
+        <v>热点丨女子赌气带出生7天婴儿驾车回娘家 半路分神照看孩子出车祸</v>
+      </c>
+      <c r="B545">
+        <v>288741</v>
+      </c>
+      <c r="C545" t="str">
+        <v>2020-02-10 19:41</v>
+      </c>
+    </row>
+    <row r="546">
+      <c r="A546" t="str">
+        <v>热点丨一家四口旅行前曾在华南海鲜市场附近就餐 4人均被确诊新冠肺炎</v>
+      </c>
+      <c r="B546">
+        <v>733397</v>
+      </c>
+      <c r="C546" t="str">
+        <v>2020-02-10 19:32</v>
+      </c>
+    </row>
+    <row r="547">
+      <c r="A547" t="str">
+        <v>热点丨纽约唐人街游行为武汉加油 民众高喊：中国坚强 武汉坚强</v>
+      </c>
+      <c r="B547">
+        <v>29967</v>
+      </c>
+      <c r="C547" t="str">
+        <v>2020-02-10 19:31</v>
+      </c>
+    </row>
+    <row r="548">
+      <c r="A548" t="str">
+        <v>有料丨父亲医院抗疫妈妈休产假 12岁姐姐照顾弟弟写下超萌“带娃心得”</v>
+      </c>
+      <c r="B548">
+        <v>34183</v>
+      </c>
+      <c r="C548" t="str">
+        <v>2020-02-10 19:30</v>
+      </c>
+    </row>
+    <row r="549">
+      <c r="A549" t="str">
+        <v>热点｜11人聚众打牌被抓报名做抗疫志愿者 警方：表现好从轻处罚</v>
+      </c>
+      <c r="B549">
+        <v>158194</v>
+      </c>
+      <c r="C549" t="str">
+        <v>2020-02-10 19:28</v>
+      </c>
+    </row>
+    <row r="550">
+      <c r="A550" t="str">
+        <v>热点丨文在寅发文祝贺《寄生虫》获奖：政府会支持艺人没有忧虑地创作</v>
+      </c>
+      <c r="B550">
+        <v>18719</v>
+      </c>
+      <c r="C550" t="str">
+        <v>2020-02-10 19:15</v>
+      </c>
+    </row>
+    <row r="551">
+      <c r="A551" t="str">
+        <v>热点丨揭秘武汉方舱医院患者上厕所消杀步骤 医疗垃圾24小时收集清运</v>
+      </c>
+      <c r="B551">
+        <v>129617</v>
+      </c>
+      <c r="C551" t="str">
+        <v>2020-02-10 19:15</v>
+      </c>
+    </row>
+    <row r="552">
+      <c r="A552" t="str">
+        <v>热点丨湖北省纪委通报5起违纪案例 武汉文旅局一处长私回老家过年被免职</v>
+      </c>
+      <c r="B552">
+        <v>567298</v>
+      </c>
+      <c r="C552" t="str">
+        <v>2020-02-10 19:13</v>
+      </c>
+    </row>
+    <row r="553">
+      <c r="A553" t="str">
+        <v>有料丨西安一医院护士手工缝制口罩自用：医用口罩留给一线</v>
+      </c>
+      <c r="B553">
+        <v>43695</v>
+      </c>
+      <c r="C553" t="str">
+        <v>2020-02-10 19:02</v>
+      </c>
+    </row>
+    <row r="554">
+      <c r="A554" t="str">
+        <v>热点丨北京援助武汉医疗队：努力去治疗重症患者，相信下一个14天会更好</v>
+      </c>
+      <c r="B554">
+        <v>35172</v>
+      </c>
+      <c r="C554" t="str">
+        <v>2020-02-10 19:01</v>
+      </c>
+    </row>
+    <row r="555">
+      <c r="A555" t="str">
+        <v>热点 | 兰大美籍教师来华带三箱防护物资全部捐给医院</v>
+      </c>
+      <c r="B555">
+        <v>23159</v>
+      </c>
+      <c r="C555" t="str">
+        <v>2020-02-10 18:59</v>
+      </c>
+    </row>
+    <row r="556">
+      <c r="A556" t="str">
+        <v>有料丨8颗草莓1支玫瑰 民警夫妻防疫期在派出所举办最简易婚礼</v>
+      </c>
+      <c r="B556">
+        <v>58093</v>
+      </c>
+      <c r="C556" t="str">
+        <v>2020-02-10 18:53</v>
+      </c>
+    </row>
+    <row r="557">
+      <c r="A557" t="str">
+        <v>北京市疾控中心发布28字通勤防疫口诀</v>
+      </c>
+      <c r="B557">
+        <v>30450</v>
+      </c>
+      <c r="C557" t="str">
+        <v>2020-02-10 18:47</v>
+      </c>
+    </row>
+    <row r="558">
+      <c r="A558" t="str">
+        <v>热点丨北京环卫集团原总经理张农科涉嫌受贿被提起公诉</v>
+      </c>
+      <c r="B558">
+        <v>12702</v>
+      </c>
+      <c r="C558" t="str">
+        <v>2020-02-10 18:47</v>
+      </c>
+    </row>
+    <row r="559">
+      <c r="A559" t="str">
+        <v>热点丨香港19人大年初二吃火锅 至少10人“中招”感染新冠病毒</v>
+      </c>
+      <c r="B559">
+        <v>64445</v>
+      </c>
+      <c r="C559" t="str">
+        <v>2020-02-10 18:44</v>
+      </c>
+    </row>
+    <row r="560">
+      <c r="A560" t="str">
+        <v>热点丨郑州市民在猪肉里发现大号针头 商家：或打防疫针时掉进去</v>
+      </c>
+      <c r="B560">
+        <v>18275</v>
+      </c>
+      <c r="C560" t="str">
+        <v>2020-02-10 18:37</v>
+      </c>
+    </row>
+    <row r="561">
+      <c r="A561" t="str">
+        <v>热点丨上海专家：现在说拐点到来为时过早 千万不能心存侥幸</v>
+      </c>
+      <c r="B561">
+        <v>12152</v>
+      </c>
+      <c r="C561" t="str">
+        <v>2020-02-10 18:22</v>
+      </c>
+    </row>
+    <row r="562">
+      <c r="A562" t="str">
+        <v>有料丨“我爱中国”：非洲留学生捐款500元抗疫 只留“告白信”不留名</v>
+      </c>
+      <c r="B562">
+        <v>41478</v>
+      </c>
+      <c r="C562" t="str">
+        <v>2020-02-10 18:14</v>
+      </c>
+    </row>
+    <row r="563">
+      <c r="A563" t="str">
+        <v>有料｜居民举报附近酒店深夜扰民 民警上去一敲门结果令人意外</v>
+      </c>
+      <c r="B563">
+        <v>82815</v>
+      </c>
+      <c r="C563" t="str">
+        <v>2020-02-10 17:52</v>
+      </c>
+    </row>
+    <row r="564">
+      <c r="A564" t="str">
+        <v>热点丨浙大儿院：无证据说明新冠肺炎存在母婴垂直传播 一婴儿五项检测全阴</v>
+      </c>
+      <c r="B564">
+        <v>47863</v>
+      </c>
+      <c r="C564" t="str">
+        <v>2020-02-10 17:42</v>
+      </c>
+    </row>
+    <row r="565">
+      <c r="A565" t="str">
+        <v>热点丨北京西站一女子身着塑料雨衣戴口罩返京 路人：防护挺到位</v>
+      </c>
+      <c r="B565">
+        <v>89858</v>
+      </c>
+      <c r="C565" t="str">
+        <v>2020-02-10 17:40</v>
+      </c>
+    </row>
+    <row r="566">
+      <c r="A566" t="str">
+        <v>热点丨翻墙逃避防疫检查称全世界死了都不关我事 女子被行拘10日</v>
+      </c>
+      <c r="B566">
+        <v>180310</v>
+      </c>
+      <c r="C566" t="str">
+        <v>2020-02-10 17:38</v>
+      </c>
+    </row>
+    <row r="567">
+      <c r="A567" t="str">
+        <v>疫情期兄妹瞒着家人开滴滴医护专车：手拿铁锹抄小路花了3天进武汉</v>
+      </c>
+      <c r="B567">
+        <v>539091</v>
+      </c>
+      <c r="C567" t="str">
+        <v>2020-02-10 17:33</v>
+      </c>
+    </row>
+    <row r="568">
+      <c r="A568" t="str">
+        <v>热点丨皮特喜提小金人不忘“表白”小李子 奥斯卡之路一样充满坎坷</v>
+      </c>
+      <c r="B568">
+        <v>7367</v>
+      </c>
+      <c r="C568" t="str">
+        <v>2020-02-10 17:24</v>
+      </c>
+    </row>
+    <row r="569">
+      <c r="A569" t="str">
+        <v>热点丨成都一社区要市外返蓉求租户进小区先交50万保证金 社区致歉并更正</v>
+      </c>
+      <c r="B569">
+        <v>35911</v>
+      </c>
+      <c r="C569" t="str">
+        <v>2020-02-10 17:24</v>
+      </c>
+    </row>
+    <row r="570">
+      <c r="A570" t="str">
+        <v>热点丨《小蝌蚪找妈妈》动画设计师矫野松去世 系水墨动画发明重要成员</v>
+      </c>
+      <c r="B570">
+        <v>22331</v>
+      </c>
+      <c r="C570" t="str">
+        <v>2020-02-10 17:20</v>
+      </c>
+    </row>
+    <row r="571">
+      <c r="A571" t="str">
+        <v>热点丨澳高校校长问候无法返校中国留学生：每天都很惦记你们</v>
+      </c>
+      <c r="B571">
+        <v>26302</v>
+      </c>
+      <c r="C571" t="str">
+        <v>2020-02-10 17:12</v>
+      </c>
+    </row>
+    <row r="572">
+      <c r="A572" t="str">
+        <v>热点丨郑州拒戴口罩副院长被免职 受到党内严重警告处分</v>
+      </c>
+      <c r="B572">
+        <v>30268</v>
+      </c>
+      <c r="C572" t="str">
+        <v>2020-02-10 17:04</v>
+      </c>
+    </row>
+    <row r="573">
+      <c r="A573" t="str">
+        <v>热点丨上海建“小汤山”？官方：2003年已起步建设 现启动相应预案</v>
+      </c>
+      <c r="B573">
+        <v>19229</v>
+      </c>
+      <c r="C573" t="str">
+        <v>2020-02-10 17:02</v>
+      </c>
+    </row>
+    <row r="574">
+      <c r="A574" t="str">
+        <v>热点丨四川宜宾男子因家人咳嗽求助社区被骂“活该” 回应：涉事者已被辞退</v>
+      </c>
+      <c r="B574">
+        <v>774512</v>
+      </c>
+      <c r="C574" t="str">
+        <v>2020-02-10 17:02</v>
+      </c>
+    </row>
+    <row r="575">
+      <c r="A575" t="str">
+        <v>热点丨泰国普吉岛两快艇迎面相撞：造成2死22伤 皆为俄罗斯游客</v>
+      </c>
+      <c r="B575">
+        <v>17887</v>
+      </c>
+      <c r="C575" t="str">
+        <v>2020-02-10 16:59</v>
+      </c>
+    </row>
+    <row r="576">
+      <c r="A576" t="str">
+        <v>热点丨美丽策公司跨界做口罩 章子怡为第四大股东和副董事长</v>
+      </c>
+      <c r="B576">
+        <v>354630</v>
+      </c>
+      <c r="C576" t="str">
+        <v>2020-02-10 16:56</v>
+      </c>
+    </row>
+    <row r="577">
+      <c r="A577" t="str">
+        <v>热点丨公主邮轮副总裁：提供丰富娱乐措施帮乘客度过隔离期</v>
+      </c>
+      <c r="B577">
+        <v>22923</v>
+      </c>
+      <c r="C577" t="str">
+        <v>2020-02-10 16:55</v>
+      </c>
+    </row>
+    <row r="578">
+      <c r="A578" t="str">
+        <v>热点丨河南郑州一企业捐助2辆价值50万房车 供社区防疫人员夜间取暖休息</v>
+      </c>
+      <c r="B578">
+        <v>28524</v>
+      </c>
+      <c r="C578" t="str">
+        <v>2020-02-10 16:50</v>
+      </c>
+    </row>
+    <row r="579">
+      <c r="A579" t="str">
+        <v>热点丨入沪道口逢车必检逐个测温 已发现并移交体温异常人员408人</v>
+      </c>
+      <c r="B579">
+        <v>15739</v>
+      </c>
+      <c r="C579" t="str">
+        <v>2020-02-10 16:42</v>
+      </c>
+    </row>
+    <row r="580">
+      <c r="A580" t="str">
+        <v>热点丨男子“空手套白狼”虚构有N95口罩兜售 骗了1万元不发货</v>
+      </c>
+      <c r="B580">
+        <v>12055</v>
+      </c>
+      <c r="C580" t="str">
+        <v>2020-02-10 16:28</v>
+      </c>
+    </row>
+    <row r="581">
+      <c r="A581" t="str">
+        <v>热点丨《美国工厂》获奥斯卡最佳长纪录片奖 中国企业家曹德旺是主演</v>
+      </c>
+      <c r="B581">
+        <v>51179</v>
+      </c>
+      <c r="C581" t="str">
+        <v>2020-02-10 16:24</v>
+      </c>
+    </row>
+    <row r="582">
+      <c r="A582" t="str">
+        <v>热点丨湖北货车司机“流浪”高速公路近20天：收到上万捐款继续留汉中</v>
+      </c>
+      <c r="B582">
+        <v>167584</v>
+      </c>
+      <c r="C582" t="str">
+        <v>2020-02-10 16:23</v>
+      </c>
+    </row>
+    <row r="583">
+      <c r="A583" t="str">
+        <v>热点丨大量宠物因主人返程受限断粮 浙江动保志愿者无偿上门代喂</v>
+      </c>
+      <c r="B583">
+        <v>30959</v>
+      </c>
+      <c r="C583" t="str">
+        <v>2020-02-10 16:23</v>
+      </c>
+    </row>
+    <row r="584">
+      <c r="A584" t="str">
+        <v>热点丨湖北一医院受捐六百套防护服被暂扣？ 重庆海关回应：补全资料已放行</v>
+      </c>
+      <c r="B584">
+        <v>78610</v>
+      </c>
+      <c r="C584" t="str">
+        <v>2020-02-10 16:02</v>
+      </c>
+    </row>
+    <row r="585">
+      <c r="A585" t="str">
+        <v>有料丨河南中小学生正式“开学” 除了跟着电视上课还能“云跳”课间操</v>
+      </c>
+      <c r="B585">
+        <v>7659</v>
+      </c>
+      <c r="C585" t="str">
+        <v>2020-02-10 16:00</v>
+      </c>
+    </row>
+    <row r="586">
+      <c r="A586" t="str">
+        <v>热点丨第二届全国青少年足球邀请赛期间 杭州队一球员感染新冠肺炎</v>
+      </c>
+      <c r="B586">
+        <v>62076</v>
+      </c>
+      <c r="C586" t="str">
+        <v>2020-02-10 15:55</v>
+      </c>
+    </row>
+    <row r="587">
+      <c r="A587" t="str">
+        <v>有料丨妻子带队驰援湖北丈夫敬礼目送 夫妻俩隔窗对望一幕令人泪奔</v>
+      </c>
+      <c r="B587">
+        <v>89450</v>
+      </c>
+      <c r="C587" t="str">
+        <v>2020-02-10 15:55</v>
+      </c>
+    </row>
+    <row r="588">
+      <c r="A588" t="str">
+        <v>热点丨喜忧参半！澳暴雨扑灭燃烧数月山火 同时引发洪涝灾害</v>
+      </c>
+      <c r="B588">
+        <v>22300</v>
+      </c>
+      <c r="C588" t="str">
+        <v>2020-02-10 15:55</v>
+      </c>
+    </row>
+    <row r="589">
+      <c r="A589" t="str">
+        <v>热点丨奥斯卡缅怀逝世影人 高以翔科比影像引人泪目</v>
+      </c>
+      <c r="B589">
+        <v>68354</v>
+      </c>
+      <c r="C589" t="str">
+        <v>2020-02-10 15:51</v>
+      </c>
+    </row>
+    <row r="590">
+      <c r="A590" t="str">
+        <v>热点丨汉服爱好者为武汉捐物资近40万 跑遍江苏各地购买定向捐赠</v>
+      </c>
+      <c r="B590">
+        <v>14915</v>
+      </c>
+      <c r="C590" t="str">
+        <v>2020-02-10 15:43</v>
+      </c>
+    </row>
+    <row r="591">
+      <c r="A591" t="str">
+        <v>热点丨怕病毒传染河南一执勤辅警独自在楼道吃元宵 女儿门口哭喊爸爸</v>
+      </c>
+      <c r="B591">
+        <v>25722</v>
+      </c>
+      <c r="C591" t="str">
+        <v>2020-02-10 15:42</v>
+      </c>
+    </row>
+    <row r="592">
+      <c r="A592" t="str">
+        <v>热点丨上海形成防控工作闭环：机场发现旅客异常 医院接诊同机乘客被隔离</v>
+      </c>
+      <c r="B592">
+        <v>8894</v>
+      </c>
+      <c r="C592" t="str">
+        <v>2020-02-10 15:41</v>
+      </c>
+    </row>
+    <row r="593">
+      <c r="A593" t="str">
+        <v>热点丨上海对在沪无居住地、无明确工作人员加强劝返 暂缓入沪</v>
+      </c>
+      <c r="B593">
+        <v>25852</v>
+      </c>
+      <c r="C593" t="str">
+        <v>2020-02-10 15:29</v>
+      </c>
+    </row>
+    <row r="594">
+      <c r="A594" t="str">
+        <v>热点丨上海1.3万个小区绝大部分实行封闭式管理</v>
+      </c>
+      <c r="B594">
+        <v>23877</v>
+      </c>
+      <c r="C594" t="str">
+        <v>2020-02-10 15:13</v>
+      </c>
+    </row>
+    <row r="595">
+      <c r="A595" t="str">
+        <v>热点丨对抗新冠病毒疫情 韩国数百所中小学决定延迟开学</v>
+      </c>
+      <c r="B595">
+        <v>22469</v>
+      </c>
+      <c r="C595" t="str">
+        <v>2020-02-10 14:59</v>
+      </c>
+    </row>
+    <row r="596">
+      <c r="A596" t="str">
+        <v>热点丨吉林一中学快手直播给高三上课 学生在线签到还可连麦提问</v>
+      </c>
+      <c r="B596">
+        <v>11982</v>
+      </c>
+      <c r="C596" t="str">
+        <v>2020-02-10 14:56</v>
+      </c>
+    </row>
+    <row r="597">
+      <c r="A597" t="str">
+        <v>紧急呼叫｜老板手撕员工“减薪”联名信：没有炒作 想让员工感到温暖</v>
+      </c>
+      <c r="B597">
+        <v>289887</v>
+      </c>
+      <c r="C597" t="str">
+        <v>2020-02-10 14:51</v>
+      </c>
+    </row>
+    <row r="598">
+      <c r="A598" t="str">
+        <v>热点丨公交停开 好心医生腾空出租屋给无法返乡患者免费住</v>
+      </c>
+      <c r="B598">
+        <v>10726</v>
+      </c>
+      <c r="C598" t="str">
+        <v>2020-02-10 14:46</v>
+      </c>
+    </row>
+    <row r="599">
+      <c r="A599" t="str">
+        <v>有料丨陕西一村口现约5米长“消毒通道”：内部雾气升腾 仿佛置身“云海”</v>
+      </c>
+      <c r="B599">
+        <v>35851</v>
+      </c>
+      <c r="C599" t="str">
+        <v>2020-02-10 14:44</v>
+      </c>
+    </row>
+    <row r="600">
+      <c r="A600" t="str">
+        <v>热点丨郑州小区投票禁止医护人员进入 官方：纠正错误 责令物业公开道歉</v>
+      </c>
+      <c r="B600">
+        <v>84734</v>
+      </c>
+      <c r="C600" t="str">
+        <v>2020-02-10 14:32</v>
+      </c>
+    </row>
+    <row r="601">
+      <c r="A601" t="str">
+        <v>热点丨淄博女子拿普通口罩冒充医用被抓 警方：英文包装盒出卖了她</v>
+      </c>
+      <c r="B601">
+        <v>103754</v>
+      </c>
+      <c r="C601" t="str">
+        <v>2020-02-10 14:30</v>
+      </c>
+    </row>
+    <row r="602">
+      <c r="A602" t="str">
+        <v>热点丨韩国电影《寄生虫》横扫奥斯卡四大奖 成史上首部非英语最佳影片</v>
+      </c>
+      <c r="B602">
+        <v>731672</v>
+      </c>
+      <c r="C602" t="str">
+        <v>2020-02-10 14:28</v>
+      </c>
+    </row>
+    <row r="603">
+      <c r="A603" t="str">
+        <v>热点丨澳大利亚商店摆牌称产品不含新冠病毒 网友气炸了</v>
+      </c>
+      <c r="B603">
+        <v>68685</v>
+      </c>
+      <c r="C603" t="str">
+        <v>2020-02-10 14:16</v>
+      </c>
+    </row>
+    <row r="604">
+      <c r="A604" t="str">
+        <v>武汉志愿者元宵接送医护15小时没休息</v>
+      </c>
+      <c r="B604">
+        <v>183786</v>
+      </c>
+      <c r="C604" t="str">
+        <v>2020-02-10 14:15</v>
+      </c>
+    </row>
+    <row r="605">
+      <c r="A605" t="str">
+        <v>热点丨“钻石公主”号新增60例确诊病例 全船累计感染人数增至130人</v>
+      </c>
+      <c r="B605">
+        <v>427154</v>
+      </c>
+      <c r="C605" t="str">
+        <v>2020-02-10 14:11</v>
+      </c>
+    </row>
+    <row r="606">
+      <c r="A606" t="str">
+        <v>紧急呼叫丨北京男子穿充气“宇航服”坐飞机火了：不会爆炸 就是防飞沫</v>
+      </c>
+      <c r="B606">
+        <v>886543</v>
+      </c>
+      <c r="C606" t="str">
+        <v>2020-02-10 14:06</v>
+      </c>
+    </row>
+    <row r="607">
+      <c r="A607" t="str">
+        <v>热点丨四川已派917名医护人员援助湖北  后方优先保障一线医务子女入学</v>
+      </c>
+      <c r="B607">
+        <v>9770</v>
+      </c>
+      <c r="C607" t="str">
+        <v>2020-02-10 13:58</v>
+      </c>
+    </row>
+    <row r="608">
+      <c r="A608" t="str">
+        <v>热点丨美华人摄影师发视频反对歧视：仇恨是病毒 爱就是治愈方法</v>
+      </c>
+      <c r="B608">
+        <v>114407</v>
+      </c>
+      <c r="C608" t="str">
+        <v>2020-02-10 13:53</v>
+      </c>
+    </row>
+    <row r="609">
+      <c r="A609" t="str">
+        <v>热点丨新加坡提高对新冠肺炎应对级别 超市限购纸巾大米应对抢购潮</v>
+      </c>
+      <c r="B609">
+        <v>25648</v>
+      </c>
+      <c r="C609" t="str">
+        <v>2020-02-10 13:40</v>
+      </c>
+    </row>
+    <row r="610">
+      <c r="A610" t="str">
+        <v>热点丨92届奥斯卡各奖项揭晓 《寄生虫》斩获四奖成最大赢家</v>
+      </c>
+      <c r="B610">
+        <v>625864</v>
+      </c>
+      <c r="C610" t="str">
+        <v>2020-02-10 13:30</v>
+      </c>
+    </row>
+    <row r="611">
+      <c r="A611" t="str">
+        <v>热点丨探访上海复工首日早高峰：车流有所增加 地铁客流量为平日四分之一</v>
+      </c>
+      <c r="B611">
+        <v>104315</v>
+      </c>
+      <c r="C611" t="str">
+        <v>2020-02-10 13:28</v>
+      </c>
+    </row>
+    <row r="612">
+      <c r="A612" t="str">
+        <v>热点丨布拉德·皮特获奥斯卡最佳男配角 拿特朗普弹劾案开了个玩笑</v>
+      </c>
+      <c r="B612">
+        <v>17490</v>
+      </c>
+      <c r="C612" t="str">
+        <v>2020-02-10 13:27</v>
+      </c>
+    </row>
+    <row r="613">
+      <c r="A613" t="str">
+        <v>热点丨“猫咪”上台颁奖还不忘自嘲 奥斯卡颁奖礼成大型撸猫现场</v>
+      </c>
+      <c r="B613">
+        <v>6534</v>
+      </c>
+      <c r="C613" t="str">
+        <v>2020-02-10 13:24</v>
+      </c>
+    </row>
+    <row r="614">
+      <c r="A614" t="str">
+        <v>有料丨常州一小区外国居民多 为防疫民警用3国语言硬核喊话走红</v>
+      </c>
+      <c r="B614">
+        <v>263221</v>
+      </c>
+      <c r="C614" t="str">
+        <v>2020-02-10 13:23</v>
+      </c>
+    </row>
+    <row r="615">
+      <c r="A615" t="str">
+        <v>热点丨世卫总干事：专家小组已前往中国 协助应对新冠肺炎疫情</v>
+      </c>
+      <c r="B615">
+        <v>5778</v>
+      </c>
+      <c r="C615" t="str">
+        <v>2020-02-10 12:52</v>
+      </c>
+    </row>
+    <row r="616">
+      <c r="A616" t="str">
+        <v>热点丨沈阳即日起门诊部诊所全面停诊 暂停择期非急需的手术和检查</v>
+      </c>
+      <c r="B616">
+        <v>59963</v>
+      </c>
+      <c r="C616" t="str">
+        <v>2020-02-10 12:49</v>
+      </c>
+    </row>
+    <row r="617">
+      <c r="A617" t="str">
+        <v>热点丨医疗物资短缺企业为何停业整顿？仙桃回应：为集中产能</v>
+      </c>
+      <c r="B617">
+        <v>26524</v>
+      </c>
+      <c r="C617" t="str">
+        <v>2020-02-10 12:27</v>
+      </c>
+    </row>
+    <row r="618">
+      <c r="A618" t="str">
+        <v>热点丨晋江男子参加宴席致3557人被隔离 14天后1451人解除隔离</v>
+      </c>
+      <c r="B618">
+        <v>160642</v>
+      </c>
+      <c r="C618" t="str">
+        <v>2020-02-10 12:19</v>
+      </c>
+    </row>
+    <row r="619">
+      <c r="A619" t="str">
+        <v>热点丨统计局：CPI同比上涨5.4% 主要是受春节及疫情影响</v>
+      </c>
+      <c r="B619">
+        <v>14738</v>
+      </c>
+      <c r="C619" t="str">
+        <v>2020-02-10 12:18</v>
+      </c>
+    </row>
+    <row r="620">
+      <c r="A620" t="str">
+        <v>热点丨呼市卫健委主任因防疫失职被免职 有患者携带病毒状态辗转就诊</v>
+      </c>
+      <c r="B620">
+        <v>32927</v>
+      </c>
+      <c r="C620" t="str">
+        <v>2020-02-10 12:17</v>
+      </c>
+    </row>
+    <row r="621">
+      <c r="A621" t="str">
+        <v>热点丨加拿大总理：已向中国提供医疗设备 随时准备继续提供帮助</v>
+      </c>
+      <c r="B621">
+        <v>9359</v>
+      </c>
+      <c r="C621" t="str">
+        <v>2020-02-10 12:11</v>
+      </c>
+    </row>
+    <row r="622">
+      <c r="A622" t="str">
+        <v>热点丨泰国枪击案致30死：遇难者每人可获12万泰铢 数百民众诵经祈福</v>
+      </c>
+      <c r="B622">
+        <v>80376</v>
+      </c>
+      <c r="C622" t="str">
+        <v>2020-02-10 11:54</v>
+      </c>
+    </row>
+    <row r="623">
+      <c r="A623" t="str">
+        <v>热点丨浙江杭州：所有品牌快递企业全面复工 上岗期间配套医用口罩</v>
+      </c>
+      <c r="B623">
+        <v>114044</v>
+      </c>
+      <c r="C623" t="str">
+        <v>2020-02-10 11:39</v>
+      </c>
+    </row>
+    <row r="624">
+      <c r="A624" t="str">
+        <v>热点丨《美国工厂》 获奥斯卡最佳纪录长片 导演说中文感谢曹德旺</v>
+      </c>
+      <c r="B624">
+        <v>747499</v>
+      </c>
+      <c r="C624" t="str">
+        <v>2020-02-10 11:38</v>
+      </c>
+    </row>
+    <row r="625">
+      <c r="A625" t="str">
+        <v>热点丨武汉一高校学生称宿舍被征用物品被乱丢 回应：处置不当 深表歉意</v>
+      </c>
+      <c r="B625">
+        <v>2198354</v>
+      </c>
+      <c r="C625" t="str">
+        <v>2020-02-10 11:24</v>
+      </c>
+    </row>
+    <row r="626">
+      <c r="A626" t="str">
+        <v>热点丨四川西充发生H5N6禽流感疫情：死亡1840只鸡 未出现传人情况</v>
+      </c>
+      <c r="B626">
+        <v>124370</v>
+      </c>
+      <c r="C626" t="str">
+        <v>2020-02-10 11:08</v>
+      </c>
+    </row>
+    <row r="627">
+      <c r="A627" t="str">
+        <v>热点丨解除隔离！“世界梦号”3600余人全部获准下船</v>
+      </c>
+      <c r="B627">
+        <v>1117883</v>
+      </c>
+      <c r="C627" t="str">
+        <v>2020-02-10 11:07</v>
+      </c>
+    </row>
+    <row r="628">
+      <c r="A628" t="str">
+        <v>热点丨泰国枪击案凶手动机疑为房产纠纷：为上司岳母卖房未收到佣金</v>
+      </c>
+      <c r="B628">
+        <v>344768</v>
+      </c>
+      <c r="C628" t="str">
+        <v>2020-02-10 10:45</v>
+      </c>
+    </row>
+    <row r="629">
+      <c r="A629" t="str">
+        <v>武汉高三老师的战场：“学生想学，我们就要教！”</v>
+      </c>
+      <c r="B629">
+        <v>32046</v>
+      </c>
+      <c r="C629" t="str">
+        <v>2020-02-10 10:40</v>
+      </c>
+    </row>
+    <row r="630">
+      <c r="A630" t="str">
+        <v>热点丨实拍：俄罗斯载94人航班硬着陆撞上跑道 乘客仓皇逃生</v>
+      </c>
+      <c r="B630">
+        <v>41524</v>
+      </c>
+      <c r="C630" t="str">
+        <v>2020-02-10 09:18</v>
+      </c>
+    </row>
+    <row r="631">
+      <c r="A631" t="str">
+        <v>热点丨“钻石公主”号邮轮新冠肺炎确诊已达70例 所有乘客将获全额退款</v>
+      </c>
+      <c r="B631">
+        <v>142000</v>
+      </c>
+      <c r="C631" t="str">
+        <v>2020-02-10 08:49</v>
+      </c>
+    </row>
+    <row r="632">
+      <c r="A632" t="str">
+        <v>热点丨 河南新郑医院副院长拒戴口罩与防疫人员发生争吵：我就不戴口罩</v>
+      </c>
+      <c r="B632">
+        <v>5640116</v>
+      </c>
+      <c r="C632" t="str">
+        <v>2020-02-10 01:02</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:C505"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:C632"/>
   </ignoredErrors>
 </worksheet>
 </file>